--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13318100</v>
+        <v>11257100</v>
       </c>
       <c r="E8" s="3">
-        <v>13407000</v>
+        <v>11846000</v>
       </c>
       <c r="F8" s="3">
-        <v>13169400</v>
+        <v>11181600</v>
       </c>
       <c r="G8" s="3">
-        <v>14991900</v>
+        <v>11256200</v>
       </c>
       <c r="H8" s="3">
-        <v>13291800</v>
+        <v>11057000</v>
       </c>
       <c r="I8" s="3">
+        <v>12586900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11159600</v>
+      </c>
+      <c r="K8" s="3">
         <v>13776500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13592300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13646800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12629400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12900500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13662200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>14301700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8416800</v>
+        <v>6955800</v>
       </c>
       <c r="E9" s="3">
-        <v>8435000</v>
+        <v>7297800</v>
       </c>
       <c r="F9" s="3">
-        <v>8265200</v>
+        <v>7066600</v>
       </c>
       <c r="G9" s="3">
-        <v>9575900</v>
+        <v>7081900</v>
       </c>
       <c r="H9" s="3">
-        <v>8548500</v>
+        <v>6931600</v>
       </c>
       <c r="I9" s="3">
+        <v>8039800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7177200</v>
+      </c>
+      <c r="K9" s="3">
         <v>8761700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8738800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8946900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8120800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8143900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8743100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9511400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4901300</v>
+        <v>4301200</v>
       </c>
       <c r="E10" s="3">
-        <v>4971900</v>
+        <v>4548200</v>
       </c>
       <c r="F10" s="3">
-        <v>4904200</v>
+        <v>4115000</v>
       </c>
       <c r="G10" s="3">
-        <v>5416000</v>
+        <v>4174300</v>
       </c>
       <c r="H10" s="3">
-        <v>4743300</v>
+        <v>4125300</v>
       </c>
       <c r="I10" s="3">
+        <v>4547100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3982400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5014700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4853500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4699900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4508600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4756600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4919100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4790200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11277400</v>
+        <v>9503900</v>
       </c>
       <c r="E17" s="3">
-        <v>11435900</v>
+        <v>9837600</v>
       </c>
       <c r="F17" s="3">
-        <v>11272400</v>
+        <v>9468300</v>
       </c>
       <c r="G17" s="3">
-        <v>12892300</v>
+        <v>9601400</v>
       </c>
       <c r="H17" s="3">
-        <v>11389700</v>
+        <v>9461300</v>
       </c>
       <c r="I17" s="3">
+        <v>10824100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9562600</v>
+      </c>
+      <c r="K17" s="3">
         <v>11946800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11952100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12169600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12109300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11288800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12091800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12934200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2040700</v>
+        <v>1753100</v>
       </c>
       <c r="E18" s="3">
-        <v>1971000</v>
+        <v>2008500</v>
       </c>
       <c r="F18" s="3">
-        <v>1897100</v>
+        <v>1713300</v>
       </c>
       <c r="G18" s="3">
-        <v>2099600</v>
+        <v>1654900</v>
       </c>
       <c r="H18" s="3">
-        <v>1902100</v>
+        <v>1595700</v>
       </c>
       <c r="I18" s="3">
+        <v>1762800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1829700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1640200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1477100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>520200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1611700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1570400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1367400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-159200</v>
+        <v>-3108000</v>
       </c>
       <c r="E20" s="3">
-        <v>-92200</v>
+        <v>26100</v>
       </c>
       <c r="F20" s="3">
-        <v>457200</v>
+        <v>-133700</v>
       </c>
       <c r="G20" s="3">
-        <v>-102800</v>
+        <v>-77400</v>
       </c>
       <c r="H20" s="3">
-        <v>554500</v>
+        <v>383800</v>
       </c>
       <c r="I20" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>465600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>488400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-799300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-302700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1982600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4065500</v>
+        <v>386000</v>
       </c>
       <c r="E21" s="3">
-        <v>4097600</v>
+        <v>3705600</v>
       </c>
       <c r="F21" s="3">
-        <v>4480500</v>
+        <v>3413400</v>
       </c>
       <c r="G21" s="3">
-        <v>4058700</v>
+        <v>3425800</v>
       </c>
       <c r="H21" s="3">
-        <v>4411400</v>
+        <v>3779200</v>
       </c>
       <c r="I21" s="3">
+        <v>3407600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3703700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2636400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4348700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2027800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1730200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3284700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5680800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2464400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>503600</v>
+        <v>474300</v>
       </c>
       <c r="E22" s="3">
-        <v>545100</v>
+        <v>389300</v>
       </c>
       <c r="F22" s="3">
-        <v>520000</v>
+        <v>422800</v>
       </c>
       <c r="G22" s="3">
-        <v>452300</v>
+        <v>457600</v>
       </c>
       <c r="H22" s="3">
-        <v>382200</v>
+        <v>434700</v>
       </c>
       <c r="I22" s="3">
+        <v>379700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>320900</v>
+      </c>
+      <c r="K22" s="3">
         <v>430100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>438700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>390200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>383500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>383000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>410400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>472200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1377800</v>
+        <v>-1829100</v>
       </c>
       <c r="E23" s="3">
-        <v>1333800</v>
+        <v>1645200</v>
       </c>
       <c r="F23" s="3">
-        <v>1834200</v>
+        <v>1156800</v>
       </c>
       <c r="G23" s="3">
-        <v>1544500</v>
+        <v>1119800</v>
       </c>
       <c r="H23" s="3">
-        <v>2074400</v>
+        <v>1544800</v>
       </c>
       <c r="I23" s="3">
+        <v>1296700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1741700</v>
+      </c>
+      <c r="K23" s="3">
         <v>95400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1689900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-453000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-662600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>926000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3142600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-127700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>612800</v>
+        <v>-541700</v>
       </c>
       <c r="E24" s="3">
-        <v>551100</v>
+        <v>689400</v>
       </c>
       <c r="F24" s="3">
-        <v>750800</v>
+        <v>514500</v>
       </c>
       <c r="G24" s="3">
-        <v>740400</v>
+        <v>462700</v>
       </c>
       <c r="H24" s="3">
-        <v>1016300</v>
+        <v>630400</v>
       </c>
       <c r="I24" s="3">
+        <v>621600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K24" s="3">
         <v>36100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>675700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>148100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-236600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>136800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1241700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>140900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>765000</v>
+        <v>-1287400</v>
       </c>
       <c r="E26" s="3">
-        <v>782700</v>
+        <v>955800</v>
       </c>
       <c r="F26" s="3">
-        <v>1083400</v>
+        <v>642300</v>
       </c>
       <c r="G26" s="3">
-        <v>804100</v>
+        <v>657100</v>
       </c>
       <c r="H26" s="3">
-        <v>1058100</v>
+        <v>914500</v>
       </c>
       <c r="I26" s="3">
+        <v>675100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>888400</v>
+      </c>
+      <c r="K26" s="3">
         <v>59300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1014200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-601100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-426000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>789200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1900900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-268600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>698400</v>
+        <v>-1322400</v>
       </c>
       <c r="E27" s="3">
-        <v>754000</v>
+        <v>953900</v>
       </c>
       <c r="F27" s="3">
-        <v>1042400</v>
+        <v>586400</v>
       </c>
       <c r="G27" s="3">
-        <v>788400</v>
+        <v>633100</v>
       </c>
       <c r="H27" s="3">
-        <v>1012200</v>
+        <v>880100</v>
       </c>
       <c r="I27" s="3">
+        <v>661900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K27" s="3">
         <v>23300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1006000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-584200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-493800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>740300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1854400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-317100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>159200</v>
+        <v>3108000</v>
       </c>
       <c r="E32" s="3">
-        <v>92200</v>
+        <v>-26100</v>
       </c>
       <c r="F32" s="3">
-        <v>-457200</v>
+        <v>133700</v>
       </c>
       <c r="G32" s="3">
-        <v>102800</v>
+        <v>77400</v>
       </c>
       <c r="H32" s="3">
-        <v>-554500</v>
+        <v>-383800</v>
       </c>
       <c r="I32" s="3">
+        <v>86300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-465600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1304200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-488400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1539900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>799300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>302700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1022900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>698400</v>
+        <v>-1322400</v>
       </c>
       <c r="E33" s="3">
-        <v>754000</v>
+        <v>953900</v>
       </c>
       <c r="F33" s="3">
-        <v>1042400</v>
+        <v>586400</v>
       </c>
       <c r="G33" s="3">
-        <v>788400</v>
+        <v>633100</v>
       </c>
       <c r="H33" s="3">
-        <v>1012200</v>
+        <v>880100</v>
       </c>
       <c r="I33" s="3">
+        <v>661900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K33" s="3">
         <v>23300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1006000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-584200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-493800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>740300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1854400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-317100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>698400</v>
+        <v>-1322400</v>
       </c>
       <c r="E35" s="3">
-        <v>754000</v>
+        <v>953900</v>
       </c>
       <c r="F35" s="3">
-        <v>1042400</v>
+        <v>586400</v>
       </c>
       <c r="G35" s="3">
-        <v>788400</v>
+        <v>633100</v>
       </c>
       <c r="H35" s="3">
-        <v>1012200</v>
+        <v>880100</v>
       </c>
       <c r="I35" s="3">
+        <v>661900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K35" s="3">
         <v>23300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1006000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-584200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-493800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>740300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1854400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-317100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>859800</v>
+        <v>4924800</v>
       </c>
       <c r="E41" s="3">
-        <v>1747400</v>
+        <v>888800</v>
       </c>
       <c r="F41" s="3">
-        <v>918000</v>
+        <v>721900</v>
       </c>
       <c r="G41" s="3">
-        <v>1161200</v>
+        <v>1467100</v>
       </c>
       <c r="H41" s="3">
-        <v>879600</v>
+        <v>770700</v>
       </c>
       <c r="I41" s="3">
+        <v>974900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>738500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1095100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1057300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1255300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1317000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1080800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>618100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1232900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3418500</v>
+        <v>4281800</v>
       </c>
       <c r="E42" s="3">
-        <v>2980600</v>
+        <v>2455000</v>
       </c>
       <c r="F42" s="3">
-        <v>3058300</v>
+        <v>2870100</v>
       </c>
       <c r="G42" s="3">
-        <v>2911200</v>
+        <v>2502500</v>
       </c>
       <c r="H42" s="3">
-        <v>2823100</v>
+        <v>2567700</v>
       </c>
       <c r="I42" s="3">
+        <v>2444200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2370200</v>
+      </c>
+      <c r="K42" s="3">
         <v>3244900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3038100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3057700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2843300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2609400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2649100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2961200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11548900</v>
+        <v>10085700</v>
       </c>
       <c r="E43" s="3">
-        <v>11849800</v>
+        <v>9271100</v>
       </c>
       <c r="F43" s="3">
-        <v>11744400</v>
+        <v>9696200</v>
       </c>
       <c r="G43" s="3">
-        <v>11659700</v>
+        <v>9948900</v>
       </c>
       <c r="H43" s="3">
-        <v>10047300</v>
+        <v>9860400</v>
       </c>
       <c r="I43" s="3">
+        <v>9789200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8435500</v>
+      </c>
+      <c r="K43" s="3">
         <v>10473200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10748300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10067000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8899400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8538300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9012400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10115500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2235400</v>
+        <v>1767500</v>
       </c>
       <c r="E44" s="3">
-        <v>2071100</v>
+        <v>1850000</v>
       </c>
       <c r="F44" s="3">
-        <v>2219500</v>
+        <v>1876800</v>
       </c>
       <c r="G44" s="3">
-        <v>2160800</v>
+        <v>1738800</v>
       </c>
       <c r="H44" s="3">
-        <v>2136200</v>
+        <v>1863500</v>
       </c>
       <c r="I44" s="3">
+        <v>1814100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1793500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2160200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1899300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2007200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1917600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1709900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1537100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1957900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>881900</v>
+        <v>895300</v>
       </c>
       <c r="E45" s="3">
-        <v>1099700</v>
+        <v>426400</v>
       </c>
       <c r="F45" s="3">
-        <v>1277800</v>
+        <v>740400</v>
       </c>
       <c r="G45" s="3">
-        <v>820000</v>
+        <v>923300</v>
       </c>
       <c r="H45" s="3">
-        <v>1767000</v>
+        <v>1072800</v>
       </c>
       <c r="I45" s="3">
+        <v>688500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1483600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2000200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2063200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1313200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1810100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1921800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2132700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1888000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18944400</v>
+        <v>21955200</v>
       </c>
       <c r="E46" s="3">
-        <v>19748700</v>
+        <v>14891300</v>
       </c>
       <c r="F46" s="3">
-        <v>19218100</v>
+        <v>15905400</v>
       </c>
       <c r="G46" s="3">
-        <v>18712900</v>
+        <v>16580600</v>
       </c>
       <c r="H46" s="3">
-        <v>17653200</v>
+        <v>16135200</v>
       </c>
       <c r="I46" s="3">
+        <v>15711000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>14821300</v>
+      </c>
+      <c r="K46" s="3">
         <v>18973600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>18806200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17700400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16787400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15860300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15949400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18155400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1257800</v>
+        <v>1421700</v>
       </c>
       <c r="E47" s="3">
-        <v>1618600</v>
+        <v>1452100</v>
       </c>
       <c r="F47" s="3">
-        <v>1652200</v>
+        <v>1056100</v>
       </c>
       <c r="G47" s="3">
-        <v>1625900</v>
+        <v>1358900</v>
       </c>
       <c r="H47" s="3">
-        <v>1446900</v>
+        <v>1387100</v>
       </c>
       <c r="I47" s="3">
+        <v>1365100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1214800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1526500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1472500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>699300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1118700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1107400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1302000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1314700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39152400</v>
+        <v>36306000</v>
       </c>
       <c r="E48" s="3">
-        <v>40351300</v>
+        <v>34088200</v>
       </c>
       <c r="F48" s="3">
-        <v>40011800</v>
+        <v>32871600</v>
       </c>
       <c r="G48" s="3">
-        <v>34310400</v>
+        <v>33878300</v>
       </c>
       <c r="H48" s="3">
-        <v>31698000</v>
+        <v>33593200</v>
       </c>
       <c r="I48" s="3">
+        <v>28806400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26613100</v>
+      </c>
+      <c r="K48" s="3">
         <v>33748900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>33762800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>34980500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>32227700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31833800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>33850400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>37233200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14034900</v>
+        <v>13261700</v>
       </c>
       <c r="E49" s="3">
-        <v>14471200</v>
+        <v>12515900</v>
       </c>
       <c r="F49" s="3">
-        <v>14462800</v>
+        <v>11783500</v>
       </c>
       <c r="G49" s="3">
-        <v>14351600</v>
+        <v>12149800</v>
       </c>
       <c r="H49" s="3">
-        <v>13867200</v>
+        <v>12142700</v>
       </c>
       <c r="I49" s="3">
+        <v>12049400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11642600</v>
+      </c>
+      <c r="K49" s="3">
         <v>14650200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14956900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15257500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14673600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14236500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14941100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16195600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6861300</v>
+        <v>7079300</v>
       </c>
       <c r="E52" s="3">
-        <v>7292200</v>
+        <v>6004900</v>
       </c>
       <c r="F52" s="3">
-        <v>7777600</v>
+        <v>5760600</v>
       </c>
       <c r="G52" s="3">
-        <v>7619800</v>
+        <v>6122400</v>
       </c>
       <c r="H52" s="3">
-        <v>7977400</v>
+        <v>6529900</v>
       </c>
       <c r="I52" s="3">
+        <v>6397400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6697600</v>
+      </c>
+      <c r="K52" s="3">
         <v>8521100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8046700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8229100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7359500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6860900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6958700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7549800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80250900</v>
+        <v>80023900</v>
       </c>
       <c r="E54" s="3">
-        <v>83482000</v>
+        <v>68952300</v>
       </c>
       <c r="F54" s="3">
-        <v>83122400</v>
+        <v>67377200</v>
       </c>
       <c r="G54" s="3">
-        <v>76620700</v>
+        <v>70090000</v>
       </c>
       <c r="H54" s="3">
-        <v>72642700</v>
+        <v>69788100</v>
       </c>
       <c r="I54" s="3">
+        <v>64329300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>60989500</v>
+      </c>
+      <c r="K54" s="3">
         <v>77420400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>77045000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>76866900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>72166800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>69898900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>73001700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>80448700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5482400</v>
+        <v>4180200</v>
       </c>
       <c r="E57" s="3">
-        <v>5603000</v>
+        <v>5102800</v>
       </c>
       <c r="F57" s="3">
-        <v>5429000</v>
+        <v>4602900</v>
       </c>
       <c r="G57" s="3">
-        <v>6347800</v>
+        <v>4704200</v>
       </c>
       <c r="H57" s="3">
-        <v>4756900</v>
+        <v>4558100</v>
       </c>
       <c r="I57" s="3">
+        <v>5329500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3993800</v>
+      </c>
+      <c r="K57" s="3">
         <v>4678500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4062400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10999500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4611600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4629100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4428200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7051500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8512000</v>
+        <v>7503800</v>
       </c>
       <c r="E58" s="3">
-        <v>9973200</v>
+        <v>6979600</v>
       </c>
       <c r="F58" s="3">
-        <v>10070800</v>
+        <v>7146500</v>
       </c>
       <c r="G58" s="3">
-        <v>5158900</v>
+        <v>8373300</v>
       </c>
       <c r="H58" s="3">
-        <v>3747800</v>
+        <v>8455300</v>
       </c>
       <c r="I58" s="3">
+        <v>4331300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3146600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3020500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3345400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2676300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3099800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2972500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3598300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4386400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13740000</v>
+        <v>12355800</v>
       </c>
       <c r="E59" s="3">
-        <v>14483200</v>
+        <v>11565900</v>
       </c>
       <c r="F59" s="3">
-        <v>13099700</v>
+        <v>11535800</v>
       </c>
       <c r="G59" s="3">
-        <v>13534100</v>
+        <v>12159900</v>
       </c>
       <c r="H59" s="3">
-        <v>14154700</v>
+        <v>10998300</v>
       </c>
       <c r="I59" s="3">
+        <v>11362900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>11884000</v>
+      </c>
+      <c r="K59" s="3">
         <v>15386300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14455800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7702000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13215200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13507100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13257300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13519300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27734400</v>
+        <v>24039800</v>
       </c>
       <c r="E60" s="3">
-        <v>30059500</v>
+        <v>23648200</v>
       </c>
       <c r="F60" s="3">
-        <v>28599500</v>
+        <v>23285300</v>
       </c>
       <c r="G60" s="3">
-        <v>25040700</v>
+        <v>25237400</v>
       </c>
       <c r="H60" s="3">
-        <v>22659400</v>
+        <v>24011600</v>
       </c>
       <c r="I60" s="3">
+        <v>21023800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19024500</v>
+      </c>
+      <c r="K60" s="3">
         <v>23085300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21863600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21377800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>20926500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>21108600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21283900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>24957200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31150900</v>
+        <v>36298800</v>
       </c>
       <c r="E61" s="3">
-        <v>31197800</v>
+        <v>26546200</v>
       </c>
       <c r="F61" s="3">
-        <v>31242700</v>
+        <v>26153700</v>
       </c>
       <c r="G61" s="3">
-        <v>29093700</v>
+        <v>26193100</v>
       </c>
       <c r="H61" s="3">
-        <v>30833100</v>
+        <v>26230900</v>
       </c>
       <c r="I61" s="3">
+        <v>24426600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>25887000</v>
+      </c>
+      <c r="K61" s="3">
         <v>33785600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>33220700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>33418300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>30704200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>29149700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>29845300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>33197800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8562700</v>
+        <v>9226300</v>
       </c>
       <c r="E62" s="3">
-        <v>8858500</v>
+        <v>8544800</v>
       </c>
       <c r="F62" s="3">
-        <v>9461100</v>
+        <v>7189100</v>
       </c>
       <c r="G62" s="3">
-        <v>9305000</v>
+        <v>7437500</v>
       </c>
       <c r="H62" s="3">
-        <v>8672000</v>
+        <v>7943300</v>
       </c>
       <c r="I62" s="3">
+        <v>7812300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7280900</v>
+      </c>
+      <c r="K62" s="3">
         <v>8886500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8984200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8590800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7628800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7448600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7779300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7902400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70108400</v>
+        <v>71993000</v>
       </c>
       <c r="E66" s="3">
-        <v>72735000</v>
+        <v>60944600</v>
       </c>
       <c r="F66" s="3">
-        <v>71986400</v>
+        <v>58861800</v>
       </c>
       <c r="G66" s="3">
-        <v>66113300</v>
+        <v>61067000</v>
       </c>
       <c r="H66" s="3">
-        <v>64824500</v>
+        <v>60438500</v>
       </c>
       <c r="I66" s="3">
+        <v>55507600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>54425500</v>
+      </c>
+      <c r="K66" s="3">
         <v>68498600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>66819900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>66824700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>62512300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>60788200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>62022300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>69355300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13599600</v>
+        <v>10731800</v>
       </c>
       <c r="E72" s="3">
-        <v>12813900</v>
+        <v>12266200</v>
       </c>
       <c r="F72" s="3">
-        <v>13494200</v>
+        <v>11418000</v>
       </c>
       <c r="G72" s="3">
-        <v>12193200</v>
+        <v>10758300</v>
       </c>
       <c r="H72" s="3">
-        <v>10336900</v>
+        <v>11329500</v>
       </c>
       <c r="I72" s="3">
+        <v>10237200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8678700</v>
+      </c>
+      <c r="K72" s="3">
         <v>9361600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>10518800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>8848700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>9134400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9340100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9646700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8020500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10142500</v>
+        <v>8030900</v>
       </c>
       <c r="E76" s="3">
-        <v>10746900</v>
+        <v>8007700</v>
       </c>
       <c r="F76" s="3">
-        <v>11136000</v>
+        <v>8515400</v>
       </c>
       <c r="G76" s="3">
-        <v>10507300</v>
+        <v>9022900</v>
       </c>
       <c r="H76" s="3">
-        <v>7818200</v>
+        <v>9349600</v>
       </c>
       <c r="I76" s="3">
+        <v>8821800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6564000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8921800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10225100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10042200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9654500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9110800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10979400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11093400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>698400</v>
+        <v>-1322400</v>
       </c>
       <c r="E81" s="3">
-        <v>754000</v>
+        <v>953900</v>
       </c>
       <c r="F81" s="3">
-        <v>1042400</v>
+        <v>586400</v>
       </c>
       <c r="G81" s="3">
-        <v>788400</v>
+        <v>633100</v>
       </c>
       <c r="H81" s="3">
-        <v>1012200</v>
+        <v>880100</v>
       </c>
       <c r="I81" s="3">
+        <v>661900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K81" s="3">
         <v>23300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1006000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-584200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-493800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>740300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1854400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-317100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2184100</v>
+        <v>1740800</v>
       </c>
       <c r="E83" s="3">
-        <v>2218800</v>
+        <v>1671100</v>
       </c>
       <c r="F83" s="3">
-        <v>2126300</v>
+        <v>1833700</v>
       </c>
       <c r="G83" s="3">
-        <v>2061900</v>
+        <v>1848300</v>
       </c>
       <c r="H83" s="3">
-        <v>1954700</v>
+        <v>1799700</v>
       </c>
       <c r="I83" s="3">
+        <v>1731200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1641100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2111000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2220100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2090600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2009300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1975700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2127800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2119900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3630100</v>
+        <v>1405000</v>
       </c>
       <c r="E89" s="3">
-        <v>3499000</v>
+        <v>4015700</v>
       </c>
       <c r="F89" s="3">
-        <v>647600</v>
+        <v>3047700</v>
       </c>
       <c r="G89" s="3">
-        <v>5735800</v>
+        <v>2880400</v>
       </c>
       <c r="H89" s="3">
-        <v>2895100</v>
+        <v>601100</v>
       </c>
       <c r="I89" s="3">
+        <v>4815700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2430700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3514300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1167800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4090900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2183600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3024800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1970700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4535500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1647400</v>
+        <v>-1021000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1718600</v>
+        <v>-1902400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1492100</v>
+        <v>-1383100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3018100</v>
+        <v>-1531300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1709500</v>
+        <v>-1164300</v>
       </c>
       <c r="I91" s="3">
+        <v>-2534000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1435300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1744600</v>
+        <v>-1207900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2001100</v>
+        <v>-2670700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1816000</v>
+        <v>-1464700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3214500</v>
+        <v>-1680100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1784800</v>
+        <v>-1524700</v>
       </c>
       <c r="I94" s="3">
+        <v>-2698900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1498500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-627100</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-79900</v>
+        <v>-497000</v>
       </c>
       <c r="F96" s="3">
+        <v>-526500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-468000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-468400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-557500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-557900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-490100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-255300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-86500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-236900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2708100</v>
+        <v>3735300</v>
       </c>
       <c r="E100" s="3">
-        <v>-669900</v>
+        <v>-1159500</v>
       </c>
       <c r="F100" s="3">
-        <v>936400</v>
+        <v>-2273700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2245100</v>
+        <v>-562500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1294500</v>
+        <v>786200</v>
       </c>
       <c r="I100" s="3">
+        <v>-1884900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1086800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-46600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-150900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-841300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64900</v>
+        <v>103700</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>-18600</v>
       </c>
       <c r="F101" s="3">
-        <v>-11300</v>
+        <v>-54500</v>
       </c>
       <c r="G101" s="3">
-        <v>5400</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-31400</v>
+        <v>-9400</v>
       </c>
       <c r="I101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K101" s="3">
         <v>16200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-33100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>59600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>9600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-25800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-40200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>55700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-887600</v>
+        <v>4036000</v>
       </c>
       <c r="E102" s="3">
-        <v>829400</v>
+        <v>166900</v>
       </c>
       <c r="F102" s="3">
-        <v>-243200</v>
+        <v>-745200</v>
       </c>
       <c r="G102" s="3">
-        <v>281500</v>
+        <v>696300</v>
       </c>
       <c r="H102" s="3">
-        <v>-215500</v>
+        <v>-204200</v>
       </c>
       <c r="I102" s="3">
+        <v>236400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="K102" s="3">
         <v>37800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-243800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-182900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>357400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>462800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-582800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>259100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11257100</v>
+        <v>11472200</v>
       </c>
       <c r="E8" s="3">
-        <v>11846000</v>
+        <v>11404600</v>
       </c>
       <c r="F8" s="3">
-        <v>11181600</v>
+        <v>12001300</v>
       </c>
       <c r="G8" s="3">
-        <v>11256200</v>
+        <v>11328200</v>
       </c>
       <c r="H8" s="3">
-        <v>11057000</v>
+        <v>11403400</v>
       </c>
       <c r="I8" s="3">
-        <v>12586900</v>
+        <v>11201900</v>
       </c>
       <c r="J8" s="3">
+        <v>12751900</v>
+      </c>
+      <c r="K8" s="3">
         <v>11159600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13776500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13592300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13646800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12629400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12900500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13662200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14301700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6955800</v>
+        <v>7039700</v>
       </c>
       <c r="E9" s="3">
-        <v>7297800</v>
+        <v>7047000</v>
       </c>
       <c r="F9" s="3">
-        <v>7066600</v>
+        <v>7393500</v>
       </c>
       <c r="G9" s="3">
-        <v>7081900</v>
+        <v>7159200</v>
       </c>
       <c r="H9" s="3">
-        <v>6931600</v>
+        <v>7166400</v>
       </c>
       <c r="I9" s="3">
-        <v>8039800</v>
+        <v>7022500</v>
       </c>
       <c r="J9" s="3">
+        <v>8145100</v>
+      </c>
+      <c r="K9" s="3">
         <v>7177200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8761700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8738800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8946900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8120800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8143900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8743100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9511400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4301200</v>
+        <v>4432500</v>
       </c>
       <c r="E10" s="3">
-        <v>4548200</v>
+        <v>4357600</v>
       </c>
       <c r="F10" s="3">
-        <v>4115000</v>
+        <v>4607800</v>
       </c>
       <c r="G10" s="3">
-        <v>4174300</v>
+        <v>4169000</v>
       </c>
       <c r="H10" s="3">
-        <v>4125300</v>
+        <v>4237000</v>
       </c>
       <c r="I10" s="3">
-        <v>4547100</v>
+        <v>4179400</v>
       </c>
       <c r="J10" s="3">
+        <v>4606700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3982400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5014700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4853500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4699900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4508600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4756600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4919100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4790200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9503900</v>
+        <v>9606700</v>
       </c>
       <c r="E17" s="3">
-        <v>9837600</v>
+        <v>9628500</v>
       </c>
       <c r="F17" s="3">
-        <v>9468300</v>
+        <v>9966500</v>
       </c>
       <c r="G17" s="3">
-        <v>9601400</v>
+        <v>9592400</v>
       </c>
       <c r="H17" s="3">
-        <v>9461300</v>
+        <v>9714500</v>
       </c>
       <c r="I17" s="3">
-        <v>10824100</v>
+        <v>9585300</v>
       </c>
       <c r="J17" s="3">
+        <v>10966000</v>
+      </c>
+      <c r="K17" s="3">
         <v>9562600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11946800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11952100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12169600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12109300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11288800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12091800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12934200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1753100</v>
+        <v>1865500</v>
       </c>
       <c r="E18" s="3">
-        <v>2008500</v>
+        <v>1776100</v>
       </c>
       <c r="F18" s="3">
-        <v>1713300</v>
+        <v>2034800</v>
       </c>
       <c r="G18" s="3">
-        <v>1654900</v>
+        <v>1735800</v>
       </c>
       <c r="H18" s="3">
-        <v>1595700</v>
+        <v>1688900</v>
       </c>
       <c r="I18" s="3">
-        <v>1762800</v>
+        <v>1616600</v>
       </c>
       <c r="J18" s="3">
+        <v>1785900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1597000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1829700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1640200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1477100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>520200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1611700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1570400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1367400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3108000</v>
+        <v>-27000</v>
       </c>
       <c r="E20" s="3">
-        <v>26100</v>
+        <v>-3148700</v>
       </c>
       <c r="F20" s="3">
-        <v>-133700</v>
+        <v>26400</v>
       </c>
       <c r="G20" s="3">
-        <v>-77400</v>
+        <v>-135400</v>
       </c>
       <c r="H20" s="3">
-        <v>383800</v>
+        <v>-78400</v>
       </c>
       <c r="I20" s="3">
-        <v>-86300</v>
+        <v>388900</v>
       </c>
       <c r="J20" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="K20" s="3">
         <v>465600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>488400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-799300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-302700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1982600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>386000</v>
+        <v>3741800</v>
       </c>
       <c r="E21" s="3">
-        <v>3705600</v>
+        <v>391000</v>
       </c>
       <c r="F21" s="3">
-        <v>3413400</v>
+        <v>3754200</v>
       </c>
       <c r="G21" s="3">
-        <v>3425800</v>
+        <v>3458100</v>
       </c>
       <c r="H21" s="3">
-        <v>3779200</v>
+        <v>3483100</v>
       </c>
       <c r="I21" s="3">
-        <v>3407600</v>
+        <v>3828700</v>
       </c>
       <c r="J21" s="3">
+        <v>3452300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3703700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2636400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4348700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2027800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1730200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3284700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5680800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2464400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>474300</v>
+        <v>492600</v>
       </c>
       <c r="E22" s="3">
-        <v>389300</v>
+        <v>480500</v>
       </c>
       <c r="F22" s="3">
-        <v>422800</v>
+        <v>394400</v>
       </c>
       <c r="G22" s="3">
-        <v>457600</v>
+        <v>428400</v>
       </c>
       <c r="H22" s="3">
-        <v>434700</v>
+        <v>462500</v>
       </c>
       <c r="I22" s="3">
-        <v>379700</v>
+        <v>440400</v>
       </c>
       <c r="J22" s="3">
+        <v>384700</v>
+      </c>
+      <c r="K22" s="3">
         <v>320900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>430100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>438700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>390200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>383500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>383000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>410400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>472200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1829100</v>
+        <v>1345900</v>
       </c>
       <c r="E23" s="3">
-        <v>1645200</v>
+        <v>-1853100</v>
       </c>
       <c r="F23" s="3">
-        <v>1156800</v>
+        <v>1666800</v>
       </c>
       <c r="G23" s="3">
-        <v>1119800</v>
+        <v>1172000</v>
       </c>
       <c r="H23" s="3">
-        <v>1544800</v>
+        <v>1148100</v>
       </c>
       <c r="I23" s="3">
-        <v>1296700</v>
+        <v>1565100</v>
       </c>
       <c r="J23" s="3">
+        <v>1313700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1741700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1689900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-453000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-662600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>926000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3142600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-127700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-541700</v>
+        <v>372600</v>
       </c>
       <c r="E24" s="3">
-        <v>689400</v>
+        <v>-548800</v>
       </c>
       <c r="F24" s="3">
-        <v>514500</v>
+        <v>698500</v>
       </c>
       <c r="G24" s="3">
-        <v>462700</v>
+        <v>521200</v>
       </c>
       <c r="H24" s="3">
-        <v>630400</v>
+        <v>468800</v>
       </c>
       <c r="I24" s="3">
-        <v>621600</v>
+        <v>638600</v>
       </c>
       <c r="J24" s="3">
+        <v>629800</v>
+      </c>
+      <c r="K24" s="3">
         <v>853300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>675700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>148100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-236600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>136800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1241700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>140900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1287400</v>
+        <v>973300</v>
       </c>
       <c r="E26" s="3">
-        <v>955800</v>
+        <v>-1304200</v>
       </c>
       <c r="F26" s="3">
-        <v>642300</v>
+        <v>968300</v>
       </c>
       <c r="G26" s="3">
-        <v>657100</v>
+        <v>650700</v>
       </c>
       <c r="H26" s="3">
-        <v>914500</v>
+        <v>679300</v>
       </c>
       <c r="I26" s="3">
-        <v>675100</v>
+        <v>926500</v>
       </c>
       <c r="J26" s="3">
+        <v>684000</v>
+      </c>
+      <c r="K26" s="3">
         <v>888400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1014200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-601100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-426000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>789200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-268600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1322400</v>
+        <v>914700</v>
       </c>
       <c r="E27" s="3">
-        <v>953900</v>
+        <v>-1339800</v>
       </c>
       <c r="F27" s="3">
-        <v>586400</v>
+        <v>966400</v>
       </c>
       <c r="G27" s="3">
-        <v>633100</v>
+        <v>594100</v>
       </c>
       <c r="H27" s="3">
-        <v>880100</v>
+        <v>654900</v>
       </c>
       <c r="I27" s="3">
-        <v>661900</v>
+        <v>891600</v>
       </c>
       <c r="J27" s="3">
+        <v>670600</v>
+      </c>
+      <c r="K27" s="3">
         <v>849900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1006000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-584200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-493800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>740300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1854400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-317100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3108000</v>
+        <v>27000</v>
       </c>
       <c r="E32" s="3">
-        <v>-26100</v>
+        <v>3148700</v>
       </c>
       <c r="F32" s="3">
-        <v>133700</v>
+        <v>-26400</v>
       </c>
       <c r="G32" s="3">
-        <v>77400</v>
+        <v>135400</v>
       </c>
       <c r="H32" s="3">
-        <v>-383800</v>
+        <v>78400</v>
       </c>
       <c r="I32" s="3">
-        <v>86300</v>
+        <v>-388900</v>
       </c>
       <c r="J32" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-465600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1304200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-488400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1539900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>799300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>302700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1022900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1322400</v>
+        <v>914700</v>
       </c>
       <c r="E33" s="3">
-        <v>953900</v>
+        <v>-1339800</v>
       </c>
       <c r="F33" s="3">
-        <v>586400</v>
+        <v>966400</v>
       </c>
       <c r="G33" s="3">
-        <v>633100</v>
+        <v>594100</v>
       </c>
       <c r="H33" s="3">
-        <v>880100</v>
+        <v>654900</v>
       </c>
       <c r="I33" s="3">
-        <v>661900</v>
+        <v>891600</v>
       </c>
       <c r="J33" s="3">
+        <v>670600</v>
+      </c>
+      <c r="K33" s="3">
         <v>849900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1006000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-584200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-493800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>740300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1854400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-317100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1322400</v>
+        <v>914700</v>
       </c>
       <c r="E35" s="3">
-        <v>953900</v>
+        <v>-1339800</v>
       </c>
       <c r="F35" s="3">
-        <v>586400</v>
+        <v>966400</v>
       </c>
       <c r="G35" s="3">
-        <v>633100</v>
+        <v>594100</v>
       </c>
       <c r="H35" s="3">
-        <v>880100</v>
+        <v>654900</v>
       </c>
       <c r="I35" s="3">
-        <v>661900</v>
+        <v>891600</v>
       </c>
       <c r="J35" s="3">
+        <v>670600</v>
+      </c>
+      <c r="K35" s="3">
         <v>849900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1006000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-584200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-493800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>740300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1854400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-317100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4924800</v>
+        <v>2408100</v>
       </c>
       <c r="E41" s="3">
-        <v>888800</v>
+        <v>4989400</v>
       </c>
       <c r="F41" s="3">
-        <v>721900</v>
+        <v>900400</v>
       </c>
       <c r="G41" s="3">
-        <v>1467100</v>
+        <v>731400</v>
       </c>
       <c r="H41" s="3">
-        <v>770700</v>
+        <v>1486300</v>
       </c>
       <c r="I41" s="3">
-        <v>974900</v>
+        <v>780900</v>
       </c>
       <c r="J41" s="3">
+        <v>987700</v>
+      </c>
+      <c r="K41" s="3">
         <v>738500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1095100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1057300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1255300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1317000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1080800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>618100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1232900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4281800</v>
+        <v>3847800</v>
       </c>
       <c r="E42" s="3">
-        <v>2455000</v>
+        <v>4337900</v>
       </c>
       <c r="F42" s="3">
-        <v>2870100</v>
+        <v>2487200</v>
       </c>
       <c r="G42" s="3">
-        <v>2502500</v>
+        <v>2907700</v>
       </c>
       <c r="H42" s="3">
-        <v>2567700</v>
+        <v>2535300</v>
       </c>
       <c r="I42" s="3">
-        <v>2444200</v>
+        <v>2601400</v>
       </c>
       <c r="J42" s="3">
+        <v>2476200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2370200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3244900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3038100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3057700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2843300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2609400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2649100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2961200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10085700</v>
+        <v>9964400</v>
       </c>
       <c r="E43" s="3">
-        <v>9271100</v>
+        <v>10218000</v>
       </c>
       <c r="F43" s="3">
-        <v>9696200</v>
+        <v>9392700</v>
       </c>
       <c r="G43" s="3">
-        <v>9948900</v>
+        <v>9823300</v>
       </c>
       <c r="H43" s="3">
-        <v>9860400</v>
+        <v>10079300</v>
       </c>
       <c r="I43" s="3">
-        <v>9789200</v>
+        <v>9989700</v>
       </c>
       <c r="J43" s="3">
+        <v>9917600</v>
+      </c>
+      <c r="K43" s="3">
         <v>8435500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10473200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10748300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10067000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8899400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8538300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9012400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10115500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1767500</v>
+        <v>1542000</v>
       </c>
       <c r="E44" s="3">
-        <v>1850000</v>
+        <v>1790700</v>
       </c>
       <c r="F44" s="3">
-        <v>1876800</v>
+        <v>1874300</v>
       </c>
       <c r="G44" s="3">
-        <v>1738800</v>
+        <v>1901400</v>
       </c>
       <c r="H44" s="3">
-        <v>1863500</v>
+        <v>1761600</v>
       </c>
       <c r="I44" s="3">
-        <v>1814100</v>
+        <v>1887900</v>
       </c>
       <c r="J44" s="3">
+        <v>1837900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1793500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2160200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1899300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2007200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1917600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1709900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1537100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1957900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>895300</v>
+        <v>672600</v>
       </c>
       <c r="E45" s="3">
-        <v>426400</v>
+        <v>907100</v>
       </c>
       <c r="F45" s="3">
-        <v>740400</v>
+        <v>432000</v>
       </c>
       <c r="G45" s="3">
-        <v>923300</v>
+        <v>750100</v>
       </c>
       <c r="H45" s="3">
-        <v>1072800</v>
+        <v>935400</v>
       </c>
       <c r="I45" s="3">
-        <v>688500</v>
+        <v>1086900</v>
       </c>
       <c r="J45" s="3">
+        <v>697500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1483600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2063200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1313200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1810100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1921800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2132700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1888000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21955200</v>
+        <v>18434900</v>
       </c>
       <c r="E46" s="3">
-        <v>14891300</v>
+        <v>22243000</v>
       </c>
       <c r="F46" s="3">
-        <v>15905400</v>
+        <v>15086500</v>
       </c>
       <c r="G46" s="3">
-        <v>16580600</v>
+        <v>16113900</v>
       </c>
       <c r="H46" s="3">
-        <v>16135200</v>
+        <v>16798000</v>
       </c>
       <c r="I46" s="3">
-        <v>15711000</v>
+        <v>16346700</v>
       </c>
       <c r="J46" s="3">
+        <v>15916900</v>
+      </c>
+      <c r="K46" s="3">
         <v>14821300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18973600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18806200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17700400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16787400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15860300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15949400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18155400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1421700</v>
+        <v>1252000</v>
       </c>
       <c r="E47" s="3">
-        <v>1452100</v>
+        <v>1440300</v>
       </c>
       <c r="F47" s="3">
-        <v>1056100</v>
+        <v>1471100</v>
       </c>
       <c r="G47" s="3">
-        <v>1358900</v>
+        <v>1069900</v>
       </c>
       <c r="H47" s="3">
-        <v>1387100</v>
+        <v>1376700</v>
       </c>
       <c r="I47" s="3">
-        <v>1365100</v>
+        <v>1405300</v>
       </c>
       <c r="J47" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1214800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1526500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1472500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>699300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1118700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1107400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1302000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1314700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36306000</v>
+        <v>35421800</v>
       </c>
       <c r="E48" s="3">
-        <v>34088200</v>
+        <v>36781900</v>
       </c>
       <c r="F48" s="3">
-        <v>32871600</v>
+        <v>34535000</v>
       </c>
       <c r="G48" s="3">
-        <v>33878300</v>
+        <v>33302500</v>
       </c>
       <c r="H48" s="3">
-        <v>33593200</v>
+        <v>34322300</v>
       </c>
       <c r="I48" s="3">
-        <v>28806400</v>
+        <v>34033500</v>
       </c>
       <c r="J48" s="3">
+        <v>29184000</v>
+      </c>
+      <c r="K48" s="3">
         <v>26613100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33748900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33762800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34980500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32227700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31833800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33850400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37233200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13261700</v>
+        <v>13475700</v>
       </c>
       <c r="E49" s="3">
-        <v>12515900</v>
+        <v>13435500</v>
       </c>
       <c r="F49" s="3">
-        <v>11783500</v>
+        <v>12680000</v>
       </c>
       <c r="G49" s="3">
-        <v>12149800</v>
+        <v>11938000</v>
       </c>
       <c r="H49" s="3">
-        <v>12142700</v>
+        <v>12309000</v>
       </c>
       <c r="I49" s="3">
-        <v>12049400</v>
+        <v>12301900</v>
       </c>
       <c r="J49" s="3">
+        <v>12207300</v>
+      </c>
+      <c r="K49" s="3">
         <v>11642600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14650200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14956900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15257500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14673600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14236500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14941100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16195600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7079300</v>
+        <v>7158200</v>
       </c>
       <c r="E52" s="3">
-        <v>6004900</v>
+        <v>7172100</v>
       </c>
       <c r="F52" s="3">
-        <v>5760600</v>
+        <v>6083600</v>
       </c>
       <c r="G52" s="3">
-        <v>6122400</v>
+        <v>5836100</v>
       </c>
       <c r="H52" s="3">
-        <v>6529900</v>
+        <v>6202600</v>
       </c>
       <c r="I52" s="3">
-        <v>6397400</v>
+        <v>6615500</v>
       </c>
       <c r="J52" s="3">
+        <v>6481300</v>
+      </c>
+      <c r="K52" s="3">
         <v>6697600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8521100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8046700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8229100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7359500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6860900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6958700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7549800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80023900</v>
+        <v>75742600</v>
       </c>
       <c r="E54" s="3">
-        <v>68952300</v>
+        <v>81072900</v>
       </c>
       <c r="F54" s="3">
-        <v>67377200</v>
+        <v>69856200</v>
       </c>
       <c r="G54" s="3">
-        <v>70090000</v>
+        <v>68260400</v>
       </c>
       <c r="H54" s="3">
-        <v>69788100</v>
+        <v>71008700</v>
       </c>
       <c r="I54" s="3">
-        <v>64329300</v>
+        <v>70702900</v>
       </c>
       <c r="J54" s="3">
+        <v>65172600</v>
+      </c>
+      <c r="K54" s="3">
         <v>60989500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77420400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77045000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76866900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72166800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>69898900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73001700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80448700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4180200</v>
+        <v>3676200</v>
       </c>
       <c r="E57" s="3">
-        <v>5102800</v>
+        <v>4235000</v>
       </c>
       <c r="F57" s="3">
-        <v>4602900</v>
+        <v>5169700</v>
       </c>
       <c r="G57" s="3">
-        <v>4704200</v>
+        <v>4663300</v>
       </c>
       <c r="H57" s="3">
-        <v>4558100</v>
+        <v>4765900</v>
       </c>
       <c r="I57" s="3">
-        <v>5329500</v>
+        <v>4617800</v>
       </c>
       <c r="J57" s="3">
+        <v>5399300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3993800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4678500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4062400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10999500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4611600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4629100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4428200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7051500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7503800</v>
+        <v>5758900</v>
       </c>
       <c r="E58" s="3">
-        <v>6979600</v>
+        <v>7602100</v>
       </c>
       <c r="F58" s="3">
-        <v>7146500</v>
+        <v>7071000</v>
       </c>
       <c r="G58" s="3">
-        <v>8373300</v>
+        <v>7240200</v>
       </c>
       <c r="H58" s="3">
-        <v>8455300</v>
+        <v>8483100</v>
       </c>
       <c r="I58" s="3">
-        <v>4331300</v>
+        <v>8566100</v>
       </c>
       <c r="J58" s="3">
+        <v>4388100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3146600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3020500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3345400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2676300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3099800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2972500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3598300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4386400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12355800</v>
+        <v>13218400</v>
       </c>
       <c r="E59" s="3">
-        <v>11565900</v>
+        <v>12517700</v>
       </c>
       <c r="F59" s="3">
-        <v>11535800</v>
+        <v>11717500</v>
       </c>
       <c r="G59" s="3">
-        <v>12159900</v>
+        <v>11687100</v>
       </c>
       <c r="H59" s="3">
-        <v>10998300</v>
+        <v>12319300</v>
       </c>
       <c r="I59" s="3">
-        <v>11362900</v>
+        <v>11142500</v>
       </c>
       <c r="J59" s="3">
+        <v>11511900</v>
+      </c>
+      <c r="K59" s="3">
         <v>11884000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15386300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14455800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7702000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13215200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13507100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13257300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13519300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24039800</v>
+        <v>22653500</v>
       </c>
       <c r="E60" s="3">
-        <v>23648200</v>
+        <v>24354900</v>
       </c>
       <c r="F60" s="3">
-        <v>23285300</v>
+        <v>23958200</v>
       </c>
       <c r="G60" s="3">
-        <v>25237400</v>
+        <v>23590500</v>
       </c>
       <c r="H60" s="3">
-        <v>24011600</v>
+        <v>25568200</v>
       </c>
       <c r="I60" s="3">
-        <v>21023800</v>
+        <v>24326300</v>
       </c>
       <c r="J60" s="3">
+        <v>21299300</v>
+      </c>
+      <c r="K60" s="3">
         <v>19024500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23085300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21863600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21377800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20926500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21108600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21283900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24957200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36298800</v>
+        <v>33782100</v>
       </c>
       <c r="E61" s="3">
-        <v>26546200</v>
+        <v>36774600</v>
       </c>
       <c r="F61" s="3">
-        <v>26153700</v>
+        <v>26894200</v>
       </c>
       <c r="G61" s="3">
-        <v>26193100</v>
+        <v>26496600</v>
       </c>
       <c r="H61" s="3">
-        <v>26230900</v>
+        <v>26536400</v>
       </c>
       <c r="I61" s="3">
-        <v>24426600</v>
+        <v>26574700</v>
       </c>
       <c r="J61" s="3">
+        <v>24746700</v>
+      </c>
+      <c r="K61" s="3">
         <v>25887000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33785600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33220700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33418300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30704200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29149700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29845300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33197800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9226300</v>
+        <v>9326100</v>
       </c>
       <c r="E62" s="3">
-        <v>8544800</v>
+        <v>9347200</v>
       </c>
       <c r="F62" s="3">
-        <v>7189100</v>
+        <v>8656800</v>
       </c>
       <c r="G62" s="3">
-        <v>7437500</v>
+        <v>7283400</v>
       </c>
       <c r="H62" s="3">
-        <v>7943300</v>
+        <v>7534900</v>
       </c>
       <c r="I62" s="3">
-        <v>7812300</v>
+        <v>8047500</v>
       </c>
       <c r="J62" s="3">
+        <v>7914700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7280900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8886500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8984200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8590800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7628800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7448600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7779300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7902400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71993000</v>
+        <v>68285000</v>
       </c>
       <c r="E66" s="3">
-        <v>60944600</v>
+        <v>72936700</v>
       </c>
       <c r="F66" s="3">
-        <v>58861800</v>
+        <v>61743500</v>
       </c>
       <c r="G66" s="3">
-        <v>61067000</v>
+        <v>59633300</v>
       </c>
       <c r="H66" s="3">
-        <v>60438500</v>
+        <v>61867500</v>
       </c>
       <c r="I66" s="3">
-        <v>55507600</v>
+        <v>61230700</v>
       </c>
       <c r="J66" s="3">
+        <v>56235200</v>
+      </c>
+      <c r="K66" s="3">
         <v>54425500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68498600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66819900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66824700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62512300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60788200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62022300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69355300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10731800</v>
+        <v>11224500</v>
       </c>
       <c r="E72" s="3">
-        <v>12266200</v>
+        <v>10872400</v>
       </c>
       <c r="F72" s="3">
-        <v>11418000</v>
+        <v>12426900</v>
       </c>
       <c r="G72" s="3">
-        <v>10758300</v>
+        <v>11567700</v>
       </c>
       <c r="H72" s="3">
-        <v>11329500</v>
+        <v>10899300</v>
       </c>
       <c r="I72" s="3">
-        <v>10237200</v>
+        <v>11478000</v>
       </c>
       <c r="J72" s="3">
+        <v>10371400</v>
+      </c>
+      <c r="K72" s="3">
         <v>8678700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9361600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10518800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8848700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9134400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9340100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9646700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8020500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8030900</v>
+        <v>7457600</v>
       </c>
       <c r="E76" s="3">
-        <v>8007700</v>
+        <v>8136100</v>
       </c>
       <c r="F76" s="3">
-        <v>8515400</v>
+        <v>8112700</v>
       </c>
       <c r="G76" s="3">
-        <v>9022900</v>
+        <v>8627100</v>
       </c>
       <c r="H76" s="3">
-        <v>9349600</v>
+        <v>9141200</v>
       </c>
       <c r="I76" s="3">
-        <v>8821800</v>
+        <v>9472200</v>
       </c>
       <c r="J76" s="3">
+        <v>8937400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6564000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8921800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10225100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10042200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9654500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9110800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10979400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11093400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1322400</v>
+        <v>914700</v>
       </c>
       <c r="E81" s="3">
-        <v>953900</v>
+        <v>-1339800</v>
       </c>
       <c r="F81" s="3">
-        <v>586400</v>
+        <v>966400</v>
       </c>
       <c r="G81" s="3">
-        <v>633100</v>
+        <v>594100</v>
       </c>
       <c r="H81" s="3">
-        <v>880100</v>
+        <v>654900</v>
       </c>
       <c r="I81" s="3">
-        <v>661900</v>
+        <v>891600</v>
       </c>
       <c r="J81" s="3">
+        <v>670600</v>
+      </c>
+      <c r="K81" s="3">
         <v>849900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1006000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-584200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-493800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>740300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1854400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-317100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1740800</v>
+        <v>1903300</v>
       </c>
       <c r="E83" s="3">
-        <v>1671100</v>
+        <v>1763700</v>
       </c>
       <c r="F83" s="3">
-        <v>1833700</v>
+        <v>1693000</v>
       </c>
       <c r="G83" s="3">
-        <v>1848300</v>
+        <v>1857700</v>
       </c>
       <c r="H83" s="3">
-        <v>1799700</v>
+        <v>1872500</v>
       </c>
       <c r="I83" s="3">
-        <v>1731200</v>
+        <v>1823300</v>
       </c>
       <c r="J83" s="3">
+        <v>1753800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1641100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2111000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2220100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2090600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2009300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1975700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2127800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2119900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1405000</v>
+        <v>3759100</v>
       </c>
       <c r="E89" s="3">
-        <v>4015700</v>
+        <v>1423400</v>
       </c>
       <c r="F89" s="3">
-        <v>3047700</v>
+        <v>4068300</v>
       </c>
       <c r="G89" s="3">
-        <v>2880400</v>
+        <v>3087700</v>
       </c>
       <c r="H89" s="3">
-        <v>601100</v>
+        <v>2918100</v>
       </c>
       <c r="I89" s="3">
-        <v>4815700</v>
+        <v>609000</v>
       </c>
       <c r="J89" s="3">
+        <v>4878800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2430700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3514300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1167800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4090900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2183600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3024800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1970700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4535500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1021000</v>
+        <v>-1179000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1902400</v>
+        <v>-1034400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1383100</v>
+        <v>-1927300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1531300</v>
+        <v>-1401300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1164300</v>
+        <v>-1551400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2534000</v>
+        <v>-1179500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2567200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1207900</v>
+        <v>-1720200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2670700</v>
+        <v>-1223800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1464700</v>
+        <v>-2705700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1680100</v>
+        <v>-1483900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1524700</v>
+        <v>-1702100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2698900</v>
+        <v>-1544700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2734200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
       </c>
-      <c r="E96" s="3">
-        <v>-497000</v>
-      </c>
       <c r="F96" s="3">
-        <v>-526500</v>
+        <v>-503500</v>
       </c>
       <c r="G96" s="3">
-        <v>-67100</v>
+        <v>-533400</v>
       </c>
       <c r="H96" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-468000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-474200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-468400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-490100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-255300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-86500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-236900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3735300</v>
+        <v>-4580000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1159500</v>
+        <v>3784300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2273700</v>
+        <v>-1174700</v>
       </c>
       <c r="G100" s="3">
-        <v>-562500</v>
+        <v>-2303500</v>
       </c>
       <c r="H100" s="3">
-        <v>786200</v>
+        <v>-569800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1884900</v>
+        <v>796500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1909700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-150900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-841300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>103700</v>
+        <v>-40300</v>
       </c>
       <c r="E101" s="3">
-        <v>-18600</v>
+        <v>105000</v>
       </c>
       <c r="F101" s="3">
-        <v>-54500</v>
+        <v>-18800</v>
       </c>
       <c r="G101" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-9400</v>
-      </c>
       <c r="I101" s="3">
-        <v>4500</v>
+        <v>-9600</v>
       </c>
       <c r="J101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>59600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-25800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>55700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4036000</v>
+        <v>-2581300</v>
       </c>
       <c r="E102" s="3">
-        <v>166900</v>
+        <v>4089000</v>
       </c>
       <c r="F102" s="3">
-        <v>-745200</v>
+        <v>169100</v>
       </c>
       <c r="G102" s="3">
-        <v>696300</v>
+        <v>-755000</v>
       </c>
       <c r="H102" s="3">
-        <v>-204200</v>
+        <v>705500</v>
       </c>
       <c r="I102" s="3">
-        <v>236400</v>
+        <v>-206800</v>
       </c>
       <c r="J102" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-180900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-243800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-182900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>357400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>462800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-582800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>259100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11472200</v>
+        <v>12990400</v>
       </c>
       <c r="E8" s="3">
-        <v>11404600</v>
+        <v>12561600</v>
       </c>
       <c r="F8" s="3">
-        <v>12001300</v>
+        <v>12487600</v>
       </c>
       <c r="G8" s="3">
-        <v>11328200</v>
+        <v>13140900</v>
       </c>
       <c r="H8" s="3">
-        <v>11403400</v>
+        <v>12406400</v>
       </c>
       <c r="I8" s="3">
-        <v>11201900</v>
+        <v>12486300</v>
       </c>
       <c r="J8" s="3">
+        <v>12265600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12751900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11159600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13776500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13592300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13646800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12629400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12900500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13662200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14301700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7039700</v>
+        <v>8085000</v>
       </c>
       <c r="E9" s="3">
-        <v>7047000</v>
+        <v>7708200</v>
       </c>
       <c r="F9" s="3">
-        <v>7393500</v>
+        <v>7716200</v>
       </c>
       <c r="G9" s="3">
-        <v>7159200</v>
+        <v>8095500</v>
       </c>
       <c r="H9" s="3">
-        <v>7166400</v>
+        <v>7834700</v>
       </c>
       <c r="I9" s="3">
-        <v>7022500</v>
+        <v>7846900</v>
       </c>
       <c r="J9" s="3">
+        <v>7689300</v>
+      </c>
+      <c r="K9" s="3">
         <v>8145100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7177200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8761700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8738800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8946900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8120800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8143900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8743100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9511400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4432500</v>
+        <v>4905400</v>
       </c>
       <c r="E10" s="3">
-        <v>4357600</v>
+        <v>4853400</v>
       </c>
       <c r="F10" s="3">
-        <v>4607800</v>
+        <v>4771400</v>
       </c>
       <c r="G10" s="3">
-        <v>4169000</v>
+        <v>5045400</v>
       </c>
       <c r="H10" s="3">
-        <v>4237000</v>
+        <v>4571700</v>
       </c>
       <c r="I10" s="3">
-        <v>4179400</v>
+        <v>4639300</v>
       </c>
       <c r="J10" s="3">
+        <v>4576300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4606700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3982400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5014700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4853500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4699900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4508600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4756600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4919100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4790200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9606700</v>
+        <v>10740300</v>
       </c>
       <c r="E17" s="3">
-        <v>9628500</v>
+        <v>10519000</v>
       </c>
       <c r="F17" s="3">
-        <v>9966500</v>
+        <v>10542800</v>
       </c>
       <c r="G17" s="3">
-        <v>9592400</v>
+        <v>10912900</v>
       </c>
       <c r="H17" s="3">
-        <v>9714500</v>
+        <v>10506300</v>
       </c>
       <c r="I17" s="3">
-        <v>9585300</v>
+        <v>10636900</v>
       </c>
       <c r="J17" s="3">
+        <v>10495500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10966000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9562600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11946800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11952100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12169600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12109300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11288800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12091800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12934200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1865500</v>
+        <v>2250100</v>
       </c>
       <c r="E18" s="3">
-        <v>1776100</v>
+        <v>2042600</v>
       </c>
       <c r="F18" s="3">
-        <v>2034800</v>
+        <v>1944800</v>
       </c>
       <c r="G18" s="3">
-        <v>1735800</v>
+        <v>2228000</v>
       </c>
       <c r="H18" s="3">
-        <v>1688900</v>
+        <v>1900100</v>
       </c>
       <c r="I18" s="3">
-        <v>1616600</v>
+        <v>1849300</v>
       </c>
       <c r="J18" s="3">
+        <v>1770100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1785900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1597000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1829700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1640200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1477100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>520200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1611700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1570400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1367400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27000</v>
+        <v>-666000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3148700</v>
+        <v>-29500</v>
       </c>
       <c r="F20" s="3">
-        <v>26400</v>
+        <v>-3447700</v>
       </c>
       <c r="G20" s="3">
-        <v>-135400</v>
+        <v>28900</v>
       </c>
       <c r="H20" s="3">
-        <v>-78400</v>
+        <v>-148300</v>
       </c>
       <c r="I20" s="3">
-        <v>388900</v>
+        <v>-85900</v>
       </c>
       <c r="J20" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-87400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>465600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>488400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-799300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-302700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1982600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3741800</v>
+        <v>3651000</v>
       </c>
       <c r="E21" s="3">
-        <v>391000</v>
+        <v>4097200</v>
       </c>
       <c r="F21" s="3">
-        <v>3754200</v>
+        <v>428200</v>
       </c>
       <c r="G21" s="3">
-        <v>3458100</v>
+        <v>4110600</v>
       </c>
       <c r="H21" s="3">
-        <v>3483100</v>
+        <v>3786000</v>
       </c>
       <c r="I21" s="3">
-        <v>3828700</v>
+        <v>3813800</v>
       </c>
       <c r="J21" s="3">
+        <v>4192300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3452300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3703700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2636400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4348700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2027800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1730200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3284700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5680800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2464400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>492600</v>
+        <v>451500</v>
       </c>
       <c r="E22" s="3">
-        <v>480500</v>
+        <v>539400</v>
       </c>
       <c r="F22" s="3">
-        <v>394400</v>
+        <v>526100</v>
       </c>
       <c r="G22" s="3">
-        <v>428400</v>
+        <v>431900</v>
       </c>
       <c r="H22" s="3">
-        <v>462500</v>
+        <v>467800</v>
       </c>
       <c r="I22" s="3">
-        <v>440400</v>
+        <v>506400</v>
       </c>
       <c r="J22" s="3">
+        <v>482200</v>
+      </c>
+      <c r="K22" s="3">
         <v>384700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>320900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>430100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>438700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>390200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>383500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>383000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>410400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>472200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1345900</v>
+        <v>1132700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1853100</v>
+        <v>1473700</v>
       </c>
       <c r="F23" s="3">
-        <v>1666800</v>
+        <v>-2029000</v>
       </c>
       <c r="G23" s="3">
-        <v>1172000</v>
+        <v>1825100</v>
       </c>
       <c r="H23" s="3">
-        <v>1148100</v>
+        <v>1284000</v>
       </c>
       <c r="I23" s="3">
-        <v>1565100</v>
+        <v>1257100</v>
       </c>
       <c r="J23" s="3">
+        <v>1713700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1313700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1741700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1689900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-453000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-662600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>926000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3142600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-127700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>372600</v>
+        <v>108300</v>
       </c>
       <c r="E24" s="3">
-        <v>-548800</v>
+        <v>408000</v>
       </c>
       <c r="F24" s="3">
-        <v>698500</v>
+        <v>-601000</v>
       </c>
       <c r="G24" s="3">
-        <v>521200</v>
+        <v>764800</v>
       </c>
       <c r="H24" s="3">
-        <v>468800</v>
+        <v>570700</v>
       </c>
       <c r="I24" s="3">
-        <v>638600</v>
+        <v>513300</v>
       </c>
       <c r="J24" s="3">
+        <v>699300</v>
+      </c>
+      <c r="K24" s="3">
         <v>629800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>853300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>675700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>148100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-236600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>136800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1241700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>140900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>973300</v>
+        <v>1024400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1304200</v>
+        <v>1065700</v>
       </c>
       <c r="F26" s="3">
-        <v>968300</v>
+        <v>-1428100</v>
       </c>
       <c r="G26" s="3">
-        <v>650700</v>
+        <v>1060300</v>
       </c>
       <c r="H26" s="3">
-        <v>679300</v>
+        <v>713200</v>
       </c>
       <c r="I26" s="3">
-        <v>926500</v>
+        <v>743800</v>
       </c>
       <c r="J26" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="K26" s="3">
         <v>684000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>888400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1014200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-601100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-426000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>789200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-268600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>914700</v>
+        <v>941700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1339800</v>
+        <v>1001600</v>
       </c>
       <c r="F27" s="3">
-        <v>966400</v>
+        <v>-1467000</v>
       </c>
       <c r="G27" s="3">
-        <v>594100</v>
+        <v>1058200</v>
       </c>
       <c r="H27" s="3">
-        <v>654900</v>
+        <v>651200</v>
       </c>
       <c r="I27" s="3">
-        <v>891600</v>
+        <v>717100</v>
       </c>
       <c r="J27" s="3">
+        <v>976300</v>
+      </c>
+      <c r="K27" s="3">
         <v>670600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>849900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1006000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-584200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-493800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>740300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1854400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-317100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27000</v>
+        <v>666000</v>
       </c>
       <c r="E32" s="3">
-        <v>3148700</v>
+        <v>29500</v>
       </c>
       <c r="F32" s="3">
-        <v>-26400</v>
+        <v>3447700</v>
       </c>
       <c r="G32" s="3">
-        <v>135400</v>
+        <v>-28900</v>
       </c>
       <c r="H32" s="3">
-        <v>78400</v>
+        <v>148300</v>
       </c>
       <c r="I32" s="3">
-        <v>-388900</v>
+        <v>85900</v>
       </c>
       <c r="J32" s="3">
+        <v>-425800</v>
+      </c>
+      <c r="K32" s="3">
         <v>87400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-465600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1304200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-488400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1539900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>799300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>302700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1022900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>914700</v>
+        <v>941700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1339800</v>
+        <v>1001600</v>
       </c>
       <c r="F33" s="3">
-        <v>966400</v>
+        <v>-1467000</v>
       </c>
       <c r="G33" s="3">
-        <v>594100</v>
+        <v>1058200</v>
       </c>
       <c r="H33" s="3">
-        <v>654900</v>
+        <v>651200</v>
       </c>
       <c r="I33" s="3">
-        <v>891600</v>
+        <v>717100</v>
       </c>
       <c r="J33" s="3">
+        <v>976300</v>
+      </c>
+      <c r="K33" s="3">
         <v>670600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>849900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1006000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-584200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-493800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>740300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1854400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-317100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>914700</v>
+        <v>941700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1339800</v>
+        <v>1001600</v>
       </c>
       <c r="F35" s="3">
-        <v>966400</v>
+        <v>-1467000</v>
       </c>
       <c r="G35" s="3">
-        <v>594100</v>
+        <v>1058200</v>
       </c>
       <c r="H35" s="3">
-        <v>654900</v>
+        <v>651200</v>
       </c>
       <c r="I35" s="3">
-        <v>891600</v>
+        <v>717100</v>
       </c>
       <c r="J35" s="3">
+        <v>976300</v>
+      </c>
+      <c r="K35" s="3">
         <v>670600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>849900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1006000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-584200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-493800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>740300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1854400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-317100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2408100</v>
+        <v>1795300</v>
       </c>
       <c r="E41" s="3">
-        <v>4989400</v>
+        <v>2636700</v>
       </c>
       <c r="F41" s="3">
-        <v>900400</v>
+        <v>5463100</v>
       </c>
       <c r="G41" s="3">
-        <v>731400</v>
+        <v>985900</v>
       </c>
       <c r="H41" s="3">
-        <v>1486300</v>
+        <v>800800</v>
       </c>
       <c r="I41" s="3">
-        <v>780900</v>
+        <v>1627400</v>
       </c>
       <c r="J41" s="3">
+        <v>855000</v>
+      </c>
+      <c r="K41" s="3">
         <v>987700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>738500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1095100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1057300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1255300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1317000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1080800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>618100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1232900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3847800</v>
+        <v>3669900</v>
       </c>
       <c r="E42" s="3">
-        <v>4337900</v>
+        <v>4213100</v>
       </c>
       <c r="F42" s="3">
-        <v>2487200</v>
+        <v>4749800</v>
       </c>
       <c r="G42" s="3">
-        <v>2907700</v>
+        <v>2723400</v>
       </c>
       <c r="H42" s="3">
-        <v>2535300</v>
+        <v>3183800</v>
       </c>
       <c r="I42" s="3">
-        <v>2601400</v>
+        <v>2776000</v>
       </c>
       <c r="J42" s="3">
+        <v>2848400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2476200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2370200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3244900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3038100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3057700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2843300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2609400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2649100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2961200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9964400</v>
+        <v>10289000</v>
       </c>
       <c r="E43" s="3">
-        <v>10218000</v>
+        <v>10910600</v>
       </c>
       <c r="F43" s="3">
-        <v>9392700</v>
+        <v>11188200</v>
       </c>
       <c r="G43" s="3">
-        <v>9823300</v>
+        <v>10284600</v>
       </c>
       <c r="H43" s="3">
-        <v>10079300</v>
+        <v>10756100</v>
       </c>
       <c r="I43" s="3">
-        <v>9989700</v>
+        <v>11036400</v>
       </c>
       <c r="J43" s="3">
+        <v>10938200</v>
+      </c>
+      <c r="K43" s="3">
         <v>9917600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8435500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10473200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10748300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10067000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8899400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8538300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9012400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10115500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1542000</v>
+        <v>1749000</v>
       </c>
       <c r="E44" s="3">
-        <v>1790700</v>
+        <v>1688400</v>
       </c>
       <c r="F44" s="3">
-        <v>1874300</v>
+        <v>1960800</v>
       </c>
       <c r="G44" s="3">
-        <v>1901400</v>
+        <v>2052200</v>
       </c>
       <c r="H44" s="3">
-        <v>1761600</v>
+        <v>2081900</v>
       </c>
       <c r="I44" s="3">
-        <v>1887900</v>
+        <v>1928900</v>
       </c>
       <c r="J44" s="3">
+        <v>2067200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1837900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1793500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2160200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1899300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2007200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1917600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1709900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1537100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1957900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>672600</v>
+        <v>729900</v>
       </c>
       <c r="E45" s="3">
-        <v>907100</v>
+        <v>736500</v>
       </c>
       <c r="F45" s="3">
-        <v>432000</v>
+        <v>993200</v>
       </c>
       <c r="G45" s="3">
-        <v>750100</v>
+        <v>473000</v>
       </c>
       <c r="H45" s="3">
-        <v>935400</v>
+        <v>821300</v>
       </c>
       <c r="I45" s="3">
-        <v>1086900</v>
+        <v>1024300</v>
       </c>
       <c r="J45" s="3">
+        <v>1190100</v>
+      </c>
+      <c r="K45" s="3">
         <v>697500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1483600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2063200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1313200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1810100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1921800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2132700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1888000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18434900</v>
+        <v>18233100</v>
       </c>
       <c r="E46" s="3">
-        <v>22243000</v>
+        <v>20185400</v>
       </c>
       <c r="F46" s="3">
-        <v>15086500</v>
+        <v>24355100</v>
       </c>
       <c r="G46" s="3">
-        <v>16113900</v>
+        <v>16519100</v>
       </c>
       <c r="H46" s="3">
-        <v>16798000</v>
+        <v>17644000</v>
       </c>
       <c r="I46" s="3">
-        <v>16346700</v>
+        <v>18393000</v>
       </c>
       <c r="J46" s="3">
+        <v>17898900</v>
+      </c>
+      <c r="K46" s="3">
         <v>15916900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14821300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18973600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18806200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17700400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16787400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15860300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15949400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18155400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1252000</v>
+        <v>1197800</v>
       </c>
       <c r="E47" s="3">
-        <v>1440300</v>
+        <v>1370900</v>
       </c>
       <c r="F47" s="3">
-        <v>1471100</v>
+        <v>1577100</v>
       </c>
       <c r="G47" s="3">
-        <v>1069900</v>
+        <v>1610800</v>
       </c>
       <c r="H47" s="3">
-        <v>1376700</v>
+        <v>1171500</v>
       </c>
       <c r="I47" s="3">
-        <v>1405300</v>
+        <v>1507500</v>
       </c>
       <c r="J47" s="3">
+        <v>1538700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1383000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1214800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1526500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1472500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>699300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1118700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1107400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1302000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1314700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35421800</v>
+        <v>37602600</v>
       </c>
       <c r="E48" s="3">
-        <v>36781900</v>
+        <v>38785400</v>
       </c>
       <c r="F48" s="3">
-        <v>34535000</v>
+        <v>40274600</v>
       </c>
       <c r="G48" s="3">
-        <v>33302500</v>
+        <v>37814300</v>
       </c>
       <c r="H48" s="3">
-        <v>34322300</v>
+        <v>36464800</v>
       </c>
       <c r="I48" s="3">
-        <v>34033500</v>
+        <v>37581500</v>
       </c>
       <c r="J48" s="3">
+        <v>37265200</v>
+      </c>
+      <c r="K48" s="3">
         <v>29184000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26613100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33748900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33762800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34980500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32227700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31833800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33850400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37233200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13475700</v>
+        <v>14313800</v>
       </c>
       <c r="E49" s="3">
-        <v>13435500</v>
+        <v>14755300</v>
       </c>
       <c r="F49" s="3">
-        <v>12680000</v>
+        <v>14711300</v>
       </c>
       <c r="G49" s="3">
-        <v>11938000</v>
+        <v>13884000</v>
       </c>
       <c r="H49" s="3">
-        <v>12309000</v>
+        <v>13071500</v>
       </c>
       <c r="I49" s="3">
-        <v>12301900</v>
+        <v>13477900</v>
       </c>
       <c r="J49" s="3">
+        <v>13470000</v>
+      </c>
+      <c r="K49" s="3">
         <v>12207300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11642600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14650200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14956900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15257500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14673600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14236500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14941100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16195600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7158200</v>
+        <v>7760200</v>
       </c>
       <c r="E52" s="3">
-        <v>7172100</v>
+        <v>7837900</v>
       </c>
       <c r="F52" s="3">
-        <v>6083600</v>
+        <v>7853100</v>
       </c>
       <c r="G52" s="3">
-        <v>5836100</v>
+        <v>6661300</v>
       </c>
       <c r="H52" s="3">
-        <v>6202600</v>
+        <v>6390300</v>
       </c>
       <c r="I52" s="3">
-        <v>6615500</v>
+        <v>6791600</v>
       </c>
       <c r="J52" s="3">
+        <v>7243700</v>
+      </c>
+      <c r="K52" s="3">
         <v>6481300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6697600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8521100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8046700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8229100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7359500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6860900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6958700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7549800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75742600</v>
+        <v>79107500</v>
       </c>
       <c r="E54" s="3">
-        <v>81072900</v>
+        <v>82934900</v>
       </c>
       <c r="F54" s="3">
-        <v>69856200</v>
+        <v>88771200</v>
       </c>
       <c r="G54" s="3">
-        <v>68260400</v>
+        <v>76489400</v>
       </c>
       <c r="H54" s="3">
-        <v>71008700</v>
+        <v>74742100</v>
       </c>
       <c r="I54" s="3">
-        <v>70702900</v>
+        <v>77751400</v>
       </c>
       <c r="J54" s="3">
+        <v>77416600</v>
+      </c>
+      <c r="K54" s="3">
         <v>65172600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60989500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77420400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77045000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76866900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72166800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>69898900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73001700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80448700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3676200</v>
+        <v>4013600</v>
       </c>
       <c r="E57" s="3">
-        <v>4235000</v>
+        <v>4025300</v>
       </c>
       <c r="F57" s="3">
-        <v>5169700</v>
+        <v>4637200</v>
       </c>
       <c r="G57" s="3">
-        <v>4663300</v>
+        <v>5660600</v>
       </c>
       <c r="H57" s="3">
-        <v>4765900</v>
+        <v>5106100</v>
       </c>
       <c r="I57" s="3">
-        <v>4617800</v>
+        <v>5218400</v>
       </c>
       <c r="J57" s="3">
+        <v>5056300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5399300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3993800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4678500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4062400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10999500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4611600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4629100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4428200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7051500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5758900</v>
+        <v>7442300</v>
       </c>
       <c r="E58" s="3">
-        <v>7602100</v>
+        <v>6305800</v>
       </c>
       <c r="F58" s="3">
-        <v>7071000</v>
+        <v>8324000</v>
       </c>
       <c r="G58" s="3">
-        <v>7240200</v>
+        <v>7742500</v>
       </c>
       <c r="H58" s="3">
-        <v>8483100</v>
+        <v>7927700</v>
       </c>
       <c r="I58" s="3">
-        <v>8566100</v>
+        <v>9288600</v>
       </c>
       <c r="J58" s="3">
+        <v>9379500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4388100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3146600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3020500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3345400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2676300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3099800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2972500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3598300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4386400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13218400</v>
+        <v>13370400</v>
       </c>
       <c r="E59" s="3">
-        <v>12517700</v>
+        <v>14473500</v>
       </c>
       <c r="F59" s="3">
-        <v>11717500</v>
+        <v>13706400</v>
       </c>
       <c r="G59" s="3">
-        <v>11687100</v>
+        <v>12830100</v>
       </c>
       <c r="H59" s="3">
-        <v>12319300</v>
+        <v>12796800</v>
       </c>
       <c r="I59" s="3">
-        <v>11142500</v>
+        <v>13489100</v>
       </c>
       <c r="J59" s="3">
+        <v>12200500</v>
+      </c>
+      <c r="K59" s="3">
         <v>11511900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11884000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15386300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14455800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7702000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13215200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13507100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13257300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13519300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22653500</v>
+        <v>24826300</v>
       </c>
       <c r="E60" s="3">
-        <v>24354900</v>
+        <v>24804600</v>
       </c>
       <c r="F60" s="3">
-        <v>23958200</v>
+        <v>26667500</v>
       </c>
       <c r="G60" s="3">
-        <v>23590500</v>
+        <v>26233200</v>
       </c>
       <c r="H60" s="3">
-        <v>25568200</v>
+        <v>25830600</v>
       </c>
       <c r="I60" s="3">
-        <v>24326300</v>
+        <v>27996100</v>
       </c>
       <c r="J60" s="3">
+        <v>26636300</v>
+      </c>
+      <c r="K60" s="3">
         <v>21299300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19024500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23085300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21863600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21377800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20926500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21108600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21283900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24957200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33782100</v>
+        <v>32895500</v>
       </c>
       <c r="E61" s="3">
-        <v>36774600</v>
+        <v>36989900</v>
       </c>
       <c r="F61" s="3">
-        <v>26894200</v>
+        <v>40266500</v>
       </c>
       <c r="G61" s="3">
-        <v>26496600</v>
+        <v>29447900</v>
       </c>
       <c r="H61" s="3">
-        <v>26536400</v>
+        <v>29012600</v>
       </c>
       <c r="I61" s="3">
-        <v>26574700</v>
+        <v>29056200</v>
       </c>
       <c r="J61" s="3">
+        <v>29098100</v>
+      </c>
+      <c r="K61" s="3">
         <v>24746700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25887000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33785600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33220700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33418300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30704200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29149700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29845300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33197800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9326100</v>
+        <v>9959800</v>
       </c>
       <c r="E62" s="3">
-        <v>9347200</v>
+        <v>10211700</v>
       </c>
       <c r="F62" s="3">
-        <v>8656800</v>
+        <v>10234800</v>
       </c>
       <c r="G62" s="3">
-        <v>7283400</v>
+        <v>9478800</v>
       </c>
       <c r="H62" s="3">
-        <v>7534900</v>
+        <v>7975000</v>
       </c>
       <c r="I62" s="3">
-        <v>8047500</v>
+        <v>8250400</v>
       </c>
       <c r="J62" s="3">
+        <v>8811600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7914700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7280900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8886500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8984200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8590800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7628800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7448600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7779300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7902400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>68285000</v>
+        <v>70522900</v>
       </c>
       <c r="E66" s="3">
-        <v>72936700</v>
+        <v>74769100</v>
       </c>
       <c r="F66" s="3">
-        <v>61743500</v>
+        <v>79862500</v>
       </c>
       <c r="G66" s="3">
-        <v>59633300</v>
+        <v>67606400</v>
       </c>
       <c r="H66" s="3">
-        <v>61867500</v>
+        <v>65295900</v>
       </c>
       <c r="I66" s="3">
-        <v>61230700</v>
+        <v>67742200</v>
       </c>
       <c r="J66" s="3">
+        <v>67045000</v>
+      </c>
+      <c r="K66" s="3">
         <v>56235200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54425500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68498600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66819900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66824700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62512300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60788200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62022300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69355300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11224500</v>
+        <v>12688600</v>
       </c>
       <c r="E72" s="3">
-        <v>10872400</v>
+        <v>11729000</v>
       </c>
       <c r="F72" s="3">
-        <v>12426900</v>
+        <v>11904800</v>
       </c>
       <c r="G72" s="3">
-        <v>11567700</v>
+        <v>13607000</v>
       </c>
       <c r="H72" s="3">
-        <v>10899300</v>
+        <v>12666100</v>
       </c>
       <c r="I72" s="3">
-        <v>11478000</v>
+        <v>11934300</v>
       </c>
       <c r="J72" s="3">
+        <v>12567900</v>
+      </c>
+      <c r="K72" s="3">
         <v>10371400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8678700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9361600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10518800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8848700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9134400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9340100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9646700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8020500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7457600</v>
+        <v>8584700</v>
       </c>
       <c r="E76" s="3">
-        <v>8136100</v>
+        <v>8165700</v>
       </c>
       <c r="F76" s="3">
-        <v>8112700</v>
+        <v>8908700</v>
       </c>
       <c r="G76" s="3">
-        <v>8627100</v>
+        <v>8883000</v>
       </c>
       <c r="H76" s="3">
-        <v>9141200</v>
+        <v>9446300</v>
       </c>
       <c r="I76" s="3">
-        <v>9472200</v>
+        <v>10009200</v>
       </c>
       <c r="J76" s="3">
+        <v>10371600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8937400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6564000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8921800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10225100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10042200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9654500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9110800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10979400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11093400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>914700</v>
+        <v>941700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1339800</v>
+        <v>1001600</v>
       </c>
       <c r="F81" s="3">
-        <v>966400</v>
+        <v>-1467000</v>
       </c>
       <c r="G81" s="3">
-        <v>594100</v>
+        <v>1058200</v>
       </c>
       <c r="H81" s="3">
-        <v>654900</v>
+        <v>651200</v>
       </c>
       <c r="I81" s="3">
-        <v>891600</v>
+        <v>717100</v>
       </c>
       <c r="J81" s="3">
+        <v>976300</v>
+      </c>
+      <c r="K81" s="3">
         <v>670600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>849900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1006000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-584200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-493800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>740300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1854400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-317100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1903300</v>
+        <v>2066800</v>
       </c>
       <c r="E83" s="3">
-        <v>1763700</v>
+        <v>2084100</v>
       </c>
       <c r="F83" s="3">
-        <v>1693000</v>
+        <v>1931100</v>
       </c>
       <c r="G83" s="3">
-        <v>1857700</v>
+        <v>1853700</v>
       </c>
       <c r="H83" s="3">
-        <v>1872500</v>
+        <v>2034200</v>
       </c>
       <c r="I83" s="3">
-        <v>1823300</v>
+        <v>2050400</v>
       </c>
       <c r="J83" s="3">
+        <v>1996400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1753800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1641100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2111000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2220100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2090600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2009300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1975700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2127800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2119900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3759100</v>
+        <v>4331200</v>
       </c>
       <c r="E89" s="3">
-        <v>1423400</v>
+        <v>4116100</v>
       </c>
       <c r="F89" s="3">
-        <v>4068300</v>
+        <v>1558600</v>
       </c>
       <c r="G89" s="3">
-        <v>3087700</v>
+        <v>4454600</v>
       </c>
       <c r="H89" s="3">
-        <v>2918100</v>
+        <v>3380900</v>
       </c>
       <c r="I89" s="3">
-        <v>609000</v>
+        <v>3195200</v>
       </c>
       <c r="J89" s="3">
+        <v>666800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4878800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2430700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3514300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1167800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4090900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2183600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3024800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1970700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4535500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1179000</v>
+        <v>-1358900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1034400</v>
+        <v>-1291000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1927300</v>
+        <v>-1132600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1401300</v>
+        <v>-2110300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1551400</v>
+        <v>-1534300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1179500</v>
+        <v>-1698700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1291500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1720200</v>
+        <v>-1399500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1223800</v>
+        <v>-1883500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2705700</v>
+        <v>-1340000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1483900</v>
+        <v>-2962700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1702100</v>
+        <v>-1624900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1544700</v>
+        <v>-1863700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1691300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-300</v>
       </c>
-      <c r="E96" s="3">
-        <v>-800</v>
-      </c>
       <c r="F96" s="3">
-        <v>-503500</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
-        <v>-533400</v>
+        <v>-551300</v>
       </c>
       <c r="H96" s="3">
-        <v>-68000</v>
+        <v>-584100</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-74400</v>
       </c>
       <c r="J96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-474200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-468400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-490100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-255300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-86500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-236900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4580000</v>
+        <v>-3734500</v>
       </c>
       <c r="E100" s="3">
-        <v>3784300</v>
+        <v>-5014900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1174700</v>
+        <v>4143600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2303500</v>
+        <v>-1286300</v>
       </c>
       <c r="H100" s="3">
-        <v>-569800</v>
+        <v>-2522200</v>
       </c>
       <c r="I100" s="3">
-        <v>796500</v>
+        <v>-623900</v>
       </c>
       <c r="J100" s="3">
+        <v>872200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-46600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-150900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-841300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40300</v>
+        <v>-38700</v>
       </c>
       <c r="E101" s="3">
-        <v>105000</v>
+        <v>-44100</v>
       </c>
       <c r="F101" s="3">
-        <v>-18800</v>
+        <v>115000</v>
       </c>
       <c r="G101" s="3">
-        <v>-55200</v>
+        <v>-20600</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>-60500</v>
       </c>
       <c r="I101" s="3">
-        <v>-9600</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K101" s="3">
         <v>4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>59600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-40200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>55700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2581300</v>
+        <v>-841400</v>
       </c>
       <c r="E102" s="3">
-        <v>4089000</v>
+        <v>-2826400</v>
       </c>
       <c r="F102" s="3">
-        <v>169100</v>
+        <v>4477200</v>
       </c>
       <c r="G102" s="3">
-        <v>-755000</v>
+        <v>185100</v>
       </c>
       <c r="H102" s="3">
-        <v>705500</v>
+        <v>-826600</v>
       </c>
       <c r="I102" s="3">
-        <v>-206800</v>
+        <v>772400</v>
       </c>
       <c r="J102" s="3">
+        <v>-226500</v>
+      </c>
+      <c r="K102" s="3">
         <v>239500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-180900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-243800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-182900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>357400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>462800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-582800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>259100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12990400</v>
+        <v>12584500</v>
       </c>
       <c r="E8" s="3">
-        <v>12561600</v>
+        <v>12169100</v>
       </c>
       <c r="F8" s="3">
-        <v>12487600</v>
+        <v>12097400</v>
       </c>
       <c r="G8" s="3">
-        <v>13140900</v>
+        <v>12730300</v>
       </c>
       <c r="H8" s="3">
-        <v>12406400</v>
+        <v>12018800</v>
       </c>
       <c r="I8" s="3">
-        <v>12486300</v>
+        <v>12096100</v>
       </c>
       <c r="J8" s="3">
-        <v>12265600</v>
+        <v>11882400</v>
       </c>
       <c r="K8" s="3">
         <v>12751900</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8085000</v>
+        <v>7832400</v>
       </c>
       <c r="E9" s="3">
-        <v>7708200</v>
+        <v>7467300</v>
       </c>
       <c r="F9" s="3">
-        <v>7716200</v>
+        <v>7475100</v>
       </c>
       <c r="G9" s="3">
-        <v>8095500</v>
+        <v>7842600</v>
       </c>
       <c r="H9" s="3">
-        <v>7834700</v>
+        <v>7589900</v>
       </c>
       <c r="I9" s="3">
-        <v>7846900</v>
+        <v>7601800</v>
       </c>
       <c r="J9" s="3">
-        <v>7689300</v>
+        <v>7449100</v>
       </c>
       <c r="K9" s="3">
         <v>8145100</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4905400</v>
+        <v>4752100</v>
       </c>
       <c r="E10" s="3">
-        <v>4853400</v>
+        <v>4701800</v>
       </c>
       <c r="F10" s="3">
-        <v>4771400</v>
+        <v>4622300</v>
       </c>
       <c r="G10" s="3">
-        <v>5045400</v>
+        <v>4887800</v>
       </c>
       <c r="H10" s="3">
-        <v>4571700</v>
+        <v>4428900</v>
       </c>
       <c r="I10" s="3">
-        <v>4639300</v>
+        <v>4494400</v>
       </c>
       <c r="J10" s="3">
-        <v>4576300</v>
+        <v>4433300</v>
       </c>
       <c r="K10" s="3">
         <v>4606700</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10740300</v>
+        <v>10404700</v>
       </c>
       <c r="E17" s="3">
-        <v>10519000</v>
+        <v>10190300</v>
       </c>
       <c r="F17" s="3">
-        <v>10542800</v>
+        <v>10213400</v>
       </c>
       <c r="G17" s="3">
-        <v>10912900</v>
+        <v>10572000</v>
       </c>
       <c r="H17" s="3">
-        <v>10506300</v>
+        <v>10178000</v>
       </c>
       <c r="I17" s="3">
-        <v>10636900</v>
+        <v>10304600</v>
       </c>
       <c r="J17" s="3">
-        <v>10495500</v>
+        <v>10167600</v>
       </c>
       <c r="K17" s="3">
         <v>10966000</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2250100</v>
+        <v>2179800</v>
       </c>
       <c r="E18" s="3">
-        <v>2042600</v>
+        <v>1978800</v>
       </c>
       <c r="F18" s="3">
-        <v>1944800</v>
+        <v>1884000</v>
       </c>
       <c r="G18" s="3">
-        <v>2228000</v>
+        <v>2158400</v>
       </c>
       <c r="H18" s="3">
-        <v>1900100</v>
+        <v>1840700</v>
       </c>
       <c r="I18" s="3">
-        <v>1849300</v>
+        <v>1791500</v>
       </c>
       <c r="J18" s="3">
-        <v>1770100</v>
+        <v>1714800</v>
       </c>
       <c r="K18" s="3">
         <v>1785900</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-666000</v>
+        <v>-645100</v>
       </c>
       <c r="E20" s="3">
-        <v>-29500</v>
+        <v>-28600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3447700</v>
+        <v>-3340000</v>
       </c>
       <c r="G20" s="3">
-        <v>28900</v>
+        <v>28000</v>
       </c>
       <c r="H20" s="3">
-        <v>-148300</v>
+        <v>-143700</v>
       </c>
       <c r="I20" s="3">
-        <v>-85900</v>
+        <v>-83200</v>
       </c>
       <c r="J20" s="3">
-        <v>425800</v>
+        <v>412500</v>
       </c>
       <c r="K20" s="3">
         <v>-87400</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3651000</v>
+        <v>3536900</v>
       </c>
       <c r="E21" s="3">
-        <v>4097200</v>
+        <v>3969100</v>
       </c>
       <c r="F21" s="3">
-        <v>428200</v>
+        <v>414800</v>
       </c>
       <c r="G21" s="3">
-        <v>4110600</v>
+        <v>3982200</v>
       </c>
       <c r="H21" s="3">
-        <v>3786000</v>
+        <v>3667700</v>
       </c>
       <c r="I21" s="3">
-        <v>3813800</v>
+        <v>3694600</v>
       </c>
       <c r="J21" s="3">
-        <v>4192300</v>
+        <v>4061300</v>
       </c>
       <c r="K21" s="3">
         <v>3452300</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>451500</v>
+        <v>437400</v>
       </c>
       <c r="E22" s="3">
-        <v>539400</v>
+        <v>522500</v>
       </c>
       <c r="F22" s="3">
-        <v>526100</v>
+        <v>509700</v>
       </c>
       <c r="G22" s="3">
-        <v>431900</v>
+        <v>418400</v>
       </c>
       <c r="H22" s="3">
-        <v>467800</v>
+        <v>453200</v>
       </c>
       <c r="I22" s="3">
-        <v>506400</v>
+        <v>490500</v>
       </c>
       <c r="J22" s="3">
-        <v>482200</v>
+        <v>467100</v>
       </c>
       <c r="K22" s="3">
         <v>384700</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1132700</v>
+        <v>1097300</v>
       </c>
       <c r="E23" s="3">
-        <v>1473700</v>
+        <v>1427700</v>
       </c>
       <c r="F23" s="3">
-        <v>-2029000</v>
+        <v>-1965700</v>
       </c>
       <c r="G23" s="3">
-        <v>1825100</v>
+        <v>1768000</v>
       </c>
       <c r="H23" s="3">
-        <v>1284000</v>
+        <v>1243900</v>
       </c>
       <c r="I23" s="3">
-        <v>1257100</v>
+        <v>1217800</v>
       </c>
       <c r="J23" s="3">
-        <v>1713700</v>
+        <v>1660200</v>
       </c>
       <c r="K23" s="3">
         <v>1313700</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108300</v>
+        <v>104900</v>
       </c>
       <c r="E24" s="3">
-        <v>408000</v>
+        <v>395300</v>
       </c>
       <c r="F24" s="3">
-        <v>-601000</v>
+        <v>-582200</v>
       </c>
       <c r="G24" s="3">
-        <v>764800</v>
+        <v>740900</v>
       </c>
       <c r="H24" s="3">
-        <v>570700</v>
+        <v>552900</v>
       </c>
       <c r="I24" s="3">
-        <v>513300</v>
+        <v>497300</v>
       </c>
       <c r="J24" s="3">
-        <v>699300</v>
+        <v>677400</v>
       </c>
       <c r="K24" s="3">
         <v>629800</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1024400</v>
+        <v>992400</v>
       </c>
       <c r="E26" s="3">
-        <v>1065700</v>
+        <v>1032400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1428100</v>
+        <v>-1383500</v>
       </c>
       <c r="G26" s="3">
-        <v>1060300</v>
+        <v>1027200</v>
       </c>
       <c r="H26" s="3">
-        <v>713200</v>
+        <v>691000</v>
       </c>
       <c r="I26" s="3">
-        <v>743800</v>
+        <v>720500</v>
       </c>
       <c r="J26" s="3">
-        <v>1014400</v>
+        <v>982700</v>
       </c>
       <c r="K26" s="3">
         <v>684000</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>941700</v>
+        <v>912300</v>
       </c>
       <c r="E27" s="3">
-        <v>1001600</v>
+        <v>970300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1467000</v>
+        <v>-1421200</v>
       </c>
       <c r="G27" s="3">
-        <v>1058200</v>
+        <v>1025100</v>
       </c>
       <c r="H27" s="3">
-        <v>651200</v>
+        <v>630900</v>
       </c>
       <c r="I27" s="3">
-        <v>717100</v>
+        <v>694700</v>
       </c>
       <c r="J27" s="3">
-        <v>976300</v>
+        <v>945800</v>
       </c>
       <c r="K27" s="3">
         <v>670600</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>666000</v>
+        <v>645100</v>
       </c>
       <c r="E32" s="3">
-        <v>29500</v>
+        <v>28600</v>
       </c>
       <c r="F32" s="3">
-        <v>3447700</v>
+        <v>3340000</v>
       </c>
       <c r="G32" s="3">
-        <v>-28900</v>
+        <v>-28000</v>
       </c>
       <c r="H32" s="3">
-        <v>148300</v>
+        <v>143700</v>
       </c>
       <c r="I32" s="3">
-        <v>85900</v>
+        <v>83200</v>
       </c>
       <c r="J32" s="3">
-        <v>-425800</v>
+        <v>-412500</v>
       </c>
       <c r="K32" s="3">
         <v>87400</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>941700</v>
+        <v>912300</v>
       </c>
       <c r="E33" s="3">
-        <v>1001600</v>
+        <v>970300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1467000</v>
+        <v>-1421200</v>
       </c>
       <c r="G33" s="3">
-        <v>1058200</v>
+        <v>1025100</v>
       </c>
       <c r="H33" s="3">
-        <v>651200</v>
+        <v>630900</v>
       </c>
       <c r="I33" s="3">
-        <v>717100</v>
+        <v>694700</v>
       </c>
       <c r="J33" s="3">
-        <v>976300</v>
+        <v>945800</v>
       </c>
       <c r="K33" s="3">
         <v>670600</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>941700</v>
+        <v>912300</v>
       </c>
       <c r="E35" s="3">
-        <v>1001600</v>
+        <v>970300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1467000</v>
+        <v>-1421200</v>
       </c>
       <c r="G35" s="3">
-        <v>1058200</v>
+        <v>1025100</v>
       </c>
       <c r="H35" s="3">
-        <v>651200</v>
+        <v>630900</v>
       </c>
       <c r="I35" s="3">
-        <v>717100</v>
+        <v>694700</v>
       </c>
       <c r="J35" s="3">
-        <v>976300</v>
+        <v>945800</v>
       </c>
       <c r="K35" s="3">
         <v>670600</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1795300</v>
+        <v>1739200</v>
       </c>
       <c r="E41" s="3">
-        <v>2636700</v>
+        <v>2554400</v>
       </c>
       <c r="F41" s="3">
-        <v>5463100</v>
+        <v>5292400</v>
       </c>
       <c r="G41" s="3">
-        <v>985900</v>
+        <v>955100</v>
       </c>
       <c r="H41" s="3">
-        <v>800800</v>
+        <v>775800</v>
       </c>
       <c r="I41" s="3">
-        <v>1627400</v>
+        <v>1576600</v>
       </c>
       <c r="J41" s="3">
-        <v>855000</v>
+        <v>828300</v>
       </c>
       <c r="K41" s="3">
         <v>987700</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3669900</v>
+        <v>3555300</v>
       </c>
       <c r="E42" s="3">
-        <v>4213100</v>
+        <v>4081500</v>
       </c>
       <c r="F42" s="3">
-        <v>4749800</v>
+        <v>4601400</v>
       </c>
       <c r="G42" s="3">
-        <v>2723400</v>
+        <v>2638300</v>
       </c>
       <c r="H42" s="3">
-        <v>3183800</v>
+        <v>3084300</v>
       </c>
       <c r="I42" s="3">
-        <v>2776000</v>
+        <v>2689300</v>
       </c>
       <c r="J42" s="3">
-        <v>2848400</v>
+        <v>2759400</v>
       </c>
       <c r="K42" s="3">
         <v>2476200</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10289000</v>
+        <v>9967500</v>
       </c>
       <c r="E43" s="3">
-        <v>10910600</v>
+        <v>10569700</v>
       </c>
       <c r="F43" s="3">
-        <v>11188200</v>
+        <v>10838600</v>
       </c>
       <c r="G43" s="3">
-        <v>10284600</v>
+        <v>9963200</v>
       </c>
       <c r="H43" s="3">
-        <v>10756100</v>
+        <v>10420100</v>
       </c>
       <c r="I43" s="3">
-        <v>11036400</v>
+        <v>10691600</v>
       </c>
       <c r="J43" s="3">
-        <v>10938200</v>
+        <v>10596500</v>
       </c>
       <c r="K43" s="3">
         <v>9917600</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1749000</v>
+        <v>1694300</v>
       </c>
       <c r="E44" s="3">
-        <v>1688400</v>
+        <v>1635700</v>
       </c>
       <c r="F44" s="3">
-        <v>1960800</v>
+        <v>1899500</v>
       </c>
       <c r="G44" s="3">
-        <v>2052200</v>
+        <v>1988100</v>
       </c>
       <c r="H44" s="3">
-        <v>2081900</v>
+        <v>2016900</v>
       </c>
       <c r="I44" s="3">
-        <v>1928900</v>
+        <v>1868600</v>
       </c>
       <c r="J44" s="3">
-        <v>2067200</v>
+        <v>2002600</v>
       </c>
       <c r="K44" s="3">
         <v>1837900</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>729900</v>
+        <v>707100</v>
       </c>
       <c r="E45" s="3">
-        <v>736500</v>
+        <v>713500</v>
       </c>
       <c r="F45" s="3">
-        <v>993200</v>
+        <v>962200</v>
       </c>
       <c r="G45" s="3">
-        <v>473000</v>
+        <v>458200</v>
       </c>
       <c r="H45" s="3">
-        <v>821300</v>
+        <v>795700</v>
       </c>
       <c r="I45" s="3">
-        <v>1024300</v>
+        <v>992300</v>
       </c>
       <c r="J45" s="3">
-        <v>1190100</v>
+        <v>1152900</v>
       </c>
       <c r="K45" s="3">
         <v>697500</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18233100</v>
+        <v>17663400</v>
       </c>
       <c r="E46" s="3">
-        <v>20185400</v>
+        <v>19554700</v>
       </c>
       <c r="F46" s="3">
-        <v>24355100</v>
+        <v>23594200</v>
       </c>
       <c r="G46" s="3">
-        <v>16519100</v>
+        <v>16002900</v>
       </c>
       <c r="H46" s="3">
-        <v>17644000</v>
+        <v>17092800</v>
       </c>
       <c r="I46" s="3">
-        <v>18393000</v>
+        <v>17818400</v>
       </c>
       <c r="J46" s="3">
-        <v>17898900</v>
+        <v>17339700</v>
       </c>
       <c r="K46" s="3">
         <v>15916900</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1197800</v>
+        <v>1160400</v>
       </c>
       <c r="E47" s="3">
-        <v>1370900</v>
+        <v>1328100</v>
       </c>
       <c r="F47" s="3">
-        <v>1577100</v>
+        <v>1527800</v>
       </c>
       <c r="G47" s="3">
-        <v>1610800</v>
+        <v>1560500</v>
       </c>
       <c r="H47" s="3">
-        <v>1171500</v>
+        <v>1134900</v>
       </c>
       <c r="I47" s="3">
-        <v>1507500</v>
+        <v>1460400</v>
       </c>
       <c r="J47" s="3">
-        <v>1538700</v>
+        <v>1490700</v>
       </c>
       <c r="K47" s="3">
         <v>1383000</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37602600</v>
+        <v>36427800</v>
       </c>
       <c r="E48" s="3">
-        <v>38785400</v>
+        <v>37573600</v>
       </c>
       <c r="F48" s="3">
-        <v>40274600</v>
+        <v>39016300</v>
       </c>
       <c r="G48" s="3">
-        <v>37814300</v>
+        <v>36632900</v>
       </c>
       <c r="H48" s="3">
-        <v>36464800</v>
+        <v>35325500</v>
       </c>
       <c r="I48" s="3">
-        <v>37581500</v>
+        <v>36407300</v>
       </c>
       <c r="J48" s="3">
-        <v>37265200</v>
+        <v>36100900</v>
       </c>
       <c r="K48" s="3">
         <v>29184000</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14313800</v>
+        <v>13866600</v>
       </c>
       <c r="E49" s="3">
-        <v>14755300</v>
+        <v>14294300</v>
       </c>
       <c r="F49" s="3">
-        <v>14711300</v>
+        <v>14251600</v>
       </c>
       <c r="G49" s="3">
-        <v>13884000</v>
+        <v>13450200</v>
       </c>
       <c r="H49" s="3">
-        <v>13071500</v>
+        <v>12663100</v>
       </c>
       <c r="I49" s="3">
-        <v>13477900</v>
+        <v>13056800</v>
       </c>
       <c r="J49" s="3">
-        <v>13470000</v>
+        <v>13049200</v>
       </c>
       <c r="K49" s="3">
         <v>12207300</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7760200</v>
+        <v>7517700</v>
       </c>
       <c r="E52" s="3">
-        <v>7837900</v>
+        <v>7593000</v>
       </c>
       <c r="F52" s="3">
-        <v>7853100</v>
+        <v>7607700</v>
       </c>
       <c r="G52" s="3">
-        <v>6661300</v>
+        <v>6453100</v>
       </c>
       <c r="H52" s="3">
-        <v>6390300</v>
+        <v>6190600</v>
       </c>
       <c r="I52" s="3">
-        <v>6791600</v>
+        <v>6579400</v>
       </c>
       <c r="J52" s="3">
-        <v>7243700</v>
+        <v>7017400</v>
       </c>
       <c r="K52" s="3">
         <v>6481300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79107500</v>
+        <v>76635900</v>
       </c>
       <c r="E54" s="3">
-        <v>82934900</v>
+        <v>80343700</v>
       </c>
       <c r="F54" s="3">
-        <v>88771200</v>
+        <v>85997700</v>
       </c>
       <c r="G54" s="3">
-        <v>76489400</v>
+        <v>74099600</v>
       </c>
       <c r="H54" s="3">
-        <v>74742100</v>
+        <v>72406900</v>
       </c>
       <c r="I54" s="3">
-        <v>77751400</v>
+        <v>75322200</v>
       </c>
       <c r="J54" s="3">
-        <v>77416600</v>
+        <v>74997800</v>
       </c>
       <c r="K54" s="3">
         <v>65172600</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4013600</v>
+        <v>3888200</v>
       </c>
       <c r="E57" s="3">
-        <v>4025300</v>
+        <v>3899500</v>
       </c>
       <c r="F57" s="3">
-        <v>4637200</v>
+        <v>4492300</v>
       </c>
       <c r="G57" s="3">
-        <v>5660600</v>
+        <v>5483700</v>
       </c>
       <c r="H57" s="3">
-        <v>5106100</v>
+        <v>4946500</v>
       </c>
       <c r="I57" s="3">
-        <v>5218400</v>
+        <v>5055400</v>
       </c>
       <c r="J57" s="3">
-        <v>5056300</v>
+        <v>4898300</v>
       </c>
       <c r="K57" s="3">
         <v>5399300</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7442300</v>
+        <v>7209700</v>
       </c>
       <c r="E58" s="3">
-        <v>6305800</v>
+        <v>6108800</v>
       </c>
       <c r="F58" s="3">
-        <v>8324000</v>
+        <v>8063900</v>
       </c>
       <c r="G58" s="3">
-        <v>7742500</v>
+        <v>7500600</v>
       </c>
       <c r="H58" s="3">
-        <v>7927700</v>
+        <v>7680000</v>
       </c>
       <c r="I58" s="3">
-        <v>9288600</v>
+        <v>8998400</v>
       </c>
       <c r="J58" s="3">
-        <v>9379500</v>
+        <v>9086400</v>
       </c>
       <c r="K58" s="3">
         <v>4388100</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13370400</v>
+        <v>12952700</v>
       </c>
       <c r="E59" s="3">
-        <v>14473500</v>
+        <v>14021300</v>
       </c>
       <c r="F59" s="3">
-        <v>13706400</v>
+        <v>13278100</v>
       </c>
       <c r="G59" s="3">
-        <v>12830100</v>
+        <v>12429300</v>
       </c>
       <c r="H59" s="3">
-        <v>12796800</v>
+        <v>12397000</v>
       </c>
       <c r="I59" s="3">
-        <v>13489100</v>
+        <v>13067600</v>
       </c>
       <c r="J59" s="3">
-        <v>12200500</v>
+        <v>11819300</v>
       </c>
       <c r="K59" s="3">
         <v>11511900</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24826300</v>
+        <v>24050600</v>
       </c>
       <c r="E60" s="3">
-        <v>24804600</v>
+        <v>24029600</v>
       </c>
       <c r="F60" s="3">
-        <v>26667500</v>
+        <v>25834300</v>
       </c>
       <c r="G60" s="3">
-        <v>26233200</v>
+        <v>25413600</v>
       </c>
       <c r="H60" s="3">
-        <v>25830600</v>
+        <v>25023500</v>
       </c>
       <c r="I60" s="3">
-        <v>27996100</v>
+        <v>27121400</v>
       </c>
       <c r="J60" s="3">
-        <v>26636300</v>
+        <v>25804100</v>
       </c>
       <c r="K60" s="3">
         <v>21299300</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32895500</v>
+        <v>31867700</v>
       </c>
       <c r="E61" s="3">
-        <v>36989900</v>
+        <v>35834200</v>
       </c>
       <c r="F61" s="3">
-        <v>40266500</v>
+        <v>39008500</v>
       </c>
       <c r="G61" s="3">
-        <v>29447900</v>
+        <v>28527900</v>
       </c>
       <c r="H61" s="3">
-        <v>29012600</v>
+        <v>28106100</v>
       </c>
       <c r="I61" s="3">
-        <v>29056200</v>
+        <v>28148400</v>
       </c>
       <c r="J61" s="3">
-        <v>29098100</v>
+        <v>28189000</v>
       </c>
       <c r="K61" s="3">
         <v>24746700</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9959800</v>
+        <v>9648700</v>
       </c>
       <c r="E62" s="3">
-        <v>10211700</v>
+        <v>9892700</v>
       </c>
       <c r="F62" s="3">
-        <v>10234800</v>
+        <v>9915000</v>
       </c>
       <c r="G62" s="3">
-        <v>9478800</v>
+        <v>9182700</v>
       </c>
       <c r="H62" s="3">
-        <v>7975000</v>
+        <v>7725800</v>
       </c>
       <c r="I62" s="3">
-        <v>8250400</v>
+        <v>7992700</v>
       </c>
       <c r="J62" s="3">
-        <v>8811600</v>
+        <v>8536300</v>
       </c>
       <c r="K62" s="3">
         <v>7914700</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70522900</v>
+        <v>68319500</v>
       </c>
       <c r="E66" s="3">
-        <v>74769100</v>
+        <v>72433000</v>
       </c>
       <c r="F66" s="3">
-        <v>79862500</v>
+        <v>77367300</v>
       </c>
       <c r="G66" s="3">
-        <v>67606400</v>
+        <v>65494100</v>
       </c>
       <c r="H66" s="3">
-        <v>65295900</v>
+        <v>63255800</v>
       </c>
       <c r="I66" s="3">
-        <v>67742200</v>
+        <v>65625700</v>
       </c>
       <c r="J66" s="3">
-        <v>67045000</v>
+        <v>64950200</v>
       </c>
       <c r="K66" s="3">
         <v>56235200</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12688600</v>
+        <v>12292200</v>
       </c>
       <c r="E72" s="3">
-        <v>11729000</v>
+        <v>11362600</v>
       </c>
       <c r="F72" s="3">
-        <v>11904800</v>
+        <v>11532900</v>
       </c>
       <c r="G72" s="3">
-        <v>13607000</v>
+        <v>13181800</v>
       </c>
       <c r="H72" s="3">
-        <v>12666100</v>
+        <v>12270400</v>
       </c>
       <c r="I72" s="3">
-        <v>11934300</v>
+        <v>11561400</v>
       </c>
       <c r="J72" s="3">
-        <v>12567900</v>
+        <v>12175200</v>
       </c>
       <c r="K72" s="3">
         <v>10371400</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8584700</v>
+        <v>8316400</v>
       </c>
       <c r="E76" s="3">
-        <v>8165700</v>
+        <v>7910600</v>
       </c>
       <c r="F76" s="3">
-        <v>8908700</v>
+        <v>8630400</v>
       </c>
       <c r="G76" s="3">
-        <v>8883000</v>
+        <v>8605500</v>
       </c>
       <c r="H76" s="3">
-        <v>9446300</v>
+        <v>9151100</v>
       </c>
       <c r="I76" s="3">
-        <v>10009200</v>
+        <v>9696500</v>
       </c>
       <c r="J76" s="3">
-        <v>10371600</v>
+        <v>10047600</v>
       </c>
       <c r="K76" s="3">
         <v>8937400</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>941700</v>
+        <v>912300</v>
       </c>
       <c r="E81" s="3">
-        <v>1001600</v>
+        <v>970300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1467000</v>
+        <v>-1421200</v>
       </c>
       <c r="G81" s="3">
-        <v>1058200</v>
+        <v>1025100</v>
       </c>
       <c r="H81" s="3">
-        <v>651200</v>
+        <v>630900</v>
       </c>
       <c r="I81" s="3">
-        <v>717100</v>
+        <v>694700</v>
       </c>
       <c r="J81" s="3">
-        <v>976300</v>
+        <v>945800</v>
       </c>
       <c r="K81" s="3">
         <v>670600</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2066800</v>
+        <v>2002200</v>
       </c>
       <c r="E83" s="3">
-        <v>2084100</v>
+        <v>2019000</v>
       </c>
       <c r="F83" s="3">
-        <v>1931100</v>
+        <v>1870800</v>
       </c>
       <c r="G83" s="3">
-        <v>1853700</v>
+        <v>1795800</v>
       </c>
       <c r="H83" s="3">
-        <v>2034200</v>
+        <v>1970600</v>
       </c>
       <c r="I83" s="3">
-        <v>2050400</v>
+        <v>1986300</v>
       </c>
       <c r="J83" s="3">
-        <v>1996400</v>
+        <v>1934000</v>
       </c>
       <c r="K83" s="3">
         <v>1753800</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4331200</v>
+        <v>4195800</v>
       </c>
       <c r="E89" s="3">
-        <v>4116100</v>
+        <v>3987500</v>
       </c>
       <c r="F89" s="3">
-        <v>1558600</v>
+        <v>1509900</v>
       </c>
       <c r="G89" s="3">
-        <v>4454600</v>
+        <v>4315500</v>
       </c>
       <c r="H89" s="3">
-        <v>3380900</v>
+        <v>3275300</v>
       </c>
       <c r="I89" s="3">
-        <v>3195200</v>
+        <v>3095400</v>
       </c>
       <c r="J89" s="3">
-        <v>666800</v>
+        <v>645900</v>
       </c>
       <c r="K89" s="3">
         <v>4878800</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1358900</v>
+        <v>-1316500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1291000</v>
+        <v>-1250600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1132600</v>
+        <v>-1097200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2110300</v>
+        <v>-2044400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1534300</v>
+        <v>-1486400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1698700</v>
+        <v>-1645600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1291500</v>
+        <v>-1251200</v>
       </c>
       <c r="K91" s="3">
         <v>-2567200</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1399500</v>
+        <v>-1355700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1883500</v>
+        <v>-1824700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1340000</v>
+        <v>-1298100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2962700</v>
+        <v>-2870100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1624900</v>
+        <v>-1574100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1863700</v>
+        <v>-1805500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1691300</v>
+        <v>-1638500</v>
       </c>
       <c r="K94" s="3">
         <v>-2734200</v>
@@ -5089,7 +5089,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-201500</v>
+        <v>-195200</v>
       </c>
       <c r="E96" s="3">
         <v>-300</v>
@@ -5098,13 +5098,13 @@
         <v>-900</v>
       </c>
       <c r="G96" s="3">
-        <v>-551300</v>
+        <v>-534100</v>
       </c>
       <c r="H96" s="3">
-        <v>-584100</v>
+        <v>-565800</v>
       </c>
       <c r="I96" s="3">
-        <v>-74400</v>
+        <v>-72100</v>
       </c>
       <c r="J96" s="3">
         <v>-900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3734500</v>
+        <v>-3617800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5014900</v>
+        <v>-4858200</v>
       </c>
       <c r="F100" s="3">
-        <v>4143600</v>
+        <v>4014200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1286300</v>
+        <v>-1246100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2522200</v>
+        <v>-2443400</v>
       </c>
       <c r="I100" s="3">
-        <v>-623900</v>
+        <v>-604400</v>
       </c>
       <c r="J100" s="3">
-        <v>872200</v>
+        <v>844900</v>
       </c>
       <c r="K100" s="3">
         <v>-1909700</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38700</v>
+        <v>-37500</v>
       </c>
       <c r="E101" s="3">
-        <v>-44100</v>
+        <v>-42700</v>
       </c>
       <c r="F101" s="3">
-        <v>115000</v>
+        <v>111400</v>
       </c>
       <c r="G101" s="3">
-        <v>-20600</v>
+        <v>-20000</v>
       </c>
       <c r="H101" s="3">
-        <v>-60500</v>
+        <v>-58600</v>
       </c>
       <c r="I101" s="3">
         <v>1300</v>
       </c>
       <c r="J101" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="K101" s="3">
         <v>4600</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-841400</v>
+        <v>-815100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2826400</v>
+        <v>-2738100</v>
       </c>
       <c r="F102" s="3">
-        <v>4477200</v>
+        <v>4337300</v>
       </c>
       <c r="G102" s="3">
-        <v>185100</v>
+        <v>179300</v>
       </c>
       <c r="H102" s="3">
-        <v>-826600</v>
+        <v>-800800</v>
       </c>
       <c r="I102" s="3">
-        <v>772400</v>
+        <v>748300</v>
       </c>
       <c r="J102" s="3">
-        <v>-226500</v>
+        <v>-219400</v>
       </c>
       <c r="K102" s="3">
         <v>239500</v>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12584500</v>
+        <v>12463900</v>
       </c>
       <c r="E8" s="3">
-        <v>12169100</v>
+        <v>12807600</v>
       </c>
       <c r="F8" s="3">
-        <v>12097400</v>
+        <v>13065800</v>
       </c>
       <c r="G8" s="3">
-        <v>12730300</v>
+        <v>12634500</v>
       </c>
       <c r="H8" s="3">
-        <v>12018800</v>
+        <v>12558100</v>
       </c>
       <c r="I8" s="3">
+        <v>13217200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12478400</v>
+      </c>
+      <c r="K8" s="3">
         <v>12096100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11882400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12751900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11159600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13776500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13592300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13646800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12629400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12900500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>13662200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14301700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7832400</v>
+        <v>7844700</v>
       </c>
       <c r="E9" s="3">
-        <v>7467300</v>
+        <v>8227300</v>
       </c>
       <c r="F9" s="3">
-        <v>7475100</v>
+        <v>8132000</v>
       </c>
       <c r="G9" s="3">
-        <v>7842600</v>
+        <v>7752900</v>
       </c>
       <c r="H9" s="3">
-        <v>7589900</v>
+        <v>7761000</v>
       </c>
       <c r="I9" s="3">
+        <v>8142500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7880200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7601800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7449100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8145100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7177200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8761700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8738800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8946900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8120800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8143900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8743100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>9511400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4752100</v>
+        <v>4619200</v>
       </c>
       <c r="E10" s="3">
-        <v>4701800</v>
+        <v>4580300</v>
       </c>
       <c r="F10" s="3">
-        <v>4622300</v>
+        <v>4933900</v>
       </c>
       <c r="G10" s="3">
-        <v>4887800</v>
+        <v>4881600</v>
       </c>
       <c r="H10" s="3">
-        <v>4428900</v>
+        <v>4797100</v>
       </c>
       <c r="I10" s="3">
+        <v>5074700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4598300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4494400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4433300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4606700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3982400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5014700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4853500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4699900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4508600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4756600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4919100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4790200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10404700</v>
+        <v>10397500</v>
       </c>
       <c r="E17" s="3">
-        <v>10190300</v>
+        <v>10777200</v>
       </c>
       <c r="F17" s="3">
-        <v>10213400</v>
+        <v>10802600</v>
       </c>
       <c r="G17" s="3">
-        <v>10572000</v>
+        <v>10580000</v>
       </c>
       <c r="H17" s="3">
-        <v>10178000</v>
+        <v>10604000</v>
       </c>
       <c r="I17" s="3">
+        <v>10976300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10567300</v>
+      </c>
+      <c r="K17" s="3">
         <v>10304600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10167600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10966000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9562600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11946800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11952100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12169600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12109300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11288800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>12091800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12934200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2179800</v>
+        <v>2066400</v>
       </c>
       <c r="E18" s="3">
-        <v>1978800</v>
+        <v>2030400</v>
       </c>
       <c r="F18" s="3">
-        <v>1884000</v>
+        <v>2263200</v>
       </c>
       <c r="G18" s="3">
-        <v>2158400</v>
+        <v>2054500</v>
       </c>
       <c r="H18" s="3">
-        <v>1840700</v>
+        <v>1954100</v>
       </c>
       <c r="I18" s="3">
+        <v>2240900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1911100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1791500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1714800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1785900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1597000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1829700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1640200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1477100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>520200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1611700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1570400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1367400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-645100</v>
+        <v>-1324500</v>
       </c>
       <c r="E20" s="3">
-        <v>-28600</v>
+        <v>1189200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3340000</v>
+        <v>-669800</v>
       </c>
       <c r="G20" s="3">
-        <v>28000</v>
+        <v>-29700</v>
       </c>
       <c r="H20" s="3">
-        <v>-143700</v>
+        <v>-3438900</v>
       </c>
       <c r="I20" s="3">
+        <v>29100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-83200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>412500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-87400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>465600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>488400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-799300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-302700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1982600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3536900</v>
+        <v>2776200</v>
       </c>
       <c r="E21" s="3">
-        <v>3969100</v>
+        <v>5350600</v>
       </c>
       <c r="F21" s="3">
-        <v>414800</v>
+        <v>3672200</v>
       </c>
       <c r="G21" s="3">
-        <v>3982200</v>
+        <v>4121000</v>
       </c>
       <c r="H21" s="3">
-        <v>3667700</v>
+        <v>457600</v>
       </c>
       <c r="I21" s="3">
+        <v>4134500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3807900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3694600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4061300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3452300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3703700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2636400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4348700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2027800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1730200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3284700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5680800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2464400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>437400</v>
+        <v>475200</v>
       </c>
       <c r="E22" s="3">
-        <v>522500</v>
+        <v>415800</v>
       </c>
       <c r="F22" s="3">
-        <v>509700</v>
+        <v>454100</v>
       </c>
       <c r="G22" s="3">
-        <v>418400</v>
+        <v>542500</v>
       </c>
       <c r="H22" s="3">
-        <v>453200</v>
+        <v>529100</v>
       </c>
       <c r="I22" s="3">
+        <v>434400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>470500</v>
+      </c>
+      <c r="K22" s="3">
         <v>490500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>467100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>384700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>320900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>430100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>438700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>390200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>383500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>383000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>410400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>472200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1097300</v>
+        <v>266700</v>
       </c>
       <c r="E23" s="3">
-        <v>1427700</v>
+        <v>2803800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1965700</v>
+        <v>1139300</v>
       </c>
       <c r="G23" s="3">
-        <v>1768000</v>
+        <v>1482300</v>
       </c>
       <c r="H23" s="3">
-        <v>1243900</v>
+        <v>-2014000</v>
       </c>
       <c r="I23" s="3">
+        <v>1835700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1291400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1217800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1660200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1313700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1741700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>95400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1689900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-453000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-662600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>926000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3142600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-127700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>907100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>108900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>410400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-603600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>769200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>574100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>497300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>677400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>629800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>853300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>36100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>675700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>148100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-236600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>136800</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1241700</v>
+      </c>
+      <c r="U24" s="3">
+        <v>140900</v>
+      </c>
+      <c r="V24" s="3">
         <v>104900</v>
       </c>
-      <c r="E24" s="3">
-        <v>395300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-582200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>740900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>552900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>497300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>677400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>629800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>853300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>36100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>675700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>148100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-236600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>136800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1241700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>140900</v>
-      </c>
-      <c r="T24" s="3">
-        <v>104900</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>992400</v>
+        <v>138300</v>
       </c>
       <c r="E26" s="3">
-        <v>1032400</v>
+        <v>1896700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1383500</v>
+        <v>1030300</v>
       </c>
       <c r="G26" s="3">
-        <v>1027200</v>
+        <v>1071900</v>
       </c>
       <c r="H26" s="3">
-        <v>691000</v>
+        <v>-1410300</v>
       </c>
       <c r="I26" s="3">
+        <v>1066400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>717400</v>
+      </c>
+      <c r="K26" s="3">
         <v>720500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>982700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>684000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>888400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>59300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1014200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-601100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-426000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>789200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1900900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-268600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>912300</v>
+        <v>90900</v>
       </c>
       <c r="E27" s="3">
-        <v>970300</v>
+        <v>1873800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1421200</v>
+        <v>947200</v>
       </c>
       <c r="G27" s="3">
-        <v>1025100</v>
+        <v>1007400</v>
       </c>
       <c r="H27" s="3">
-        <v>630900</v>
+        <v>-1449400</v>
       </c>
       <c r="I27" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>655000</v>
+      </c>
+      <c r="K27" s="3">
         <v>694700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>945800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>670600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>849900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>23300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1006000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-584200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-493800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>740300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1854400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-317100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>645100</v>
+        <v>1324500</v>
       </c>
       <c r="E32" s="3">
-        <v>28600</v>
+        <v>-1189200</v>
       </c>
       <c r="F32" s="3">
-        <v>3340000</v>
+        <v>669800</v>
       </c>
       <c r="G32" s="3">
-        <v>-28000</v>
+        <v>29700</v>
       </c>
       <c r="H32" s="3">
-        <v>143700</v>
+        <v>3438900</v>
       </c>
       <c r="I32" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K32" s="3">
         <v>83200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-412500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>87400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-465600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1304200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-488400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1539900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>799300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>302700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1022900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>912300</v>
+        <v>90900</v>
       </c>
       <c r="E33" s="3">
-        <v>970300</v>
+        <v>1873800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1421200</v>
+        <v>947200</v>
       </c>
       <c r="G33" s="3">
-        <v>1025100</v>
+        <v>1007400</v>
       </c>
       <c r="H33" s="3">
-        <v>630900</v>
+        <v>-1449400</v>
       </c>
       <c r="I33" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>655000</v>
+      </c>
+      <c r="K33" s="3">
         <v>694700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>945800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>670600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>849900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>23300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1006000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-584200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-493800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>740300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1854400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-317100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>912300</v>
+        <v>90900</v>
       </c>
       <c r="E35" s="3">
-        <v>970300</v>
+        <v>1873800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1421200</v>
+        <v>947200</v>
       </c>
       <c r="G35" s="3">
-        <v>1025100</v>
+        <v>1007400</v>
       </c>
       <c r="H35" s="3">
-        <v>630900</v>
+        <v>-1449400</v>
       </c>
       <c r="I35" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>655000</v>
+      </c>
+      <c r="K35" s="3">
         <v>694700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>945800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>670600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>849900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>23300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1006000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-584200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-493800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>740300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1854400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-317100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1739200</v>
+        <v>2603400</v>
       </c>
       <c r="E41" s="3">
-        <v>2554400</v>
+        <v>1803800</v>
       </c>
       <c r="F41" s="3">
-        <v>5292400</v>
+        <v>1805800</v>
       </c>
       <c r="G41" s="3">
-        <v>955100</v>
+        <v>2652100</v>
       </c>
       <c r="H41" s="3">
-        <v>775800</v>
+        <v>5494900</v>
       </c>
       <c r="I41" s="3">
+        <v>991600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>805400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1576600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>828300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>987700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>738500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1095100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1057300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1255300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1317000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1080800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>618100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1232900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3555300</v>
+        <v>3870800</v>
       </c>
       <c r="E42" s="3">
-        <v>4081500</v>
+        <v>2743800</v>
       </c>
       <c r="F42" s="3">
-        <v>4601400</v>
+        <v>3691200</v>
       </c>
       <c r="G42" s="3">
-        <v>2638300</v>
+        <v>4237600</v>
       </c>
       <c r="H42" s="3">
-        <v>3084300</v>
+        <v>4777400</v>
       </c>
       <c r="I42" s="3">
+        <v>2739200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3202300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2689300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2759400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2476200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2370200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3244900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3038100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3057700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2843300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2609400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2649100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2961200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9967500</v>
+        <v>10374900</v>
       </c>
       <c r="E43" s="3">
-        <v>10569700</v>
+        <v>10514500</v>
       </c>
       <c r="F43" s="3">
-        <v>10838600</v>
+        <v>10348700</v>
       </c>
       <c r="G43" s="3">
-        <v>9963200</v>
+        <v>10974000</v>
       </c>
       <c r="H43" s="3">
-        <v>10420100</v>
+        <v>11253200</v>
       </c>
       <c r="I43" s="3">
+        <v>10344300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10818600</v>
+      </c>
+      <c r="K43" s="3">
         <v>10691600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10596500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9917600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8435500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10473200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10748300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10067000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>8899400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8538300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>9012400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>10115500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1694300</v>
+        <v>1552800</v>
       </c>
       <c r="E44" s="3">
-        <v>1635700</v>
+        <v>1525600</v>
       </c>
       <c r="F44" s="3">
-        <v>1899500</v>
+        <v>1759100</v>
       </c>
       <c r="G44" s="3">
-        <v>1988100</v>
+        <v>1698200</v>
       </c>
       <c r="H44" s="3">
-        <v>2016900</v>
+        <v>1972100</v>
       </c>
       <c r="I44" s="3">
+        <v>2064100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1868600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2002600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1837900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1793500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2160200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1899300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2007200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1917600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1709900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1537100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1957900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>707100</v>
+        <v>913000</v>
       </c>
       <c r="E45" s="3">
-        <v>713500</v>
+        <v>1502700</v>
       </c>
       <c r="F45" s="3">
-        <v>962200</v>
+        <v>734100</v>
       </c>
       <c r="G45" s="3">
-        <v>458200</v>
+        <v>740800</v>
       </c>
       <c r="H45" s="3">
-        <v>795700</v>
+        <v>999000</v>
       </c>
       <c r="I45" s="3">
+        <v>475800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>826100</v>
+      </c>
+      <c r="K45" s="3">
         <v>992300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1152900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>697500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1483600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2000200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2063200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1313200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1810100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1921800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2132700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1888000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17663400</v>
+        <v>19314900</v>
       </c>
       <c r="E46" s="3">
-        <v>19554700</v>
+        <v>18090400</v>
       </c>
       <c r="F46" s="3">
-        <v>23594200</v>
+        <v>18339000</v>
       </c>
       <c r="G46" s="3">
-        <v>16002900</v>
+        <v>20302600</v>
       </c>
       <c r="H46" s="3">
-        <v>17092800</v>
+        <v>24496600</v>
       </c>
       <c r="I46" s="3">
+        <v>16615000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>17746500</v>
+      </c>
+      <c r="K46" s="3">
         <v>17818400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17339700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15916900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14821300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18973600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>18806200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17700400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16787400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>15860300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15949400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18155400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1160400</v>
+        <v>955400</v>
       </c>
       <c r="E47" s="3">
-        <v>1328100</v>
+        <v>483200</v>
       </c>
       <c r="F47" s="3">
-        <v>1527800</v>
+        <v>1204800</v>
       </c>
       <c r="G47" s="3">
-        <v>1560500</v>
+        <v>1378800</v>
       </c>
       <c r="H47" s="3">
-        <v>1134900</v>
+        <v>1586200</v>
       </c>
       <c r="I47" s="3">
+        <v>1620200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1178300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1460400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1490700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1383000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1214800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1526500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1472500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>699300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1118700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1107400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1302000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1314700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36427800</v>
+        <v>40632000</v>
       </c>
       <c r="E48" s="3">
-        <v>37573600</v>
+        <v>41426800</v>
       </c>
       <c r="F48" s="3">
-        <v>39016300</v>
+        <v>37821000</v>
       </c>
       <c r="G48" s="3">
-        <v>36632900</v>
+        <v>39010600</v>
       </c>
       <c r="H48" s="3">
-        <v>35325500</v>
+        <v>40508500</v>
       </c>
       <c r="I48" s="3">
+        <v>38033900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>36676600</v>
+      </c>
+      <c r="K48" s="3">
         <v>36407300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>36100900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29184000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>26613100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>33748900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>33762800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>34980500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>32227700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>31833800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>33850400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>37233200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13866600</v>
+        <v>13629400</v>
       </c>
       <c r="E49" s="3">
-        <v>14294300</v>
+        <v>13886300</v>
       </c>
       <c r="F49" s="3">
-        <v>14251600</v>
+        <v>14396900</v>
       </c>
       <c r="G49" s="3">
-        <v>13450200</v>
+        <v>14841000</v>
       </c>
       <c r="H49" s="3">
-        <v>12663100</v>
+        <v>14796700</v>
       </c>
       <c r="I49" s="3">
+        <v>13964600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13147500</v>
+      </c>
+      <c r="K49" s="3">
         <v>13056800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13049200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12207300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>11642600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14650200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14956900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15257500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14673600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>14236500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14941100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>16195600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7517700</v>
+        <v>7406300</v>
       </c>
       <c r="E52" s="3">
-        <v>7593000</v>
+        <v>7723100</v>
       </c>
       <c r="F52" s="3">
-        <v>7607700</v>
+        <v>7805300</v>
       </c>
       <c r="G52" s="3">
-        <v>6453100</v>
+        <v>7883400</v>
       </c>
       <c r="H52" s="3">
-        <v>6190600</v>
+        <v>7898700</v>
       </c>
       <c r="I52" s="3">
+        <v>6700000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6427400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6579400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7017400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6481300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6697600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8521100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8046700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8229100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7359500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6860900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>6958700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7549800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76635900</v>
+        <v>81938000</v>
       </c>
       <c r="E54" s="3">
-        <v>80343700</v>
+        <v>81609900</v>
       </c>
       <c r="F54" s="3">
-        <v>85997700</v>
+        <v>79567000</v>
       </c>
       <c r="G54" s="3">
-        <v>74099600</v>
+        <v>83416500</v>
       </c>
       <c r="H54" s="3">
-        <v>72406900</v>
+        <v>89286800</v>
       </c>
       <c r="I54" s="3">
+        <v>76933700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>75176300</v>
+      </c>
+      <c r="K54" s="3">
         <v>75322200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>74997800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>65172600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>60989500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>77420400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>77045000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76866900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>72166800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>69898900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>73001700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>80448700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3888200</v>
+        <v>3107500</v>
       </c>
       <c r="E57" s="3">
-        <v>3899500</v>
+        <v>9390900</v>
       </c>
       <c r="F57" s="3">
-        <v>4492300</v>
+        <v>4036900</v>
       </c>
       <c r="G57" s="3">
-        <v>5483700</v>
+        <v>4048700</v>
       </c>
       <c r="H57" s="3">
-        <v>4946500</v>
+        <v>4664100</v>
       </c>
       <c r="I57" s="3">
+        <v>5693500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5135700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5055400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4898300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5399300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3993800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4678500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4062400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10999500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4611600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4629100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4428200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7051500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7209700</v>
+        <v>7096700</v>
       </c>
       <c r="E58" s="3">
-        <v>6108800</v>
+        <v>8695600</v>
       </c>
       <c r="F58" s="3">
-        <v>8063900</v>
+        <v>7485500</v>
       </c>
       <c r="G58" s="3">
-        <v>7500600</v>
+        <v>6342400</v>
       </c>
       <c r="H58" s="3">
-        <v>7680000</v>
+        <v>8372300</v>
       </c>
       <c r="I58" s="3">
+        <v>7787500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7973700</v>
+      </c>
+      <c r="K58" s="3">
         <v>8998400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9086400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4388100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3146600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3020500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3345400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2676300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3099800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2972500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3598300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4386400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12952700</v>
+        <v>14513900</v>
       </c>
       <c r="E59" s="3">
-        <v>14021300</v>
+        <v>7390600</v>
       </c>
       <c r="F59" s="3">
-        <v>13278100</v>
+        <v>13448100</v>
       </c>
       <c r="G59" s="3">
-        <v>12429300</v>
+        <v>14557600</v>
       </c>
       <c r="H59" s="3">
-        <v>12397000</v>
+        <v>13786000</v>
       </c>
       <c r="I59" s="3">
+        <v>12904600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>12871100</v>
+      </c>
+      <c r="K59" s="3">
         <v>13067600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11819300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11511900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11884000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15386300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14455800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7702000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13215200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13507100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>13257300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>13519300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24050600</v>
+        <v>24718100</v>
       </c>
       <c r="E60" s="3">
-        <v>24029600</v>
+        <v>25477100</v>
       </c>
       <c r="F60" s="3">
-        <v>25834300</v>
+        <v>24970500</v>
       </c>
       <c r="G60" s="3">
-        <v>25413600</v>
+        <v>24948700</v>
       </c>
       <c r="H60" s="3">
-        <v>25023500</v>
+        <v>26822400</v>
       </c>
       <c r="I60" s="3">
+        <v>26385600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>25980600</v>
+      </c>
+      <c r="K60" s="3">
         <v>27121400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>25804100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21299300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19024500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23085300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21863600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>21377800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20926500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>21108600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>21283900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>24957200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31867700</v>
+        <v>30365400</v>
       </c>
       <c r="E61" s="3">
-        <v>35834200</v>
+        <v>28352200</v>
       </c>
       <c r="F61" s="3">
-        <v>39008500</v>
+        <v>33086500</v>
       </c>
       <c r="G61" s="3">
-        <v>28527900</v>
+        <v>37204700</v>
       </c>
       <c r="H61" s="3">
-        <v>28106100</v>
+        <v>40500400</v>
       </c>
       <c r="I61" s="3">
+        <v>29619000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>29181100</v>
+      </c>
+      <c r="K61" s="3">
         <v>28148400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>28189000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>24746700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>25887000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>33785600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>33220700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>33418300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>30704200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>29149700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>29845300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>33197800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9648700</v>
+        <v>12112100</v>
       </c>
       <c r="E62" s="3">
-        <v>9892700</v>
+        <v>11955400</v>
       </c>
       <c r="F62" s="3">
-        <v>9915000</v>
+        <v>10017700</v>
       </c>
       <c r="G62" s="3">
-        <v>9182700</v>
+        <v>10271000</v>
       </c>
       <c r="H62" s="3">
-        <v>7725800</v>
+        <v>10294200</v>
       </c>
       <c r="I62" s="3">
+        <v>9533900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8021300</v>
+      </c>
+      <c r="K62" s="3">
         <v>7992700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8536300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7914700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7280900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8886500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8984200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8590800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7628800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7448600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>7779300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7902400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>68319500</v>
+        <v>70515700</v>
       </c>
       <c r="E66" s="3">
-        <v>72433000</v>
+        <v>69030900</v>
       </c>
       <c r="F66" s="3">
-        <v>77367300</v>
+        <v>70932500</v>
       </c>
       <c r="G66" s="3">
-        <v>65494100</v>
+        <v>75203400</v>
       </c>
       <c r="H66" s="3">
-        <v>63255800</v>
+        <v>80326400</v>
       </c>
       <c r="I66" s="3">
+        <v>67999100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>65675100</v>
+      </c>
+      <c r="K66" s="3">
         <v>65625700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>64950200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>56235200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>54425500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>68498600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>66819900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>66824700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>62512300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>60788200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>62022300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>69355300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12292200</v>
+        <v>14084700</v>
       </c>
       <c r="E72" s="3">
-        <v>11362600</v>
+        <v>15805100</v>
       </c>
       <c r="F72" s="3">
-        <v>11532900</v>
+        <v>12762300</v>
       </c>
       <c r="G72" s="3">
-        <v>13181800</v>
+        <v>11797100</v>
       </c>
       <c r="H72" s="3">
-        <v>12270400</v>
+        <v>11974000</v>
       </c>
       <c r="I72" s="3">
+        <v>13686000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>12739700</v>
+      </c>
+      <c r="K72" s="3">
         <v>11561400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12175200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10371400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8678700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9361600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>10518800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8848700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>9134400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>9340100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>9646700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8020500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8316400</v>
+        <v>11422300</v>
       </c>
       <c r="E76" s="3">
-        <v>7910600</v>
+        <v>12579000</v>
       </c>
       <c r="F76" s="3">
-        <v>8630400</v>
+        <v>8634500</v>
       </c>
       <c r="G76" s="3">
-        <v>8605500</v>
+        <v>8213200</v>
       </c>
       <c r="H76" s="3">
-        <v>9151100</v>
+        <v>8960400</v>
       </c>
       <c r="I76" s="3">
+        <v>8934600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9501100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9696500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10047600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8937400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6564000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8921800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10225100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10042200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9654500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9110800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10979400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11093400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>912300</v>
+        <v>90900</v>
       </c>
       <c r="E81" s="3">
-        <v>970300</v>
+        <v>1873800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1421200</v>
+        <v>947200</v>
       </c>
       <c r="G81" s="3">
-        <v>1025100</v>
+        <v>1007400</v>
       </c>
       <c r="H81" s="3">
-        <v>630900</v>
+        <v>-1449400</v>
       </c>
       <c r="I81" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>655000</v>
+      </c>
+      <c r="K81" s="3">
         <v>694700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>945800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>670600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>849900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>23300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1006000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-584200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-493800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>740300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1854400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-317100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2002200</v>
+        <v>2034400</v>
       </c>
       <c r="E83" s="3">
-        <v>2019000</v>
+        <v>2131000</v>
       </c>
       <c r="F83" s="3">
-        <v>1870800</v>
+        <v>2078800</v>
       </c>
       <c r="G83" s="3">
-        <v>1795800</v>
+        <v>2096200</v>
       </c>
       <c r="H83" s="3">
-        <v>1970600</v>
+        <v>1942400</v>
       </c>
       <c r="I83" s="3">
+        <v>1864500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2046000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1986300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1934000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1753800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1641100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2111000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2220100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2090600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2009300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1975700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2127800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2119900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4195800</v>
+        <v>2673500</v>
       </c>
       <c r="E89" s="3">
-        <v>3987500</v>
+        <v>4039200</v>
       </c>
       <c r="F89" s="3">
-        <v>1509900</v>
+        <v>4356300</v>
       </c>
       <c r="G89" s="3">
-        <v>4315500</v>
+        <v>4140000</v>
       </c>
       <c r="H89" s="3">
-        <v>3275300</v>
+        <v>1567600</v>
       </c>
       <c r="I89" s="3">
+        <v>4480500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3400500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3095400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>645900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4878800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2430700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3514300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1167800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4090900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2183600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3024800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1970700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4535500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1316500</v>
+        <v>-1196900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1250600</v>
+        <v>-1664900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1097200</v>
+        <v>-1366800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2044400</v>
+        <v>-1298500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1486400</v>
+        <v>-1139200</v>
       </c>
       <c r="I91" s="3">
+        <v>-2122600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1543200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1355700</v>
+        <v>-1416500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1824700</v>
+        <v>-2157900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1298100</v>
+        <v>-1407600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2870100</v>
+        <v>-1894500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1574100</v>
+        <v>-1347800</v>
       </c>
       <c r="I94" s="3">
+        <v>-2979900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1634300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5548,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-195200</v>
+        <v>-400</v>
       </c>
       <c r="E96" s="3">
+        <v>-277800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-202700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
-        <v>-534100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-565800</v>
-      </c>
       <c r="I96" s="3">
+        <v>-554500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-587500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-72100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-474200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-468400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-82900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-490100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-255300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-86500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-236900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3617800</v>
+        <v>-417600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4858200</v>
+        <v>-1741000</v>
       </c>
       <c r="F100" s="3">
-        <v>4014200</v>
+        <v>-3756100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1246100</v>
+        <v>-5044000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2443400</v>
+        <v>4167700</v>
       </c>
       <c r="I100" s="3">
+        <v>-1293700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2536900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-604400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>844900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-46600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-150900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-841300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37500</v>
+        <v>-39800</v>
       </c>
       <c r="E101" s="3">
-        <v>-42700</v>
+        <v>-142300</v>
       </c>
       <c r="F101" s="3">
-        <v>111400</v>
+        <v>-38900</v>
       </c>
       <c r="G101" s="3">
-        <v>-20000</v>
+        <v>-44400</v>
       </c>
       <c r="H101" s="3">
-        <v>-58600</v>
+        <v>115600</v>
       </c>
       <c r="I101" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-10200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-26300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>16200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-33100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>59600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>9600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-25800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-40200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>55700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-815100</v>
+        <v>799600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2738100</v>
+        <v>-2000</v>
       </c>
       <c r="F102" s="3">
-        <v>4337300</v>
+        <v>-846300</v>
       </c>
       <c r="G102" s="3">
-        <v>179300</v>
+        <v>-2842800</v>
       </c>
       <c r="H102" s="3">
-        <v>-800800</v>
+        <v>4503200</v>
       </c>
       <c r="I102" s="3">
+        <v>186200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-831400</v>
+      </c>
+      <c r="K102" s="3">
         <v>748300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-219400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>239500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-180900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>37800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-243800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-182900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>357400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>462800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-582800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>259100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12463900</v>
+        <v>12529400</v>
       </c>
       <c r="E8" s="3">
-        <v>12807600</v>
+        <v>12315000</v>
       </c>
       <c r="F8" s="3">
-        <v>13065800</v>
+        <v>12654600</v>
       </c>
       <c r="G8" s="3">
-        <v>12634500</v>
+        <v>12909700</v>
       </c>
       <c r="H8" s="3">
-        <v>12558100</v>
+        <v>12483600</v>
       </c>
       <c r="I8" s="3">
-        <v>13217200</v>
+        <v>12408100</v>
       </c>
       <c r="J8" s="3">
+        <v>13059300</v>
+      </c>
+      <c r="K8" s="3">
         <v>12478400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12096100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11882400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12751900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11159600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13776500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13592300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13646800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12629400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12900500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13662200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14301700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7844700</v>
+        <v>7754600</v>
       </c>
       <c r="E9" s="3">
-        <v>8227300</v>
+        <v>7750900</v>
       </c>
       <c r="F9" s="3">
-        <v>8132000</v>
+        <v>8129000</v>
       </c>
       <c r="G9" s="3">
-        <v>7752900</v>
+        <v>8034800</v>
       </c>
       <c r="H9" s="3">
-        <v>7761000</v>
+        <v>7660300</v>
       </c>
       <c r="I9" s="3">
-        <v>8142500</v>
+        <v>7668300</v>
       </c>
       <c r="J9" s="3">
+        <v>8045300</v>
+      </c>
+      <c r="K9" s="3">
         <v>7880200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7601800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7449100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8145100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7177200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8761700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8738800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8946900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8120800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8143900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8743100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9511400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4619200</v>
+        <v>4774800</v>
       </c>
       <c r="E10" s="3">
-        <v>4580300</v>
+        <v>4564000</v>
       </c>
       <c r="F10" s="3">
-        <v>4933900</v>
+        <v>4525600</v>
       </c>
       <c r="G10" s="3">
-        <v>4881600</v>
+        <v>4874900</v>
       </c>
       <c r="H10" s="3">
-        <v>4797100</v>
+        <v>4823300</v>
       </c>
       <c r="I10" s="3">
-        <v>5074700</v>
+        <v>4739800</v>
       </c>
       <c r="J10" s="3">
+        <v>5014100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4598300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4494400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4433300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4606700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3982400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5014700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4853500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4699900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4508600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4756600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4919100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4790200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10397500</v>
+        <v>10311100</v>
       </c>
       <c r="E17" s="3">
-        <v>10777200</v>
+        <v>10273200</v>
       </c>
       <c r="F17" s="3">
-        <v>10802600</v>
+        <v>10648500</v>
       </c>
       <c r="G17" s="3">
-        <v>10580000</v>
+        <v>10673600</v>
       </c>
       <c r="H17" s="3">
-        <v>10604000</v>
+        <v>10453700</v>
       </c>
       <c r="I17" s="3">
-        <v>10976300</v>
+        <v>10477300</v>
       </c>
       <c r="J17" s="3">
+        <v>10845200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10567300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10304600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10167600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10966000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9562600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11946800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11952100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12169600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12109300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11288800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12091800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12934200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2066400</v>
+        <v>2218300</v>
       </c>
       <c r="E18" s="3">
-        <v>2030400</v>
+        <v>2041700</v>
       </c>
       <c r="F18" s="3">
-        <v>2263200</v>
+        <v>2006100</v>
       </c>
       <c r="G18" s="3">
-        <v>2054500</v>
+        <v>2236200</v>
       </c>
       <c r="H18" s="3">
-        <v>1954100</v>
+        <v>2029900</v>
       </c>
       <c r="I18" s="3">
-        <v>2240900</v>
+        <v>1930700</v>
       </c>
       <c r="J18" s="3">
+        <v>2214200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1911100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1791500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1714800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1785900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1597000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1829700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1640200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1477100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>520200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1611700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1570400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1367400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1324500</v>
+        <v>1307500</v>
       </c>
       <c r="E20" s="3">
-        <v>1189200</v>
+        <v>-1308700</v>
       </c>
       <c r="F20" s="3">
-        <v>-669800</v>
+        <v>1175000</v>
       </c>
       <c r="G20" s="3">
-        <v>-29700</v>
+        <v>-661800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3438900</v>
+        <v>-57900</v>
       </c>
       <c r="I20" s="3">
-        <v>29100</v>
+        <v>-3397800</v>
       </c>
       <c r="J20" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-149200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-83200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>412500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-87400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>465600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>488400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-799300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-302700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1982600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2776200</v>
+        <v>5522500</v>
       </c>
       <c r="E21" s="3">
-        <v>5350600</v>
+        <v>2743100</v>
       </c>
       <c r="F21" s="3">
-        <v>3672200</v>
+        <v>5286600</v>
       </c>
       <c r="G21" s="3">
-        <v>4121000</v>
+        <v>3628300</v>
       </c>
       <c r="H21" s="3">
-        <v>457600</v>
+        <v>4043100</v>
       </c>
       <c r="I21" s="3">
-        <v>4134500</v>
+        <v>452100</v>
       </c>
       <c r="J21" s="3">
+        <v>4085100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3807900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3694600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4061300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3452300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3703700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2636400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4348700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2027800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1730200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3284700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5680800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2464400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>475200</v>
+        <v>455800</v>
       </c>
       <c r="E22" s="3">
-        <v>415800</v>
+        <v>469500</v>
       </c>
       <c r="F22" s="3">
-        <v>454100</v>
+        <v>410800</v>
       </c>
       <c r="G22" s="3">
-        <v>542500</v>
+        <v>448700</v>
       </c>
       <c r="H22" s="3">
-        <v>529100</v>
+        <v>536000</v>
       </c>
       <c r="I22" s="3">
-        <v>434400</v>
+        <v>522800</v>
       </c>
       <c r="J22" s="3">
+        <v>429200</v>
+      </c>
+      <c r="K22" s="3">
         <v>470500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>490500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>467100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>384700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>320900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>430100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>438700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>390200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>383500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>383000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>410400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>472200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>266700</v>
+        <v>3070000</v>
       </c>
       <c r="E23" s="3">
-        <v>2803800</v>
+        <v>263500</v>
       </c>
       <c r="F23" s="3">
-        <v>1139300</v>
+        <v>2770300</v>
       </c>
       <c r="G23" s="3">
-        <v>1482300</v>
+        <v>1125600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2014000</v>
+        <v>1436000</v>
       </c>
       <c r="I23" s="3">
-        <v>1835700</v>
+        <v>-1989900</v>
       </c>
       <c r="J23" s="3">
+        <v>1813700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1291400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1217800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1660200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1313700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1741700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1689900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-453000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-662600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>926000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3142600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-127700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>128400</v>
+        <v>881400</v>
       </c>
       <c r="E24" s="3">
-        <v>907100</v>
+        <v>126900</v>
       </c>
       <c r="F24" s="3">
-        <v>108900</v>
+        <v>896200</v>
       </c>
       <c r="G24" s="3">
-        <v>410400</v>
+        <v>107600</v>
       </c>
       <c r="H24" s="3">
-        <v>-603600</v>
+        <v>404700</v>
       </c>
       <c r="I24" s="3">
-        <v>769200</v>
+        <v>-596400</v>
       </c>
       <c r="J24" s="3">
+        <v>760000</v>
+      </c>
+      <c r="K24" s="3">
         <v>574100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>497300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>677400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>629800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>853300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>675700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>148100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-236600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>136800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1241700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>140900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>138300</v>
+        <v>2188600</v>
       </c>
       <c r="E26" s="3">
-        <v>1896700</v>
+        <v>136600</v>
       </c>
       <c r="F26" s="3">
-        <v>1030300</v>
+        <v>1874100</v>
       </c>
       <c r="G26" s="3">
-        <v>1071900</v>
+        <v>1018000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1410300</v>
+        <v>1031300</v>
       </c>
       <c r="I26" s="3">
-        <v>1066400</v>
+        <v>-1393500</v>
       </c>
       <c r="J26" s="3">
+        <v>1053700</v>
+      </c>
+      <c r="K26" s="3">
         <v>717400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>720500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>982700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>684000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>888400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1014200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-601100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-426000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>789200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1900900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-268600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90900</v>
+        <v>2124500</v>
       </c>
       <c r="E27" s="3">
-        <v>1873800</v>
+        <v>89800</v>
       </c>
       <c r="F27" s="3">
-        <v>947200</v>
+        <v>1851400</v>
       </c>
       <c r="G27" s="3">
-        <v>1007400</v>
+        <v>935900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1449400</v>
+        <v>967600</v>
       </c>
       <c r="I27" s="3">
-        <v>1064400</v>
+        <v>-1432100</v>
       </c>
       <c r="J27" s="3">
+        <v>1051600</v>
+      </c>
+      <c r="K27" s="3">
         <v>655000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>694700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>945800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>670600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>849900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-584200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-493800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>740300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1854400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-317100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1324500</v>
+        <v>-1307500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1189200</v>
+        <v>1308700</v>
       </c>
       <c r="F32" s="3">
-        <v>669800</v>
+        <v>-1175000</v>
       </c>
       <c r="G32" s="3">
-        <v>29700</v>
+        <v>661800</v>
       </c>
       <c r="H32" s="3">
-        <v>3438900</v>
+        <v>57900</v>
       </c>
       <c r="I32" s="3">
-        <v>-29100</v>
+        <v>3397800</v>
       </c>
       <c r="J32" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K32" s="3">
         <v>149200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>83200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-412500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>87400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-465600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1304200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-488400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1539900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>799300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>302700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1022900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90900</v>
+        <v>2124500</v>
       </c>
       <c r="E33" s="3">
-        <v>1873800</v>
+        <v>89800</v>
       </c>
       <c r="F33" s="3">
-        <v>947200</v>
+        <v>1851400</v>
       </c>
       <c r="G33" s="3">
-        <v>1007400</v>
+        <v>935900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1449400</v>
+        <v>967600</v>
       </c>
       <c r="I33" s="3">
-        <v>1064400</v>
+        <v>-1432100</v>
       </c>
       <c r="J33" s="3">
+        <v>1051600</v>
+      </c>
+      <c r="K33" s="3">
         <v>655000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>694700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>945800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>670600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>849900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-584200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-493800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>740300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1854400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-317100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90900</v>
+        <v>2124500</v>
       </c>
       <c r="E35" s="3">
-        <v>1873800</v>
+        <v>89800</v>
       </c>
       <c r="F35" s="3">
-        <v>947200</v>
+        <v>1851400</v>
       </c>
       <c r="G35" s="3">
-        <v>1007400</v>
+        <v>935900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1449400</v>
+        <v>967600</v>
       </c>
       <c r="I35" s="3">
-        <v>1064400</v>
+        <v>-1432100</v>
       </c>
       <c r="J35" s="3">
+        <v>1051600</v>
+      </c>
+      <c r="K35" s="3">
         <v>655000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>694700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>945800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>670600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>849900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-584200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-493800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>740300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1854400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-317100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2603400</v>
+        <v>1984500</v>
       </c>
       <c r="E41" s="3">
-        <v>1803800</v>
+        <v>2572300</v>
       </c>
       <c r="F41" s="3">
-        <v>1805800</v>
+        <v>1782200</v>
       </c>
       <c r="G41" s="3">
-        <v>2652100</v>
+        <v>1784200</v>
       </c>
       <c r="H41" s="3">
-        <v>5494900</v>
+        <v>2620400</v>
       </c>
       <c r="I41" s="3">
-        <v>991600</v>
+        <v>5429200</v>
       </c>
       <c r="J41" s="3">
+        <v>979800</v>
+      </c>
+      <c r="K41" s="3">
         <v>805400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1576600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>828300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>987700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>738500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1095100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1057300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1255300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1317000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1080800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>618100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1232900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3870800</v>
+        <v>3574200</v>
       </c>
       <c r="E42" s="3">
-        <v>2743800</v>
+        <v>3824500</v>
       </c>
       <c r="F42" s="3">
-        <v>3691200</v>
+        <v>2711100</v>
       </c>
       <c r="G42" s="3">
-        <v>4237600</v>
+        <v>3647100</v>
       </c>
       <c r="H42" s="3">
-        <v>4777400</v>
+        <v>4187000</v>
       </c>
       <c r="I42" s="3">
-        <v>2739200</v>
+        <v>4720400</v>
       </c>
       <c r="J42" s="3">
+        <v>2706500</v>
+      </c>
+      <c r="K42" s="3">
         <v>3202300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2689300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2759400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2476200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2370200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3244900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3038100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3057700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2843300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2609400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2649100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2961200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10374900</v>
+        <v>10212200</v>
       </c>
       <c r="E43" s="3">
-        <v>10514500</v>
+        <v>10251000</v>
       </c>
       <c r="F43" s="3">
-        <v>10348700</v>
+        <v>10388900</v>
       </c>
       <c r="G43" s="3">
-        <v>10974000</v>
+        <v>10225100</v>
       </c>
       <c r="H43" s="3">
-        <v>11253200</v>
+        <v>10842900</v>
       </c>
       <c r="I43" s="3">
-        <v>10344300</v>
+        <v>11118700</v>
       </c>
       <c r="J43" s="3">
+        <v>10220700</v>
+      </c>
+      <c r="K43" s="3">
         <v>10818600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10691600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10596500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9917600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8435500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10473200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10748300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10067000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8899400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8538300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9012400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10115500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1552800</v>
+        <v>1572900</v>
       </c>
       <c r="E44" s="3">
-        <v>1525600</v>
+        <v>1534200</v>
       </c>
       <c r="F44" s="3">
-        <v>1759100</v>
+        <v>1507300</v>
       </c>
       <c r="G44" s="3">
-        <v>1698200</v>
+        <v>1738100</v>
       </c>
       <c r="H44" s="3">
-        <v>1972100</v>
+        <v>1678000</v>
       </c>
       <c r="I44" s="3">
-        <v>2064100</v>
+        <v>1948600</v>
       </c>
       <c r="J44" s="3">
+        <v>2039500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2094000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1868600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2002600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1837900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1793500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2160200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1899300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2007200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1917600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1709900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1537100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1957900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>913000</v>
+        <v>763500</v>
       </c>
       <c r="E45" s="3">
-        <v>1502700</v>
+        <v>902100</v>
       </c>
       <c r="F45" s="3">
-        <v>734100</v>
+        <v>1484700</v>
       </c>
       <c r="G45" s="3">
-        <v>740800</v>
+        <v>725400</v>
       </c>
       <c r="H45" s="3">
-        <v>999000</v>
+        <v>731900</v>
       </c>
       <c r="I45" s="3">
-        <v>475800</v>
+        <v>987000</v>
       </c>
       <c r="J45" s="3">
+        <v>470100</v>
+      </c>
+      <c r="K45" s="3">
         <v>826100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>992300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1152900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>697500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1483600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2063200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1313200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1810100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1921800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2132700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1888000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19314900</v>
+        <v>18107300</v>
       </c>
       <c r="E46" s="3">
-        <v>18090400</v>
+        <v>19084200</v>
       </c>
       <c r="F46" s="3">
-        <v>18339000</v>
+        <v>17874300</v>
       </c>
       <c r="G46" s="3">
-        <v>20302600</v>
+        <v>18119900</v>
       </c>
       <c r="H46" s="3">
-        <v>24496600</v>
+        <v>20060100</v>
       </c>
       <c r="I46" s="3">
-        <v>16615000</v>
+        <v>24203900</v>
       </c>
       <c r="J46" s="3">
+        <v>16416500</v>
+      </c>
+      <c r="K46" s="3">
         <v>17746500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17818400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17339700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15916900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14821300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18973600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18806200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17700400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16787400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15860300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15949400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18155400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>955400</v>
+        <v>1013500</v>
       </c>
       <c r="E47" s="3">
-        <v>483200</v>
+        <v>944000</v>
       </c>
       <c r="F47" s="3">
-        <v>1204800</v>
+        <v>477500</v>
       </c>
       <c r="G47" s="3">
-        <v>1378800</v>
+        <v>1190400</v>
       </c>
       <c r="H47" s="3">
-        <v>1586200</v>
+        <v>1362400</v>
       </c>
       <c r="I47" s="3">
-        <v>1620200</v>
+        <v>1567300</v>
       </c>
       <c r="J47" s="3">
+        <v>1600800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1178300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1460400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1490700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1383000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1214800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1526500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1472500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>699300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1118700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1107400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1302000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1314700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40632000</v>
+        <v>39885200</v>
       </c>
       <c r="E48" s="3">
-        <v>41426800</v>
+        <v>40146600</v>
       </c>
       <c r="F48" s="3">
-        <v>37821000</v>
+        <v>40931900</v>
       </c>
       <c r="G48" s="3">
-        <v>39010600</v>
+        <v>37369200</v>
       </c>
       <c r="H48" s="3">
-        <v>40508500</v>
+        <v>38544500</v>
       </c>
       <c r="I48" s="3">
-        <v>38033900</v>
+        <v>40024600</v>
       </c>
       <c r="J48" s="3">
+        <v>37579500</v>
+      </c>
+      <c r="K48" s="3">
         <v>36676600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36407300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36100900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29184000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26613100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33748900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33762800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34980500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32227700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31833800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33850400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37233200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13629400</v>
+        <v>13346400</v>
       </c>
       <c r="E49" s="3">
-        <v>13886300</v>
+        <v>13466500</v>
       </c>
       <c r="F49" s="3">
-        <v>14396900</v>
+        <v>13720400</v>
       </c>
       <c r="G49" s="3">
-        <v>14841000</v>
+        <v>14224900</v>
       </c>
       <c r="H49" s="3">
-        <v>14796700</v>
+        <v>14663700</v>
       </c>
       <c r="I49" s="3">
-        <v>13964600</v>
+        <v>14619900</v>
       </c>
       <c r="J49" s="3">
+        <v>13797800</v>
+      </c>
+      <c r="K49" s="3">
         <v>13147500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13056800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13049200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12207300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11642600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14650200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14956900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15257500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14673600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14236500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14941100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>16195600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7406300</v>
+        <v>7390900</v>
       </c>
       <c r="E52" s="3">
-        <v>7723100</v>
+        <v>7317800</v>
       </c>
       <c r="F52" s="3">
-        <v>7805300</v>
+        <v>7630900</v>
       </c>
       <c r="G52" s="3">
-        <v>7883400</v>
+        <v>7712000</v>
       </c>
       <c r="H52" s="3">
-        <v>7898700</v>
+        <v>7789200</v>
       </c>
       <c r="I52" s="3">
-        <v>6700000</v>
+        <v>7804400</v>
       </c>
       <c r="J52" s="3">
+        <v>6619900</v>
+      </c>
+      <c r="K52" s="3">
         <v>6427400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6579400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7017400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6481300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6697600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8521100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8046700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8229100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7359500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6860900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6958700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7549800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81938000</v>
+        <v>79743300</v>
       </c>
       <c r="E54" s="3">
-        <v>81609900</v>
+        <v>80959100</v>
       </c>
       <c r="F54" s="3">
-        <v>79567000</v>
+        <v>80634900</v>
       </c>
       <c r="G54" s="3">
-        <v>83416500</v>
+        <v>78616400</v>
       </c>
       <c r="H54" s="3">
-        <v>89286800</v>
+        <v>82419900</v>
       </c>
       <c r="I54" s="3">
-        <v>76933700</v>
+        <v>88220100</v>
       </c>
       <c r="J54" s="3">
+        <v>76014500</v>
+      </c>
+      <c r="K54" s="3">
         <v>75176300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75322200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74997800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65172600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60989500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>77420400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77045000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76866900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>72166800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>69898900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73001700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80448700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3107500</v>
+        <v>3446400</v>
       </c>
       <c r="E57" s="3">
-        <v>9390900</v>
+        <v>3070400</v>
       </c>
       <c r="F57" s="3">
-        <v>4036900</v>
+        <v>9278700</v>
       </c>
       <c r="G57" s="3">
-        <v>4048700</v>
+        <v>3988700</v>
       </c>
       <c r="H57" s="3">
-        <v>4664100</v>
+        <v>4000300</v>
       </c>
       <c r="I57" s="3">
-        <v>5693500</v>
+        <v>4608400</v>
       </c>
       <c r="J57" s="3">
+        <v>5625500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5135700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5055400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4898300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5399300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3993800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4678500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4062400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10999500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4611600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4629100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4428200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7051500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7096700</v>
+        <v>7223400</v>
       </c>
       <c r="E58" s="3">
-        <v>8695600</v>
+        <v>7011900</v>
       </c>
       <c r="F58" s="3">
-        <v>7485500</v>
+        <v>8591800</v>
       </c>
       <c r="G58" s="3">
-        <v>6342400</v>
+        <v>7396100</v>
       </c>
       <c r="H58" s="3">
-        <v>8372300</v>
+        <v>6266600</v>
       </c>
       <c r="I58" s="3">
-        <v>7787500</v>
+        <v>8272300</v>
       </c>
       <c r="J58" s="3">
+        <v>7694400</v>
+      </c>
+      <c r="K58" s="3">
         <v>7973700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8998400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9086400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4388100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3146600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3020500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3345400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2676300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3099800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2972500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3598300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4386400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14513900</v>
+        <v>14409000</v>
       </c>
       <c r="E59" s="3">
-        <v>7390600</v>
+        <v>14340500</v>
       </c>
       <c r="F59" s="3">
-        <v>13448100</v>
+        <v>7302300</v>
       </c>
       <c r="G59" s="3">
-        <v>14557600</v>
+        <v>13287400</v>
       </c>
       <c r="H59" s="3">
-        <v>13786000</v>
+        <v>14383700</v>
       </c>
       <c r="I59" s="3">
-        <v>12904600</v>
+        <v>13621300</v>
       </c>
       <c r="J59" s="3">
+        <v>12750500</v>
+      </c>
+      <c r="K59" s="3">
         <v>12871100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13067600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11819300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11511900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11884000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15386300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14455800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7702000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13215200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13507100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13257300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13519300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24718100</v>
+        <v>25078800</v>
       </c>
       <c r="E60" s="3">
-        <v>25477100</v>
+        <v>24422800</v>
       </c>
       <c r="F60" s="3">
-        <v>24970500</v>
+        <v>25172800</v>
       </c>
       <c r="G60" s="3">
-        <v>24948700</v>
+        <v>24672100</v>
       </c>
       <c r="H60" s="3">
-        <v>26822400</v>
+        <v>24650600</v>
       </c>
       <c r="I60" s="3">
-        <v>26385600</v>
+        <v>26502000</v>
       </c>
       <c r="J60" s="3">
+        <v>26070300</v>
+      </c>
+      <c r="K60" s="3">
         <v>25980600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27121400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25804100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21299300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19024500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23085300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21863600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21377800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20926500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21108600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21283900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24957200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30365400</v>
+        <v>27086500</v>
       </c>
       <c r="E61" s="3">
-        <v>28352200</v>
+        <v>30002600</v>
       </c>
       <c r="F61" s="3">
-        <v>33086500</v>
+        <v>28013400</v>
       </c>
       <c r="G61" s="3">
-        <v>37204700</v>
+        <v>32691200</v>
       </c>
       <c r="H61" s="3">
-        <v>40500400</v>
+        <v>36760200</v>
       </c>
       <c r="I61" s="3">
-        <v>29619000</v>
+        <v>40016500</v>
       </c>
       <c r="J61" s="3">
+        <v>29265100</v>
+      </c>
+      <c r="K61" s="3">
         <v>29181100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28148400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28189000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24746700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25887000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33785600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33220700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33418300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30704200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29149700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29845300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33197800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12112100</v>
+        <v>11873600</v>
       </c>
       <c r="E62" s="3">
-        <v>11955400</v>
+        <v>11967400</v>
       </c>
       <c r="F62" s="3">
-        <v>10017700</v>
+        <v>11812600</v>
       </c>
       <c r="G62" s="3">
-        <v>10271000</v>
+        <v>9898000</v>
       </c>
       <c r="H62" s="3">
-        <v>10294200</v>
+        <v>10148300</v>
       </c>
       <c r="I62" s="3">
-        <v>9533900</v>
+        <v>10171200</v>
       </c>
       <c r="J62" s="3">
+        <v>9420000</v>
+      </c>
+      <c r="K62" s="3">
         <v>8021300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7992700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8536300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7914700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7280900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8886500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8984200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8590800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7628800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7448600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7779300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7902400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70515700</v>
+        <v>67184900</v>
       </c>
       <c r="E66" s="3">
-        <v>69030900</v>
+        <v>69673300</v>
       </c>
       <c r="F66" s="3">
-        <v>70932500</v>
+        <v>68206100</v>
       </c>
       <c r="G66" s="3">
-        <v>75203400</v>
+        <v>70085000</v>
       </c>
       <c r="H66" s="3">
-        <v>80326400</v>
+        <v>74304900</v>
       </c>
       <c r="I66" s="3">
-        <v>67999100</v>
+        <v>79366700</v>
       </c>
       <c r="J66" s="3">
+        <v>67186700</v>
+      </c>
+      <c r="K66" s="3">
         <v>65675100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65625700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64950200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56235200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54425500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68498600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66819900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66824700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62512300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60788200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62022300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69355300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14084700</v>
+        <v>15560400</v>
       </c>
       <c r="E72" s="3">
-        <v>15805100</v>
+        <v>13916400</v>
       </c>
       <c r="F72" s="3">
-        <v>12762300</v>
+        <v>15616300</v>
       </c>
       <c r="G72" s="3">
-        <v>11797100</v>
+        <v>12609800</v>
       </c>
       <c r="H72" s="3">
-        <v>11974000</v>
+        <v>11656200</v>
       </c>
       <c r="I72" s="3">
-        <v>13686000</v>
+        <v>11830900</v>
       </c>
       <c r="J72" s="3">
+        <v>13522500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12739700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11561400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12175200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10371400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8678700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9361600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10518800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8848700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9134400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9340100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9646700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8020500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11422300</v>
+        <v>12558500</v>
       </c>
       <c r="E76" s="3">
-        <v>12579000</v>
+        <v>11285800</v>
       </c>
       <c r="F76" s="3">
-        <v>8634500</v>
+        <v>12428800</v>
       </c>
       <c r="G76" s="3">
-        <v>8213200</v>
+        <v>8531400</v>
       </c>
       <c r="H76" s="3">
-        <v>8960400</v>
+        <v>8115000</v>
       </c>
       <c r="I76" s="3">
-        <v>8934600</v>
+        <v>8853400</v>
       </c>
       <c r="J76" s="3">
+        <v>8827900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9501100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9696500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10047600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8937400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6564000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8921800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10225100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10042200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9654500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9110800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10979400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11093400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90900</v>
+        <v>2124500</v>
       </c>
       <c r="E81" s="3">
-        <v>1873800</v>
+        <v>89800</v>
       </c>
       <c r="F81" s="3">
-        <v>947200</v>
+        <v>1851400</v>
       </c>
       <c r="G81" s="3">
-        <v>1007400</v>
+        <v>935900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1449400</v>
+        <v>967600</v>
       </c>
       <c r="I81" s="3">
-        <v>1064400</v>
+        <v>-1432100</v>
       </c>
       <c r="J81" s="3">
+        <v>1051600</v>
+      </c>
+      <c r="K81" s="3">
         <v>655000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>694700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>945800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>670600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>849900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-584200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-493800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>740300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1854400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-317100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2034400</v>
+        <v>1996800</v>
       </c>
       <c r="E83" s="3">
-        <v>2131000</v>
+        <v>2010100</v>
       </c>
       <c r="F83" s="3">
-        <v>2078800</v>
+        <v>2105500</v>
       </c>
       <c r="G83" s="3">
-        <v>2096200</v>
+        <v>2054000</v>
       </c>
       <c r="H83" s="3">
-        <v>1942400</v>
+        <v>2071100</v>
       </c>
       <c r="I83" s="3">
-        <v>1864500</v>
+        <v>1919100</v>
       </c>
       <c r="J83" s="3">
+        <v>1842200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2046000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1986300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1934000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1753800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1641100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2111000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2220100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2090600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2009300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1975700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2127800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2119900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2673500</v>
+        <v>3849400</v>
       </c>
       <c r="E89" s="3">
-        <v>4039200</v>
+        <v>2641500</v>
       </c>
       <c r="F89" s="3">
-        <v>4356300</v>
+        <v>3990900</v>
       </c>
       <c r="G89" s="3">
-        <v>4140000</v>
+        <v>4304300</v>
       </c>
       <c r="H89" s="3">
-        <v>1567600</v>
+        <v>4090500</v>
       </c>
       <c r="I89" s="3">
-        <v>4480500</v>
+        <v>1548900</v>
       </c>
       <c r="J89" s="3">
+        <v>4427000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3400500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3095400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>645900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4878800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2430700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3514300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1167800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4090900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2183600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3024800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1970700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4535500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1196900</v>
+        <v>-1420400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1664900</v>
+        <v>-1182600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1366800</v>
+        <v>-1645000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1298500</v>
+        <v>-1350500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1139200</v>
+        <v>-1283000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2122600</v>
+        <v>-1125600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2097200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1416500</v>
+        <v>-1518900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2157900</v>
+        <v>-1399600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1407600</v>
+        <v>-2132100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1894500</v>
+        <v>-1390800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1347800</v>
+        <v>-1871800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2979900</v>
+        <v>-1331700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2944300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-277800</v>
-      </c>
       <c r="F96" s="3">
-        <v>-202700</v>
+        <v>-274500</v>
       </c>
       <c r="G96" s="3">
+        <v>-200300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-554500</v>
-      </c>
       <c r="J96" s="3">
+        <v>-547900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-587500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-72100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-474200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-468400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-82900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-490100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-255300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-86500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-236900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-417600</v>
+        <v>-2926200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1741000</v>
+        <v>-412600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3756100</v>
+        <v>-1720200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5044000</v>
+        <v>-3711300</v>
       </c>
       <c r="H100" s="3">
-        <v>4167700</v>
+        <v>-4983700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1293700</v>
+        <v>4117900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1278300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-604400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>844900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-150900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-841300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39800</v>
+        <v>7800</v>
       </c>
       <c r="E101" s="3">
-        <v>-142300</v>
+        <v>-39300</v>
       </c>
       <c r="F101" s="3">
-        <v>-38900</v>
+        <v>-140600</v>
       </c>
       <c r="G101" s="3">
-        <v>-44400</v>
+        <v>-38400</v>
       </c>
       <c r="H101" s="3">
-        <v>115600</v>
+        <v>-43800</v>
       </c>
       <c r="I101" s="3">
-        <v>-20700</v>
+        <v>114300</v>
       </c>
       <c r="J101" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-60800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>59600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-25800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-40200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>55700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>799600</v>
+        <v>-587800</v>
       </c>
       <c r="E102" s="3">
-        <v>-2000</v>
+        <v>790100</v>
       </c>
       <c r="F102" s="3">
-        <v>-846300</v>
+        <v>-1900</v>
       </c>
       <c r="G102" s="3">
-        <v>-2842800</v>
+        <v>-836200</v>
       </c>
       <c r="H102" s="3">
-        <v>4503200</v>
+        <v>-2808800</v>
       </c>
       <c r="I102" s="3">
-        <v>186200</v>
+        <v>4449400</v>
       </c>
       <c r="J102" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-831400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>748300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-219400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>239500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-180900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>37800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-243800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-182900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>357400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>462800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-582800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>259100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12529400</v>
+        <v>11693300</v>
       </c>
       <c r="E8" s="3">
-        <v>12315000</v>
+        <v>11653200</v>
       </c>
       <c r="F8" s="3">
-        <v>12654600</v>
+        <v>11453800</v>
       </c>
       <c r="G8" s="3">
-        <v>12909700</v>
+        <v>11769600</v>
       </c>
       <c r="H8" s="3">
-        <v>12483600</v>
+        <v>12008800</v>
       </c>
       <c r="I8" s="3">
-        <v>12408100</v>
+        <v>11610600</v>
       </c>
       <c r="J8" s="3">
+        <v>11540400</v>
+      </c>
+      <c r="K8" s="3">
         <v>13059300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12478400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12096100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11882400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12751900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11159600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13776500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13592300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13646800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12629400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12900500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13662200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14301700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7754600</v>
+        <v>7190300</v>
       </c>
       <c r="E9" s="3">
-        <v>7750900</v>
+        <v>7212300</v>
       </c>
       <c r="F9" s="3">
-        <v>8129000</v>
+        <v>7208900</v>
       </c>
       <c r="G9" s="3">
-        <v>8034800</v>
+        <v>7560500</v>
       </c>
       <c r="H9" s="3">
-        <v>7660300</v>
+        <v>7473000</v>
       </c>
       <c r="I9" s="3">
-        <v>7668300</v>
+        <v>7124600</v>
       </c>
       <c r="J9" s="3">
+        <v>7132000</v>
+      </c>
+      <c r="K9" s="3">
         <v>8045300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7880200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7601800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7449100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8145100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7177200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8761700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8738800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8946900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8120800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8143900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8743100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9511400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4774800</v>
+        <v>4502900</v>
       </c>
       <c r="E10" s="3">
-        <v>4564000</v>
+        <v>4440900</v>
       </c>
       <c r="F10" s="3">
-        <v>4525600</v>
+        <v>4244900</v>
       </c>
       <c r="G10" s="3">
-        <v>4874900</v>
+        <v>4209100</v>
       </c>
       <c r="H10" s="3">
-        <v>4823300</v>
+        <v>4535800</v>
       </c>
       <c r="I10" s="3">
-        <v>4739800</v>
+        <v>4486000</v>
       </c>
       <c r="J10" s="3">
+        <v>4408300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5014100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4598300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4494400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4433300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4606700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3982400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5014700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4853500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4699900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4508600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4756600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4919100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4790200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10311100</v>
+        <v>9513000</v>
       </c>
       <c r="E17" s="3">
-        <v>10273200</v>
+        <v>9590000</v>
       </c>
       <c r="F17" s="3">
-        <v>10648500</v>
+        <v>9554800</v>
       </c>
       <c r="G17" s="3">
-        <v>10673600</v>
+        <v>9903800</v>
       </c>
       <c r="H17" s="3">
-        <v>10453700</v>
+        <v>9927100</v>
       </c>
       <c r="I17" s="3">
-        <v>10477300</v>
+        <v>9722700</v>
       </c>
       <c r="J17" s="3">
+        <v>9744600</v>
+      </c>
+      <c r="K17" s="3">
         <v>10845200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10567300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10304600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10167600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10966000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9562600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11946800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11952100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12169600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12109300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11288800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12091800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12934200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2218300</v>
+        <v>2180200</v>
       </c>
       <c r="E18" s="3">
-        <v>2041700</v>
+        <v>2063200</v>
       </c>
       <c r="F18" s="3">
-        <v>2006100</v>
+        <v>1898900</v>
       </c>
       <c r="G18" s="3">
-        <v>2236200</v>
+        <v>1865800</v>
       </c>
       <c r="H18" s="3">
-        <v>2029900</v>
+        <v>2081700</v>
       </c>
       <c r="I18" s="3">
-        <v>1930700</v>
+        <v>1887900</v>
       </c>
       <c r="J18" s="3">
+        <v>1795700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2214200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1911100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1791500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1714800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1785900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1597000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1829700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1640200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1477100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>520200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1611700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1570400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1367400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1307500</v>
+        <v>-757600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1308700</v>
+        <v>1216000</v>
       </c>
       <c r="F20" s="3">
-        <v>1175000</v>
+        <v>-1217200</v>
       </c>
       <c r="G20" s="3">
-        <v>-661800</v>
+        <v>1092900</v>
       </c>
       <c r="H20" s="3">
-        <v>-57900</v>
+        <v>-615500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3397800</v>
+        <v>-53800</v>
       </c>
       <c r="J20" s="3">
+        <v>-3160200</v>
+      </c>
+      <c r="K20" s="3">
         <v>28800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-149200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-83200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>412500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-87400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>465600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>488400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-799300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-302700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1982600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5522500</v>
+        <v>3284700</v>
       </c>
       <c r="E21" s="3">
-        <v>2743100</v>
+        <v>5136300</v>
       </c>
       <c r="F21" s="3">
-        <v>5286600</v>
+        <v>2551200</v>
       </c>
       <c r="G21" s="3">
-        <v>3628300</v>
+        <v>4916900</v>
       </c>
       <c r="H21" s="3">
-        <v>4043100</v>
+        <v>3376500</v>
       </c>
       <c r="I21" s="3">
-        <v>452100</v>
+        <v>3760400</v>
       </c>
       <c r="J21" s="3">
+        <v>420500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4085100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3807900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3694600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4061300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3452300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3703700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2636400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4348700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2027800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1730200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3284700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5680800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2464400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>455800</v>
+        <v>394000</v>
       </c>
       <c r="E22" s="3">
-        <v>469500</v>
+        <v>423900</v>
       </c>
       <c r="F22" s="3">
-        <v>410800</v>
+        <v>436600</v>
       </c>
       <c r="G22" s="3">
-        <v>448700</v>
+        <v>382100</v>
       </c>
       <c r="H22" s="3">
-        <v>536000</v>
+        <v>417300</v>
       </c>
       <c r="I22" s="3">
-        <v>522800</v>
+        <v>498500</v>
       </c>
       <c r="J22" s="3">
+        <v>486300</v>
+      </c>
+      <c r="K22" s="3">
         <v>429200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>470500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>490500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>467100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>384700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>320900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>430100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>438700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>390200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>383500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>383000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>410400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>472200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3070000</v>
+        <v>1028700</v>
       </c>
       <c r="E23" s="3">
-        <v>263500</v>
+        <v>2855300</v>
       </c>
       <c r="F23" s="3">
-        <v>2770300</v>
+        <v>245100</v>
       </c>
       <c r="G23" s="3">
-        <v>1125600</v>
+        <v>2576600</v>
       </c>
       <c r="H23" s="3">
-        <v>1436000</v>
+        <v>1048800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1989900</v>
+        <v>1335600</v>
       </c>
       <c r="J23" s="3">
+        <v>-1850700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1813700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1291400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1217800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1660200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1313700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1741700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1689900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-453000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-662600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>926000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3142600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-127700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>881400</v>
+        <v>217300</v>
       </c>
       <c r="E24" s="3">
-        <v>126900</v>
+        <v>819700</v>
       </c>
       <c r="F24" s="3">
-        <v>896200</v>
+        <v>118000</v>
       </c>
       <c r="G24" s="3">
-        <v>107600</v>
+        <v>833500</v>
       </c>
       <c r="H24" s="3">
-        <v>404700</v>
+        <v>100100</v>
       </c>
       <c r="I24" s="3">
-        <v>-596400</v>
+        <v>376400</v>
       </c>
       <c r="J24" s="3">
+        <v>-554700</v>
+      </c>
+      <c r="K24" s="3">
         <v>760000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>574100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>497300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>677400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>629800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>853300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>675700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>148100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-236600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>136800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1241700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>140900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2188600</v>
+        <v>811400</v>
       </c>
       <c r="E26" s="3">
-        <v>136600</v>
+        <v>2035500</v>
       </c>
       <c r="F26" s="3">
-        <v>1874100</v>
+        <v>127100</v>
       </c>
       <c r="G26" s="3">
-        <v>1018000</v>
+        <v>1743000</v>
       </c>
       <c r="H26" s="3">
-        <v>1031300</v>
+        <v>948700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1393500</v>
+        <v>959200</v>
       </c>
       <c r="J26" s="3">
+        <v>-1296000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1053700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>717400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>720500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>982700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>684000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>888400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1014200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-601100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-426000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>789200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1900900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-268600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2124500</v>
+        <v>729700</v>
       </c>
       <c r="E27" s="3">
-        <v>89800</v>
+        <v>1975900</v>
       </c>
       <c r="F27" s="3">
-        <v>1851400</v>
+        <v>83500</v>
       </c>
       <c r="G27" s="3">
-        <v>935900</v>
+        <v>1722000</v>
       </c>
       <c r="H27" s="3">
-        <v>967600</v>
+        <v>872300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1432100</v>
+        <v>899900</v>
       </c>
       <c r="J27" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1051600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>655000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>694700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>945800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>670600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>849900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1006000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-584200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-493800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>740300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1854400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-317100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1307500</v>
+        <v>757600</v>
       </c>
       <c r="E32" s="3">
-        <v>1308700</v>
+        <v>-1216000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1175000</v>
+        <v>1217200</v>
       </c>
       <c r="G32" s="3">
-        <v>661800</v>
+        <v>-1092900</v>
       </c>
       <c r="H32" s="3">
-        <v>57900</v>
+        <v>615500</v>
       </c>
       <c r="I32" s="3">
-        <v>3397800</v>
+        <v>53800</v>
       </c>
       <c r="J32" s="3">
+        <v>3160200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>149200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>83200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-412500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>87400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-465600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1304200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-488400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1539900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>799300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>302700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1022900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2124500</v>
+        <v>729700</v>
       </c>
       <c r="E33" s="3">
-        <v>89800</v>
+        <v>1975900</v>
       </c>
       <c r="F33" s="3">
-        <v>1851400</v>
+        <v>83500</v>
       </c>
       <c r="G33" s="3">
-        <v>935900</v>
+        <v>1722000</v>
       </c>
       <c r="H33" s="3">
-        <v>967600</v>
+        <v>872300</v>
       </c>
       <c r="I33" s="3">
-        <v>-1432100</v>
+        <v>899900</v>
       </c>
       <c r="J33" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1051600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>655000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>694700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>945800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>670600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>849900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1006000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-584200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-493800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>740300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1854400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-317100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2124500</v>
+        <v>729700</v>
       </c>
       <c r="E35" s="3">
-        <v>89800</v>
+        <v>1975900</v>
       </c>
       <c r="F35" s="3">
-        <v>1851400</v>
+        <v>83500</v>
       </c>
       <c r="G35" s="3">
-        <v>935900</v>
+        <v>1722000</v>
       </c>
       <c r="H35" s="3">
-        <v>967600</v>
+        <v>872300</v>
       </c>
       <c r="I35" s="3">
-        <v>-1432100</v>
+        <v>899900</v>
       </c>
       <c r="J35" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1051600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>655000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>694700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>945800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>670600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>849900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1006000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-584200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-493800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>740300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1854400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-317100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1984500</v>
+        <v>1638600</v>
       </c>
       <c r="E41" s="3">
-        <v>2572300</v>
+        <v>1845700</v>
       </c>
       <c r="F41" s="3">
-        <v>1782200</v>
+        <v>2392400</v>
       </c>
       <c r="G41" s="3">
-        <v>1784200</v>
+        <v>1657600</v>
       </c>
       <c r="H41" s="3">
-        <v>2620400</v>
+        <v>1659400</v>
       </c>
       <c r="I41" s="3">
-        <v>5429200</v>
+        <v>2437100</v>
       </c>
       <c r="J41" s="3">
+        <v>5049500</v>
+      </c>
+      <c r="K41" s="3">
         <v>979800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>805400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1576600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>828300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>987700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>738500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1095100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1057300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1255300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1317000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1080800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>618100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1232900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3574200</v>
+        <v>3372000</v>
       </c>
       <c r="E42" s="3">
-        <v>3824500</v>
+        <v>3324300</v>
       </c>
       <c r="F42" s="3">
-        <v>2711100</v>
+        <v>3557100</v>
       </c>
       <c r="G42" s="3">
-        <v>3647100</v>
+        <v>2521500</v>
       </c>
       <c r="H42" s="3">
-        <v>4187000</v>
+        <v>3392100</v>
       </c>
       <c r="I42" s="3">
-        <v>4720400</v>
+        <v>3894200</v>
       </c>
       <c r="J42" s="3">
+        <v>4390300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2706500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3202300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2689300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2759400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2476200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2370200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3244900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3038100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3057700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2843300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2609400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2649100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2961200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10212200</v>
+        <v>9654600</v>
       </c>
       <c r="E43" s="3">
-        <v>10251000</v>
+        <v>9498000</v>
       </c>
       <c r="F43" s="3">
-        <v>10388900</v>
+        <v>9534100</v>
       </c>
       <c r="G43" s="3">
-        <v>10225100</v>
+        <v>9662400</v>
       </c>
       <c r="H43" s="3">
-        <v>10842900</v>
+        <v>9510000</v>
       </c>
       <c r="I43" s="3">
-        <v>11118700</v>
+        <v>10084600</v>
       </c>
       <c r="J43" s="3">
+        <v>10341200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10220700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10818600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10691600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10596500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9917600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8435500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10473200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10748300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10067000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8899400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8538300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9012400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10115500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1572900</v>
+        <v>1637000</v>
       </c>
       <c r="E44" s="3">
-        <v>1534200</v>
+        <v>1462900</v>
       </c>
       <c r="F44" s="3">
-        <v>1507300</v>
+        <v>1426900</v>
       </c>
       <c r="G44" s="3">
-        <v>1738100</v>
+        <v>1401900</v>
       </c>
       <c r="H44" s="3">
-        <v>1678000</v>
+        <v>1616600</v>
       </c>
       <c r="I44" s="3">
-        <v>1948600</v>
+        <v>1560600</v>
       </c>
       <c r="J44" s="3">
+        <v>1812300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2039500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2094000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1868600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2002600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1837900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1793500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2160200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1899300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2007200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1917600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1709900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1537100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1957900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>763500</v>
+        <v>621000</v>
       </c>
       <c r="E45" s="3">
-        <v>902100</v>
+        <v>710100</v>
       </c>
       <c r="F45" s="3">
-        <v>1484700</v>
+        <v>839000</v>
       </c>
       <c r="G45" s="3">
-        <v>725400</v>
+        <v>1380900</v>
       </c>
       <c r="H45" s="3">
-        <v>731900</v>
+        <v>674600</v>
       </c>
       <c r="I45" s="3">
-        <v>987000</v>
+        <v>680700</v>
       </c>
       <c r="J45" s="3">
+        <v>918000</v>
+      </c>
+      <c r="K45" s="3">
         <v>470100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>826100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>992300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1152900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>697500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1483600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2063200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1313200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1810100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1921800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2132700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1888000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18107300</v>
+        <v>16923300</v>
       </c>
       <c r="E46" s="3">
-        <v>19084200</v>
+        <v>16841000</v>
       </c>
       <c r="F46" s="3">
-        <v>17874300</v>
+        <v>17749600</v>
       </c>
       <c r="G46" s="3">
-        <v>18119900</v>
+        <v>16624300</v>
       </c>
       <c r="H46" s="3">
-        <v>20060100</v>
+        <v>16852700</v>
       </c>
       <c r="I46" s="3">
-        <v>24203900</v>
+        <v>18657200</v>
       </c>
       <c r="J46" s="3">
+        <v>22511300</v>
+      </c>
+      <c r="K46" s="3">
         <v>16416500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17746500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17818400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17339700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15916900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14821300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18973600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18806200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17700400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16787400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15860300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15949400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18155400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1013500</v>
+        <v>924700</v>
       </c>
       <c r="E47" s="3">
-        <v>944000</v>
+        <v>942600</v>
       </c>
       <c r="F47" s="3">
-        <v>477500</v>
+        <v>878000</v>
       </c>
       <c r="G47" s="3">
-        <v>1190400</v>
+        <v>444100</v>
       </c>
       <c r="H47" s="3">
-        <v>1362400</v>
+        <v>1107200</v>
       </c>
       <c r="I47" s="3">
-        <v>1567300</v>
+        <v>1267100</v>
       </c>
       <c r="J47" s="3">
+        <v>1457700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1600800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1178300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1460400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1490700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1383000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1214800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1526500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1472500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>699300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1118700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1107400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1302000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1314700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39885200</v>
+        <v>36887400</v>
       </c>
       <c r="E48" s="3">
-        <v>40146600</v>
+        <v>37096000</v>
       </c>
       <c r="F48" s="3">
-        <v>40931900</v>
+        <v>37339100</v>
       </c>
       <c r="G48" s="3">
-        <v>37369200</v>
+        <v>38069400</v>
       </c>
       <c r="H48" s="3">
-        <v>38544500</v>
+        <v>34755900</v>
       </c>
       <c r="I48" s="3">
-        <v>40024600</v>
+        <v>35849100</v>
       </c>
       <c r="J48" s="3">
+        <v>37225600</v>
+      </c>
+      <c r="K48" s="3">
         <v>37579500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36676600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36407300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36100900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29184000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26613100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33748900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33762800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34980500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32227700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31833800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33850400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>37233200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13346400</v>
+        <v>12197500</v>
       </c>
       <c r="E49" s="3">
-        <v>13466500</v>
+        <v>12413100</v>
       </c>
       <c r="F49" s="3">
-        <v>13720400</v>
+        <v>12524800</v>
       </c>
       <c r="G49" s="3">
-        <v>14224900</v>
+        <v>12760900</v>
       </c>
       <c r="H49" s="3">
-        <v>14663700</v>
+        <v>13230100</v>
       </c>
       <c r="I49" s="3">
-        <v>14619900</v>
+        <v>13638300</v>
       </c>
       <c r="J49" s="3">
+        <v>13597500</v>
+      </c>
+      <c r="K49" s="3">
         <v>13797800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13147500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13056800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13049200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12207300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11642600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14650200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14956900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15257500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14673600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14236500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14941100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16195600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7390900</v>
+        <v>7018500</v>
       </c>
       <c r="E52" s="3">
-        <v>7317800</v>
+        <v>6874000</v>
       </c>
       <c r="F52" s="3">
-        <v>7630900</v>
+        <v>6806000</v>
       </c>
       <c r="G52" s="3">
-        <v>7712000</v>
+        <v>7097200</v>
       </c>
       <c r="H52" s="3">
-        <v>7789200</v>
+        <v>7172700</v>
       </c>
       <c r="I52" s="3">
-        <v>7804400</v>
+        <v>7244500</v>
       </c>
       <c r="J52" s="3">
+        <v>7258600</v>
+      </c>
+      <c r="K52" s="3">
         <v>6619900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6427400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6579400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7017400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6481300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6697600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8521100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8046700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8229100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7359500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6860900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6958700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7549800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79743300</v>
+        <v>73951500</v>
       </c>
       <c r="E54" s="3">
-        <v>80959100</v>
+        <v>74166800</v>
       </c>
       <c r="F54" s="3">
-        <v>80634900</v>
+        <v>75297500</v>
       </c>
       <c r="G54" s="3">
-        <v>78616400</v>
+        <v>74996000</v>
       </c>
       <c r="H54" s="3">
-        <v>82419900</v>
+        <v>73118600</v>
       </c>
       <c r="I54" s="3">
-        <v>88220100</v>
+        <v>76656200</v>
       </c>
       <c r="J54" s="3">
+        <v>82050700</v>
+      </c>
+      <c r="K54" s="3">
         <v>76014500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75176300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75322200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74997800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65172600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60989500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77420400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77045000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76866900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>72166800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>69898900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73001700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>80448700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3446400</v>
+        <v>3227000</v>
       </c>
       <c r="E57" s="3">
-        <v>3070400</v>
+        <v>3205400</v>
       </c>
       <c r="F57" s="3">
-        <v>9278700</v>
+        <v>2855700</v>
       </c>
       <c r="G57" s="3">
-        <v>3988700</v>
+        <v>8629800</v>
       </c>
       <c r="H57" s="3">
-        <v>4000300</v>
+        <v>3709700</v>
       </c>
       <c r="I57" s="3">
-        <v>4608400</v>
+        <v>3720600</v>
       </c>
       <c r="J57" s="3">
+        <v>4286100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5625500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5135700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5055400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4898300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5399300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3993800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4678500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4062400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10999500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4611600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4629100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4428200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7051500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7223400</v>
+        <v>8056500</v>
       </c>
       <c r="E58" s="3">
-        <v>7011900</v>
+        <v>6718200</v>
       </c>
       <c r="F58" s="3">
-        <v>8591800</v>
+        <v>6521600</v>
       </c>
       <c r="G58" s="3">
-        <v>7396100</v>
+        <v>7990900</v>
       </c>
       <c r="H58" s="3">
-        <v>6266600</v>
+        <v>6878800</v>
       </c>
       <c r="I58" s="3">
-        <v>8272300</v>
+        <v>5828400</v>
       </c>
       <c r="J58" s="3">
+        <v>7693800</v>
+      </c>
+      <c r="K58" s="3">
         <v>7694400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7973700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8998400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9086400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4388100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3146600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3020500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3345400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2676300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3099800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2972500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3598300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4386400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14409000</v>
+        <v>13362900</v>
       </c>
       <c r="E59" s="3">
-        <v>14340500</v>
+        <v>13401400</v>
       </c>
       <c r="F59" s="3">
-        <v>7302300</v>
+        <v>13337700</v>
       </c>
       <c r="G59" s="3">
-        <v>13287400</v>
+        <v>6791600</v>
       </c>
       <c r="H59" s="3">
-        <v>14383700</v>
+        <v>12358200</v>
       </c>
       <c r="I59" s="3">
-        <v>13621300</v>
+        <v>13377800</v>
       </c>
       <c r="J59" s="3">
+        <v>12668700</v>
+      </c>
+      <c r="K59" s="3">
         <v>12750500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12871100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13067600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11819300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11511900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11884000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15386300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14455800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7702000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13215200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13507100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13257300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13519300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25078800</v>
+        <v>24646400</v>
       </c>
       <c r="E60" s="3">
-        <v>24422800</v>
+        <v>23325000</v>
       </c>
       <c r="F60" s="3">
-        <v>25172800</v>
+        <v>22714900</v>
       </c>
       <c r="G60" s="3">
-        <v>24672100</v>
+        <v>23412400</v>
       </c>
       <c r="H60" s="3">
-        <v>24650600</v>
+        <v>22946800</v>
       </c>
       <c r="I60" s="3">
-        <v>26502000</v>
+        <v>22926700</v>
       </c>
       <c r="J60" s="3">
+        <v>24648600</v>
+      </c>
+      <c r="K60" s="3">
         <v>26070300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25980600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27121400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25804100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21299300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19024500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23085300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21863600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21377800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20926500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21108600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21283900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24957200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27086500</v>
+        <v>23611200</v>
       </c>
       <c r="E61" s="3">
-        <v>30002600</v>
+        <v>25192300</v>
       </c>
       <c r="F61" s="3">
-        <v>28013400</v>
+        <v>27904500</v>
       </c>
       <c r="G61" s="3">
-        <v>32691200</v>
+        <v>26054400</v>
       </c>
       <c r="H61" s="3">
-        <v>36760200</v>
+        <v>30405100</v>
       </c>
       <c r="I61" s="3">
-        <v>40016500</v>
+        <v>34189500</v>
       </c>
       <c r="J61" s="3">
+        <v>37218100</v>
+      </c>
+      <c r="K61" s="3">
         <v>29265100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29181100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28148400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28189000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24746700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25887000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33785600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33220700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33418300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30704200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29149700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29845300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33197800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11873600</v>
+        <v>10822500</v>
       </c>
       <c r="E62" s="3">
-        <v>11967400</v>
+        <v>11043300</v>
       </c>
       <c r="F62" s="3">
-        <v>11812600</v>
+        <v>11130500</v>
       </c>
       <c r="G62" s="3">
-        <v>9898000</v>
+        <v>10986500</v>
       </c>
       <c r="H62" s="3">
-        <v>10148300</v>
+        <v>9205800</v>
       </c>
       <c r="I62" s="3">
-        <v>10171200</v>
+        <v>9438600</v>
       </c>
       <c r="J62" s="3">
+        <v>9459900</v>
+      </c>
+      <c r="K62" s="3">
         <v>9420000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8021300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7992700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8536300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7914700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7280900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8886500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8984200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8590800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7628800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7448600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7779300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7902400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67184900</v>
+        <v>62121600</v>
       </c>
       <c r="E66" s="3">
-        <v>69673300</v>
+        <v>62486500</v>
       </c>
       <c r="F66" s="3">
-        <v>68206100</v>
+        <v>64800900</v>
       </c>
       <c r="G66" s="3">
-        <v>70085000</v>
+        <v>63436400</v>
       </c>
       <c r="H66" s="3">
-        <v>74304900</v>
+        <v>65183900</v>
       </c>
       <c r="I66" s="3">
-        <v>79366700</v>
+        <v>69108600</v>
       </c>
       <c r="J66" s="3">
+        <v>73816500</v>
+      </c>
+      <c r="K66" s="3">
         <v>67186700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65675100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65625700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64950200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56235200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54425500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68498600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66819900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66824700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62512300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60788200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62022300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>69355300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15560400</v>
+        <v>14848800</v>
       </c>
       <c r="E72" s="3">
-        <v>13916400</v>
+        <v>14472300</v>
       </c>
       <c r="F72" s="3">
-        <v>15616300</v>
+        <v>12943200</v>
       </c>
       <c r="G72" s="3">
-        <v>12609800</v>
+        <v>14524200</v>
       </c>
       <c r="H72" s="3">
-        <v>11656200</v>
+        <v>11728000</v>
       </c>
       <c r="I72" s="3">
-        <v>11830900</v>
+        <v>10841100</v>
       </c>
       <c r="J72" s="3">
+        <v>11003600</v>
+      </c>
+      <c r="K72" s="3">
         <v>13522500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12739700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11561400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12175200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10371400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8678700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9361600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10518800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8848700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9134400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9340100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9646700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8020500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12558500</v>
+        <v>11829900</v>
       </c>
       <c r="E76" s="3">
-        <v>11285800</v>
+        <v>11680200</v>
       </c>
       <c r="F76" s="3">
-        <v>12428800</v>
+        <v>10496600</v>
       </c>
       <c r="G76" s="3">
-        <v>8531400</v>
+        <v>11559600</v>
       </c>
       <c r="H76" s="3">
-        <v>8115000</v>
+        <v>7934700</v>
       </c>
       <c r="I76" s="3">
-        <v>8853400</v>
+        <v>7547500</v>
       </c>
       <c r="J76" s="3">
+        <v>8234300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8827900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9501100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9696500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10047600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8937400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6564000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8921800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10225100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10042200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9654500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9110800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10979400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11093400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2124500</v>
+        <v>729700</v>
       </c>
       <c r="E81" s="3">
-        <v>89800</v>
+        <v>1975900</v>
       </c>
       <c r="F81" s="3">
-        <v>1851400</v>
+        <v>83500</v>
       </c>
       <c r="G81" s="3">
-        <v>935900</v>
+        <v>1722000</v>
       </c>
       <c r="H81" s="3">
-        <v>967600</v>
+        <v>872300</v>
       </c>
       <c r="I81" s="3">
-        <v>-1432100</v>
+        <v>899900</v>
       </c>
       <c r="J81" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1051600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>655000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>694700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>945800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>670600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>849900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1006000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-584200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-493800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>740300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1854400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-317100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1996800</v>
+        <v>1862100</v>
       </c>
       <c r="E83" s="3">
-        <v>2010100</v>
+        <v>1857100</v>
       </c>
       <c r="F83" s="3">
-        <v>2105500</v>
+        <v>1869500</v>
       </c>
       <c r="G83" s="3">
-        <v>2054000</v>
+        <v>1958300</v>
       </c>
       <c r="H83" s="3">
-        <v>2071100</v>
+        <v>1910300</v>
       </c>
       <c r="I83" s="3">
-        <v>1919100</v>
+        <v>1926300</v>
       </c>
       <c r="J83" s="3">
+        <v>1784900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1842200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2046000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1986300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1934000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1753800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1641100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2111000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2220100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2090600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2009300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1975700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2127800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2119900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3849400</v>
+        <v>3282800</v>
       </c>
       <c r="E89" s="3">
-        <v>2641500</v>
+        <v>3580200</v>
       </c>
       <c r="F89" s="3">
-        <v>3990900</v>
+        <v>2456800</v>
       </c>
       <c r="G89" s="3">
-        <v>4304300</v>
+        <v>3711800</v>
       </c>
       <c r="H89" s="3">
-        <v>4090500</v>
+        <v>4003300</v>
       </c>
       <c r="I89" s="3">
-        <v>1548900</v>
+        <v>3804500</v>
       </c>
       <c r="J89" s="3">
+        <v>1440600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4427000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3400500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3095400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>645900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4878800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2430700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3514300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1167800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4090900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2183600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3024800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1970700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4535500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1420400</v>
+        <v>-1526900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1182600</v>
+        <v>-1321100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1645000</v>
+        <v>-1099900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1350500</v>
+        <v>-1529900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1283000</v>
+        <v>-1256000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1125600</v>
+        <v>-1193200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1046800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1518900</v>
+        <v>-1482900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1399600</v>
+        <v>-1412700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2132100</v>
+        <v>-1301700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1390800</v>
+        <v>-1983000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1871800</v>
+        <v>-1293500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1331700</v>
+        <v>-1740900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1238500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98600</v>
+        <v>-600200</v>
       </c>
       <c r="E96" s="3">
-        <v>-400</v>
+        <v>-91700</v>
       </c>
       <c r="F96" s="3">
-        <v>-274500</v>
+        <v>-300</v>
       </c>
       <c r="G96" s="3">
-        <v>-200300</v>
+        <v>-255300</v>
       </c>
       <c r="H96" s="3">
+        <v>-186300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-547900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-587500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-72100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-474200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-468400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-82900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-490100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-255300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-86500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-236900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2926200</v>
+        <v>-1979600</v>
       </c>
       <c r="E100" s="3">
-        <v>-412600</v>
+        <v>-2721500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1720200</v>
+        <v>-383700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3711300</v>
+        <v>-1599900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4983700</v>
+        <v>-3451700</v>
       </c>
       <c r="I100" s="3">
-        <v>4117900</v>
+        <v>-4635200</v>
       </c>
       <c r="J100" s="3">
+        <v>3829900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-604400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>844900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-150900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-841300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7800</v>
+        <v>-27400</v>
       </c>
       <c r="E101" s="3">
-        <v>-39300</v>
+        <v>7300</v>
       </c>
       <c r="F101" s="3">
-        <v>-140600</v>
+        <v>-36500</v>
       </c>
       <c r="G101" s="3">
-        <v>-38400</v>
+        <v>-130700</v>
       </c>
       <c r="H101" s="3">
-        <v>-43800</v>
+        <v>-35700</v>
       </c>
       <c r="I101" s="3">
-        <v>114300</v>
+        <v>-40800</v>
       </c>
       <c r="J101" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-20500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-60800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-33100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>59600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-25800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-40200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>55700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-587800</v>
+        <v>-207100</v>
       </c>
       <c r="E102" s="3">
-        <v>790100</v>
+        <v>-546700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1900</v>
+        <v>734800</v>
       </c>
       <c r="G102" s="3">
-        <v>-836200</v>
+        <v>-1800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2808800</v>
+        <v>-777700</v>
       </c>
       <c r="I102" s="3">
-        <v>4449400</v>
+        <v>-2612400</v>
       </c>
       <c r="J102" s="3">
+        <v>4138300</v>
+      </c>
+      <c r="K102" s="3">
         <v>184000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-831400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>748300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-219400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>239500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-180900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>37800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-243800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-182900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>357400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>462800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-582800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>259100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11693300</v>
+        <v>30060200</v>
       </c>
       <c r="E8" s="3">
-        <v>11653200</v>
+        <v>12082500</v>
       </c>
       <c r="F8" s="3">
-        <v>11453800</v>
+        <v>11875700</v>
       </c>
       <c r="G8" s="3">
-        <v>11769600</v>
+        <v>12203200</v>
       </c>
       <c r="H8" s="3">
-        <v>12008800</v>
+        <v>12451100</v>
       </c>
       <c r="I8" s="3">
-        <v>11610600</v>
+        <v>12038300</v>
       </c>
       <c r="J8" s="3">
-        <v>11540400</v>
+        <v>11965500</v>
       </c>
       <c r="K8" s="3">
         <v>13059300</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7190300</v>
+        <v>17823900</v>
       </c>
       <c r="E9" s="3">
-        <v>7212300</v>
+        <v>7478000</v>
       </c>
       <c r="F9" s="3">
-        <v>7208900</v>
+        <v>7474400</v>
       </c>
       <c r="G9" s="3">
-        <v>7560500</v>
+        <v>7839000</v>
       </c>
       <c r="H9" s="3">
-        <v>7473000</v>
+        <v>7748200</v>
       </c>
       <c r="I9" s="3">
-        <v>7124600</v>
+        <v>7387000</v>
       </c>
       <c r="J9" s="3">
-        <v>7132000</v>
+        <v>7394700</v>
       </c>
       <c r="K9" s="3">
         <v>8045300</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4502900</v>
+        <v>12236300</v>
       </c>
       <c r="E10" s="3">
-        <v>4440900</v>
+        <v>4604500</v>
       </c>
       <c r="F10" s="3">
-        <v>4244900</v>
+        <v>4401200</v>
       </c>
       <c r="G10" s="3">
-        <v>4209100</v>
+        <v>4364200</v>
       </c>
       <c r="H10" s="3">
-        <v>4535800</v>
+        <v>4702900</v>
       </c>
       <c r="I10" s="3">
-        <v>4486000</v>
+        <v>4651200</v>
       </c>
       <c r="J10" s="3">
-        <v>4408300</v>
+        <v>4570700</v>
       </c>
       <c r="K10" s="3">
         <v>5014100</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9513000</v>
+        <v>24398500</v>
       </c>
       <c r="E17" s="3">
-        <v>9590000</v>
+        <v>9943300</v>
       </c>
       <c r="F17" s="3">
-        <v>9554800</v>
+        <v>9906800</v>
       </c>
       <c r="G17" s="3">
-        <v>9903800</v>
+        <v>10268600</v>
       </c>
       <c r="H17" s="3">
-        <v>9927100</v>
+        <v>10292800</v>
       </c>
       <c r="I17" s="3">
-        <v>9722700</v>
+        <v>10080800</v>
       </c>
       <c r="J17" s="3">
-        <v>9744600</v>
+        <v>10103600</v>
       </c>
       <c r="K17" s="3">
         <v>10845200</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2180200</v>
+        <v>5661700</v>
       </c>
       <c r="E18" s="3">
-        <v>2063200</v>
+        <v>2139200</v>
       </c>
       <c r="F18" s="3">
-        <v>1898900</v>
+        <v>1968900</v>
       </c>
       <c r="G18" s="3">
-        <v>1865800</v>
+        <v>1934500</v>
       </c>
       <c r="H18" s="3">
-        <v>2081700</v>
+        <v>2158400</v>
       </c>
       <c r="I18" s="3">
-        <v>1887900</v>
+        <v>1957500</v>
       </c>
       <c r="J18" s="3">
-        <v>1795700</v>
+        <v>1861900</v>
       </c>
       <c r="K18" s="3">
         <v>2214200</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-757600</v>
+        <v>-786600</v>
       </c>
       <c r="E20" s="3">
-        <v>1216000</v>
+        <v>1260800</v>
       </c>
       <c r="F20" s="3">
-        <v>-1217200</v>
+        <v>-1262000</v>
       </c>
       <c r="G20" s="3">
-        <v>1092900</v>
+        <v>1133100</v>
       </c>
       <c r="H20" s="3">
-        <v>-615500</v>
+        <v>-638200</v>
       </c>
       <c r="I20" s="3">
-        <v>-53800</v>
+        <v>-55800</v>
       </c>
       <c r="J20" s="3">
-        <v>-3160200</v>
+        <v>-3276600</v>
       </c>
       <c r="K20" s="3">
         <v>28800</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3284700</v>
+        <v>10669600</v>
       </c>
       <c r="E21" s="3">
-        <v>5136300</v>
+        <v>5325500</v>
       </c>
       <c r="F21" s="3">
-        <v>2551200</v>
+        <v>2645200</v>
       </c>
       <c r="G21" s="3">
-        <v>4916900</v>
+        <v>5098100</v>
       </c>
       <c r="H21" s="3">
-        <v>3376500</v>
+        <v>3500900</v>
       </c>
       <c r="I21" s="3">
-        <v>3760400</v>
+        <v>3898900</v>
       </c>
       <c r="J21" s="3">
-        <v>420500</v>
+        <v>436000</v>
       </c>
       <c r="K21" s="3">
         <v>4085100</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>394000</v>
+        <v>1300800</v>
       </c>
       <c r="E22" s="3">
-        <v>423900</v>
+        <v>439500</v>
       </c>
       <c r="F22" s="3">
-        <v>436600</v>
+        <v>452700</v>
       </c>
       <c r="G22" s="3">
-        <v>382100</v>
+        <v>396200</v>
       </c>
       <c r="H22" s="3">
-        <v>417300</v>
+        <v>432700</v>
       </c>
       <c r="I22" s="3">
-        <v>498500</v>
+        <v>516900</v>
       </c>
       <c r="J22" s="3">
-        <v>486300</v>
+        <v>504200</v>
       </c>
       <c r="K22" s="3">
         <v>429200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1028700</v>
+        <v>3574300</v>
       </c>
       <c r="E23" s="3">
-        <v>2855300</v>
+        <v>2960500</v>
       </c>
       <c r="F23" s="3">
-        <v>245100</v>
+        <v>254100</v>
       </c>
       <c r="G23" s="3">
-        <v>2576600</v>
+        <v>2671500</v>
       </c>
       <c r="H23" s="3">
-        <v>1048800</v>
+        <v>1087400</v>
       </c>
       <c r="I23" s="3">
-        <v>1335600</v>
+        <v>1384800</v>
       </c>
       <c r="J23" s="3">
-        <v>-1850700</v>
+        <v>-1918900</v>
       </c>
       <c r="K23" s="3">
         <v>1813700</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>217300</v>
+        <v>1094900</v>
       </c>
       <c r="E24" s="3">
-        <v>819700</v>
+        <v>849900</v>
       </c>
       <c r="F24" s="3">
-        <v>118000</v>
+        <v>122400</v>
       </c>
       <c r="G24" s="3">
-        <v>833500</v>
+        <v>864300</v>
       </c>
       <c r="H24" s="3">
-        <v>100100</v>
+        <v>103800</v>
       </c>
       <c r="I24" s="3">
-        <v>376400</v>
+        <v>390200</v>
       </c>
       <c r="J24" s="3">
-        <v>-554700</v>
+        <v>-575200</v>
       </c>
       <c r="K24" s="3">
         <v>760000</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>811400</v>
+        <v>2479400</v>
       </c>
       <c r="E26" s="3">
-        <v>2035500</v>
+        <v>2110500</v>
       </c>
       <c r="F26" s="3">
-        <v>127100</v>
+        <v>131800</v>
       </c>
       <c r="G26" s="3">
-        <v>1743000</v>
+        <v>1807200</v>
       </c>
       <c r="H26" s="3">
-        <v>948700</v>
+        <v>983700</v>
       </c>
       <c r="I26" s="3">
-        <v>959200</v>
+        <v>994500</v>
       </c>
       <c r="J26" s="3">
-        <v>-1296000</v>
+        <v>-1343800</v>
       </c>
       <c r="K26" s="3">
         <v>1053700</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>729700</v>
+        <v>2287700</v>
       </c>
       <c r="E27" s="3">
-        <v>1975900</v>
+        <v>2048700</v>
       </c>
       <c r="F27" s="3">
-        <v>83500</v>
+        <v>86600</v>
       </c>
       <c r="G27" s="3">
-        <v>1722000</v>
+        <v>1785400</v>
       </c>
       <c r="H27" s="3">
-        <v>872300</v>
+        <v>904500</v>
       </c>
       <c r="I27" s="3">
-        <v>899900</v>
+        <v>933100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1332000</v>
+        <v>-1381000</v>
       </c>
       <c r="K27" s="3">
         <v>1051600</v>
@@ -2066,25 +2066,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>604200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>757600</v>
+        <v>786600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1216000</v>
+        <v>-1260800</v>
       </c>
       <c r="F32" s="3">
-        <v>1217200</v>
+        <v>1262000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1092900</v>
+        <v>-1133100</v>
       </c>
       <c r="H32" s="3">
-        <v>615500</v>
+        <v>638200</v>
       </c>
       <c r="I32" s="3">
-        <v>53800</v>
+        <v>55800</v>
       </c>
       <c r="J32" s="3">
-        <v>3160200</v>
+        <v>3276600</v>
       </c>
       <c r="K32" s="3">
         <v>-28800</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>729700</v>
+        <v>2891900</v>
       </c>
       <c r="E33" s="3">
-        <v>1975900</v>
+        <v>2048700</v>
       </c>
       <c r="F33" s="3">
-        <v>83500</v>
+        <v>86600</v>
       </c>
       <c r="G33" s="3">
-        <v>1722000</v>
+        <v>1785400</v>
       </c>
       <c r="H33" s="3">
-        <v>872300</v>
+        <v>904500</v>
       </c>
       <c r="I33" s="3">
-        <v>899900</v>
+        <v>933100</v>
       </c>
       <c r="J33" s="3">
-        <v>-1332000</v>
+        <v>-1381000</v>
       </c>
       <c r="K33" s="3">
         <v>1051600</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>729700</v>
+        <v>2891900</v>
       </c>
       <c r="E35" s="3">
-        <v>1975900</v>
+        <v>2048700</v>
       </c>
       <c r="F35" s="3">
-        <v>83500</v>
+        <v>86600</v>
       </c>
       <c r="G35" s="3">
-        <v>1722000</v>
+        <v>1785400</v>
       </c>
       <c r="H35" s="3">
-        <v>872300</v>
+        <v>904500</v>
       </c>
       <c r="I35" s="3">
-        <v>899900</v>
+        <v>933100</v>
       </c>
       <c r="J35" s="3">
-        <v>-1332000</v>
+        <v>-1381000</v>
       </c>
       <c r="K35" s="3">
         <v>1051600</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1638600</v>
+        <v>1698900</v>
       </c>
       <c r="E41" s="3">
-        <v>1845700</v>
+        <v>1913700</v>
       </c>
       <c r="F41" s="3">
-        <v>2392400</v>
+        <v>2480500</v>
       </c>
       <c r="G41" s="3">
-        <v>1657600</v>
+        <v>1718700</v>
       </c>
       <c r="H41" s="3">
-        <v>1659400</v>
+        <v>1720500</v>
       </c>
       <c r="I41" s="3">
-        <v>2437100</v>
+        <v>2526900</v>
       </c>
       <c r="J41" s="3">
-        <v>5049500</v>
+        <v>5235500</v>
       </c>
       <c r="K41" s="3">
         <v>979800</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3372000</v>
+        <v>3496300</v>
       </c>
       <c r="E42" s="3">
-        <v>3324300</v>
+        <v>3446700</v>
       </c>
       <c r="F42" s="3">
-        <v>3557100</v>
+        <v>3688100</v>
       </c>
       <c r="G42" s="3">
-        <v>2521500</v>
+        <v>2614400</v>
       </c>
       <c r="H42" s="3">
-        <v>3392100</v>
+        <v>3517000</v>
       </c>
       <c r="I42" s="3">
-        <v>3894200</v>
+        <v>4037600</v>
       </c>
       <c r="J42" s="3">
-        <v>4390300</v>
+        <v>4552000</v>
       </c>
       <c r="K42" s="3">
         <v>2706500</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9654600</v>
+        <v>10010300</v>
       </c>
       <c r="E43" s="3">
-        <v>9498000</v>
+        <v>9847900</v>
       </c>
       <c r="F43" s="3">
-        <v>9534100</v>
+        <v>9885300</v>
       </c>
       <c r="G43" s="3">
-        <v>9662400</v>
+        <v>10018300</v>
       </c>
       <c r="H43" s="3">
-        <v>9510000</v>
+        <v>9860400</v>
       </c>
       <c r="I43" s="3">
-        <v>10084600</v>
+        <v>10456100</v>
       </c>
       <c r="J43" s="3">
-        <v>10341200</v>
+        <v>10722100</v>
       </c>
       <c r="K43" s="3">
         <v>10220700</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1637000</v>
+        <v>1697300</v>
       </c>
       <c r="E44" s="3">
-        <v>1462900</v>
+        <v>1516800</v>
       </c>
       <c r="F44" s="3">
-        <v>1426900</v>
+        <v>1479500</v>
       </c>
       <c r="G44" s="3">
-        <v>1401900</v>
+        <v>1453600</v>
       </c>
       <c r="H44" s="3">
-        <v>1616600</v>
+        <v>1676100</v>
       </c>
       <c r="I44" s="3">
-        <v>1560600</v>
+        <v>1618100</v>
       </c>
       <c r="J44" s="3">
-        <v>1812300</v>
+        <v>1879100</v>
       </c>
       <c r="K44" s="3">
         <v>2039500</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>621000</v>
+        <v>643900</v>
       </c>
       <c r="E45" s="3">
-        <v>710100</v>
+        <v>736200</v>
       </c>
       <c r="F45" s="3">
-        <v>839000</v>
+        <v>870000</v>
       </c>
       <c r="G45" s="3">
-        <v>1380900</v>
+        <v>1431800</v>
       </c>
       <c r="H45" s="3">
-        <v>674600</v>
+        <v>699500</v>
       </c>
       <c r="I45" s="3">
-        <v>680700</v>
+        <v>705800</v>
       </c>
       <c r="J45" s="3">
-        <v>918000</v>
+        <v>951800</v>
       </c>
       <c r="K45" s="3">
         <v>470100</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16923300</v>
+        <v>17546700</v>
       </c>
       <c r="E46" s="3">
-        <v>16841000</v>
+        <v>17461400</v>
       </c>
       <c r="F46" s="3">
-        <v>17749600</v>
+        <v>18403400</v>
       </c>
       <c r="G46" s="3">
-        <v>16624300</v>
+        <v>17236700</v>
       </c>
       <c r="H46" s="3">
-        <v>16852700</v>
+        <v>17473500</v>
       </c>
       <c r="I46" s="3">
-        <v>18657200</v>
+        <v>19344500</v>
       </c>
       <c r="J46" s="3">
-        <v>22511300</v>
+        <v>23340600</v>
       </c>
       <c r="K46" s="3">
         <v>16416500</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>924700</v>
+        <v>958700</v>
       </c>
       <c r="E47" s="3">
-        <v>942600</v>
+        <v>977300</v>
       </c>
       <c r="F47" s="3">
-        <v>878000</v>
+        <v>910400</v>
       </c>
       <c r="G47" s="3">
-        <v>444100</v>
+        <v>460400</v>
       </c>
       <c r="H47" s="3">
-        <v>1107200</v>
+        <v>1147900</v>
       </c>
       <c r="I47" s="3">
-        <v>1267100</v>
+        <v>1313800</v>
       </c>
       <c r="J47" s="3">
-        <v>1457700</v>
+        <v>1511400</v>
       </c>
       <c r="K47" s="3">
         <v>1600800</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36887400</v>
+        <v>38246200</v>
       </c>
       <c r="E48" s="3">
-        <v>37096000</v>
+        <v>38462500</v>
       </c>
       <c r="F48" s="3">
-        <v>37339100</v>
+        <v>38714500</v>
       </c>
       <c r="G48" s="3">
-        <v>38069400</v>
+        <v>39471800</v>
       </c>
       <c r="H48" s="3">
-        <v>34755900</v>
+        <v>36036200</v>
       </c>
       <c r="I48" s="3">
-        <v>35849100</v>
+        <v>37169600</v>
       </c>
       <c r="J48" s="3">
-        <v>37225600</v>
+        <v>38596800</v>
       </c>
       <c r="K48" s="3">
         <v>37579500</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12197500</v>
+        <v>12646800</v>
       </c>
       <c r="E49" s="3">
-        <v>12413100</v>
+        <v>12870300</v>
       </c>
       <c r="F49" s="3">
-        <v>12524800</v>
+        <v>12986200</v>
       </c>
       <c r="G49" s="3">
-        <v>12760900</v>
+        <v>13231000</v>
       </c>
       <c r="H49" s="3">
-        <v>13230100</v>
+        <v>13717500</v>
       </c>
       <c r="I49" s="3">
-        <v>13638300</v>
+        <v>14140600</v>
       </c>
       <c r="J49" s="3">
-        <v>13597500</v>
+        <v>14098400</v>
       </c>
       <c r="K49" s="3">
         <v>13797800</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7018500</v>
+        <v>7277100</v>
       </c>
       <c r="E52" s="3">
-        <v>6874000</v>
+        <v>7127300</v>
       </c>
       <c r="F52" s="3">
-        <v>6806000</v>
+        <v>7056800</v>
       </c>
       <c r="G52" s="3">
-        <v>7097200</v>
+        <v>7358700</v>
       </c>
       <c r="H52" s="3">
-        <v>7172700</v>
+        <v>7436900</v>
       </c>
       <c r="I52" s="3">
-        <v>7244500</v>
+        <v>7511400</v>
       </c>
       <c r="J52" s="3">
-        <v>7258600</v>
+        <v>7526000</v>
       </c>
       <c r="K52" s="3">
         <v>6619900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73951500</v>
+        <v>76675600</v>
       </c>
       <c r="E54" s="3">
-        <v>74166800</v>
+        <v>76898800</v>
       </c>
       <c r="F54" s="3">
-        <v>75297500</v>
+        <v>78071200</v>
       </c>
       <c r="G54" s="3">
-        <v>74996000</v>
+        <v>77758600</v>
       </c>
       <c r="H54" s="3">
-        <v>73118600</v>
+        <v>75812000</v>
       </c>
       <c r="I54" s="3">
-        <v>76656200</v>
+        <v>79479900</v>
       </c>
       <c r="J54" s="3">
-        <v>82050700</v>
+        <v>85073200</v>
       </c>
       <c r="K54" s="3">
         <v>76014500</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3227000</v>
+        <v>3345800</v>
       </c>
       <c r="E57" s="3">
-        <v>3205400</v>
+        <v>3323500</v>
       </c>
       <c r="F57" s="3">
-        <v>2855700</v>
+        <v>2960900</v>
       </c>
       <c r="G57" s="3">
-        <v>8629800</v>
+        <v>8947700</v>
       </c>
       <c r="H57" s="3">
-        <v>3709700</v>
+        <v>3846400</v>
       </c>
       <c r="I57" s="3">
-        <v>3720600</v>
+        <v>3857600</v>
       </c>
       <c r="J57" s="3">
-        <v>4286100</v>
+        <v>4444000</v>
       </c>
       <c r="K57" s="3">
         <v>5625500</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8056500</v>
+        <v>8353300</v>
       </c>
       <c r="E58" s="3">
-        <v>6718200</v>
+        <v>6965700</v>
       </c>
       <c r="F58" s="3">
-        <v>6521600</v>
+        <v>6761800</v>
       </c>
       <c r="G58" s="3">
-        <v>7990900</v>
+        <v>8285300</v>
       </c>
       <c r="H58" s="3">
-        <v>6878800</v>
+        <v>7132200</v>
       </c>
       <c r="I58" s="3">
-        <v>5828400</v>
+        <v>6043100</v>
       </c>
       <c r="J58" s="3">
-        <v>7693800</v>
+        <v>7977200</v>
       </c>
       <c r="K58" s="3">
         <v>7694400</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13362900</v>
+        <v>13855100</v>
       </c>
       <c r="E59" s="3">
-        <v>13401400</v>
+        <v>13895000</v>
       </c>
       <c r="F59" s="3">
-        <v>13337700</v>
+        <v>13829000</v>
       </c>
       <c r="G59" s="3">
-        <v>6791600</v>
+        <v>7041800</v>
       </c>
       <c r="H59" s="3">
-        <v>12358200</v>
+        <v>12813400</v>
       </c>
       <c r="I59" s="3">
-        <v>13377800</v>
+        <v>13870600</v>
       </c>
       <c r="J59" s="3">
-        <v>12668700</v>
+        <v>13135400</v>
       </c>
       <c r="K59" s="3">
         <v>12750500</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24646400</v>
+        <v>25554300</v>
       </c>
       <c r="E60" s="3">
-        <v>23325000</v>
+        <v>24184200</v>
       </c>
       <c r="F60" s="3">
-        <v>22714900</v>
+        <v>23551600</v>
       </c>
       <c r="G60" s="3">
-        <v>23412400</v>
+        <v>24274800</v>
       </c>
       <c r="H60" s="3">
-        <v>22946800</v>
+        <v>23792000</v>
       </c>
       <c r="I60" s="3">
-        <v>22926700</v>
+        <v>23771300</v>
       </c>
       <c r="J60" s="3">
-        <v>24648600</v>
+        <v>25556600</v>
       </c>
       <c r="K60" s="3">
         <v>26070300</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23611200</v>
+        <v>24481000</v>
       </c>
       <c r="E61" s="3">
-        <v>25192300</v>
+        <v>26120300</v>
       </c>
       <c r="F61" s="3">
-        <v>27904500</v>
+        <v>28932400</v>
       </c>
       <c r="G61" s="3">
-        <v>26054400</v>
+        <v>27014200</v>
       </c>
       <c r="H61" s="3">
-        <v>30405100</v>
+        <v>31525100</v>
       </c>
       <c r="I61" s="3">
-        <v>34189500</v>
+        <v>35448900</v>
       </c>
       <c r="J61" s="3">
-        <v>37218100</v>
+        <v>38589100</v>
       </c>
       <c r="K61" s="3">
         <v>29265100</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10822500</v>
+        <v>11221100</v>
       </c>
       <c r="E62" s="3">
-        <v>11043300</v>
+        <v>11450100</v>
       </c>
       <c r="F62" s="3">
-        <v>11130500</v>
+        <v>11540500</v>
       </c>
       <c r="G62" s="3">
-        <v>10986500</v>
+        <v>11391200</v>
       </c>
       <c r="H62" s="3">
-        <v>9205800</v>
+        <v>9544900</v>
       </c>
       <c r="I62" s="3">
-        <v>9438600</v>
+        <v>9786300</v>
       </c>
       <c r="J62" s="3">
-        <v>9459900</v>
+        <v>9808400</v>
       </c>
       <c r="K62" s="3">
         <v>9420000</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62121600</v>
+        <v>64410000</v>
       </c>
       <c r="E66" s="3">
-        <v>62486500</v>
+        <v>64788300</v>
       </c>
       <c r="F66" s="3">
-        <v>64800900</v>
+        <v>67187900</v>
       </c>
       <c r="G66" s="3">
-        <v>63436400</v>
+        <v>65773100</v>
       </c>
       <c r="H66" s="3">
-        <v>65183900</v>
+        <v>67585000</v>
       </c>
       <c r="I66" s="3">
-        <v>69108600</v>
+        <v>71654400</v>
       </c>
       <c r="J66" s="3">
-        <v>73816500</v>
+        <v>76535600</v>
       </c>
       <c r="K66" s="3">
         <v>67186700</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14848800</v>
+        <v>15395800</v>
       </c>
       <c r="E72" s="3">
-        <v>14472300</v>
+        <v>15005400</v>
       </c>
       <c r="F72" s="3">
-        <v>12943200</v>
+        <v>13420000</v>
       </c>
       <c r="G72" s="3">
-        <v>14524200</v>
+        <v>15059300</v>
       </c>
       <c r="H72" s="3">
-        <v>11728000</v>
+        <v>12160000</v>
       </c>
       <c r="I72" s="3">
-        <v>10841100</v>
+        <v>11240400</v>
       </c>
       <c r="J72" s="3">
-        <v>11003600</v>
+        <v>11408900</v>
       </c>
       <c r="K72" s="3">
         <v>13522500</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11829900</v>
+        <v>12265600</v>
       </c>
       <c r="E76" s="3">
-        <v>11680200</v>
+        <v>12110500</v>
       </c>
       <c r="F76" s="3">
-        <v>10496600</v>
+        <v>10883200</v>
       </c>
       <c r="G76" s="3">
-        <v>11559600</v>
+        <v>11985400</v>
       </c>
       <c r="H76" s="3">
-        <v>7934700</v>
+        <v>8227000</v>
       </c>
       <c r="I76" s="3">
-        <v>7547500</v>
+        <v>7825600</v>
       </c>
       <c r="J76" s="3">
-        <v>8234300</v>
+        <v>8537600</v>
       </c>
       <c r="K76" s="3">
         <v>8827900</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>729700</v>
+        <v>2891900</v>
       </c>
       <c r="E81" s="3">
-        <v>1975900</v>
+        <v>2048700</v>
       </c>
       <c r="F81" s="3">
-        <v>83500</v>
+        <v>86600</v>
       </c>
       <c r="G81" s="3">
-        <v>1722000</v>
+        <v>1785400</v>
       </c>
       <c r="H81" s="3">
-        <v>872300</v>
+        <v>904500</v>
       </c>
       <c r="I81" s="3">
-        <v>899900</v>
+        <v>933100</v>
       </c>
       <c r="J81" s="3">
-        <v>-1332000</v>
+        <v>-1381000</v>
       </c>
       <c r="K81" s="3">
         <v>1051600</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1862100</v>
+        <v>5794500</v>
       </c>
       <c r="E83" s="3">
-        <v>1857100</v>
+        <v>1925500</v>
       </c>
       <c r="F83" s="3">
-        <v>1869500</v>
+        <v>1938400</v>
       </c>
       <c r="G83" s="3">
-        <v>1958300</v>
+        <v>2030400</v>
       </c>
       <c r="H83" s="3">
-        <v>1910300</v>
+        <v>1980700</v>
       </c>
       <c r="I83" s="3">
-        <v>1926300</v>
+        <v>1997300</v>
       </c>
       <c r="J83" s="3">
-        <v>1784900</v>
+        <v>1850700</v>
       </c>
       <c r="K83" s="3">
         <v>1842200</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3282800</v>
+        <v>9663100</v>
       </c>
       <c r="E89" s="3">
-        <v>3580200</v>
+        <v>3712100</v>
       </c>
       <c r="F89" s="3">
-        <v>2456800</v>
+        <v>2547300</v>
       </c>
       <c r="G89" s="3">
-        <v>3711800</v>
+        <v>3848600</v>
       </c>
       <c r="H89" s="3">
-        <v>4003300</v>
+        <v>4150700</v>
       </c>
       <c r="I89" s="3">
-        <v>3804500</v>
+        <v>3944600</v>
       </c>
       <c r="J89" s="3">
-        <v>1440600</v>
+        <v>1493700</v>
       </c>
       <c r="K89" s="3">
         <v>4427000</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1526900</v>
+        <v>-4093300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1321100</v>
+        <v>-1369700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1099900</v>
+        <v>-1140500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1529900</v>
+        <v>-1586300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1256000</v>
+        <v>-1302300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1193200</v>
+        <v>-1237200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1046800</v>
+        <v>-1085400</v>
       </c>
       <c r="K91" s="3">
         <v>-2097200</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1482900</v>
+        <v>-4351900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1412700</v>
+        <v>-1464700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1301700</v>
+        <v>-1349700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1983000</v>
+        <v>-2056100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1293500</v>
+        <v>-1341200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1740900</v>
+        <v>-1805100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1238500</v>
+        <v>-1284200</v>
       </c>
       <c r="K94" s="3">
         <v>-2944300</v>
@@ -6024,19 +6024,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-600200</v>
+        <v>-717800</v>
       </c>
       <c r="E96" s="3">
-        <v>-91700</v>
+        <v>-95100</v>
       </c>
       <c r="F96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G96" s="3">
-        <v>-255300</v>
+        <v>-264700</v>
       </c>
       <c r="H96" s="3">
-        <v>-186300</v>
+        <v>-193100</v>
       </c>
       <c r="I96" s="3">
         <v>-300</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1979600</v>
+        <v>-5272100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2721500</v>
+        <v>-2821800</v>
       </c>
       <c r="F100" s="3">
-        <v>-383700</v>
+        <v>-397800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1599900</v>
+        <v>-1658800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3451700</v>
+        <v>-3578900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4635200</v>
+        <v>-4805900</v>
       </c>
       <c r="J100" s="3">
-        <v>3829900</v>
+        <v>3971000</v>
       </c>
       <c r="K100" s="3">
         <v>-1278300</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-27400</v>
+        <v>-58800</v>
       </c>
       <c r="E101" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F101" s="3">
-        <v>-36500</v>
+        <v>-37900</v>
       </c>
       <c r="G101" s="3">
-        <v>-130700</v>
+        <v>-135600</v>
       </c>
       <c r="H101" s="3">
-        <v>-35700</v>
+        <v>-37100</v>
       </c>
       <c r="I101" s="3">
-        <v>-40800</v>
+        <v>-42300</v>
       </c>
       <c r="J101" s="3">
-        <v>106300</v>
+        <v>110200</v>
       </c>
       <c r="K101" s="3">
         <v>-20500</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-207100</v>
+        <v>-19700</v>
       </c>
       <c r="E102" s="3">
-        <v>-546700</v>
+        <v>-566900</v>
       </c>
       <c r="F102" s="3">
-        <v>734800</v>
+        <v>761900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H102" s="3">
-        <v>-777700</v>
+        <v>-806400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2612400</v>
+        <v>-2708600</v>
       </c>
       <c r="J102" s="3">
-        <v>4138300</v>
+        <v>4290700</v>
       </c>
       <c r="K102" s="3">
         <v>184000</v>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30060200</v>
+        <v>10434500</v>
       </c>
       <c r="E8" s="3">
-        <v>12082500</v>
+        <v>11229500</v>
       </c>
       <c r="F8" s="3">
-        <v>11875700</v>
+        <v>31033900</v>
       </c>
       <c r="G8" s="3">
-        <v>12203200</v>
+        <v>12473900</v>
       </c>
       <c r="H8" s="3">
-        <v>12451100</v>
+        <v>12260400</v>
       </c>
       <c r="I8" s="3">
+        <v>12598500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12854500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12038300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11965500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13059300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12478400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12096100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11882400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12751900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>11159600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13776500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>13592300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13646800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12629400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12900500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>13662200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>14301700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17823900</v>
+        <v>6165000</v>
       </c>
       <c r="E9" s="3">
-        <v>7478000</v>
+        <v>6480900</v>
       </c>
       <c r="F9" s="3">
-        <v>7474400</v>
+        <v>18401200</v>
       </c>
       <c r="G9" s="3">
-        <v>7839000</v>
+        <v>7720200</v>
       </c>
       <c r="H9" s="3">
-        <v>7748200</v>
+        <v>7716600</v>
       </c>
       <c r="I9" s="3">
+        <v>8092900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7999200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7387000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7394700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8045300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7880200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7601800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7449100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8145100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7177200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8761700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8738800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8946900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8120800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8143900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8743100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>9511400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12236300</v>
+        <v>4269500</v>
       </c>
       <c r="E10" s="3">
-        <v>4604500</v>
+        <v>4748600</v>
       </c>
       <c r="F10" s="3">
-        <v>4401200</v>
+        <v>12632700</v>
       </c>
       <c r="G10" s="3">
-        <v>4364200</v>
+        <v>4753600</v>
       </c>
       <c r="H10" s="3">
-        <v>4702900</v>
+        <v>4543800</v>
       </c>
       <c r="I10" s="3">
+        <v>4505500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4855300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4651200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4570700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5014100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4598300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4494400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4433300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4606700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3982400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5014700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4853500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4699900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4508600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4756600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4919100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>4790200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24398500</v>
+        <v>8466500</v>
       </c>
       <c r="E17" s="3">
-        <v>9943300</v>
+        <v>8867700</v>
       </c>
       <c r="F17" s="3">
-        <v>9906800</v>
+        <v>25188800</v>
       </c>
       <c r="G17" s="3">
-        <v>10268600</v>
+        <v>10265400</v>
       </c>
       <c r="H17" s="3">
-        <v>10292800</v>
+        <v>10227700</v>
       </c>
       <c r="I17" s="3">
+        <v>10601200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10626200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10080800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10103600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10845200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10567300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10304600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10167600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10966000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9562600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11946800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11952100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12169600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>12109300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>11288800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>12091800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>12934200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5661700</v>
+        <v>1968100</v>
       </c>
       <c r="E18" s="3">
-        <v>2139200</v>
+        <v>2361800</v>
       </c>
       <c r="F18" s="3">
-        <v>1968900</v>
+        <v>5845100</v>
       </c>
       <c r="G18" s="3">
-        <v>1934500</v>
+        <v>2208500</v>
       </c>
       <c r="H18" s="3">
-        <v>2158400</v>
+        <v>2032700</v>
       </c>
       <c r="I18" s="3">
+        <v>1997200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2228300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1957500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1861900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2214200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1911100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1791500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1714800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1785900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1829700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1640200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1477100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>520200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1611700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1570400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1367400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-786600</v>
+        <v>848000</v>
       </c>
       <c r="E20" s="3">
-        <v>1260800</v>
+        <v>-538900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1262000</v>
+        <v>-812100</v>
       </c>
       <c r="G20" s="3">
-        <v>1133100</v>
+        <v>1301700</v>
       </c>
       <c r="H20" s="3">
-        <v>-638200</v>
+        <v>-1302900</v>
       </c>
       <c r="I20" s="3">
+        <v>1169800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-658900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-55800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3276600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>28800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-149200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-83200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>412500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-87400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>465600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>488400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-799300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-302700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1982600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10669600</v>
+        <v>4856500</v>
       </c>
       <c r="E21" s="3">
-        <v>5325500</v>
+        <v>3874500</v>
       </c>
       <c r="F21" s="3">
-        <v>2645200</v>
+        <v>11015200</v>
       </c>
       <c r="G21" s="3">
-        <v>5098100</v>
+        <v>5498000</v>
       </c>
       <c r="H21" s="3">
-        <v>3500900</v>
+        <v>2730900</v>
       </c>
       <c r="I21" s="3">
+        <v>5263200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3614300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3898900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>436000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4085100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3807900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3694600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4061300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3452300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3703700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2636400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4348700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2027800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1730200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>3284700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>5680800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2464400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300800</v>
+        <v>486300</v>
       </c>
       <c r="E22" s="3">
-        <v>439500</v>
+        <v>436700</v>
       </c>
       <c r="F22" s="3">
-        <v>452700</v>
+        <v>1342900</v>
       </c>
       <c r="G22" s="3">
-        <v>396200</v>
+        <v>453800</v>
       </c>
       <c r="H22" s="3">
-        <v>432700</v>
+        <v>467400</v>
       </c>
       <c r="I22" s="3">
+        <v>409000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>446700</v>
+      </c>
+      <c r="K22" s="3">
         <v>516900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>504200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>429200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>470500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>490500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>467100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>384700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>320900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>430100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>438700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>390200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>383500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>383000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>410400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>472200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3574300</v>
+        <v>2329800</v>
       </c>
       <c r="E23" s="3">
-        <v>2960500</v>
+        <v>1386300</v>
       </c>
       <c r="F23" s="3">
-        <v>254100</v>
+        <v>3690100</v>
       </c>
       <c r="G23" s="3">
-        <v>2671500</v>
+        <v>3056300</v>
       </c>
       <c r="H23" s="3">
-        <v>1087400</v>
+        <v>262400</v>
       </c>
       <c r="I23" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1122700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1384800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1918900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1813700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1291400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1217800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1660200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1313700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1741700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>95400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1689900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-453000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-662600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>926000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3142600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-127700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1094900</v>
+        <v>750500</v>
       </c>
       <c r="E24" s="3">
-        <v>849900</v>
+        <v>260000</v>
       </c>
       <c r="F24" s="3">
-        <v>122400</v>
+        <v>1130400</v>
       </c>
       <c r="G24" s="3">
-        <v>864300</v>
+        <v>877500</v>
       </c>
       <c r="H24" s="3">
-        <v>103800</v>
+        <v>126300</v>
       </c>
       <c r="I24" s="3">
+        <v>892200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K24" s="3">
         <v>390200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-575200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>760000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>574100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>497300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>677400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>629800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>853300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>36100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>675700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>148100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-236600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>136800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1241700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>140900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2479400</v>
+        <v>1579300</v>
       </c>
       <c r="E26" s="3">
-        <v>2110500</v>
+        <v>1126300</v>
       </c>
       <c r="F26" s="3">
-        <v>131800</v>
+        <v>2559700</v>
       </c>
       <c r="G26" s="3">
-        <v>1807200</v>
+        <v>2178900</v>
       </c>
       <c r="H26" s="3">
-        <v>983700</v>
+        <v>136000</v>
       </c>
       <c r="I26" s="3">
+        <v>1865800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="K26" s="3">
         <v>994500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1343800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1053700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>717400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>720500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>982700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>684000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>888400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>59300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1014200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-601100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-426000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>789200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1900900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-268600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2287700</v>
+        <v>1521400</v>
       </c>
       <c r="E27" s="3">
-        <v>2048700</v>
+        <v>1131300</v>
       </c>
       <c r="F27" s="3">
-        <v>86600</v>
+        <v>2361800</v>
       </c>
       <c r="G27" s="3">
-        <v>1785400</v>
+        <v>2115100</v>
       </c>
       <c r="H27" s="3">
-        <v>904500</v>
+        <v>89400</v>
       </c>
       <c r="I27" s="3">
+        <v>1843200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>933800</v>
+      </c>
+      <c r="K27" s="3">
         <v>933100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1381000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1051600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>655000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>694700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>945800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>670600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>849900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>23300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1006000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-584200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-493800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>740300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1854400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-317100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,19 +2175,25 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>604200</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5566700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>623700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2086,11 +2207,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>786600</v>
+        <v>-848000</v>
       </c>
       <c r="E32" s="3">
-        <v>-1260800</v>
+        <v>538900</v>
       </c>
       <c r="F32" s="3">
-        <v>1262000</v>
+        <v>812100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1133100</v>
+        <v>-1301700</v>
       </c>
       <c r="H32" s="3">
-        <v>638200</v>
+        <v>1302900</v>
       </c>
       <c r="I32" s="3">
+        <v>-1169800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>658900</v>
+      </c>
+      <c r="K32" s="3">
         <v>55800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3276600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-28800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>149200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>83200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-412500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>87400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-465600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1304200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-488400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1539900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>799300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>302700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1022900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2891900</v>
+        <v>1521400</v>
       </c>
       <c r="E33" s="3">
-        <v>2048700</v>
+        <v>6698100</v>
       </c>
       <c r="F33" s="3">
-        <v>86600</v>
+        <v>2985600</v>
       </c>
       <c r="G33" s="3">
-        <v>1785400</v>
+        <v>2115100</v>
       </c>
       <c r="H33" s="3">
-        <v>904500</v>
+        <v>89400</v>
       </c>
       <c r="I33" s="3">
+        <v>1843200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>933800</v>
+      </c>
+      <c r="K33" s="3">
         <v>933100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1381000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1051600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>655000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>694700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>945800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>670600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>849900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1006000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-584200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-493800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>740300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1854400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-317100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2891900</v>
+        <v>1521400</v>
       </c>
       <c r="E35" s="3">
-        <v>2048700</v>
+        <v>6698100</v>
       </c>
       <c r="F35" s="3">
-        <v>86600</v>
+        <v>2985600</v>
       </c>
       <c r="G35" s="3">
-        <v>1785400</v>
+        <v>2115100</v>
       </c>
       <c r="H35" s="3">
-        <v>904500</v>
+        <v>89400</v>
       </c>
       <c r="I35" s="3">
+        <v>1843200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>933800</v>
+      </c>
+      <c r="K35" s="3">
         <v>933100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1381000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1051600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>655000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>694700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>945800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>670600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>849900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1006000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-584200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-493800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>740300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1854400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-317100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1698900</v>
+        <v>2740400</v>
       </c>
       <c r="E41" s="3">
-        <v>1913700</v>
+        <v>1910800</v>
       </c>
       <c r="F41" s="3">
-        <v>2480500</v>
+        <v>1754000</v>
       </c>
       <c r="G41" s="3">
-        <v>1718700</v>
+        <v>1975700</v>
       </c>
       <c r="H41" s="3">
-        <v>1720500</v>
+        <v>2560900</v>
       </c>
       <c r="I41" s="3">
+        <v>1774300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1776300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2526900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5235500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>979800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>805400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1576600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>828300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>987700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>738500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1095100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1057300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1255300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1317000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1080800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>618100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1232900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3496300</v>
+        <v>6322800</v>
       </c>
       <c r="E42" s="3">
-        <v>3446700</v>
+        <v>6283500</v>
       </c>
       <c r="F42" s="3">
-        <v>3688100</v>
+        <v>3609500</v>
       </c>
       <c r="G42" s="3">
-        <v>2614400</v>
+        <v>3558400</v>
       </c>
       <c r="H42" s="3">
-        <v>3517000</v>
+        <v>3807600</v>
       </c>
       <c r="I42" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3631000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4037600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4552000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2706500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3202300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2689300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2759400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2476200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2370200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3244900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3038100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3057700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2843300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2609400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2649100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2961200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10010300</v>
+        <v>10427500</v>
       </c>
       <c r="E43" s="3">
-        <v>9847900</v>
+        <v>10077900</v>
       </c>
       <c r="F43" s="3">
-        <v>9885300</v>
+        <v>10334500</v>
       </c>
       <c r="G43" s="3">
-        <v>10018300</v>
+        <v>10166900</v>
       </c>
       <c r="H43" s="3">
-        <v>9860400</v>
+        <v>10205500</v>
       </c>
       <c r="I43" s="3">
+        <v>10342800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10179800</v>
+      </c>
+      <c r="K43" s="3">
         <v>10456100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10722100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10220700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10818600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10691600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10596500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9917600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>8435500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>10473200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>10748300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>10067000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>8899400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>8538300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>9012400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>10115500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1697300</v>
+        <v>1635500</v>
       </c>
       <c r="E44" s="3">
-        <v>1516800</v>
+        <v>1194800</v>
       </c>
       <c r="F44" s="3">
-        <v>1479500</v>
+        <v>1752300</v>
       </c>
       <c r="G44" s="3">
-        <v>1453600</v>
+        <v>1566000</v>
       </c>
       <c r="H44" s="3">
-        <v>1676100</v>
+        <v>1527400</v>
       </c>
       <c r="I44" s="3">
+        <v>1500600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1730400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1618100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1879100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2039500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2094000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1868600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2002600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1837900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1793500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2160200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1899300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2007200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1917600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1709900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1537100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1957900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>643900</v>
+        <v>995900</v>
       </c>
       <c r="E45" s="3">
-        <v>736200</v>
+        <v>466900</v>
       </c>
       <c r="F45" s="3">
-        <v>870000</v>
+        <v>664800</v>
       </c>
       <c r="G45" s="3">
-        <v>1431800</v>
+        <v>760100</v>
       </c>
       <c r="H45" s="3">
-        <v>699500</v>
+        <v>898100</v>
       </c>
       <c r="I45" s="3">
+        <v>1478200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>722100</v>
+      </c>
+      <c r="K45" s="3">
         <v>705800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>951800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>470100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>826100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>992300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1152900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>697500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1483600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2000200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2063200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1313200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1810100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1921800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2132700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1888000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17546700</v>
+        <v>22122100</v>
       </c>
       <c r="E46" s="3">
-        <v>17461400</v>
+        <v>19933800</v>
       </c>
       <c r="F46" s="3">
-        <v>18403400</v>
+        <v>18115100</v>
       </c>
       <c r="G46" s="3">
-        <v>17236700</v>
+        <v>18027000</v>
       </c>
       <c r="H46" s="3">
-        <v>17473500</v>
+        <v>18999500</v>
       </c>
       <c r="I46" s="3">
+        <v>17795000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>18039600</v>
+      </c>
+      <c r="K46" s="3">
         <v>19344500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>23340600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16416500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>17746500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>17818400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>17339700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15916900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>14821300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>18973600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>18806200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>17700400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>16787400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15860300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>15949400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>18155400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>958700</v>
+        <v>1535000</v>
       </c>
       <c r="E47" s="3">
-        <v>977300</v>
+        <v>1416200</v>
       </c>
       <c r="F47" s="3">
-        <v>910400</v>
+        <v>989800</v>
       </c>
       <c r="G47" s="3">
-        <v>460400</v>
+        <v>1009000</v>
       </c>
       <c r="H47" s="3">
-        <v>1147900</v>
+        <v>939800</v>
       </c>
       <c r="I47" s="3">
+        <v>475400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1185100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1313800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1511400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1600800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1178300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1460400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1490700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1383000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1214800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1526500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1472500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>699300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1118700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1107400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1302000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1314700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38246200</v>
+        <v>42199300</v>
       </c>
       <c r="E48" s="3">
-        <v>38462500</v>
+        <v>40585500</v>
       </c>
       <c r="F48" s="3">
-        <v>38714500</v>
+        <v>39485100</v>
       </c>
       <c r="G48" s="3">
-        <v>39471800</v>
+        <v>39708400</v>
       </c>
       <c r="H48" s="3">
-        <v>36036200</v>
+        <v>39968600</v>
       </c>
       <c r="I48" s="3">
+        <v>40750400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37203500</v>
+      </c>
+      <c r="K48" s="3">
         <v>37169600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>38596800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>37579500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>36676600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>36407300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>36100900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>29184000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>26613100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>33748900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>33762800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>34980500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>32227700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>31833800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>33850400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>37233200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12646800</v>
+        <v>13912200</v>
       </c>
       <c r="E49" s="3">
-        <v>12870300</v>
+        <v>13822300</v>
       </c>
       <c r="F49" s="3">
-        <v>12986200</v>
+        <v>13056500</v>
       </c>
       <c r="G49" s="3">
-        <v>13231000</v>
+        <v>13287300</v>
       </c>
       <c r="H49" s="3">
-        <v>13717500</v>
+        <v>13406800</v>
       </c>
       <c r="I49" s="3">
+        <v>13659600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14161800</v>
+      </c>
+      <c r="K49" s="3">
         <v>14140600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14098400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13797800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13147500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13056800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13049200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12207300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11642600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>14650200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14956900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15257500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14673600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>14236500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14941100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>16195600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7277100</v>
+        <v>8057500</v>
       </c>
       <c r="E52" s="3">
-        <v>7127300</v>
+        <v>7599100</v>
       </c>
       <c r="F52" s="3">
-        <v>7056800</v>
+        <v>7512800</v>
       </c>
       <c r="G52" s="3">
-        <v>7358700</v>
+        <v>7358100</v>
       </c>
       <c r="H52" s="3">
-        <v>7436900</v>
+        <v>7285300</v>
       </c>
       <c r="I52" s="3">
+        <v>7597000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7677800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7511400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7526000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6619900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6427400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6579400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7017400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6481300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6697600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>8521100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8046700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>8229100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>7359500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>6860900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>6958700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>7549800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76675600</v>
+        <v>87826200</v>
       </c>
       <c r="E54" s="3">
-        <v>76898800</v>
+        <v>83356900</v>
       </c>
       <c r="F54" s="3">
-        <v>78071200</v>
+        <v>79159300</v>
       </c>
       <c r="G54" s="3">
-        <v>77758600</v>
+        <v>79389800</v>
       </c>
       <c r="H54" s="3">
-        <v>75812000</v>
+        <v>80600100</v>
       </c>
       <c r="I54" s="3">
+        <v>80277400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>78267800</v>
+      </c>
+      <c r="K54" s="3">
         <v>79479900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>85073200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>76014500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>75176300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>75322200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>74997800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>65172600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60989500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>77420400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>77045000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>76866900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>72166800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>69898900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>73001700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>80448700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3345800</v>
+        <v>3644700</v>
       </c>
       <c r="E57" s="3">
-        <v>3323500</v>
+        <v>11463800</v>
       </c>
       <c r="F57" s="3">
-        <v>2960900</v>
+        <v>3454200</v>
       </c>
       <c r="G57" s="3">
-        <v>8947700</v>
+        <v>3431200</v>
       </c>
       <c r="H57" s="3">
-        <v>3846400</v>
+        <v>3056800</v>
       </c>
       <c r="I57" s="3">
+        <v>9237600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3971000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3857600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4444000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5625500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5135700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5055400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4898300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5399300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3993800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4678500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4062400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>10999500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4611600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4629100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4428200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7051500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8353300</v>
+        <v>9250300</v>
       </c>
       <c r="E58" s="3">
-        <v>6965700</v>
+        <v>8535100</v>
       </c>
       <c r="F58" s="3">
-        <v>6761800</v>
+        <v>8623900</v>
       </c>
       <c r="G58" s="3">
-        <v>8285300</v>
+        <v>7191300</v>
       </c>
       <c r="H58" s="3">
-        <v>7132200</v>
+        <v>6980800</v>
       </c>
       <c r="I58" s="3">
+        <v>8553700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7363300</v>
+      </c>
+      <c r="K58" s="3">
         <v>6043100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7977200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7694400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7973700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8998400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9086400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4388100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3146600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3020500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3345400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2676300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3099800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2972500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3598300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4386400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13855100</v>
+        <v>15766400</v>
       </c>
       <c r="E59" s="3">
-        <v>13895000</v>
+        <v>6091700</v>
       </c>
       <c r="F59" s="3">
-        <v>13829000</v>
+        <v>14303900</v>
       </c>
       <c r="G59" s="3">
-        <v>7041800</v>
+        <v>14345100</v>
       </c>
       <c r="H59" s="3">
-        <v>12813400</v>
+        <v>14277000</v>
       </c>
       <c r="I59" s="3">
+        <v>7269900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13228500</v>
+      </c>
+      <c r="K59" s="3">
         <v>13870600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13135400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12750500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12871100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13067600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11819300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11511900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11884000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>15386300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>14455800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7702000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>13215200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>13507100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>13257300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>13519300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25554300</v>
+        <v>28661400</v>
       </c>
       <c r="E60" s="3">
-        <v>24184200</v>
+        <v>26090500</v>
       </c>
       <c r="F60" s="3">
-        <v>23551600</v>
+        <v>26382000</v>
       </c>
       <c r="G60" s="3">
-        <v>24274800</v>
+        <v>24967600</v>
       </c>
       <c r="H60" s="3">
-        <v>23792000</v>
+        <v>24314500</v>
       </c>
       <c r="I60" s="3">
+        <v>25061100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>24562700</v>
+      </c>
+      <c r="K60" s="3">
         <v>23771300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>25556600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26070300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>25980600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>27121400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>25804100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>21299300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19024500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>23085300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>21863600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>21377800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>20926500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>21108600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>21283900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>24957200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24481000</v>
+        <v>25540400</v>
       </c>
       <c r="E61" s="3">
-        <v>26120300</v>
+        <v>24197600</v>
       </c>
       <c r="F61" s="3">
-        <v>28932400</v>
+        <v>25274000</v>
       </c>
       <c r="G61" s="3">
-        <v>27014200</v>
+        <v>26966400</v>
       </c>
       <c r="H61" s="3">
-        <v>31525100</v>
+        <v>29869600</v>
       </c>
       <c r="I61" s="3">
+        <v>27889200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>32546300</v>
+      </c>
+      <c r="K61" s="3">
         <v>35448900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>38589100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>29265100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>29181100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>28148400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>28189000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>24746700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>25887000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>33785600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>33220700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>33418300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>30704200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>29149700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>29845300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>33197800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11221100</v>
+        <v>10454200</v>
       </c>
       <c r="E62" s="3">
-        <v>11450100</v>
+        <v>10461200</v>
       </c>
       <c r="F62" s="3">
-        <v>11540500</v>
+        <v>11584600</v>
       </c>
       <c r="G62" s="3">
-        <v>11391200</v>
+        <v>11821000</v>
       </c>
       <c r="H62" s="3">
-        <v>9544900</v>
+        <v>11914300</v>
       </c>
       <c r="I62" s="3">
+        <v>11760200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9854100</v>
+      </c>
+      <c r="K62" s="3">
         <v>9786300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9808400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9420000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8021300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7992700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8536300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7914700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7280900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>8886500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8984200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8590800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>7628800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>7448600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>7779300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>7902400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64410000</v>
+        <v>67840000</v>
       </c>
       <c r="E66" s="3">
-        <v>64788300</v>
+        <v>63931000</v>
       </c>
       <c r="F66" s="3">
-        <v>67187900</v>
+        <v>66496400</v>
       </c>
       <c r="G66" s="3">
-        <v>65773100</v>
+        <v>66887000</v>
       </c>
       <c r="H66" s="3">
-        <v>67585000</v>
+        <v>69364400</v>
       </c>
       <c r="I66" s="3">
+        <v>67903700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>69774300</v>
+      </c>
+      <c r="K66" s="3">
         <v>71654400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>76535600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>67186700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>65675100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>65625700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>64950200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>56235200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>54425500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>68498600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>66819900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>66824700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>62512300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>60788200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>62022300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>69355300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15395800</v>
+        <v>29840900</v>
       </c>
       <c r="E72" s="3">
-        <v>15005400</v>
+        <v>22293900</v>
       </c>
       <c r="F72" s="3">
-        <v>13420000</v>
+        <v>15894500</v>
       </c>
       <c r="G72" s="3">
-        <v>15059300</v>
+        <v>15491400</v>
       </c>
       <c r="H72" s="3">
-        <v>12160000</v>
+        <v>13854700</v>
       </c>
       <c r="I72" s="3">
+        <v>15547100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>12553900</v>
+      </c>
+      <c r="K72" s="3">
         <v>11240400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11408900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>13522500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12739700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11561400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>12175200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>10371400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8678700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>9361600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>10518800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8848700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9134400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9340100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>9646700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>8020500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12265600</v>
+        <v>19986300</v>
       </c>
       <c r="E76" s="3">
-        <v>12110500</v>
+        <v>19425900</v>
       </c>
       <c r="F76" s="3">
-        <v>10883200</v>
+        <v>12662900</v>
       </c>
       <c r="G76" s="3">
-        <v>11985400</v>
+        <v>12502800</v>
       </c>
       <c r="H76" s="3">
-        <v>8227000</v>
+        <v>11235800</v>
       </c>
       <c r="I76" s="3">
+        <v>12373700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8493500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7825600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8537600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8827900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9501100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9696500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10047600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8937400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6564000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8921800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10225100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10042200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9654500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>9110800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10979400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11093400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2891900</v>
+        <v>1521400</v>
       </c>
       <c r="E81" s="3">
-        <v>2048700</v>
+        <v>6698100</v>
       </c>
       <c r="F81" s="3">
-        <v>86600</v>
+        <v>2985600</v>
       </c>
       <c r="G81" s="3">
-        <v>1785400</v>
+        <v>2115100</v>
       </c>
       <c r="H81" s="3">
-        <v>904500</v>
+        <v>89400</v>
       </c>
       <c r="I81" s="3">
+        <v>1843200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>933800</v>
+      </c>
+      <c r="K81" s="3">
         <v>933100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1381000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1051600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>655000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>694700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>945800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>670600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>849900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1006000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-584200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-493800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>740300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1854400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-317100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5794500</v>
+        <v>2040400</v>
       </c>
       <c r="E83" s="3">
-        <v>1925500</v>
+        <v>2051500</v>
       </c>
       <c r="F83" s="3">
-        <v>1938400</v>
+        <v>5982200</v>
       </c>
       <c r="G83" s="3">
-        <v>2030400</v>
+        <v>1987900</v>
       </c>
       <c r="H83" s="3">
-        <v>1980700</v>
+        <v>2001100</v>
       </c>
       <c r="I83" s="3">
+        <v>2096200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2044900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1997300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1850700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1842200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2046000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1986300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1934000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1753800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1641100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2111000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2220100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2090600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2009300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1975700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2127800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2119900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9663100</v>
+        <v>1152400</v>
       </c>
       <c r="E89" s="3">
-        <v>3712100</v>
+        <v>2778000</v>
       </c>
       <c r="F89" s="3">
-        <v>2547300</v>
+        <v>9976200</v>
       </c>
       <c r="G89" s="3">
-        <v>3848600</v>
+        <v>3832400</v>
       </c>
       <c r="H89" s="3">
-        <v>4150700</v>
+        <v>2629800</v>
       </c>
       <c r="I89" s="3">
+        <v>3973200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4285200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3944600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1493700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4427000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3400500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3095400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>645900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4878800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2430700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3514300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1167800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4090900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2183600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3024800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1970700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4535500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4093300</v>
+        <v>-1343200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1369700</v>
+        <v>-2983100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1140500</v>
+        <v>-4225900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1586300</v>
+        <v>-1414100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1302300</v>
+        <v>-1177400</v>
       </c>
       <c r="I91" s="3">
+        <v>-1637700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1344500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1237200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1085400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4351900</v>
+        <v>-1415300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1464700</v>
+        <v>712800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1349700</v>
+        <v>-4492900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2056100</v>
+        <v>-1512200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1341200</v>
+        <v>-1393400</v>
       </c>
       <c r="I94" s="3">
+        <v>-2122700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1384600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1805100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1284200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-717800</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
-        <v>-95100</v>
+        <v>-633800</v>
       </c>
       <c r="F96" s="3">
+        <v>-741000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-264700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-193100</v>
-      </c>
       <c r="I96" s="3">
+        <v>-273300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-199400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-547900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-587500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-72100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-474200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-468400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-82900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-490100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-255300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-86500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-236900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5272100</v>
+        <v>1168200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2821800</v>
+        <v>-3319000</v>
       </c>
       <c r="F100" s="3">
-        <v>-397800</v>
+        <v>-5442900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1658800</v>
+        <v>-2913200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3578900</v>
+        <v>-410700</v>
       </c>
       <c r="I100" s="3">
+        <v>-1712600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3694800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4805900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3971000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-604400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>844900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-46600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-150900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-841300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-58800</v>
+        <v>-75700</v>
       </c>
       <c r="E101" s="3">
-        <v>7500</v>
+        <v>-15000</v>
       </c>
       <c r="F101" s="3">
-        <v>-37900</v>
+        <v>-60700</v>
       </c>
       <c r="G101" s="3">
-        <v>-135600</v>
+        <v>7800</v>
       </c>
       <c r="H101" s="3">
-        <v>-37100</v>
+        <v>-39100</v>
       </c>
       <c r="I101" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-42300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>110200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-20500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-60800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-10200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>16200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-33100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>59600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>9600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-25800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-40200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>55700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19700</v>
+        <v>829600</v>
       </c>
       <c r="E102" s="3">
-        <v>-566900</v>
+        <v>156800</v>
       </c>
       <c r="F102" s="3">
-        <v>761900</v>
+        <v>-20400</v>
       </c>
       <c r="G102" s="3">
+        <v>-585200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>786600</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-806400</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-832500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2708600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4290700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>184000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-831400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>748300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-219400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>239500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-180900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>37800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-243800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-182900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>357400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>462800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-582800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>259100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10434500</v>
+        <v>10917400</v>
       </c>
       <c r="E8" s="3">
-        <v>11229500</v>
+        <v>10607700</v>
       </c>
       <c r="F8" s="3">
-        <v>31033900</v>
+        <v>42965000</v>
       </c>
       <c r="G8" s="3">
-        <v>12473900</v>
+        <v>12724500</v>
       </c>
       <c r="H8" s="3">
-        <v>12260400</v>
+        <v>10566100</v>
       </c>
       <c r="I8" s="3">
-        <v>12598500</v>
+        <v>10359700</v>
       </c>
       <c r="J8" s="3">
+        <v>10603700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12854500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12038300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11965500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13059300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12478400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12096100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11882400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12751900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11159600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13776500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13592300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13646800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12629400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12900500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13662200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14301700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6165000</v>
+        <v>6385100</v>
       </c>
       <c r="E9" s="3">
-        <v>6480900</v>
+        <v>6267300</v>
       </c>
       <c r="F9" s="3">
-        <v>18401200</v>
+        <v>25295100</v>
       </c>
       <c r="G9" s="3">
-        <v>7720200</v>
+        <v>7824400</v>
       </c>
       <c r="H9" s="3">
-        <v>7716600</v>
+        <v>6250600</v>
       </c>
       <c r="I9" s="3">
-        <v>8092900</v>
+        <v>6177300</v>
       </c>
       <c r="J9" s="3">
+        <v>6516200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7999200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7387000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7394700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8045300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7880200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7601800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7449100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8145100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7177200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8761700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8738800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8946900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8120800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8143900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8743100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9511400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4269500</v>
+        <v>4532300</v>
       </c>
       <c r="E10" s="3">
-        <v>4748600</v>
+        <v>4340400</v>
       </c>
       <c r="F10" s="3">
-        <v>12632700</v>
+        <v>17669800</v>
       </c>
       <c r="G10" s="3">
-        <v>4753600</v>
+        <v>4900100</v>
       </c>
       <c r="H10" s="3">
-        <v>4543800</v>
+        <v>4315500</v>
       </c>
       <c r="I10" s="3">
-        <v>4505500</v>
+        <v>4182400</v>
       </c>
       <c r="J10" s="3">
+        <v>4087600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4855300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4651200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4570700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5014100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4598300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4494400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4433300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4606700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3982400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5014700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4853500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4699900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4508600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4756600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4919100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4790200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8466500</v>
+        <v>8860400</v>
       </c>
       <c r="E17" s="3">
-        <v>8867700</v>
+        <v>8607000</v>
       </c>
       <c r="F17" s="3">
-        <v>25188800</v>
+        <v>34621800</v>
       </c>
       <c r="G17" s="3">
-        <v>10265400</v>
+        <v>10352000</v>
       </c>
       <c r="H17" s="3">
-        <v>10227700</v>
+        <v>8586800</v>
       </c>
       <c r="I17" s="3">
-        <v>10601200</v>
+        <v>8474300</v>
       </c>
       <c r="J17" s="3">
+        <v>8847300</v>
+      </c>
+      <c r="K17" s="3">
         <v>10626200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10080800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10103600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10845200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10567300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10304600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10167600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10966000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9562600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11946800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11952100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12169600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12109300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11288800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12091800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12934200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1968100</v>
+        <v>2057000</v>
       </c>
       <c r="E18" s="3">
-        <v>2361800</v>
+        <v>2000700</v>
       </c>
       <c r="F18" s="3">
-        <v>5845100</v>
+        <v>8343200</v>
       </c>
       <c r="G18" s="3">
-        <v>2208500</v>
+        <v>2372500</v>
       </c>
       <c r="H18" s="3">
-        <v>2032700</v>
+        <v>1979300</v>
       </c>
       <c r="I18" s="3">
-        <v>1997200</v>
+        <v>1885400</v>
       </c>
       <c r="J18" s="3">
+        <v>1756400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2228300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1957500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1861900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2214200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1911100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1791500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1714800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1785900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1597000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1829700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1640200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1477100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>520200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1611700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1570400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1367400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>848000</v>
+        <v>-359000</v>
       </c>
       <c r="E20" s="3">
-        <v>-538900</v>
+        <v>862100</v>
       </c>
       <c r="F20" s="3">
-        <v>-812100</v>
+        <v>-1373400</v>
       </c>
       <c r="G20" s="3">
-        <v>1301700</v>
+        <v>-824400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1302900</v>
+        <v>1323200</v>
       </c>
       <c r="I20" s="3">
-        <v>1169800</v>
+        <v>-1324500</v>
       </c>
       <c r="J20" s="3">
+        <v>1189300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-658900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-55800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3276600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-149200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-83200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>412500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-87400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>465600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>488400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-799300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-302700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1982600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4856500</v>
+        <v>3793100</v>
       </c>
       <c r="E21" s="3">
-        <v>3874500</v>
+        <v>4937100</v>
       </c>
       <c r="F21" s="3">
-        <v>11015200</v>
+        <v>15136900</v>
       </c>
       <c r="G21" s="3">
-        <v>5498000</v>
+        <v>3590700</v>
       </c>
       <c r="H21" s="3">
-        <v>2730900</v>
+        <v>5315500</v>
       </c>
       <c r="I21" s="3">
-        <v>5263200</v>
+        <v>2586800</v>
       </c>
       <c r="J21" s="3">
+        <v>5076700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3614300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3898900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>436000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4085100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3807900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3694600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4061300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3452300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3703700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2636400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4348700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2027800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1730200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3284700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5680800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2464400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>486300</v>
+        <v>548500</v>
       </c>
       <c r="E22" s="3">
-        <v>436700</v>
+        <v>494400</v>
       </c>
       <c r="F22" s="3">
-        <v>1342900</v>
+        <v>1809200</v>
       </c>
       <c r="G22" s="3">
-        <v>453800</v>
+        <v>428800</v>
       </c>
       <c r="H22" s="3">
-        <v>467400</v>
+        <v>461300</v>
       </c>
       <c r="I22" s="3">
-        <v>409000</v>
+        <v>475200</v>
       </c>
       <c r="J22" s="3">
+        <v>415800</v>
+      </c>
+      <c r="K22" s="3">
         <v>446700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>516900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>504200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>429200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>470500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>490500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>467100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>384700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>320900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>430100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>438700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>390200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>383500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>383000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>410400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>472200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2329800</v>
+        <v>1149500</v>
       </c>
       <c r="E23" s="3">
-        <v>1386300</v>
+        <v>2368500</v>
       </c>
       <c r="F23" s="3">
-        <v>3690100</v>
+        <v>5160600</v>
       </c>
       <c r="G23" s="3">
-        <v>3056300</v>
+        <v>1119400</v>
       </c>
       <c r="H23" s="3">
-        <v>262400</v>
+        <v>2841200</v>
       </c>
       <c r="I23" s="3">
-        <v>2758000</v>
+        <v>85700</v>
       </c>
       <c r="J23" s="3">
+        <v>2529900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1122700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1384800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1918900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1813700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1291400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1217800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1660200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1313700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1741700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1689900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-453000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-662600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>926000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3142600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-127700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>750500</v>
+        <v>392100</v>
       </c>
       <c r="E24" s="3">
-        <v>260000</v>
+        <v>762900</v>
       </c>
       <c r="F24" s="3">
-        <v>1130400</v>
+        <v>1413400</v>
       </c>
       <c r="G24" s="3">
-        <v>877500</v>
+        <v>236500</v>
       </c>
       <c r="H24" s="3">
-        <v>126300</v>
+        <v>851200</v>
       </c>
       <c r="I24" s="3">
-        <v>892200</v>
+        <v>109300</v>
       </c>
       <c r="J24" s="3">
+        <v>863400</v>
+      </c>
+      <c r="K24" s="3">
         <v>107100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>390200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-575200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>760000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>574100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>497300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>677400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>629800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>853300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>675700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>148100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-236600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>136800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1241700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>140900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1579300</v>
+        <v>757400</v>
       </c>
       <c r="E26" s="3">
-        <v>1126300</v>
+        <v>1605500</v>
       </c>
       <c r="F26" s="3">
-        <v>2559700</v>
+        <v>3747200</v>
       </c>
       <c r="G26" s="3">
-        <v>2178900</v>
+        <v>882900</v>
       </c>
       <c r="H26" s="3">
-        <v>136000</v>
+        <v>1990000</v>
       </c>
       <c r="I26" s="3">
-        <v>1865800</v>
+        <v>-23600</v>
       </c>
       <c r="J26" s="3">
+        <v>1666500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1015500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>994500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1343800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1053700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>717400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>720500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>982700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>684000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>888400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1014200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-601100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-426000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>789200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1900900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-268600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1521400</v>
+        <v>687200</v>
       </c>
       <c r="E27" s="3">
-        <v>1131300</v>
+        <v>1546600</v>
       </c>
       <c r="F27" s="3">
-        <v>2361800</v>
+        <v>3551200</v>
       </c>
       <c r="G27" s="3">
-        <v>2115100</v>
+        <v>794000</v>
       </c>
       <c r="H27" s="3">
-        <v>89400</v>
+        <v>1925100</v>
       </c>
       <c r="I27" s="3">
-        <v>1843200</v>
+        <v>-71000</v>
       </c>
       <c r="J27" s="3">
+        <v>1643600</v>
+      </c>
+      <c r="K27" s="3">
         <v>933800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>933100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1381000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1051600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>655000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>694700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>945800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>670600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>849900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1006000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-584200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-493800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>740300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1854400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-317100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>5566700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>623700</v>
+        <v>6293200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>225000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>161900</v>
+      </c>
+      <c r="J29" s="3">
+        <v>230200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2213,8 +2274,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-848000</v>
+        <v>359000</v>
       </c>
       <c r="E32" s="3">
-        <v>538900</v>
+        <v>-862100</v>
       </c>
       <c r="F32" s="3">
-        <v>812100</v>
+        <v>1373400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1301700</v>
+        <v>824400</v>
       </c>
       <c r="H32" s="3">
-        <v>1302900</v>
+        <v>-1323200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1169800</v>
+        <v>1324500</v>
       </c>
       <c r="J32" s="3">
+        <v>-1189300</v>
+      </c>
+      <c r="K32" s="3">
         <v>658900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>55800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3276600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>149200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>83200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-412500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>87400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-465600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1304200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-488400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1539900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>799300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>302700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1022900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1521400</v>
+        <v>687200</v>
       </c>
       <c r="E33" s="3">
-        <v>6698100</v>
+        <v>1546600</v>
       </c>
       <c r="F33" s="3">
-        <v>2985600</v>
+        <v>9844400</v>
       </c>
       <c r="G33" s="3">
-        <v>2115100</v>
+        <v>794000</v>
       </c>
       <c r="H33" s="3">
-        <v>89400</v>
+        <v>2150200</v>
       </c>
       <c r="I33" s="3">
-        <v>1843200</v>
+        <v>90900</v>
       </c>
       <c r="J33" s="3">
+        <v>1873800</v>
+      </c>
+      <c r="K33" s="3">
         <v>933800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>933100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1381000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1051600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>655000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>694700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>945800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>670600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>849900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1006000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-584200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-493800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>740300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1854400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-317100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1521400</v>
+        <v>687200</v>
       </c>
       <c r="E35" s="3">
-        <v>6698100</v>
+        <v>1546600</v>
       </c>
       <c r="F35" s="3">
-        <v>2985600</v>
+        <v>9844400</v>
       </c>
       <c r="G35" s="3">
-        <v>2115100</v>
+        <v>794000</v>
       </c>
       <c r="H35" s="3">
-        <v>89400</v>
+        <v>2150200</v>
       </c>
       <c r="I35" s="3">
-        <v>1843200</v>
+        <v>90900</v>
       </c>
       <c r="J35" s="3">
+        <v>1873800</v>
+      </c>
+      <c r="K35" s="3">
         <v>933800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>933100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1381000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1051600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>655000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>694700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>945800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>670600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>849900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1006000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-584200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-493800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>740300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1854400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-317100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2740400</v>
+        <v>1762500</v>
       </c>
       <c r="E41" s="3">
-        <v>1910800</v>
+        <v>2785900</v>
       </c>
       <c r="F41" s="3">
-        <v>1754000</v>
+        <v>1942500</v>
       </c>
       <c r="G41" s="3">
-        <v>1975700</v>
+        <v>1783100</v>
       </c>
       <c r="H41" s="3">
-        <v>2560900</v>
+        <v>2008500</v>
       </c>
       <c r="I41" s="3">
-        <v>1774300</v>
+        <v>2603400</v>
       </c>
       <c r="J41" s="3">
+        <v>1803800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1776300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2526900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5235500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>979800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>805400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1576600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>828300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>987700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>738500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1095100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1057300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1255300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1317000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1080800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>618100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1232900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6322800</v>
+        <v>5960900</v>
       </c>
       <c r="E42" s="3">
-        <v>6283500</v>
+        <v>6427800</v>
       </c>
       <c r="F42" s="3">
-        <v>3609500</v>
+        <v>5911100</v>
       </c>
       <c r="G42" s="3">
-        <v>3558400</v>
+        <v>3669400</v>
       </c>
       <c r="H42" s="3">
-        <v>3807600</v>
+        <v>3617500</v>
       </c>
       <c r="I42" s="3">
-        <v>2699000</v>
+        <v>3870800</v>
       </c>
       <c r="J42" s="3">
+        <v>2743800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3631000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4037600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4552000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2706500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3202300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2689300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2759400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2476200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2370200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3244900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3038100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3057700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2843300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2609400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2649100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2961200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10427500</v>
+        <v>10465200</v>
       </c>
       <c r="E43" s="3">
-        <v>10077900</v>
+        <v>10600600</v>
       </c>
       <c r="F43" s="3">
-        <v>10334500</v>
+        <v>10245100</v>
       </c>
       <c r="G43" s="3">
-        <v>10166900</v>
+        <v>10506100</v>
       </c>
       <c r="H43" s="3">
-        <v>10205500</v>
+        <v>10335700</v>
       </c>
       <c r="I43" s="3">
-        <v>10342800</v>
+        <v>10374900</v>
       </c>
       <c r="J43" s="3">
+        <v>10514500</v>
+      </c>
+      <c r="K43" s="3">
         <v>10179800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10456100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10722100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10220700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10818600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10691600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10596500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9917600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8435500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10473200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10748300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10067000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8899400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8538300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9012400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>10115500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1635500</v>
+        <v>1688500</v>
       </c>
       <c r="E44" s="3">
-        <v>1194800</v>
+        <v>1662700</v>
       </c>
       <c r="F44" s="3">
-        <v>1752300</v>
+        <v>1214600</v>
       </c>
       <c r="G44" s="3">
-        <v>1566000</v>
+        <v>1781400</v>
       </c>
       <c r="H44" s="3">
-        <v>1527400</v>
+        <v>1591900</v>
       </c>
       <c r="I44" s="3">
-        <v>1500600</v>
+        <v>1552800</v>
       </c>
       <c r="J44" s="3">
+        <v>1525600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1730400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1618100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1879100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2039500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2094000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1868600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2002600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1837900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1793500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2160200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1899300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2007200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1917600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1709900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1537100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1957900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>995900</v>
+        <v>916200</v>
       </c>
       <c r="E45" s="3">
-        <v>466900</v>
+        <v>1012500</v>
       </c>
       <c r="F45" s="3">
-        <v>664800</v>
+        <v>983500</v>
       </c>
       <c r="G45" s="3">
-        <v>760100</v>
+        <v>675800</v>
       </c>
       <c r="H45" s="3">
-        <v>898100</v>
+        <v>772700</v>
       </c>
       <c r="I45" s="3">
-        <v>1478200</v>
+        <v>913000</v>
       </c>
       <c r="J45" s="3">
+        <v>1502700</v>
+      </c>
+      <c r="K45" s="3">
         <v>722100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>705800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>951800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>470100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>826100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>992300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1152900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>697500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1483600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2000200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2063200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1313200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1810100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1921800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2132700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1888000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22122100</v>
+        <v>20793400</v>
       </c>
       <c r="E46" s="3">
-        <v>19933800</v>
+        <v>22489300</v>
       </c>
       <c r="F46" s="3">
-        <v>18115100</v>
+        <v>20296700</v>
       </c>
       <c r="G46" s="3">
-        <v>18027000</v>
+        <v>18415800</v>
       </c>
       <c r="H46" s="3">
-        <v>18999500</v>
+        <v>18326200</v>
       </c>
       <c r="I46" s="3">
-        <v>17795000</v>
+        <v>19314900</v>
       </c>
       <c r="J46" s="3">
+        <v>18090400</v>
+      </c>
+      <c r="K46" s="3">
         <v>18039600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19344500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23340600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16416500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17746500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17818400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17339700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15916900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14821300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18973600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18806200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17700400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16787400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15860300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15949400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18155400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1535000</v>
+        <v>1470100</v>
       </c>
       <c r="E47" s="3">
-        <v>1416200</v>
+        <v>1560500</v>
       </c>
       <c r="F47" s="3">
-        <v>989800</v>
+        <v>501300</v>
       </c>
       <c r="G47" s="3">
-        <v>1009000</v>
+        <v>1006200</v>
       </c>
       <c r="H47" s="3">
-        <v>939800</v>
+        <v>1025700</v>
       </c>
       <c r="I47" s="3">
-        <v>475400</v>
+        <v>955400</v>
       </c>
       <c r="J47" s="3">
+        <v>483200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1185100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1313800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1511400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1600800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1178300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1460400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1490700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1383000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1214800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1526500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1472500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>699300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1118700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1107400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1302000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1314700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42199300</v>
+        <v>41609200</v>
       </c>
       <c r="E48" s="3">
-        <v>40585500</v>
+        <v>42899800</v>
       </c>
       <c r="F48" s="3">
-        <v>39485100</v>
+        <v>41259200</v>
       </c>
       <c r="G48" s="3">
-        <v>39708400</v>
+        <v>40140600</v>
       </c>
       <c r="H48" s="3">
-        <v>39968600</v>
+        <v>40367500</v>
       </c>
       <c r="I48" s="3">
-        <v>40750400</v>
+        <v>40632000</v>
       </c>
       <c r="J48" s="3">
+        <v>41426800</v>
+      </c>
+      <c r="K48" s="3">
         <v>37203500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37169600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38596800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37579500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36676600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36407300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36100900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29184000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26613100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33748900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33762800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34980500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32227700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31833800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>33850400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>37233200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13912200</v>
+        <v>13843900</v>
       </c>
       <c r="E49" s="3">
-        <v>13822300</v>
+        <v>14143200</v>
       </c>
       <c r="F49" s="3">
-        <v>13056500</v>
+        <v>14051800</v>
       </c>
       <c r="G49" s="3">
-        <v>13287300</v>
+        <v>13273200</v>
       </c>
       <c r="H49" s="3">
-        <v>13406800</v>
+        <v>13507800</v>
       </c>
       <c r="I49" s="3">
-        <v>13659600</v>
+        <v>13629400</v>
       </c>
       <c r="J49" s="3">
+        <v>13886300</v>
+      </c>
+      <c r="K49" s="3">
         <v>14161800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14140600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14098400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13797800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13147500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13056800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13049200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12207300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11642600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14650200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14956900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15257500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14673600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14236500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14941100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>16195600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8057500</v>
+        <v>7979900</v>
       </c>
       <c r="E52" s="3">
-        <v>7599100</v>
+        <v>8191300</v>
       </c>
       <c r="F52" s="3">
-        <v>7512800</v>
+        <v>8745200</v>
       </c>
       <c r="G52" s="3">
-        <v>7358100</v>
+        <v>7637500</v>
       </c>
       <c r="H52" s="3">
-        <v>7285300</v>
+        <v>7480300</v>
       </c>
       <c r="I52" s="3">
-        <v>7597000</v>
+        <v>7406300</v>
       </c>
       <c r="J52" s="3">
+        <v>7723100</v>
+      </c>
+      <c r="K52" s="3">
         <v>7677800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7511400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7526000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6619900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6427400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6579400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7017400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6481300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6697600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8521100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8046700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8229100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7359500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6860900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6958700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7549800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87826200</v>
+        <v>85696400</v>
       </c>
       <c r="E54" s="3">
-        <v>83356900</v>
+        <v>89284100</v>
       </c>
       <c r="F54" s="3">
-        <v>79159300</v>
+        <v>84854200</v>
       </c>
       <c r="G54" s="3">
-        <v>79389800</v>
+        <v>80473300</v>
       </c>
       <c r="H54" s="3">
-        <v>80600100</v>
+        <v>80707600</v>
       </c>
       <c r="I54" s="3">
-        <v>80277400</v>
+        <v>81938000</v>
       </c>
       <c r="J54" s="3">
+        <v>81609900</v>
+      </c>
+      <c r="K54" s="3">
         <v>78267800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79479900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85073200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76014500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75176300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75322200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74997800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65172600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60989500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77420400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77045000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76866900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>72166800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>69898900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>73001700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>80448700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3644700</v>
+        <v>3425800</v>
       </c>
       <c r="E57" s="3">
-        <v>11463800</v>
+        <v>3705200</v>
       </c>
       <c r="F57" s="3">
-        <v>3454200</v>
+        <v>10369800</v>
       </c>
       <c r="G57" s="3">
-        <v>3431200</v>
+        <v>3511600</v>
       </c>
       <c r="H57" s="3">
-        <v>3056800</v>
+        <v>3488100</v>
       </c>
       <c r="I57" s="3">
-        <v>9237600</v>
+        <v>3107500</v>
       </c>
       <c r="J57" s="3">
+        <v>9390900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3971000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3857600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4444000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5625500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5135700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5055400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4898300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5399300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3993800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4678500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4062400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10999500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4611600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4629100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4428200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7051500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9250300</v>
+        <v>7906600</v>
       </c>
       <c r="E58" s="3">
-        <v>8535100</v>
+        <v>9403900</v>
       </c>
       <c r="F58" s="3">
-        <v>8623900</v>
+        <v>8680800</v>
       </c>
       <c r="G58" s="3">
-        <v>7191300</v>
+        <v>8767000</v>
       </c>
       <c r="H58" s="3">
-        <v>6980800</v>
+        <v>7310700</v>
       </c>
       <c r="I58" s="3">
-        <v>8553700</v>
+        <v>7096700</v>
       </c>
       <c r="J58" s="3">
+        <v>8695600</v>
+      </c>
+      <c r="K58" s="3">
         <v>7363300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6043100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7977200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7694400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7973700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8998400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9086400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4388100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3146600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3020500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3345400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2676300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3099800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2972500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3598300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4386400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15766400</v>
+        <v>16009800</v>
       </c>
       <c r="E59" s="3">
-        <v>6091700</v>
+        <v>16028100</v>
       </c>
       <c r="F59" s="3">
-        <v>14303900</v>
+        <v>7767500</v>
       </c>
       <c r="G59" s="3">
-        <v>14345100</v>
+        <v>14541400</v>
       </c>
       <c r="H59" s="3">
-        <v>14277000</v>
+        <v>14583300</v>
       </c>
       <c r="I59" s="3">
-        <v>7269900</v>
+        <v>14513900</v>
       </c>
       <c r="J59" s="3">
+        <v>7390600</v>
+      </c>
+      <c r="K59" s="3">
         <v>13228500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13870600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13135400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12750500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12871100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13067600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11819300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11511900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11884000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15386300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14455800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7702000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13215200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13507100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13257300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13519300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28661400</v>
+        <v>27342200</v>
       </c>
       <c r="E60" s="3">
-        <v>26090500</v>
+        <v>29137200</v>
       </c>
       <c r="F60" s="3">
-        <v>26382000</v>
+        <v>26818100</v>
       </c>
       <c r="G60" s="3">
-        <v>24967600</v>
+        <v>26819900</v>
       </c>
       <c r="H60" s="3">
-        <v>24314500</v>
+        <v>25382100</v>
       </c>
       <c r="I60" s="3">
-        <v>25061100</v>
+        <v>24718100</v>
       </c>
       <c r="J60" s="3">
+        <v>25477100</v>
+      </c>
+      <c r="K60" s="3">
         <v>24562700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23771300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25556600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26070300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25980600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27121400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25804100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21299300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19024500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23085300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21863600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21377800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20926500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21108600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21283900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24957200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25540400</v>
+        <v>25677600</v>
       </c>
       <c r="E61" s="3">
-        <v>24197600</v>
+        <v>25964400</v>
       </c>
       <c r="F61" s="3">
-        <v>25274000</v>
+        <v>24599200</v>
       </c>
       <c r="G61" s="3">
-        <v>26966400</v>
+        <v>25693500</v>
       </c>
       <c r="H61" s="3">
-        <v>29869600</v>
+        <v>27414000</v>
       </c>
       <c r="I61" s="3">
-        <v>27889200</v>
+        <v>30365400</v>
       </c>
       <c r="J61" s="3">
+        <v>28352200</v>
+      </c>
+      <c r="K61" s="3">
         <v>32546300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35448900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38589100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29265100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29181100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28148400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28189000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24746700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25887000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33785600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33220700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33418300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30704200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29149700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29845300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33197800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10454200</v>
+        <v>10258200</v>
       </c>
       <c r="E62" s="3">
-        <v>10461200</v>
+        <v>10627800</v>
       </c>
       <c r="F62" s="3">
-        <v>11584600</v>
+        <v>10634900</v>
       </c>
       <c r="G62" s="3">
-        <v>11821000</v>
+        <v>11776900</v>
       </c>
       <c r="H62" s="3">
-        <v>11914300</v>
+        <v>12017200</v>
       </c>
       <c r="I62" s="3">
-        <v>11760200</v>
+        <v>12112100</v>
       </c>
       <c r="J62" s="3">
+        <v>11955400</v>
+      </c>
+      <c r="K62" s="3">
         <v>9854100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9786300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9808400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9420000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8021300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7992700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8536300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7914700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7280900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8886500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8984200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8590800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7628800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7448600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7779300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7902400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67840000</v>
+        <v>66382000</v>
       </c>
       <c r="E66" s="3">
-        <v>63931000</v>
+        <v>68966100</v>
       </c>
       <c r="F66" s="3">
-        <v>66496400</v>
+        <v>65286700</v>
       </c>
       <c r="G66" s="3">
-        <v>66887000</v>
+        <v>67600200</v>
       </c>
       <c r="H66" s="3">
-        <v>69364400</v>
+        <v>67997200</v>
       </c>
       <c r="I66" s="3">
-        <v>67903700</v>
+        <v>70515700</v>
       </c>
       <c r="J66" s="3">
+        <v>69030900</v>
+      </c>
+      <c r="K66" s="3">
         <v>69774300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71654400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76535600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67186700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65675100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65625700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64950200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56235200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54425500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68498600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66819900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>66824700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62512300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60788200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>62022300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>69355300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29840900</v>
+        <v>30653400</v>
       </c>
       <c r="E72" s="3">
-        <v>22293900</v>
+        <v>30336300</v>
       </c>
       <c r="F72" s="3">
-        <v>15894500</v>
+        <v>22483000</v>
       </c>
       <c r="G72" s="3">
-        <v>15491400</v>
+        <v>16158300</v>
       </c>
       <c r="H72" s="3">
-        <v>13854700</v>
+        <v>15748600</v>
       </c>
       <c r="I72" s="3">
-        <v>15547100</v>
+        <v>14084700</v>
       </c>
       <c r="J72" s="3">
+        <v>15805100</v>
+      </c>
+      <c r="K72" s="3">
         <v>12553900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11240400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11408900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13522500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12739700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11561400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12175200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10371400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8678700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9361600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10518800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8848700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9134400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9340100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9646700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8020500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19986300</v>
+        <v>19314400</v>
       </c>
       <c r="E76" s="3">
-        <v>19425900</v>
+        <v>20318000</v>
       </c>
       <c r="F76" s="3">
-        <v>12662900</v>
+        <v>19567500</v>
       </c>
       <c r="G76" s="3">
-        <v>12502800</v>
+        <v>12873100</v>
       </c>
       <c r="H76" s="3">
-        <v>11235800</v>
+        <v>12710300</v>
       </c>
       <c r="I76" s="3">
-        <v>12373700</v>
+        <v>11422300</v>
       </c>
       <c r="J76" s="3">
+        <v>12579000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8493500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7825600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8537600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8827900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9501100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9696500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10047600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8937400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6564000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8921800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10225100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10042200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9654500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9110800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10979400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11093400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1521400</v>
+        <v>687200</v>
       </c>
       <c r="E81" s="3">
-        <v>6698100</v>
+        <v>1546600</v>
       </c>
       <c r="F81" s="3">
-        <v>2985600</v>
+        <v>9844400</v>
       </c>
       <c r="G81" s="3">
-        <v>2115100</v>
+        <v>794000</v>
       </c>
       <c r="H81" s="3">
-        <v>89400</v>
+        <v>2150200</v>
       </c>
       <c r="I81" s="3">
-        <v>1843200</v>
+        <v>90900</v>
       </c>
       <c r="J81" s="3">
+        <v>1873800</v>
+      </c>
+      <c r="K81" s="3">
         <v>933800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>933100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1381000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1051600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>655000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>694700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>945800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>670600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>849900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1006000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-584200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-493800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>740300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1854400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-317100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2040400</v>
+        <v>2095000</v>
       </c>
       <c r="E83" s="3">
-        <v>2051500</v>
+        <v>2074300</v>
       </c>
       <c r="F83" s="3">
-        <v>5982200</v>
+        <v>8167100</v>
       </c>
       <c r="G83" s="3">
-        <v>1987900</v>
+        <v>2026300</v>
       </c>
       <c r="H83" s="3">
-        <v>2001100</v>
+        <v>2020900</v>
       </c>
       <c r="I83" s="3">
-        <v>2096200</v>
+        <v>2034400</v>
       </c>
       <c r="J83" s="3">
+        <v>2131000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2044900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1997300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1850700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1842200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2046000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1986300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1934000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1753800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1641100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2111000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2220100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2090600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2009300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1975700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2127800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2119900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1152400</v>
+        <v>3188000</v>
       </c>
       <c r="E89" s="3">
-        <v>2778000</v>
+        <v>1171600</v>
       </c>
       <c r="F89" s="3">
-        <v>9976200</v>
+        <v>12965900</v>
       </c>
       <c r="G89" s="3">
-        <v>3832400</v>
+        <v>3572300</v>
       </c>
       <c r="H89" s="3">
-        <v>2629800</v>
+        <v>3896000</v>
       </c>
       <c r="I89" s="3">
-        <v>3973200</v>
+        <v>2673500</v>
       </c>
       <c r="J89" s="3">
+        <v>4039200</v>
+      </c>
+      <c r="K89" s="3">
         <v>4285200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3944600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1493700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4427000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3400500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3095400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>645900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4878800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2430700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3514300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1167800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4090900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2183600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3024800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1970700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4535500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1343200</v>
+        <v>-1808600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2983100</v>
+        <v>-1365500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4225900</v>
+        <v>-7328600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1414100</v>
+        <v>-1678900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1177400</v>
+        <v>-1429100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1637700</v>
+        <v>-1188100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1664900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1344500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1237200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1085400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1415300</v>
+        <v>-2651100</v>
       </c>
       <c r="E94" s="3">
-        <v>712800</v>
+        <v>-1438800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4492900</v>
+        <v>-3842900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1512200</v>
+        <v>-1613700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1393400</v>
+        <v>-1537300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2122700</v>
+        <v>-1416500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2157900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1384600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1805100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1284200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-300</v>
       </c>
-      <c r="E96" s="3">
-        <v>-633800</v>
-      </c>
       <c r="F96" s="3">
-        <v>-741000</v>
+        <v>-1397600</v>
       </c>
       <c r="G96" s="3">
-        <v>-98200</v>
+        <v>-653100</v>
       </c>
       <c r="H96" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-273300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-277800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-199400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-547900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-587500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-72100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-474200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-468400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-82900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-490100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-255300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-86500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-236900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1168200</v>
+        <v>-1525800</v>
       </c>
       <c r="E100" s="3">
-        <v>-3319000</v>
+        <v>1187600</v>
       </c>
       <c r="F100" s="3">
-        <v>-5442900</v>
+        <v>-8907300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2913200</v>
+        <v>-2154200</v>
       </c>
       <c r="H100" s="3">
-        <v>-410700</v>
+        <v>-2961500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1712600</v>
+        <v>-417600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1741000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3694800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4805900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3971000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-604400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>844900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-46600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-150900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-841300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75700</v>
+        <v>-34500</v>
       </c>
       <c r="E101" s="3">
-        <v>-15000</v>
+        <v>-77000</v>
       </c>
       <c r="F101" s="3">
-        <v>-60700</v>
+        <v>-77000</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>-29800</v>
       </c>
       <c r="H101" s="3">
-        <v>-39100</v>
+        <v>7900</v>
       </c>
       <c r="I101" s="3">
-        <v>-139900</v>
+        <v>-39800</v>
       </c>
       <c r="J101" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-38300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>110200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-60800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>16200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-33100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>59600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-25800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>55700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>829600</v>
+        <v>-1023400</v>
       </c>
       <c r="E102" s="3">
-        <v>156800</v>
+        <v>843400</v>
       </c>
       <c r="F102" s="3">
-        <v>-20400</v>
+        <v>138700</v>
       </c>
       <c r="G102" s="3">
-        <v>-585200</v>
+        <v>-225400</v>
       </c>
       <c r="H102" s="3">
-        <v>786600</v>
+        <v>-595000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1900</v>
+        <v>799600</v>
       </c>
       <c r="J102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-832500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2708600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4290700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>184000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-831400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>748300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-219400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>239500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-180900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>37800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-243800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-182900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>357400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>462800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-582800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>259100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10917400</v>
+        <v>11107200</v>
       </c>
       <c r="E8" s="3">
-        <v>10607700</v>
+        <v>11258700</v>
       </c>
       <c r="F8" s="3">
-        <v>42965000</v>
+        <v>10939300</v>
       </c>
       <c r="G8" s="3">
-        <v>12724500</v>
+        <v>44308200</v>
       </c>
       <c r="H8" s="3">
-        <v>10566100</v>
+        <v>10915800</v>
       </c>
       <c r="I8" s="3">
-        <v>10359700</v>
+        <v>21500000</v>
       </c>
       <c r="J8" s="3">
+        <v>10683500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10603700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12854500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12038300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11965500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13059300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12478400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12096100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11882400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12751900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11159600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13776500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13592300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13646800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12629400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12900500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13662200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14301700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6385100</v>
+        <v>6423900</v>
       </c>
       <c r="E9" s="3">
-        <v>6267300</v>
+        <v>6584700</v>
       </c>
       <c r="F9" s="3">
-        <v>25295100</v>
+        <v>6463200</v>
       </c>
       <c r="G9" s="3">
-        <v>7824400</v>
+        <v>26085900</v>
       </c>
       <c r="H9" s="3">
-        <v>6250600</v>
+        <v>6445900</v>
       </c>
       <c r="I9" s="3">
-        <v>6177300</v>
+        <v>12755500</v>
       </c>
       <c r="J9" s="3">
+        <v>6370400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6516200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7999200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7387000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7394700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8045300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7880200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7601800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7449100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8145100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7177200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8761700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8738800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8946900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8120800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8143900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8743100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9511400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4532300</v>
+        <v>4683300</v>
       </c>
       <c r="E10" s="3">
-        <v>4340400</v>
+        <v>4674000</v>
       </c>
       <c r="F10" s="3">
-        <v>17669800</v>
+        <v>4476100</v>
       </c>
       <c r="G10" s="3">
-        <v>4900100</v>
+        <v>18222200</v>
       </c>
       <c r="H10" s="3">
-        <v>4315500</v>
+        <v>4469900</v>
       </c>
       <c r="I10" s="3">
-        <v>4182400</v>
+        <v>8744400</v>
       </c>
       <c r="J10" s="3">
+        <v>4313200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4087600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4855300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4651200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4570700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5014100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4598300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4494400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4433300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4606700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3982400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5014700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4853500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4699900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4508600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4756600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4919100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4790200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8860400</v>
+        <v>8850700</v>
       </c>
       <c r="E17" s="3">
-        <v>8607000</v>
+        <v>9137400</v>
       </c>
       <c r="F17" s="3">
-        <v>34621800</v>
+        <v>8876100</v>
       </c>
       <c r="G17" s="3">
-        <v>10352000</v>
+        <v>35704100</v>
       </c>
       <c r="H17" s="3">
-        <v>8586800</v>
+        <v>8771600</v>
       </c>
       <c r="I17" s="3">
-        <v>8474300</v>
+        <v>17503200</v>
       </c>
       <c r="J17" s="3">
+        <v>8739200</v>
+      </c>
+      <c r="K17" s="3">
         <v>8847300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10626200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10080800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10103600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10845200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10567300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10304600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10167600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10966000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9562600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11946800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11952100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12169600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12109300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11288800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12091800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12934200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2057000</v>
+        <v>2256500</v>
       </c>
       <c r="E18" s="3">
-        <v>2000700</v>
+        <v>2121400</v>
       </c>
       <c r="F18" s="3">
-        <v>8343200</v>
+        <v>2063300</v>
       </c>
       <c r="G18" s="3">
-        <v>2372500</v>
+        <v>8604000</v>
       </c>
       <c r="H18" s="3">
-        <v>1979300</v>
+        <v>2144200</v>
       </c>
       <c r="I18" s="3">
-        <v>1885400</v>
+        <v>3996800</v>
       </c>
       <c r="J18" s="3">
+        <v>1944300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1756400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2228300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1957500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1861900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2214200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1911100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1791500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1714800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1785900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1597000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1829700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1640200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1477100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>520200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1611700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1570400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1367400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-359000</v>
+        <v>-296400</v>
       </c>
       <c r="E20" s="3">
-        <v>862100</v>
+        <v>-370200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1373400</v>
+        <v>889000</v>
       </c>
       <c r="G20" s="3">
-        <v>-824400</v>
+        <v>-1416300</v>
       </c>
       <c r="H20" s="3">
-        <v>1323200</v>
+        <v>-850100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1324500</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1365900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1189300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-658900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-55800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3276600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-149200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>412500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-87400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>465600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>488400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-799300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-302700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1982600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3793100</v>
+        <v>3998900</v>
       </c>
       <c r="E21" s="3">
-        <v>4937100</v>
+        <v>3911600</v>
       </c>
       <c r="F21" s="3">
-        <v>15136900</v>
+        <v>5091500</v>
       </c>
       <c r="G21" s="3">
-        <v>3590700</v>
+        <v>15610100</v>
       </c>
       <c r="H21" s="3">
-        <v>5315500</v>
+        <v>3400500</v>
       </c>
       <c r="I21" s="3">
-        <v>2586800</v>
+        <v>8160700</v>
       </c>
       <c r="J21" s="3">
+        <v>2667600</v>
+      </c>
+      <c r="K21" s="3">
         <v>5076700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3614300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3898900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>436000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4085100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3807900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3694600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4061300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3452300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3703700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2636400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4348700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2027800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1730200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3284700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5680800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2464400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>548500</v>
+        <v>553800</v>
       </c>
       <c r="E22" s="3">
-        <v>494400</v>
+        <v>565700</v>
       </c>
       <c r="F22" s="3">
-        <v>1809200</v>
+        <v>509800</v>
       </c>
       <c r="G22" s="3">
-        <v>428800</v>
+        <v>1865800</v>
       </c>
       <c r="H22" s="3">
-        <v>461300</v>
+        <v>441100</v>
       </c>
       <c r="I22" s="3">
-        <v>475200</v>
+        <v>963400</v>
       </c>
       <c r="J22" s="3">
+        <v>490000</v>
+      </c>
+      <c r="K22" s="3">
         <v>415800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>446700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>516900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>504200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>429200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>470500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>490500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>467100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>384700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>320900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>430100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>438700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>390200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>383500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>383000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>410400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>472200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1149500</v>
+        <v>1406300</v>
       </c>
       <c r="E23" s="3">
-        <v>2368500</v>
+        <v>1185500</v>
       </c>
       <c r="F23" s="3">
-        <v>5160600</v>
+        <v>2442500</v>
       </c>
       <c r="G23" s="3">
-        <v>1119400</v>
+        <v>5321900</v>
       </c>
       <c r="H23" s="3">
-        <v>2841200</v>
+        <v>853000</v>
       </c>
       <c r="I23" s="3">
-        <v>85700</v>
+        <v>3032100</v>
       </c>
       <c r="J23" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2529900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1122700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1384800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1918900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1813700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1291400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1217800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1660200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1313700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1741700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>95400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1689900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-453000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-662600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>926000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3142600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-127700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>392100</v>
+        <v>562000</v>
       </c>
       <c r="E24" s="3">
-        <v>762900</v>
+        <v>404400</v>
       </c>
       <c r="F24" s="3">
-        <v>1413400</v>
+        <v>786800</v>
       </c>
       <c r="G24" s="3">
-        <v>236500</v>
+        <v>1457600</v>
       </c>
       <c r="H24" s="3">
-        <v>851200</v>
+        <v>194500</v>
       </c>
       <c r="I24" s="3">
-        <v>109300</v>
+        <v>990300</v>
       </c>
       <c r="J24" s="3">
+        <v>112700</v>
+      </c>
+      <c r="K24" s="3">
         <v>863400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>390200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-575200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>760000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>574100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>497300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>677400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>629800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>853300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>675700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>148100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-236600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>136800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1241700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>140900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>757400</v>
+        <v>844300</v>
       </c>
       <c r="E26" s="3">
-        <v>1605500</v>
+        <v>781100</v>
       </c>
       <c r="F26" s="3">
-        <v>3747200</v>
+        <v>1655700</v>
       </c>
       <c r="G26" s="3">
-        <v>882900</v>
+        <v>3864300</v>
       </c>
       <c r="H26" s="3">
-        <v>1990000</v>
+        <v>658500</v>
       </c>
       <c r="I26" s="3">
-        <v>-23600</v>
+        <v>2041900</v>
       </c>
       <c r="J26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1666500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1015500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>994500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1343800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1053700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>717400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>720500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>982700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>684000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>888400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1014200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-601100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-426000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>789200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1900900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-268600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>687200</v>
+        <v>754300</v>
       </c>
       <c r="E27" s="3">
-        <v>1546600</v>
+        <v>708700</v>
       </c>
       <c r="F27" s="3">
-        <v>3551200</v>
+        <v>1595000</v>
       </c>
       <c r="G27" s="3">
-        <v>794000</v>
+        <v>3662200</v>
       </c>
       <c r="H27" s="3">
-        <v>1925100</v>
+        <v>566800</v>
       </c>
       <c r="I27" s="3">
-        <v>-71000</v>
+        <v>1926100</v>
       </c>
       <c r="J27" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1643600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>933800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>933100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1381000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1051600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>655000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>694700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>945800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>670600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>849900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1006000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-584200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-493800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>740300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1854400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-317100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,34 +2300,37 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>176300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>6293200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6303400</v>
       </c>
       <c r="H29" s="3">
-        <v>225000</v>
+        <v>252000</v>
       </c>
       <c r="I29" s="3">
-        <v>161900</v>
+        <v>385000</v>
       </c>
       <c r="J29" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K29" s="3">
         <v>230200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>359000</v>
+        <v>296400</v>
       </c>
       <c r="E32" s="3">
-        <v>-862100</v>
+        <v>370200</v>
       </c>
       <c r="F32" s="3">
-        <v>1373400</v>
+        <v>-889000</v>
       </c>
       <c r="G32" s="3">
-        <v>824400</v>
+        <v>1416300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1323200</v>
+        <v>850100</v>
       </c>
       <c r="I32" s="3">
-        <v>1324500</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>1365900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1189300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>658900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>55800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3276600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>149200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>83200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-412500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>87400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-465600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1304200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-488400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1539900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>799300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>302700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1022900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>687200</v>
+        <v>930600</v>
       </c>
       <c r="E33" s="3">
-        <v>1546600</v>
+        <v>708700</v>
       </c>
       <c r="F33" s="3">
-        <v>9844400</v>
+        <v>1595000</v>
       </c>
       <c r="G33" s="3">
-        <v>794000</v>
+        <v>9965600</v>
       </c>
       <c r="H33" s="3">
-        <v>2150200</v>
+        <v>818800</v>
       </c>
       <c r="I33" s="3">
-        <v>90900</v>
+        <v>2311200</v>
       </c>
       <c r="J33" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1873800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>933800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>933100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1381000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1051600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>655000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>694700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>945800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>670600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>849900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1006000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-584200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-493800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>740300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1854400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-317100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>687200</v>
+        <v>930600</v>
       </c>
       <c r="E35" s="3">
-        <v>1546600</v>
+        <v>708700</v>
       </c>
       <c r="F35" s="3">
-        <v>9844400</v>
+        <v>1595000</v>
       </c>
       <c r="G35" s="3">
-        <v>794000</v>
+        <v>9965600</v>
       </c>
       <c r="H35" s="3">
-        <v>2150200</v>
+        <v>818800</v>
       </c>
       <c r="I35" s="3">
-        <v>90900</v>
+        <v>2311200</v>
       </c>
       <c r="J35" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1873800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>933800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>933100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1381000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1051600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>655000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>694700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>945800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>670600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>849900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1006000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-584200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-493800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>740300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1854400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-317100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1762500</v>
+        <v>1433500</v>
       </c>
       <c r="E41" s="3">
-        <v>2785900</v>
+        <v>1817600</v>
       </c>
       <c r="F41" s="3">
-        <v>1942500</v>
+        <v>2873000</v>
       </c>
       <c r="G41" s="3">
-        <v>1783100</v>
+        <v>2003200</v>
       </c>
       <c r="H41" s="3">
-        <v>2008500</v>
+        <v>1838800</v>
       </c>
       <c r="I41" s="3">
-        <v>2603400</v>
+        <v>2071200</v>
       </c>
       <c r="J41" s="3">
+        <v>2684800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1803800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1776300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2526900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5235500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>979800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>805400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1576600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>828300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>987700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>738500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1095100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1057300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1255300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1317000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1080800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>618100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1232900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5960900</v>
+        <v>4609400</v>
       </c>
       <c r="E42" s="3">
-        <v>6427800</v>
+        <v>6147300</v>
       </c>
       <c r="F42" s="3">
-        <v>5911100</v>
+        <v>6628700</v>
       </c>
       <c r="G42" s="3">
-        <v>3669400</v>
+        <v>6095800</v>
       </c>
       <c r="H42" s="3">
-        <v>3617500</v>
+        <v>3784100</v>
       </c>
       <c r="I42" s="3">
-        <v>3870800</v>
+        <v>3730600</v>
       </c>
       <c r="J42" s="3">
+        <v>3991800</v>
+      </c>
+      <c r="K42" s="3">
         <v>2743800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3631000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4037600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4552000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2706500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3202300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2689300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2759400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2476200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2370200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3244900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3038100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3057700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2843300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2609400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2649100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2961200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10465200</v>
+        <v>11002800</v>
       </c>
       <c r="E43" s="3">
-        <v>10600600</v>
+        <v>10792400</v>
       </c>
       <c r="F43" s="3">
-        <v>10245100</v>
+        <v>10932000</v>
       </c>
       <c r="G43" s="3">
-        <v>10506100</v>
+        <v>10565400</v>
       </c>
       <c r="H43" s="3">
-        <v>10335700</v>
+        <v>10834500</v>
       </c>
       <c r="I43" s="3">
-        <v>10374900</v>
+        <v>10658800</v>
       </c>
       <c r="J43" s="3">
+        <v>10699300</v>
+      </c>
+      <c r="K43" s="3">
         <v>10514500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10179800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10456100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10722100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10220700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10818600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10691600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10596500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9917600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8435500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10473200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10748300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10067000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8899400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8538300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9012400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>10115500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1688500</v>
+        <v>1648100</v>
       </c>
       <c r="E44" s="3">
-        <v>1662700</v>
+        <v>1741300</v>
       </c>
       <c r="F44" s="3">
-        <v>1214600</v>
+        <v>1714600</v>
       </c>
       <c r="G44" s="3">
-        <v>1781400</v>
+        <v>1252600</v>
       </c>
       <c r="H44" s="3">
-        <v>1591900</v>
+        <v>1837100</v>
       </c>
       <c r="I44" s="3">
-        <v>1552800</v>
+        <v>1641700</v>
       </c>
       <c r="J44" s="3">
+        <v>1601300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1525600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1730400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1618100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1879100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2039500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2094000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1868600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2002600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1837900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1793500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2160200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1899300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2007200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1917600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1709900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1537100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1957900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>916200</v>
+        <v>809400</v>
       </c>
       <c r="E45" s="3">
-        <v>1012500</v>
+        <v>944800</v>
       </c>
       <c r="F45" s="3">
-        <v>983500</v>
+        <v>1044100</v>
       </c>
       <c r="G45" s="3">
-        <v>675800</v>
+        <v>1014200</v>
       </c>
       <c r="H45" s="3">
-        <v>772700</v>
+        <v>696900</v>
       </c>
       <c r="I45" s="3">
-        <v>913000</v>
+        <v>796900</v>
       </c>
       <c r="J45" s="3">
+        <v>941600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1502700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>722100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>705800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>951800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>470100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>826100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>992300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1152900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>697500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1483600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2063200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1313200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1810100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1921800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2132700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1888000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20793400</v>
+        <v>19503200</v>
       </c>
       <c r="E46" s="3">
-        <v>22489300</v>
+        <v>21443500</v>
       </c>
       <c r="F46" s="3">
-        <v>20296700</v>
+        <v>23192400</v>
       </c>
       <c r="G46" s="3">
-        <v>18415800</v>
+        <v>20931300</v>
       </c>
       <c r="H46" s="3">
-        <v>18326200</v>
+        <v>18991500</v>
       </c>
       <c r="I46" s="3">
-        <v>19314900</v>
+        <v>18899100</v>
       </c>
       <c r="J46" s="3">
+        <v>19918800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18090400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18039600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19344500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23340600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16416500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17746500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17818400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17339700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15916900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14821300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18973600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18806200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17700400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16787400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15860300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15949400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18155400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1470100</v>
+        <v>1534600</v>
       </c>
       <c r="E47" s="3">
-        <v>1560500</v>
+        <v>1516000</v>
       </c>
       <c r="F47" s="3">
-        <v>501300</v>
+        <v>1609300</v>
       </c>
       <c r="G47" s="3">
-        <v>1006200</v>
+        <v>516900</v>
       </c>
       <c r="H47" s="3">
-        <v>1025700</v>
+        <v>1037700</v>
       </c>
       <c r="I47" s="3">
-        <v>955400</v>
+        <v>1057800</v>
       </c>
       <c r="J47" s="3">
+        <v>985300</v>
+      </c>
+      <c r="K47" s="3">
         <v>483200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1185100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1313800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1511400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1600800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1178300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1460400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1490700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1383000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1214800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1526500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1472500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>699300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1118700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1107400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1302000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1314700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41609200</v>
+        <v>40724600</v>
       </c>
       <c r="E48" s="3">
-        <v>42899800</v>
+        <v>42910000</v>
       </c>
       <c r="F48" s="3">
-        <v>41259200</v>
+        <v>44240900</v>
       </c>
       <c r="G48" s="3">
-        <v>40140600</v>
+        <v>42549100</v>
       </c>
       <c r="H48" s="3">
-        <v>40367500</v>
+        <v>41395400</v>
       </c>
       <c r="I48" s="3">
-        <v>40632000</v>
+        <v>41629500</v>
       </c>
       <c r="J48" s="3">
+        <v>41902300</v>
+      </c>
+      <c r="K48" s="3">
         <v>41426800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37203500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37169600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38596800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37579500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36676600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36407300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36100900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29184000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26613100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33748900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33762800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34980500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32227700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31833800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>33850400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>37233200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13843900</v>
+        <v>14241000</v>
       </c>
       <c r="E49" s="3">
-        <v>14143200</v>
+        <v>14276700</v>
       </c>
       <c r="F49" s="3">
-        <v>14051800</v>
+        <v>14585300</v>
       </c>
       <c r="G49" s="3">
-        <v>13273200</v>
+        <v>14491000</v>
       </c>
       <c r="H49" s="3">
-        <v>13507800</v>
+        <v>13688200</v>
       </c>
       <c r="I49" s="3">
-        <v>13629400</v>
+        <v>13930100</v>
       </c>
       <c r="J49" s="3">
+        <v>14055500</v>
+      </c>
+      <c r="K49" s="3">
         <v>13886300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14161800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14140600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14098400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13797800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13147500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13056800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13049200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12207300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11642600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14650200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14956900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15257500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14673600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14236500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14941100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>16195600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7979900</v>
+        <v>8430000</v>
       </c>
       <c r="E52" s="3">
-        <v>8191300</v>
+        <v>8229300</v>
       </c>
       <c r="F52" s="3">
-        <v>8745200</v>
+        <v>8447400</v>
       </c>
       <c r="G52" s="3">
-        <v>7637500</v>
+        <v>9018600</v>
       </c>
       <c r="H52" s="3">
-        <v>7480300</v>
+        <v>7876300</v>
       </c>
       <c r="I52" s="3">
-        <v>7406300</v>
+        <v>7714100</v>
       </c>
       <c r="J52" s="3">
+        <v>7637800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7723100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7677800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7511400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7526000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6619900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6427400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6579400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7017400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6481300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6697600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8521100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8046700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8229100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7359500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6860900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6958700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7549800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85696400</v>
+        <v>84433400</v>
       </c>
       <c r="E54" s="3">
-        <v>89284100</v>
+        <v>88375500</v>
       </c>
       <c r="F54" s="3">
-        <v>84854200</v>
+        <v>92075300</v>
       </c>
       <c r="G54" s="3">
-        <v>80473300</v>
+        <v>87507000</v>
       </c>
       <c r="H54" s="3">
-        <v>80707600</v>
+        <v>82989100</v>
       </c>
       <c r="I54" s="3">
-        <v>81938000</v>
+        <v>83230700</v>
       </c>
       <c r="J54" s="3">
+        <v>84499600</v>
+      </c>
+      <c r="K54" s="3">
         <v>81609900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78267800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79479900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85073200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76014500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75176300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75322200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74997800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65172600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60989500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77420400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77045000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76866900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>72166800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>69898900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>73001700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>80448700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3425800</v>
+        <v>3214700</v>
       </c>
       <c r="E57" s="3">
-        <v>3705200</v>
+        <v>3532900</v>
       </c>
       <c r="F57" s="3">
-        <v>10369800</v>
+        <v>3821100</v>
       </c>
       <c r="G57" s="3">
-        <v>3511600</v>
+        <v>10694000</v>
       </c>
       <c r="H57" s="3">
-        <v>3488100</v>
+        <v>3621300</v>
       </c>
       <c r="I57" s="3">
-        <v>3107500</v>
+        <v>3597200</v>
       </c>
       <c r="J57" s="3">
+        <v>3204700</v>
+      </c>
+      <c r="K57" s="3">
         <v>9390900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3971000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3857600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4444000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5625500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5135700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5055400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4898300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5399300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3993800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4678500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4062400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10999500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4611600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4629100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4428200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7051500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7906600</v>
+        <v>9220800</v>
       </c>
       <c r="E58" s="3">
-        <v>9403900</v>
+        <v>8153800</v>
       </c>
       <c r="F58" s="3">
-        <v>8680800</v>
+        <v>9697900</v>
       </c>
       <c r="G58" s="3">
-        <v>8767000</v>
+        <v>8952200</v>
       </c>
       <c r="H58" s="3">
-        <v>7310700</v>
+        <v>9041100</v>
       </c>
       <c r="I58" s="3">
-        <v>7096700</v>
+        <v>7539300</v>
       </c>
       <c r="J58" s="3">
+        <v>7318600</v>
+      </c>
+      <c r="K58" s="3">
         <v>8695600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7363300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6043100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7977200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7694400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7973700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8998400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9086400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4388100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3146600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3020500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3345400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2676300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3099800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2972500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3598300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4386400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16009800</v>
+        <v>15686300</v>
       </c>
       <c r="E59" s="3">
-        <v>16028100</v>
+        <v>16510300</v>
       </c>
       <c r="F59" s="3">
-        <v>7767500</v>
+        <v>16529200</v>
       </c>
       <c r="G59" s="3">
-        <v>14541400</v>
+        <v>8010400</v>
       </c>
       <c r="H59" s="3">
-        <v>14583300</v>
+        <v>14996000</v>
       </c>
       <c r="I59" s="3">
-        <v>14513900</v>
+        <v>15039200</v>
       </c>
       <c r="J59" s="3">
+        <v>14967700</v>
+      </c>
+      <c r="K59" s="3">
         <v>7390600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13228500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13870600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13135400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12750500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12871100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13067600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11819300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11511900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11884000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15386300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14455800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7702000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13215200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13507100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13257300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13519300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27342200</v>
+        <v>28121900</v>
       </c>
       <c r="E60" s="3">
-        <v>29137200</v>
+        <v>28197000</v>
       </c>
       <c r="F60" s="3">
-        <v>26818100</v>
+        <v>30048100</v>
       </c>
       <c r="G60" s="3">
-        <v>26819900</v>
+        <v>27656500</v>
       </c>
       <c r="H60" s="3">
-        <v>25382100</v>
+        <v>27658400</v>
       </c>
       <c r="I60" s="3">
-        <v>24718100</v>
+        <v>26175600</v>
       </c>
       <c r="J60" s="3">
+        <v>25490900</v>
+      </c>
+      <c r="K60" s="3">
         <v>25477100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24562700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23771300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25556600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26070300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25980600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27121400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25804100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21299300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19024500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23085300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21863600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21377800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20926500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21108600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21283900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24957200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25677600</v>
+        <v>24892500</v>
       </c>
       <c r="E61" s="3">
-        <v>25964400</v>
+        <v>26480300</v>
       </c>
       <c r="F61" s="3">
-        <v>24599200</v>
+        <v>26776100</v>
       </c>
       <c r="G61" s="3">
-        <v>25693500</v>
+        <v>25368300</v>
       </c>
       <c r="H61" s="3">
-        <v>27414000</v>
+        <v>26496700</v>
       </c>
       <c r="I61" s="3">
-        <v>30365400</v>
+        <v>28271000</v>
       </c>
       <c r="J61" s="3">
+        <v>31314700</v>
+      </c>
+      <c r="K61" s="3">
         <v>28352200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32546300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35448900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38589100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29265100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29181100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28148400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28189000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24746700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25887000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33785600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33220700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33418300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30704200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29149700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29845300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33197800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10258200</v>
+        <v>9068700</v>
       </c>
       <c r="E62" s="3">
-        <v>10627800</v>
+        <v>10578900</v>
       </c>
       <c r="F62" s="3">
-        <v>10634900</v>
+        <v>10960000</v>
       </c>
       <c r="G62" s="3">
-        <v>11776900</v>
+        <v>10967400</v>
       </c>
       <c r="H62" s="3">
-        <v>12017200</v>
+        <v>12145100</v>
       </c>
       <c r="I62" s="3">
-        <v>12112100</v>
+        <v>12392900</v>
       </c>
       <c r="J62" s="3">
+        <v>12490800</v>
+      </c>
+      <c r="K62" s="3">
         <v>11955400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9854100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9786300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9808400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9420000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8021300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7992700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8536300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7914700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7280900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8886500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8984200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8590800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7628800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7448600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7779300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7902400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66382000</v>
+        <v>65298100</v>
       </c>
       <c r="E66" s="3">
-        <v>68966100</v>
+        <v>68457200</v>
       </c>
       <c r="F66" s="3">
-        <v>65286700</v>
+        <v>71122100</v>
       </c>
       <c r="G66" s="3">
-        <v>67600200</v>
+        <v>67327800</v>
       </c>
       <c r="H66" s="3">
-        <v>67997200</v>
+        <v>69713500</v>
       </c>
       <c r="I66" s="3">
-        <v>70515700</v>
+        <v>70123000</v>
       </c>
       <c r="J66" s="3">
+        <v>72720200</v>
+      </c>
+      <c r="K66" s="3">
         <v>69030900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69774300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71654400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76535600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67186700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65675100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65625700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64950200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56235200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54425500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68498600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>66819900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>66824700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62512300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>60788200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62022300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>69355300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30653400</v>
+        <v>25703300</v>
       </c>
       <c r="E72" s="3">
-        <v>30336300</v>
+        <v>23259600</v>
       </c>
       <c r="F72" s="3">
-        <v>22483000</v>
+        <v>22878700</v>
       </c>
       <c r="G72" s="3">
-        <v>16158300</v>
+        <v>23185900</v>
       </c>
       <c r="H72" s="3">
-        <v>15748600</v>
+        <v>17053500</v>
       </c>
       <c r="I72" s="3">
-        <v>14084700</v>
+        <v>16738700</v>
       </c>
       <c r="J72" s="3">
+        <v>14820500</v>
+      </c>
+      <c r="K72" s="3">
         <v>15805100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12553900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11240400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11408900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13522500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12739700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11561400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12175200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10371400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8678700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9361600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10518800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8848700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9134400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9340100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9646700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8020500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19314400</v>
+        <v>19135300</v>
       </c>
       <c r="E76" s="3">
-        <v>20318000</v>
+        <v>19918300</v>
       </c>
       <c r="F76" s="3">
-        <v>19567500</v>
+        <v>20953200</v>
       </c>
       <c r="G76" s="3">
-        <v>12873100</v>
+        <v>20179200</v>
       </c>
       <c r="H76" s="3">
-        <v>12710300</v>
+        <v>13275600</v>
       </c>
       <c r="I76" s="3">
-        <v>11422300</v>
+        <v>13107700</v>
       </c>
       <c r="J76" s="3">
+        <v>11779400</v>
+      </c>
+      <c r="K76" s="3">
         <v>12579000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8493500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7825600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8537600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8827900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9501100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9696500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10047600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8937400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6564000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8921800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10225100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10042200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9654500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9110800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10979400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11093400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>687200</v>
+        <v>930600</v>
       </c>
       <c r="E81" s="3">
-        <v>1546600</v>
+        <v>708700</v>
       </c>
       <c r="F81" s="3">
-        <v>9844400</v>
+        <v>1595000</v>
       </c>
       <c r="G81" s="3">
-        <v>794000</v>
+        <v>9965600</v>
       </c>
       <c r="H81" s="3">
-        <v>2150200</v>
+        <v>818800</v>
       </c>
       <c r="I81" s="3">
-        <v>90900</v>
+        <v>2311200</v>
       </c>
       <c r="J81" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1873800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>933800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>933100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1381000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1051600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>655000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>694700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>945800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>670600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>849900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1006000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-584200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-493800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>740300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1854400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-317100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2095000</v>
+        <v>2038800</v>
       </c>
       <c r="E83" s="3">
-        <v>2074300</v>
+        <v>2160500</v>
       </c>
       <c r="F83" s="3">
-        <v>8167100</v>
+        <v>2139200</v>
       </c>
       <c r="G83" s="3">
-        <v>2026300</v>
+        <v>8422400</v>
       </c>
       <c r="H83" s="3">
-        <v>2020900</v>
+        <v>2089600</v>
       </c>
       <c r="I83" s="3">
-        <v>2034400</v>
+        <v>4182000</v>
       </c>
       <c r="J83" s="3">
+        <v>2098000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2131000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2044900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1997300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1850700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1842200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2046000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1986300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1934000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1753800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1641100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2111000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2220100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2090600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2009300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1975700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2127800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2119900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3188000</v>
+        <v>3240200</v>
       </c>
       <c r="E89" s="3">
-        <v>1171600</v>
+        <v>3287600</v>
       </c>
       <c r="F89" s="3">
-        <v>12965900</v>
+        <v>1208200</v>
       </c>
       <c r="G89" s="3">
-        <v>3572300</v>
+        <v>13371200</v>
       </c>
       <c r="H89" s="3">
-        <v>3896000</v>
+        <v>3684000</v>
       </c>
       <c r="I89" s="3">
-        <v>2673500</v>
+        <v>6774800</v>
       </c>
       <c r="J89" s="3">
+        <v>2757000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4039200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4285200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3944600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1493700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4427000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3400500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3095400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>645900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4878800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2430700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3514300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1167800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4090900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2183600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3024800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1970700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4535500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1808600</v>
+        <v>-2077300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1365500</v>
+        <v>-1865100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7328600</v>
+        <v>-1408200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1678900</v>
+        <v>-7557700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1429100</v>
+        <v>-1731400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1188100</v>
+        <v>-2698900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1225200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1664900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1344500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1237200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1085400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2651100</v>
+        <v>763600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1438800</v>
+        <v>-2734000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3842900</v>
+        <v>-1483800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1613700</v>
+        <v>-3963000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1537300</v>
+        <v>-1664100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1416500</v>
+        <v>-3046200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1460800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2157900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1384600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1805100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1284200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-800</v>
+        <v>-1527800</v>
       </c>
       <c r="E96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-1397600</v>
-      </c>
       <c r="G96" s="3">
-        <v>-653100</v>
+        <v>-1441300</v>
       </c>
       <c r="H96" s="3">
-        <v>-99800</v>
+        <v>-673600</v>
       </c>
       <c r="I96" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-277800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-199400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-547900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-587500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-72100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-474200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-468400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-82900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-490100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-255300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-86500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-236900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1525800</v>
+        <v>-4348300</v>
       </c>
       <c r="E100" s="3">
-        <v>1187600</v>
+        <v>-1573500</v>
       </c>
       <c r="F100" s="3">
-        <v>-8907300</v>
+        <v>1224700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2154200</v>
+        <v>-9185800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2961500</v>
+        <v>-2221500</v>
       </c>
       <c r="I100" s="3">
-        <v>-417600</v>
+        <v>-3484700</v>
       </c>
       <c r="J100" s="3">
+        <v>-430600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1741000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3694800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4805900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3971000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-604400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>844900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-46600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-150900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-841300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34500</v>
+        <v>-39600</v>
       </c>
       <c r="E101" s="3">
-        <v>-77000</v>
+        <v>-35500</v>
       </c>
       <c r="F101" s="3">
-        <v>-77000</v>
+        <v>-79400</v>
       </c>
       <c r="G101" s="3">
-        <v>-29800</v>
+        <v>-79400</v>
       </c>
       <c r="H101" s="3">
-        <v>7900</v>
+        <v>-30800</v>
       </c>
       <c r="I101" s="3">
-        <v>-39800</v>
+        <v>-32900</v>
       </c>
       <c r="J101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-142300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>110200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-60800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>16200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-33100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>59600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-25800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>55700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1023400</v>
+        <v>-384100</v>
       </c>
       <c r="E102" s="3">
-        <v>843400</v>
+        <v>-1055400</v>
       </c>
       <c r="F102" s="3">
-        <v>138700</v>
+        <v>869700</v>
       </c>
       <c r="G102" s="3">
-        <v>-225400</v>
+        <v>143000</v>
       </c>
       <c r="H102" s="3">
-        <v>-595000</v>
+        <v>-232400</v>
       </c>
       <c r="I102" s="3">
-        <v>799600</v>
+        <v>211100</v>
       </c>
       <c r="J102" s="3">
+        <v>824600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-832500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2708600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4290700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>184000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-831400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>748300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-219400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>239500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-180900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>37800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-243800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-182900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>357400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>462800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-582800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>259100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11107200</v>
+        <v>34261700</v>
       </c>
       <c r="E8" s="3">
-        <v>11258700</v>
+        <v>23286700</v>
       </c>
       <c r="F8" s="3">
-        <v>10939300</v>
+        <v>11513900</v>
       </c>
       <c r="G8" s="3">
-        <v>44308200</v>
+        <v>12066200</v>
       </c>
       <c r="H8" s="3">
-        <v>10915800</v>
+        <v>11489100</v>
       </c>
       <c r="I8" s="3">
-        <v>21500000</v>
+        <v>22629100</v>
       </c>
       <c r="J8" s="3">
-        <v>10683500</v>
+        <v>11244600</v>
       </c>
       <c r="K8" s="3">
         <v>10603700</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6423900</v>
+        <v>19851000</v>
       </c>
       <c r="E9" s="3">
-        <v>6584700</v>
+        <v>13683000</v>
       </c>
       <c r="F9" s="3">
-        <v>6463200</v>
+        <v>6802700</v>
       </c>
       <c r="G9" s="3">
-        <v>26085900</v>
+        <v>6900100</v>
       </c>
       <c r="H9" s="3">
-        <v>6445900</v>
+        <v>6784500</v>
       </c>
       <c r="I9" s="3">
-        <v>12755500</v>
+        <v>13425500</v>
       </c>
       <c r="J9" s="3">
-        <v>6370400</v>
+        <v>6704900</v>
       </c>
       <c r="K9" s="3">
         <v>6516200</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4683300</v>
+        <v>14410700</v>
       </c>
       <c r="E10" s="3">
-        <v>4674000</v>
+        <v>9603700</v>
       </c>
       <c r="F10" s="3">
-        <v>4476100</v>
+        <v>4711200</v>
       </c>
       <c r="G10" s="3">
-        <v>18222200</v>
+        <v>5166100</v>
       </c>
       <c r="H10" s="3">
-        <v>4469900</v>
+        <v>4704700</v>
       </c>
       <c r="I10" s="3">
-        <v>8744400</v>
+        <v>9203700</v>
       </c>
       <c r="J10" s="3">
-        <v>4313200</v>
+        <v>4539700</v>
       </c>
       <c r="K10" s="3">
         <v>4087600</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8850700</v>
+        <v>27383300</v>
       </c>
       <c r="E17" s="3">
-        <v>9137400</v>
+        <v>18883000</v>
       </c>
       <c r="F17" s="3">
-        <v>8876100</v>
+        <v>9342200</v>
       </c>
       <c r="G17" s="3">
-        <v>35704100</v>
+        <v>9441600</v>
       </c>
       <c r="H17" s="3">
-        <v>8771600</v>
+        <v>9232300</v>
       </c>
       <c r="I17" s="3">
-        <v>17503200</v>
+        <v>18422400</v>
       </c>
       <c r="J17" s="3">
-        <v>8739200</v>
+        <v>9198200</v>
       </c>
       <c r="K17" s="3">
         <v>8847300</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2256500</v>
+        <v>6878400</v>
       </c>
       <c r="E18" s="3">
-        <v>2121400</v>
+        <v>4403700</v>
       </c>
       <c r="F18" s="3">
-        <v>2063300</v>
+        <v>2171600</v>
       </c>
       <c r="G18" s="3">
-        <v>8604000</v>
+        <v>2624600</v>
       </c>
       <c r="H18" s="3">
-        <v>2144200</v>
+        <v>2256800</v>
       </c>
       <c r="I18" s="3">
-        <v>3996800</v>
+        <v>4206700</v>
       </c>
       <c r="J18" s="3">
-        <v>1944300</v>
+        <v>2046400</v>
       </c>
       <c r="K18" s="3">
         <v>1756400</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-296400</v>
+        <v>245300</v>
       </c>
       <c r="E20" s="3">
-        <v>-370200</v>
+        <v>546100</v>
       </c>
       <c r="F20" s="3">
-        <v>889000</v>
+        <v>935700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1416300</v>
+        <v>-584800</v>
       </c>
       <c r="H20" s="3">
-        <v>-850100</v>
+        <v>-894700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1365900</v>
+        <v>-1437700</v>
       </c>
       <c r="K20" s="3">
         <v>1189300</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3998900</v>
+        <v>13794900</v>
       </c>
       <c r="E21" s="3">
-        <v>3911600</v>
+        <v>9475300</v>
       </c>
       <c r="F21" s="3">
-        <v>5091500</v>
+        <v>5358900</v>
       </c>
       <c r="G21" s="3">
-        <v>15610100</v>
+        <v>4303500</v>
       </c>
       <c r="H21" s="3">
-        <v>3400500</v>
+        <v>3579100</v>
       </c>
       <c r="I21" s="3">
-        <v>8160700</v>
+        <v>8589300</v>
       </c>
       <c r="J21" s="3">
-        <v>2667600</v>
+        <v>2807700</v>
       </c>
       <c r="K21" s="3">
         <v>5076700</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>553800</v>
+        <v>1686600</v>
       </c>
       <c r="E22" s="3">
-        <v>565700</v>
+        <v>1129800</v>
       </c>
       <c r="F22" s="3">
-        <v>509800</v>
+        <v>536600</v>
       </c>
       <c r="G22" s="3">
-        <v>1865800</v>
+        <v>481100</v>
       </c>
       <c r="H22" s="3">
-        <v>441100</v>
+        <v>464200</v>
       </c>
       <c r="I22" s="3">
-        <v>963400</v>
+        <v>1014000</v>
       </c>
       <c r="J22" s="3">
-        <v>490000</v>
+        <v>515700</v>
       </c>
       <c r="K22" s="3">
         <v>415800</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1406300</v>
+        <v>5437100</v>
       </c>
       <c r="E23" s="3">
-        <v>1185500</v>
+        <v>3819900</v>
       </c>
       <c r="F23" s="3">
-        <v>2442500</v>
+        <v>2570800</v>
       </c>
       <c r="G23" s="3">
-        <v>5321900</v>
+        <v>1558600</v>
       </c>
       <c r="H23" s="3">
-        <v>853000</v>
+        <v>897800</v>
       </c>
       <c r="I23" s="3">
-        <v>3032100</v>
+        <v>3191400</v>
       </c>
       <c r="J23" s="3">
-        <v>88400</v>
+        <v>93000</v>
       </c>
       <c r="K23" s="3">
         <v>2529900</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>562000</v>
+        <v>1943700</v>
       </c>
       <c r="E24" s="3">
-        <v>404400</v>
+        <v>1253700</v>
       </c>
       <c r="F24" s="3">
-        <v>786800</v>
+        <v>828100</v>
       </c>
       <c r="G24" s="3">
-        <v>1457600</v>
+        <v>368100</v>
       </c>
       <c r="H24" s="3">
-        <v>194500</v>
+        <v>204700</v>
       </c>
       <c r="I24" s="3">
-        <v>990300</v>
+        <v>1042300</v>
       </c>
       <c r="J24" s="3">
-        <v>112700</v>
+        <v>118600</v>
       </c>
       <c r="K24" s="3">
         <v>863400</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>844300</v>
+        <v>3493400</v>
       </c>
       <c r="E26" s="3">
-        <v>781100</v>
+        <v>2566200</v>
       </c>
       <c r="F26" s="3">
-        <v>1655700</v>
+        <v>1742700</v>
       </c>
       <c r="G26" s="3">
-        <v>3864300</v>
+        <v>1190500</v>
       </c>
       <c r="H26" s="3">
-        <v>658500</v>
+        <v>693100</v>
       </c>
       <c r="I26" s="3">
-        <v>2041900</v>
+        <v>2149100</v>
       </c>
       <c r="J26" s="3">
-        <v>-24300</v>
+        <v>-25600</v>
       </c>
       <c r="K26" s="3">
         <v>1666500</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>754300</v>
+        <v>3258500</v>
       </c>
       <c r="E27" s="3">
-        <v>708700</v>
+        <v>2426100</v>
       </c>
       <c r="F27" s="3">
-        <v>1595000</v>
+        <v>1678700</v>
       </c>
       <c r="G27" s="3">
-        <v>3662200</v>
+        <v>1196100</v>
       </c>
       <c r="H27" s="3">
-        <v>566800</v>
+        <v>596600</v>
       </c>
       <c r="I27" s="3">
-        <v>1926100</v>
+        <v>2027300</v>
       </c>
       <c r="J27" s="3">
-        <v>-73200</v>
+        <v>-77000</v>
       </c>
       <c r="K27" s="3">
         <v>1643600</v>
@@ -2309,25 +2309,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>176300</v>
+        <v>145600</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>6303400</v>
+        <v>5998500</v>
       </c>
       <c r="H29" s="3">
-        <v>252000</v>
+        <v>265300</v>
       </c>
       <c r="I29" s="3">
-        <v>385000</v>
+        <v>405300</v>
       </c>
       <c r="J29" s="3">
-        <v>166900</v>
+        <v>175700</v>
       </c>
       <c r="K29" s="3">
         <v>230200</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>296400</v>
+        <v>-245300</v>
       </c>
       <c r="E32" s="3">
-        <v>370200</v>
+        <v>-546100</v>
       </c>
       <c r="F32" s="3">
-        <v>-889000</v>
+        <v>-935700</v>
       </c>
       <c r="G32" s="3">
-        <v>1416300</v>
+        <v>584800</v>
       </c>
       <c r="H32" s="3">
-        <v>850100</v>
+        <v>894700</v>
       </c>
       <c r="I32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="3">
-        <v>1365900</v>
+        <v>1437700</v>
       </c>
       <c r="K32" s="3">
         <v>-1189300</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>930600</v>
+        <v>3404100</v>
       </c>
       <c r="E33" s="3">
-        <v>708700</v>
+        <v>2424600</v>
       </c>
       <c r="F33" s="3">
-        <v>1595000</v>
+        <v>1678700</v>
       </c>
       <c r="G33" s="3">
-        <v>9965600</v>
+        <v>7194600</v>
       </c>
       <c r="H33" s="3">
-        <v>818800</v>
+        <v>861800</v>
       </c>
       <c r="I33" s="3">
-        <v>2311200</v>
+        <v>2432600</v>
       </c>
       <c r="J33" s="3">
-        <v>93800</v>
+        <v>98700</v>
       </c>
       <c r="K33" s="3">
         <v>1873800</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>930600</v>
+        <v>3404100</v>
       </c>
       <c r="E35" s="3">
-        <v>708700</v>
+        <v>2424600</v>
       </c>
       <c r="F35" s="3">
-        <v>1595000</v>
+        <v>1678700</v>
       </c>
       <c r="G35" s="3">
-        <v>9965600</v>
+        <v>7194600</v>
       </c>
       <c r="H35" s="3">
-        <v>818800</v>
+        <v>861800</v>
       </c>
       <c r="I35" s="3">
-        <v>2311200</v>
+        <v>2432600</v>
       </c>
       <c r="J35" s="3">
-        <v>93800</v>
+        <v>98700</v>
       </c>
       <c r="K35" s="3">
         <v>1873800</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1433500</v>
+        <v>1508800</v>
       </c>
       <c r="E41" s="3">
-        <v>1817600</v>
+        <v>1913100</v>
       </c>
       <c r="F41" s="3">
-        <v>2873000</v>
+        <v>3023900</v>
       </c>
       <c r="G41" s="3">
-        <v>2003200</v>
+        <v>2108400</v>
       </c>
       <c r="H41" s="3">
-        <v>1838800</v>
+        <v>1935400</v>
       </c>
       <c r="I41" s="3">
-        <v>2071200</v>
+        <v>2180000</v>
       </c>
       <c r="J41" s="3">
-        <v>2684800</v>
+        <v>2825800</v>
       </c>
       <c r="K41" s="3">
         <v>1803800</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4609400</v>
+        <v>4851500</v>
       </c>
       <c r="E42" s="3">
-        <v>6147300</v>
+        <v>6470200</v>
       </c>
       <c r="F42" s="3">
-        <v>6628700</v>
+        <v>6976800</v>
       </c>
       <c r="G42" s="3">
-        <v>6095800</v>
+        <v>6416000</v>
       </c>
       <c r="H42" s="3">
-        <v>3784100</v>
+        <v>3982900</v>
       </c>
       <c r="I42" s="3">
-        <v>3730600</v>
+        <v>3926500</v>
       </c>
       <c r="J42" s="3">
-        <v>3991800</v>
+        <v>4201400</v>
       </c>
       <c r="K42" s="3">
         <v>2743800</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11002800</v>
+        <v>11580700</v>
       </c>
       <c r="E43" s="3">
-        <v>10792400</v>
+        <v>11359200</v>
       </c>
       <c r="F43" s="3">
-        <v>10932000</v>
+        <v>11506100</v>
       </c>
       <c r="G43" s="3">
-        <v>10565400</v>
+        <v>11120300</v>
       </c>
       <c r="H43" s="3">
-        <v>10834500</v>
+        <v>11403600</v>
       </c>
       <c r="I43" s="3">
-        <v>10658800</v>
+        <v>11218600</v>
       </c>
       <c r="J43" s="3">
-        <v>10699300</v>
+        <v>11261200</v>
       </c>
       <c r="K43" s="3">
         <v>10514500</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1648100</v>
+        <v>1734600</v>
       </c>
       <c r="E44" s="3">
-        <v>1741300</v>
+        <v>1832800</v>
       </c>
       <c r="F44" s="3">
-        <v>1714600</v>
+        <v>1804700</v>
       </c>
       <c r="G44" s="3">
-        <v>1252600</v>
+        <v>1318300</v>
       </c>
       <c r="H44" s="3">
-        <v>1837100</v>
+        <v>1933600</v>
       </c>
       <c r="I44" s="3">
-        <v>1641700</v>
+        <v>1727900</v>
       </c>
       <c r="J44" s="3">
-        <v>1601300</v>
+        <v>1685400</v>
       </c>
       <c r="K44" s="3">
         <v>1525600</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>809400</v>
+        <v>851900</v>
       </c>
       <c r="E45" s="3">
-        <v>944800</v>
+        <v>994500</v>
       </c>
       <c r="F45" s="3">
-        <v>1044100</v>
+        <v>1099000</v>
       </c>
       <c r="G45" s="3">
-        <v>1014200</v>
+        <v>1067500</v>
       </c>
       <c r="H45" s="3">
-        <v>696900</v>
+        <v>733500</v>
       </c>
       <c r="I45" s="3">
-        <v>796900</v>
+        <v>838700</v>
       </c>
       <c r="J45" s="3">
-        <v>941600</v>
+        <v>991000</v>
       </c>
       <c r="K45" s="3">
         <v>1502700</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19503200</v>
+        <v>20527500</v>
       </c>
       <c r="E46" s="3">
-        <v>21443500</v>
+        <v>22569700</v>
       </c>
       <c r="F46" s="3">
-        <v>23192400</v>
+        <v>24410500</v>
       </c>
       <c r="G46" s="3">
-        <v>20931300</v>
+        <v>22030600</v>
       </c>
       <c r="H46" s="3">
-        <v>18991500</v>
+        <v>19989000</v>
       </c>
       <c r="I46" s="3">
-        <v>18899100</v>
+        <v>19891700</v>
       </c>
       <c r="J46" s="3">
-        <v>19918800</v>
+        <v>20964900</v>
       </c>
       <c r="K46" s="3">
         <v>18090400</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1534600</v>
+        <v>1615200</v>
       </c>
       <c r="E47" s="3">
-        <v>1516000</v>
+        <v>1595700</v>
       </c>
       <c r="F47" s="3">
-        <v>1609300</v>
+        <v>1693800</v>
       </c>
       <c r="G47" s="3">
-        <v>516900</v>
+        <v>544100</v>
       </c>
       <c r="H47" s="3">
-        <v>1037700</v>
+        <v>1092200</v>
       </c>
       <c r="I47" s="3">
-        <v>1057800</v>
+        <v>1113400</v>
       </c>
       <c r="J47" s="3">
-        <v>985300</v>
+        <v>1037100</v>
       </c>
       <c r="K47" s="3">
         <v>483200</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40724600</v>
+        <v>42863500</v>
       </c>
       <c r="E48" s="3">
-        <v>42910000</v>
+        <v>45163600</v>
       </c>
       <c r="F48" s="3">
-        <v>44240900</v>
+        <v>46564400</v>
       </c>
       <c r="G48" s="3">
-        <v>42549100</v>
+        <v>44783700</v>
       </c>
       <c r="H48" s="3">
-        <v>41395400</v>
+        <v>43569500</v>
       </c>
       <c r="I48" s="3">
-        <v>41629500</v>
+        <v>43815900</v>
       </c>
       <c r="J48" s="3">
-        <v>41902300</v>
+        <v>44103000</v>
       </c>
       <c r="K48" s="3">
         <v>41426800</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14241000</v>
+        <v>14989000</v>
       </c>
       <c r="E49" s="3">
-        <v>14276700</v>
+        <v>15026500</v>
       </c>
       <c r="F49" s="3">
-        <v>14585300</v>
+        <v>15351300</v>
       </c>
       <c r="G49" s="3">
-        <v>14491000</v>
+        <v>15252100</v>
       </c>
       <c r="H49" s="3">
-        <v>13688200</v>
+        <v>14407100</v>
       </c>
       <c r="I49" s="3">
-        <v>13930100</v>
+        <v>14661700</v>
       </c>
       <c r="J49" s="3">
-        <v>14055500</v>
+        <v>14793600</v>
       </c>
       <c r="K49" s="3">
         <v>13886300</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8430000</v>
+        <v>8872700</v>
       </c>
       <c r="E52" s="3">
-        <v>8229300</v>
+        <v>8661600</v>
       </c>
       <c r="F52" s="3">
-        <v>8447400</v>
+        <v>8891000</v>
       </c>
       <c r="G52" s="3">
-        <v>9018600</v>
+        <v>9492300</v>
       </c>
       <c r="H52" s="3">
-        <v>7876300</v>
+        <v>8289900</v>
       </c>
       <c r="I52" s="3">
-        <v>7714100</v>
+        <v>8119300</v>
       </c>
       <c r="J52" s="3">
-        <v>7637800</v>
+        <v>8038900</v>
       </c>
       <c r="K52" s="3">
         <v>7723100</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84433400</v>
+        <v>88867800</v>
       </c>
       <c r="E54" s="3">
-        <v>88375500</v>
+        <v>93017000</v>
       </c>
       <c r="F54" s="3">
-        <v>92075300</v>
+        <v>96911100</v>
       </c>
       <c r="G54" s="3">
-        <v>87507000</v>
+        <v>92102800</v>
       </c>
       <c r="H54" s="3">
-        <v>82989100</v>
+        <v>87347700</v>
       </c>
       <c r="I54" s="3">
-        <v>83230700</v>
+        <v>87601900</v>
       </c>
       <c r="J54" s="3">
-        <v>84499600</v>
+        <v>88937500</v>
       </c>
       <c r="K54" s="3">
         <v>81609900</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3214700</v>
+        <v>3383600</v>
       </c>
       <c r="E57" s="3">
-        <v>3532900</v>
+        <v>3718400</v>
       </c>
       <c r="F57" s="3">
-        <v>3821100</v>
+        <v>4021700</v>
       </c>
       <c r="G57" s="3">
-        <v>10694000</v>
+        <v>11255600</v>
       </c>
       <c r="H57" s="3">
-        <v>3621300</v>
+        <v>3811500</v>
       </c>
       <c r="I57" s="3">
-        <v>3597200</v>
+        <v>3786100</v>
       </c>
       <c r="J57" s="3">
-        <v>3204700</v>
+        <v>3373000</v>
       </c>
       <c r="K57" s="3">
         <v>9390900</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9220800</v>
+        <v>9705100</v>
       </c>
       <c r="E58" s="3">
-        <v>8153800</v>
+        <v>8582000</v>
       </c>
       <c r="F58" s="3">
-        <v>9697900</v>
+        <v>10207200</v>
       </c>
       <c r="G58" s="3">
-        <v>8952200</v>
+        <v>9422300</v>
       </c>
       <c r="H58" s="3">
-        <v>9041100</v>
+        <v>9516000</v>
       </c>
       <c r="I58" s="3">
-        <v>7539300</v>
+        <v>7935200</v>
       </c>
       <c r="J58" s="3">
-        <v>7318600</v>
+        <v>7702900</v>
       </c>
       <c r="K58" s="3">
         <v>8695600</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15686300</v>
+        <v>16510100</v>
       </c>
       <c r="E59" s="3">
-        <v>16510300</v>
+        <v>17377500</v>
       </c>
       <c r="F59" s="3">
-        <v>16529200</v>
+        <v>17397300</v>
       </c>
       <c r="G59" s="3">
-        <v>8010400</v>
+        <v>8431100</v>
       </c>
       <c r="H59" s="3">
-        <v>14996000</v>
+        <v>15783500</v>
       </c>
       <c r="I59" s="3">
-        <v>15039200</v>
+        <v>15829000</v>
       </c>
       <c r="J59" s="3">
-        <v>14967700</v>
+        <v>15753800</v>
       </c>
       <c r="K59" s="3">
         <v>7390600</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28121900</v>
+        <v>29598800</v>
       </c>
       <c r="E60" s="3">
-        <v>28197000</v>
+        <v>29677900</v>
       </c>
       <c r="F60" s="3">
-        <v>30048100</v>
+        <v>31626200</v>
       </c>
       <c r="G60" s="3">
-        <v>27656500</v>
+        <v>29109000</v>
       </c>
       <c r="H60" s="3">
-        <v>27658400</v>
+        <v>29111000</v>
       </c>
       <c r="I60" s="3">
-        <v>26175600</v>
+        <v>27550300</v>
       </c>
       <c r="J60" s="3">
-        <v>25490900</v>
+        <v>26829700</v>
       </c>
       <c r="K60" s="3">
         <v>25477100</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24892500</v>
+        <v>26199900</v>
       </c>
       <c r="E61" s="3">
-        <v>26480300</v>
+        <v>27871100</v>
       </c>
       <c r="F61" s="3">
-        <v>26776100</v>
+        <v>28182300</v>
       </c>
       <c r="G61" s="3">
-        <v>25368300</v>
+        <v>26700600</v>
       </c>
       <c r="H61" s="3">
-        <v>26496700</v>
+        <v>27888300</v>
       </c>
       <c r="I61" s="3">
-        <v>28271000</v>
+        <v>29755800</v>
       </c>
       <c r="J61" s="3">
-        <v>31314700</v>
+        <v>32959300</v>
       </c>
       <c r="K61" s="3">
         <v>28352200</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9068700</v>
+        <v>9545000</v>
       </c>
       <c r="E62" s="3">
-        <v>10578900</v>
+        <v>11134500</v>
       </c>
       <c r="F62" s="3">
-        <v>10960000</v>
+        <v>11535600</v>
       </c>
       <c r="G62" s="3">
-        <v>10967400</v>
+        <v>11543400</v>
       </c>
       <c r="H62" s="3">
-        <v>12145100</v>
+        <v>12783000</v>
       </c>
       <c r="I62" s="3">
-        <v>12392900</v>
+        <v>13043800</v>
       </c>
       <c r="J62" s="3">
-        <v>12490800</v>
+        <v>13146800</v>
       </c>
       <c r="K62" s="3">
         <v>11955400</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65298100</v>
+        <v>68727600</v>
       </c>
       <c r="E66" s="3">
-        <v>68457200</v>
+        <v>72052600</v>
       </c>
       <c r="F66" s="3">
-        <v>71122100</v>
+        <v>74857400</v>
       </c>
       <c r="G66" s="3">
-        <v>67327800</v>
+        <v>70863800</v>
       </c>
       <c r="H66" s="3">
-        <v>69713500</v>
+        <v>73374900</v>
       </c>
       <c r="I66" s="3">
-        <v>70123000</v>
+        <v>73805800</v>
       </c>
       <c r="J66" s="3">
-        <v>72720200</v>
+        <v>76539500</v>
       </c>
       <c r="K66" s="3">
         <v>69030900</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25703300</v>
+        <v>27053200</v>
       </c>
       <c r="E72" s="3">
-        <v>23259600</v>
+        <v>24481200</v>
       </c>
       <c r="F72" s="3">
-        <v>22878700</v>
+        <v>24080200</v>
       </c>
       <c r="G72" s="3">
-        <v>23185900</v>
+        <v>24403600</v>
       </c>
       <c r="H72" s="3">
-        <v>17053500</v>
+        <v>17949200</v>
       </c>
       <c r="I72" s="3">
-        <v>16738700</v>
+        <v>17617800</v>
       </c>
       <c r="J72" s="3">
-        <v>14820500</v>
+        <v>15598800</v>
       </c>
       <c r="K72" s="3">
         <v>15805100</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19135300</v>
+        <v>20140300</v>
       </c>
       <c r="E76" s="3">
-        <v>19918300</v>
+        <v>20964400</v>
       </c>
       <c r="F76" s="3">
-        <v>20953200</v>
+        <v>22053700</v>
       </c>
       <c r="G76" s="3">
-        <v>20179200</v>
+        <v>21239000</v>
       </c>
       <c r="H76" s="3">
-        <v>13275600</v>
+        <v>13972800</v>
       </c>
       <c r="I76" s="3">
-        <v>13107700</v>
+        <v>13796100</v>
       </c>
       <c r="J76" s="3">
-        <v>11779400</v>
+        <v>12398000</v>
       </c>
       <c r="K76" s="3">
         <v>12579000</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>930600</v>
+        <v>3404100</v>
       </c>
       <c r="E81" s="3">
-        <v>708700</v>
+        <v>2424600</v>
       </c>
       <c r="F81" s="3">
-        <v>1595000</v>
+        <v>1678700</v>
       </c>
       <c r="G81" s="3">
-        <v>9965600</v>
+        <v>7194600</v>
       </c>
       <c r="H81" s="3">
-        <v>818800</v>
+        <v>861800</v>
       </c>
       <c r="I81" s="3">
-        <v>2311200</v>
+        <v>2432600</v>
       </c>
       <c r="J81" s="3">
-        <v>93800</v>
+        <v>98700</v>
       </c>
       <c r="K81" s="3">
         <v>1873800</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2038800</v>
+        <v>6671300</v>
       </c>
       <c r="E83" s="3">
-        <v>2160500</v>
+        <v>4525500</v>
       </c>
       <c r="F83" s="3">
-        <v>2139200</v>
+        <v>2251500</v>
       </c>
       <c r="G83" s="3">
-        <v>8422400</v>
+        <v>2263800</v>
       </c>
       <c r="H83" s="3">
-        <v>2089600</v>
+        <v>2199400</v>
       </c>
       <c r="I83" s="3">
-        <v>4182000</v>
+        <v>4401700</v>
       </c>
       <c r="J83" s="3">
-        <v>2098000</v>
+        <v>2208100</v>
       </c>
       <c r="K83" s="3">
         <v>2131000</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3240200</v>
+        <v>8142300</v>
       </c>
       <c r="E89" s="3">
-        <v>3287600</v>
+        <v>4731900</v>
       </c>
       <c r="F89" s="3">
-        <v>1208200</v>
+        <v>1271600</v>
       </c>
       <c r="G89" s="3">
-        <v>13371200</v>
+        <v>3065400</v>
       </c>
       <c r="H89" s="3">
-        <v>3684000</v>
+        <v>3877500</v>
       </c>
       <c r="I89" s="3">
-        <v>6774800</v>
+        <v>7130600</v>
       </c>
       <c r="J89" s="3">
-        <v>2757000</v>
+        <v>2901800</v>
       </c>
       <c r="K89" s="3">
         <v>4039200</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2077300</v>
+        <v>-5631600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1865100</v>
+        <v>-3445200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1408200</v>
+        <v>-1482100</v>
       </c>
       <c r="G91" s="3">
-        <v>-7557700</v>
+        <v>-3291600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1731400</v>
+        <v>-1822300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2698900</v>
+        <v>-2840700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1225200</v>
+        <v>-1289500</v>
       </c>
       <c r="K91" s="3">
         <v>-1664900</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>763600</v>
+        <v>-3635500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2734000</v>
+        <v>-4439300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1483800</v>
+        <v>-1561700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3963000</v>
+        <v>786500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1664100</v>
+        <v>-1751500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3046200</v>
+        <v>-3206100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1460800</v>
+        <v>-1537500</v>
       </c>
       <c r="K94" s="3">
         <v>-2157900</v>
@@ -6959,22 +6959,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1527800</v>
+        <v>-1609300</v>
       </c>
       <c r="E96" s="3">
-        <v>-900</v>
+        <v>-1300</v>
       </c>
       <c r="F96" s="3">
         <v>-300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1441300</v>
+        <v>-699300</v>
       </c>
       <c r="H96" s="3">
-        <v>-673600</v>
+        <v>-708900</v>
       </c>
       <c r="I96" s="3">
-        <v>-103300</v>
+        <v>-108700</v>
       </c>
       <c r="J96" s="3">
         <v>-400</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4348300</v>
+        <v>-4943800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1573500</v>
+        <v>-367100</v>
       </c>
       <c r="F100" s="3">
-        <v>1224700</v>
+        <v>1289000</v>
       </c>
       <c r="G100" s="3">
-        <v>-9185800</v>
+        <v>-3662300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2221500</v>
+        <v>-2338200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3484700</v>
+        <v>-3667800</v>
       </c>
       <c r="J100" s="3">
-        <v>-430600</v>
+        <v>-453200</v>
       </c>
       <c r="K100" s="3">
         <v>-1741000</v>
@@ -7359,25 +7359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39600</v>
+        <v>-162600</v>
       </c>
       <c r="E101" s="3">
-        <v>-35500</v>
+        <v>-120900</v>
       </c>
       <c r="F101" s="3">
-        <v>-79400</v>
+        <v>-83500</v>
       </c>
       <c r="G101" s="3">
-        <v>-79400</v>
+        <v>-16600</v>
       </c>
       <c r="H101" s="3">
-        <v>-30800</v>
+        <v>-32400</v>
       </c>
       <c r="I101" s="3">
-        <v>-32900</v>
+        <v>-34600</v>
       </c>
       <c r="J101" s="3">
-        <v>-41000</v>
+        <v>-43200</v>
       </c>
       <c r="K101" s="3">
         <v>-142300</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-384100</v>
+        <v>-599700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1055400</v>
+        <v>-195400</v>
       </c>
       <c r="F102" s="3">
-        <v>869700</v>
+        <v>915400</v>
       </c>
       <c r="G102" s="3">
-        <v>143000</v>
+        <v>173000</v>
       </c>
       <c r="H102" s="3">
-        <v>-232400</v>
+        <v>-244600</v>
       </c>
       <c r="I102" s="3">
-        <v>211100</v>
+        <v>222100</v>
       </c>
       <c r="J102" s="3">
-        <v>824600</v>
+        <v>867900</v>
       </c>
       <c r="K102" s="3">
         <v>-2000</v>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,382 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34261700</v>
+        <v>11802200</v>
       </c>
       <c r="E8" s="3">
-        <v>23286700</v>
+        <v>12199700</v>
       </c>
       <c r="F8" s="3">
-        <v>11513900</v>
+        <v>35506200</v>
       </c>
       <c r="G8" s="3">
-        <v>12066200</v>
+        <v>24132500</v>
       </c>
       <c r="H8" s="3">
-        <v>11489100</v>
+        <v>11608300</v>
       </c>
       <c r="I8" s="3">
+        <v>12504400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11906400</v>
+      </c>
+      <c r="K8" s="3">
         <v>22629100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11244600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10603700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12854500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12038300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11965500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13059300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12478400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12096100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11882400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>12751900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11159600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>13776500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>13592300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>13646800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12629400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>12900500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>13662200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>14301700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19851000</v>
+        <v>6668900</v>
       </c>
       <c r="E9" s="3">
-        <v>13683000</v>
+        <v>7060900</v>
       </c>
       <c r="F9" s="3">
-        <v>6802700</v>
+        <v>20572100</v>
       </c>
       <c r="G9" s="3">
-        <v>6900100</v>
+        <v>14180000</v>
       </c>
       <c r="H9" s="3">
-        <v>6784500</v>
+        <v>6799100</v>
       </c>
       <c r="I9" s="3">
+        <v>7150700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7030900</v>
+      </c>
+      <c r="K9" s="3">
         <v>13425500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6704900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6516200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7999200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7387000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7394700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8045300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7880200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7601800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>7449100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8145100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>7177200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8761700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8738800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8946900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8120800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>8143900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>8743100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>9511400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14410700</v>
+        <v>5133400</v>
       </c>
       <c r="E10" s="3">
-        <v>9603700</v>
+        <v>5138800</v>
       </c>
       <c r="F10" s="3">
-        <v>4711200</v>
+        <v>14934100</v>
       </c>
       <c r="G10" s="3">
-        <v>5166100</v>
+        <v>9952600</v>
       </c>
       <c r="H10" s="3">
-        <v>4704700</v>
+        <v>4809100</v>
       </c>
       <c r="I10" s="3">
+        <v>5353700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4875500</v>
+      </c>
+      <c r="K10" s="3">
         <v>9203700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4539700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4087600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4855300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4651200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4570700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5014100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4598300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4494400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4433300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4606700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>3982400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5014700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4853500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>4699900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4508600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>4756600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4919100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>4790200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1069,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1151,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1237,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1323,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1409,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1442,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27383300</v>
+        <v>9309600</v>
       </c>
       <c r="E17" s="3">
-        <v>18883000</v>
+        <v>9675400</v>
       </c>
       <c r="F17" s="3">
-        <v>9342200</v>
+        <v>28378000</v>
       </c>
       <c r="G17" s="3">
-        <v>9441600</v>
+        <v>19568900</v>
       </c>
       <c r="H17" s="3">
-        <v>9232300</v>
+        <v>9336600</v>
       </c>
       <c r="I17" s="3">
+        <v>9784600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9567700</v>
+      </c>
+      <c r="K17" s="3">
         <v>18422400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9198200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8847300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10626200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10080800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10103600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10845200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10567300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10304600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10167600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>10966000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9562600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>11946800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>11952100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>12169600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>12109300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>11288800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>12091800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>12934200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6878400</v>
+        <v>2492600</v>
       </c>
       <c r="E18" s="3">
-        <v>4403700</v>
+        <v>2524300</v>
       </c>
       <c r="F18" s="3">
-        <v>2171600</v>
+        <v>7128200</v>
       </c>
       <c r="G18" s="3">
-        <v>2624600</v>
+        <v>4563600</v>
       </c>
       <c r="H18" s="3">
-        <v>2256800</v>
+        <v>2271700</v>
       </c>
       <c r="I18" s="3">
+        <v>2719900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2338700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4206700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2046400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1756400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2228300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1957500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1861900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2214200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1911100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1791500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1714800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1785900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1597000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1829700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1640200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1477100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>520200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1611700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1570400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1367400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1646,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>245300</v>
+        <v>594400</v>
       </c>
       <c r="E20" s="3">
-        <v>546100</v>
+        <v>8900</v>
       </c>
       <c r="F20" s="3">
-        <v>935700</v>
+        <v>254200</v>
       </c>
       <c r="G20" s="3">
-        <v>-584800</v>
+        <v>565900</v>
       </c>
       <c r="H20" s="3">
-        <v>-894700</v>
+        <v>963400</v>
       </c>
       <c r="I20" s="3">
+        <v>-606100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-927200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1437700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1189300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-658900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-55800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3276600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>28800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-149200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-83200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>412500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-87400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>465600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>488400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-799300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-302700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1982600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13794900</v>
+        <v>5266600</v>
       </c>
       <c r="E21" s="3">
-        <v>9475300</v>
+        <v>4580800</v>
       </c>
       <c r="F21" s="3">
-        <v>5358900</v>
+        <v>14296000</v>
       </c>
       <c r="G21" s="3">
-        <v>4303500</v>
+        <v>9819400</v>
       </c>
       <c r="H21" s="3">
-        <v>3579100</v>
+        <v>5568400</v>
       </c>
       <c r="I21" s="3">
+        <v>4459800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3709100</v>
+      </c>
+      <c r="K21" s="3">
         <v>8589300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2807700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5076700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3614300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3898900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>436000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4085100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3807900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3694600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4061300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3452300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3703700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2636400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4348700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2027800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1730200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>3284700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>5680800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>2464400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1686600</v>
+        <v>606200</v>
       </c>
       <c r="E22" s="3">
-        <v>1129800</v>
+        <v>582900</v>
       </c>
       <c r="F22" s="3">
-        <v>536600</v>
+        <v>1747800</v>
       </c>
       <c r="G22" s="3">
+        <v>1170900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>548300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>498600</v>
+      </c>
+      <c r="J22" s="3">
         <v>481100</v>
       </c>
-      <c r="H22" s="3">
-        <v>464200</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1014000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>515700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>415800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>446700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>516900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>504200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>429200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>470500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>490500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>467100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>384700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>320900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>430100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>438700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>390200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>383500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>383000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>410400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>472200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5437100</v>
+        <v>2480800</v>
       </c>
       <c r="E23" s="3">
-        <v>3819900</v>
+        <v>1950300</v>
       </c>
       <c r="F23" s="3">
-        <v>2570800</v>
+        <v>5634600</v>
       </c>
       <c r="G23" s="3">
-        <v>1558600</v>
+        <v>3958700</v>
       </c>
       <c r="H23" s="3">
-        <v>897800</v>
+        <v>2686800</v>
       </c>
       <c r="I23" s="3">
+        <v>1615200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>930400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3191400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>93000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2529900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1122700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1384800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1918900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1813700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1291400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1217800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1660200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1313700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1741700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>95400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1689900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-453000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-662600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>926000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3142600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-127700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1943700</v>
+        <v>716100</v>
       </c>
       <c r="E24" s="3">
-        <v>1253700</v>
+        <v>586700</v>
       </c>
       <c r="F24" s="3">
-        <v>828100</v>
+        <v>2014300</v>
       </c>
       <c r="G24" s="3">
-        <v>368100</v>
+        <v>1299300</v>
       </c>
       <c r="H24" s="3">
-        <v>204700</v>
+        <v>881800</v>
       </c>
       <c r="I24" s="3">
+        <v>381500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1042300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>118600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>863400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>107100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>390200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-575200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>760000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>574100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>497300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>677400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>629800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>853300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>36100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>675700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>148100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-236600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>136800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1241700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>140900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2158,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3493400</v>
+        <v>1764700</v>
       </c>
       <c r="E26" s="3">
-        <v>2566200</v>
+        <v>1363600</v>
       </c>
       <c r="F26" s="3">
-        <v>1742700</v>
+        <v>3620300</v>
       </c>
       <c r="G26" s="3">
-        <v>1190500</v>
+        <v>2659400</v>
       </c>
       <c r="H26" s="3">
-        <v>693100</v>
+        <v>1805000</v>
       </c>
       <c r="I26" s="3">
+        <v>1233800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>718300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2149100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-25600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1666500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1015500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>994500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1343800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1053700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>717400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>720500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>982700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>684000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>888400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>59300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1014200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-601100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-426000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>789200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1900900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-268600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3258500</v>
+        <v>1702900</v>
       </c>
       <c r="E27" s="3">
-        <v>2426100</v>
+        <v>1304900</v>
       </c>
       <c r="F27" s="3">
-        <v>1678700</v>
+        <v>3376900</v>
       </c>
       <c r="G27" s="3">
-        <v>1196100</v>
+        <v>2514200</v>
       </c>
       <c r="H27" s="3">
-        <v>596600</v>
+        <v>1738800</v>
       </c>
       <c r="I27" s="3">
+        <v>1239500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>618200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2027300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-77000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1643600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>933800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>933100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1381000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1051600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>655000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>694700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>945800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>670600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>849900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>23300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1006000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-584200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-493800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>740300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1854400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-317100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,49 +2416,55 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>145600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-1400</v>
+        <v>-530500</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>150900</v>
       </c>
       <c r="G29" s="3">
-        <v>5998500</v>
+        <v>-1500</v>
       </c>
       <c r="H29" s="3">
-        <v>265300</v>
+        <v>1000</v>
       </c>
       <c r="I29" s="3">
+        <v>6216400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>274900</v>
+      </c>
+      <c r="K29" s="3">
         <v>405300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>175700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>230200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2383,8 +2502,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2588,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2674,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-245300</v>
+        <v>-594400</v>
       </c>
       <c r="E32" s="3">
-        <v>-546100</v>
+        <v>-8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-935700</v>
+        <v>-254200</v>
       </c>
       <c r="G32" s="3">
-        <v>584800</v>
+        <v>-565900</v>
       </c>
       <c r="H32" s="3">
-        <v>894700</v>
+        <v>-963400</v>
       </c>
       <c r="I32" s="3">
+        <v>606100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>927200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1437700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1189300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>658900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>55800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3276600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-28800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>149200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>83200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-412500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>87400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-465600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1304200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-488400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1539900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>799300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>302700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1022900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3404100</v>
+        <v>1702900</v>
       </c>
       <c r="E33" s="3">
-        <v>2424600</v>
+        <v>774500</v>
       </c>
       <c r="F33" s="3">
-        <v>1678700</v>
+        <v>3527800</v>
       </c>
       <c r="G33" s="3">
-        <v>7194600</v>
+        <v>2512700</v>
       </c>
       <c r="H33" s="3">
-        <v>861800</v>
+        <v>1739700</v>
       </c>
       <c r="I33" s="3">
+        <v>7455900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>893200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2432600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>98700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1873800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>933800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>933100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1381000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1051600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>655000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>694700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>945800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>670600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>849900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>23300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1006000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-584200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-493800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>740300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1854400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-317100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2932,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3404100</v>
+        <v>1702900</v>
       </c>
       <c r="E35" s="3">
-        <v>2424600</v>
+        <v>774500</v>
       </c>
       <c r="F35" s="3">
-        <v>1678700</v>
+        <v>3527800</v>
       </c>
       <c r="G35" s="3">
-        <v>7194600</v>
+        <v>2512700</v>
       </c>
       <c r="H35" s="3">
-        <v>861800</v>
+        <v>1739700</v>
       </c>
       <c r="I35" s="3">
+        <v>7455900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>893200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2432600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>98700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1873800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>933800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>933100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1381000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1051600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>655000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>694700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>945800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>670600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>849900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>23300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1006000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-584200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-493800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>740300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1854400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-317100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3145,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3177,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1508800</v>
+        <v>2131300</v>
       </c>
       <c r="E41" s="3">
-        <v>1913100</v>
+        <v>1903800</v>
       </c>
       <c r="F41" s="3">
-        <v>3023900</v>
+        <v>1563600</v>
       </c>
       <c r="G41" s="3">
-        <v>2108400</v>
+        <v>1982600</v>
       </c>
       <c r="H41" s="3">
-        <v>1935400</v>
+        <v>3133700</v>
       </c>
       <c r="I41" s="3">
+        <v>2185000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2005700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2180000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2825800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1803800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1776300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2526900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5235500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>979800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>805400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1576600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>828300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>987700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>738500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1095100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1057300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1255300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1317000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1080800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>618100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1232900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4851500</v>
+        <v>5414800</v>
       </c>
       <c r="E42" s="3">
-        <v>6470200</v>
+        <v>4995300</v>
       </c>
       <c r="F42" s="3">
-        <v>6976800</v>
+        <v>5027700</v>
       </c>
       <c r="G42" s="3">
-        <v>6416000</v>
+        <v>6705200</v>
       </c>
       <c r="H42" s="3">
-        <v>3982900</v>
+        <v>7230300</v>
       </c>
       <c r="I42" s="3">
+        <v>6649100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4127600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3926500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4201400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2743800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3631000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4037600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4552000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2706500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3202300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2689300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2759400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2476200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2370200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3244900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>3038100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3057700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2843300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>2609400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>2649100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>2961200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11580700</v>
+        <v>11119800</v>
       </c>
       <c r="E43" s="3">
-        <v>11359200</v>
+        <v>11394700</v>
       </c>
       <c r="F43" s="3">
-        <v>11506100</v>
+        <v>12001300</v>
       </c>
       <c r="G43" s="3">
-        <v>11120300</v>
+        <v>11771800</v>
       </c>
       <c r="H43" s="3">
-        <v>11403600</v>
+        <v>11924000</v>
       </c>
       <c r="I43" s="3">
+        <v>11524300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>11817800</v>
+      </c>
+      <c r="K43" s="3">
         <v>11218600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>11261200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10514500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10179800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10456100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10722100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10220700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>10818600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>10691600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>10596500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9917600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>8435500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>10473200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>10748300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>10067000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>8899400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>8538300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>9012400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>10115500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1734600</v>
+        <v>1321800</v>
       </c>
       <c r="E44" s="3">
-        <v>1832800</v>
+        <v>1355500</v>
       </c>
       <c r="F44" s="3">
-        <v>1804700</v>
+        <v>1797600</v>
       </c>
       <c r="G44" s="3">
-        <v>1318300</v>
+        <v>1899300</v>
       </c>
       <c r="H44" s="3">
-        <v>1933600</v>
+        <v>1870200</v>
       </c>
       <c r="I44" s="3">
+        <v>1366200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2003800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1727900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1685400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1525600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1730400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1618100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1879100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2039500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2094000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1868600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2002600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1837900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1793500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2160200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1899300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2007200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1917600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1709900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1537100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1957900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>851900</v>
+        <v>1293700</v>
       </c>
       <c r="E45" s="3">
-        <v>994500</v>
+        <v>743900</v>
       </c>
       <c r="F45" s="3">
-        <v>1099000</v>
+        <v>882900</v>
       </c>
       <c r="G45" s="3">
-        <v>1067500</v>
+        <v>1030600</v>
       </c>
       <c r="H45" s="3">
-        <v>733500</v>
+        <v>1138900</v>
       </c>
       <c r="I45" s="3">
+        <v>1106200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>760200</v>
+      </c>
+      <c r="K45" s="3">
         <v>838700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>991000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1502700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>722100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>705800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>951800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>470100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>826100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>992300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1152900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>697500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1483600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2000200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2063200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1313200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1810100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1921800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>2132700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1888000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20527500</v>
+        <v>21281400</v>
       </c>
       <c r="E46" s="3">
-        <v>22569700</v>
+        <v>20393100</v>
       </c>
       <c r="F46" s="3">
-        <v>24410500</v>
+        <v>21273100</v>
       </c>
       <c r="G46" s="3">
-        <v>22030600</v>
+        <v>23389500</v>
       </c>
       <c r="H46" s="3">
-        <v>19989000</v>
+        <v>25297100</v>
       </c>
       <c r="I46" s="3">
+        <v>22830800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>20715000</v>
+      </c>
+      <c r="K46" s="3">
         <v>19891700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>20964900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18090400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>18039600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19344500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>23340600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16416500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>17746500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>17818400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>17339700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15916900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>14821300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>18973600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>18806200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>17700400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>16787400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>15860300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>15949400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>18155400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1615200</v>
+        <v>2969900</v>
       </c>
       <c r="E47" s="3">
-        <v>1595700</v>
+        <v>1847200</v>
       </c>
       <c r="F47" s="3">
-        <v>1693800</v>
+        <v>1673900</v>
       </c>
       <c r="G47" s="3">
-        <v>544100</v>
+        <v>1653600</v>
       </c>
       <c r="H47" s="3">
-        <v>1092200</v>
+        <v>1755400</v>
       </c>
       <c r="I47" s="3">
+        <v>563800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1131800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1113400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1037100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>483200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1185100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1313800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1511400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1600800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1178300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1460400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1490700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1383000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1214800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1526500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1472500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>699300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1118700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1107400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1302000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1314700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42863500</v>
+        <v>42077800</v>
       </c>
       <c r="E48" s="3">
-        <v>45163600</v>
+        <v>44011400</v>
       </c>
       <c r="F48" s="3">
-        <v>46564400</v>
+        <v>44420400</v>
       </c>
       <c r="G48" s="3">
-        <v>44783700</v>
+        <v>46804100</v>
       </c>
       <c r="H48" s="3">
-        <v>43569500</v>
+        <v>48255800</v>
       </c>
       <c r="I48" s="3">
+        <v>46410400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>45152100</v>
+      </c>
+      <c r="K48" s="3">
         <v>43815900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>44103000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>41426800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>37203500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>37169600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>38596800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>37579500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>36676600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>36407300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>36100900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>29184000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>26613100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>33748900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>33762800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>34980500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>32227700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>31833800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>33850400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>37233200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14989000</v>
+        <v>14786700</v>
       </c>
       <c r="E49" s="3">
-        <v>15026500</v>
+        <v>15253100</v>
       </c>
       <c r="F49" s="3">
-        <v>15351300</v>
+        <v>15533400</v>
       </c>
       <c r="G49" s="3">
-        <v>15252100</v>
+        <v>15572300</v>
       </c>
       <c r="H49" s="3">
-        <v>14407100</v>
+        <v>15909000</v>
       </c>
       <c r="I49" s="3">
+        <v>15806100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14930400</v>
+      </c>
+      <c r="K49" s="3">
         <v>14661700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14793600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13886300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14161800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14140600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14098400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13797800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13147500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13056800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13049200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>12207300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>11642600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>14650200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14956900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>15257500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>14673600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>14236500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>14941100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>16195600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4033,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4119,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8872700</v>
+        <v>8892000</v>
       </c>
       <c r="E52" s="3">
-        <v>8661600</v>
+        <v>9901600</v>
       </c>
       <c r="F52" s="3">
-        <v>8891000</v>
+        <v>9195000</v>
       </c>
       <c r="G52" s="3">
-        <v>9492300</v>
+        <v>8976200</v>
       </c>
       <c r="H52" s="3">
-        <v>8289900</v>
+        <v>9214000</v>
       </c>
       <c r="I52" s="3">
+        <v>9837100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8591100</v>
+      </c>
+      <c r="K52" s="3">
         <v>8119300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8038900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7723100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7677800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7511400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7526000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6619900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6427400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6579400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>7017400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>6481300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>6697600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>8521100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>8046700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>8229100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>7359500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>6860900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>6958700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>7549800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4291,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>88867800</v>
+        <v>90007800</v>
       </c>
       <c r="E54" s="3">
-        <v>93017000</v>
+        <v>91406400</v>
       </c>
       <c r="F54" s="3">
-        <v>96911100</v>
+        <v>92095800</v>
       </c>
       <c r="G54" s="3">
-        <v>92102800</v>
+        <v>96395700</v>
       </c>
       <c r="H54" s="3">
-        <v>87347700</v>
+        <v>100431200</v>
       </c>
       <c r="I54" s="3">
+        <v>95448300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>90520500</v>
+      </c>
+      <c r="K54" s="3">
         <v>87601900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>88937500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>81609900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>78267800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>79479900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>85073200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76014500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>75176300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>75322200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>74997800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>65172600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>60989500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>77420400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>77045000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>76866900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>72166800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>69898900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>73001700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>80448700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4413,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4445,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3383600</v>
+        <v>3180300</v>
       </c>
       <c r="E57" s="3">
-        <v>3718400</v>
+        <v>9856000</v>
       </c>
       <c r="F57" s="3">
-        <v>4021700</v>
+        <v>3506500</v>
       </c>
       <c r="G57" s="3">
-        <v>11255600</v>
+        <v>3853500</v>
       </c>
       <c r="H57" s="3">
-        <v>3811500</v>
+        <v>4167800</v>
       </c>
       <c r="I57" s="3">
+        <v>11664500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3950000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3786100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3373000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9390900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3971000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3857600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4444000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5625500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5135700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5055400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4898300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5399300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3993800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4678500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4062400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>10999500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4611600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4629100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>4428200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>7051500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9705100</v>
+        <v>11439800</v>
       </c>
       <c r="E58" s="3">
-        <v>8582000</v>
+        <v>7622000</v>
       </c>
       <c r="F58" s="3">
-        <v>10207200</v>
+        <v>10057600</v>
       </c>
       <c r="G58" s="3">
-        <v>9422300</v>
+        <v>8893800</v>
       </c>
       <c r="H58" s="3">
-        <v>9516000</v>
+        <v>10578000</v>
       </c>
       <c r="I58" s="3">
+        <v>9764600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9861600</v>
+      </c>
+      <c r="K58" s="3">
         <v>7935200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7702900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8695600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7363300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6043100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7977200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7694400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7973700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8998400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>9086400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4388100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3146600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3020500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3345400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2676300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3099800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2972500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>3598300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>4386400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16510100</v>
+        <v>17332100</v>
       </c>
       <c r="E59" s="3">
-        <v>17377500</v>
+        <v>10138700</v>
       </c>
       <c r="F59" s="3">
-        <v>17397300</v>
+        <v>17109800</v>
       </c>
       <c r="G59" s="3">
-        <v>8431100</v>
+        <v>18008700</v>
       </c>
       <c r="H59" s="3">
-        <v>15783500</v>
+        <v>18029200</v>
       </c>
       <c r="I59" s="3">
+        <v>8737300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>16356900</v>
+      </c>
+      <c r="K59" s="3">
         <v>15829000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15753800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7390600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13228500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13870600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13135400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12750500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12871100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13067600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11819300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11511900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>11884000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>15386300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>14455800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>7702000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>13215200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>13507100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>13257300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>13519300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29598800</v>
+        <v>31952200</v>
       </c>
       <c r="E60" s="3">
-        <v>29677900</v>
+        <v>27616700</v>
       </c>
       <c r="F60" s="3">
-        <v>31626200</v>
+        <v>30673900</v>
       </c>
       <c r="G60" s="3">
-        <v>29109000</v>
+        <v>30755900</v>
       </c>
       <c r="H60" s="3">
-        <v>29111000</v>
+        <v>32775000</v>
       </c>
       <c r="I60" s="3">
+        <v>30166400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>30168400</v>
+      </c>
+      <c r="K60" s="3">
         <v>27550300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>26829700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>25477100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>24562700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23771300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>25556600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>26070300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>25980600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>27121400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>25804100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>21299300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>19024500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>23085300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>21863600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>21377800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>20926500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>21108600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>21283900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>24957200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26199900</v>
+        <v>24580400</v>
       </c>
       <c r="E61" s="3">
-        <v>27871100</v>
+        <v>28799300</v>
       </c>
       <c r="F61" s="3">
-        <v>28182300</v>
+        <v>27151500</v>
       </c>
       <c r="G61" s="3">
-        <v>26700600</v>
+        <v>28883500</v>
       </c>
       <c r="H61" s="3">
-        <v>27888300</v>
+        <v>29206000</v>
       </c>
       <c r="I61" s="3">
+        <v>27670500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>28901400</v>
+      </c>
+      <c r="K61" s="3">
         <v>29755800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>32959300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>28352200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>32546300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>35448900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>38589100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>29265100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>29181100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>28148400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>28189000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>24746700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>25887000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>33785600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>33220700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>33418300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>30704200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>29149700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>29845300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>33197800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9545000</v>
+        <v>10355500</v>
       </c>
       <c r="E62" s="3">
-        <v>11134500</v>
+        <v>10257500</v>
       </c>
       <c r="F62" s="3">
-        <v>11535600</v>
+        <v>9891700</v>
       </c>
       <c r="G62" s="3">
-        <v>11543400</v>
+        <v>11538900</v>
       </c>
       <c r="H62" s="3">
-        <v>12783000</v>
+        <v>11954600</v>
       </c>
       <c r="I62" s="3">
+        <v>11962700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13247300</v>
+      </c>
+      <c r="K62" s="3">
         <v>13043800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13146800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11955400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9854100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9786300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9808400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9420000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8021300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7992700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8536300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7914700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>7280900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8886500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>8984200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>8590800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>7628800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>7448600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>7779300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>7902400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5043,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5129,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5215,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>68727600</v>
+        <v>70465100</v>
       </c>
       <c r="E66" s="3">
-        <v>72052600</v>
+        <v>70290200</v>
       </c>
       <c r="F66" s="3">
-        <v>74857400</v>
+        <v>71224000</v>
       </c>
       <c r="G66" s="3">
-        <v>70863800</v>
+        <v>74669800</v>
       </c>
       <c r="H66" s="3">
-        <v>73374900</v>
+        <v>77576500</v>
       </c>
       <c r="I66" s="3">
+        <v>73437800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>76040100</v>
+      </c>
+      <c r="K66" s="3">
         <v>73805800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>76539500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>69030900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>69774300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>71654400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>76535600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>67186700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>65675100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>65625700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>64950200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>56235200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>54425500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>68498600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>66819900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>66824700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>62512300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>60788200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>62022300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>69355300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5337,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5419,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5505,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5591,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5677,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27053200</v>
+        <v>28797900</v>
       </c>
       <c r="E72" s="3">
-        <v>24481200</v>
+        <v>28554800</v>
       </c>
       <c r="F72" s="3">
-        <v>24080200</v>
+        <v>28035900</v>
       </c>
       <c r="G72" s="3">
-        <v>24403600</v>
+        <v>25370400</v>
       </c>
       <c r="H72" s="3">
-        <v>17949200</v>
+        <v>24954900</v>
       </c>
       <c r="I72" s="3">
+        <v>25290000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>18601200</v>
+      </c>
+      <c r="K72" s="3">
         <v>17617800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>15598800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15805100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12553900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11240400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11408900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13522500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>12739700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>11561400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>12175200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>10371400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>8678700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9361600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>10518800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>8848700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>9134400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>9340100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>9646700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>8020500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5849,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5935,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6021,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20140300</v>
+        <v>19542800</v>
       </c>
       <c r="E76" s="3">
-        <v>20964400</v>
+        <v>21116200</v>
       </c>
       <c r="F76" s="3">
-        <v>22053700</v>
+        <v>20871900</v>
       </c>
       <c r="G76" s="3">
-        <v>21239000</v>
+        <v>21725900</v>
       </c>
       <c r="H76" s="3">
-        <v>13972800</v>
+        <v>22854700</v>
       </c>
       <c r="I76" s="3">
+        <v>22010500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14480400</v>
+      </c>
+      <c r="K76" s="3">
         <v>13796100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12398000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12579000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8493500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7825600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8537600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8827900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9501100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9696500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10047600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8937400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6564000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8921800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10225100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10042200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>9654500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>9110800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>10979400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>11093400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6193,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3404100</v>
+        <v>1702900</v>
       </c>
       <c r="E81" s="3">
-        <v>2424600</v>
+        <v>774500</v>
       </c>
       <c r="F81" s="3">
-        <v>1678700</v>
+        <v>3527800</v>
       </c>
       <c r="G81" s="3">
-        <v>7194600</v>
+        <v>2512700</v>
       </c>
       <c r="H81" s="3">
-        <v>861800</v>
+        <v>1739700</v>
       </c>
       <c r="I81" s="3">
+        <v>7455900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>893200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2432600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>98700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1873800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>933800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>933100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1381000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1051600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>655000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>694700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>945800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>670600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>849900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>23300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1006000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-584200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-493800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>740300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1854400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-317100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6406,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6671300</v>
+        <v>2179600</v>
       </c>
       <c r="E83" s="3">
-        <v>4525500</v>
+        <v>2047600</v>
       </c>
       <c r="F83" s="3">
-        <v>2251500</v>
+        <v>6913600</v>
       </c>
       <c r="G83" s="3">
-        <v>2263800</v>
+        <v>4689900</v>
       </c>
       <c r="H83" s="3">
-        <v>2199400</v>
+        <v>2333300</v>
       </c>
       <c r="I83" s="3">
+        <v>2346000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2279200</v>
+      </c>
+      <c r="K83" s="3">
         <v>4401700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2208100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2131000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2044900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1997300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1850700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1842200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2046000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1986300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1934000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1753800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1641100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2111000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2220100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2090600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>2009300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1975700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>2127800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>2119900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6574,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6660,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6746,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6832,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6918,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8142300</v>
+        <v>1323700</v>
       </c>
       <c r="E89" s="3">
-        <v>4731900</v>
+        <v>4442300</v>
       </c>
       <c r="F89" s="3">
-        <v>1271600</v>
+        <v>8438000</v>
       </c>
       <c r="G89" s="3">
-        <v>3065400</v>
+        <v>4903800</v>
       </c>
       <c r="H89" s="3">
-        <v>3877500</v>
+        <v>1317800</v>
       </c>
       <c r="I89" s="3">
+        <v>3176700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4018300</v>
+      </c>
+      <c r="K89" s="3">
         <v>7130600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2901800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4039200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4285200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3944600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1493700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4427000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3400500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3095400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>645900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4878800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2430700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3514300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1167800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4090900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2183600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3024800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1970700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>4535500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7040,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5631600</v>
+        <v>-29162000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3445200</v>
+        <v>-52802700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1482100</v>
+        <v>-39473700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3291600</v>
+        <v>-36971400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1822300</v>
+        <v>-28606200</v>
       </c>
       <c r="I91" s="3">
+        <v>-67185300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34490400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2840700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1289500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1664900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1344500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1237200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1085400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7208,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7294,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3635500</v>
+        <v>-995300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4439300</v>
+        <v>-2352700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1561700</v>
+        <v>-3767600</v>
       </c>
       <c r="G94" s="3">
-        <v>786500</v>
+        <v>-4600500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1751500</v>
+        <v>-1618400</v>
       </c>
       <c r="I94" s="3">
+        <v>815100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1815100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3206100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1537500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2157900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1384600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1805100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1284200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7416,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1609300</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1667800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-724700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-734700</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-108700</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-277800</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-199400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="G96" s="3">
-        <v>-699300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-708900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-108700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-277800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-199400</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-547900</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-587500</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-474200</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-468400</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-490100</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-255300</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-300</v>
       </c>
-      <c r="N96" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-547900</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-587500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-72100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-474200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-468400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-490100</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-255300</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-86500</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-236900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7584,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7670,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7756,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4943800</v>
+        <v>-14700</v>
       </c>
       <c r="E100" s="3">
-        <v>-367100</v>
+        <v>-1660500</v>
       </c>
       <c r="F100" s="3">
-        <v>1289000</v>
+        <v>-5123400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3662300</v>
+        <v>-380400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2338200</v>
+        <v>1335900</v>
       </c>
       <c r="I100" s="3">
+        <v>-3795300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2423100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3667800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-453200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1741000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3694800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4805900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3971000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-604400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>844900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-46600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-150900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-841300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-162600</v>
+        <v>-86100</v>
       </c>
       <c r="E101" s="3">
-        <v>-120900</v>
+        <v>-89000</v>
       </c>
       <c r="F101" s="3">
-        <v>-83500</v>
+        <v>-168500</v>
       </c>
       <c r="G101" s="3">
-        <v>-16600</v>
+        <v>-125300</v>
       </c>
       <c r="H101" s="3">
-        <v>-32400</v>
+        <v>-86600</v>
       </c>
       <c r="I101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-34600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-43200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-142300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-38300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-42300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>110200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-20500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-10200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-26300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>16200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-33100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>59600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>9600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-25800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>55700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-599700</v>
+        <v>227500</v>
       </c>
       <c r="E102" s="3">
-        <v>-195400</v>
+        <v>340200</v>
       </c>
       <c r="F102" s="3">
-        <v>915400</v>
+        <v>-621400</v>
       </c>
       <c r="G102" s="3">
-        <v>173000</v>
+        <v>-202500</v>
       </c>
       <c r="H102" s="3">
-        <v>-244600</v>
+        <v>948700</v>
       </c>
       <c r="I102" s="3">
+        <v>179300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-253500</v>
+      </c>
+      <c r="K102" s="3">
         <v>222100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>867900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-832500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2708600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4290700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>184000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-831400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>748300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-219400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>239500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-180900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>37800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-243800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-182900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>357400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>462800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-582800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>259100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,381 +666,393 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11802200</v>
+        <v>11894700</v>
       </c>
       <c r="E8" s="3">
-        <v>12199700</v>
+        <v>12270200</v>
       </c>
       <c r="F8" s="3">
-        <v>35506200</v>
+        <v>12683500</v>
       </c>
       <c r="G8" s="3">
-        <v>24132500</v>
+        <v>36914100</v>
       </c>
       <c r="H8" s="3">
-        <v>11608300</v>
+        <v>12465700</v>
       </c>
       <c r="I8" s="3">
-        <v>12504400</v>
+        <v>12068600</v>
       </c>
       <c r="J8" s="3">
+        <v>50245600</v>
+      </c>
+      <c r="K8" s="3">
         <v>11906400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22629100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11244600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10603700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12854500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12038300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11965500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13059300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12478400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12096100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11882400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12751900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11159600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13776500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13592300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13646800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12629400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12900500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13662200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>14301700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6668900</v>
+        <v>6870900</v>
       </c>
       <c r="E9" s="3">
-        <v>7060900</v>
+        <v>6933300</v>
       </c>
       <c r="F9" s="3">
-        <v>20572100</v>
+        <v>7340900</v>
       </c>
       <c r="G9" s="3">
-        <v>14180000</v>
+        <v>21387800</v>
       </c>
       <c r="H9" s="3">
-        <v>6799100</v>
+        <v>7228000</v>
       </c>
       <c r="I9" s="3">
-        <v>7150700</v>
+        <v>7068700</v>
       </c>
       <c r="J9" s="3">
+        <v>29581500</v>
+      </c>
+      <c r="K9" s="3">
         <v>7030900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13425500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6704900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6516200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7999200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7387000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7394700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8045300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7880200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7601800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7449100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8145100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7177200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8761700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8738800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8946900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8120800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8143900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8743100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>9511400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5133400</v>
+        <v>5023800</v>
       </c>
       <c r="E10" s="3">
-        <v>5138800</v>
+        <v>5336900</v>
       </c>
       <c r="F10" s="3">
-        <v>14934100</v>
+        <v>5342600</v>
       </c>
       <c r="G10" s="3">
-        <v>9952600</v>
+        <v>15526300</v>
       </c>
       <c r="H10" s="3">
-        <v>4809100</v>
+        <v>5237700</v>
       </c>
       <c r="I10" s="3">
-        <v>5353700</v>
+        <v>4999800</v>
       </c>
       <c r="J10" s="3">
+        <v>20664100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4875500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9203700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4539700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4087600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4855300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4651200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4570700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5014100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4598300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4494400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4433300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4606700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3982400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5014700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4853500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4699900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4508600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4756600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4919100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4790200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1083,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,8 +1259,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1329,8 +1348,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9309600</v>
+        <v>9527400</v>
       </c>
       <c r="E17" s="3">
-        <v>9675400</v>
+        <v>9678800</v>
       </c>
       <c r="F17" s="3">
-        <v>28378000</v>
+        <v>10059100</v>
       </c>
       <c r="G17" s="3">
-        <v>19568900</v>
+        <v>29503300</v>
       </c>
       <c r="H17" s="3">
-        <v>9336600</v>
+        <v>10031000</v>
       </c>
       <c r="I17" s="3">
-        <v>9784600</v>
+        <v>9706800</v>
       </c>
       <c r="J17" s="3">
+        <v>40488600</v>
+      </c>
+      <c r="K17" s="3">
         <v>9567700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18422400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9198200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8847300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10626200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10080800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10103600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10845200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10567300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10304600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10167600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10966000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9562600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11946800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11952100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12169600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12109300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11288800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>12091800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>12934200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2492600</v>
+        <v>2367300</v>
       </c>
       <c r="E18" s="3">
-        <v>2524300</v>
+        <v>2591500</v>
       </c>
       <c r="F18" s="3">
-        <v>7128200</v>
+        <v>2624400</v>
       </c>
       <c r="G18" s="3">
-        <v>4563600</v>
+        <v>7410900</v>
       </c>
       <c r="H18" s="3">
-        <v>2271700</v>
+        <v>2434700</v>
       </c>
       <c r="I18" s="3">
-        <v>2719900</v>
+        <v>2361800</v>
       </c>
       <c r="J18" s="3">
+        <v>9757000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2338700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4206700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2046400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1756400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2228300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1957500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1861900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2214200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1911100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1791500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1714800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1785900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1597000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1829700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1640200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1477100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>520200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1611700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1570400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1367400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>594400</v>
+        <v>407200</v>
       </c>
       <c r="E20" s="3">
-        <v>8900</v>
+        <v>618000</v>
       </c>
       <c r="F20" s="3">
-        <v>254200</v>
+        <v>9300</v>
       </c>
       <c r="G20" s="3">
-        <v>565900</v>
+        <v>264300</v>
       </c>
       <c r="H20" s="3">
-        <v>963400</v>
+        <v>-402900</v>
       </c>
       <c r="I20" s="3">
-        <v>-606100</v>
+        <v>1001600</v>
       </c>
       <c r="J20" s="3">
+        <v>-1606100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-927200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1437700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1189300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-658900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-55800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3276600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-149200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-83200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>412500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-87400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>465600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>488400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-799300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-302700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1982600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5266600</v>
+        <v>5029200</v>
       </c>
       <c r="E21" s="3">
-        <v>4580800</v>
+        <v>5475500</v>
       </c>
       <c r="F21" s="3">
-        <v>14296000</v>
+        <v>4762400</v>
       </c>
       <c r="G21" s="3">
-        <v>9819400</v>
+        <v>14862900</v>
       </c>
       <c r="H21" s="3">
-        <v>5568400</v>
+        <v>4481800</v>
       </c>
       <c r="I21" s="3">
-        <v>4459800</v>
+        <v>5789200</v>
       </c>
       <c r="J21" s="3">
+        <v>17701900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3709100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8589300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2807700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5076700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3614300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3898900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>436000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4085100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3807900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3694600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4061300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3452300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3703700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2636400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4348700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2027800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1730200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3284700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5680800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2464400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>606200</v>
+        <v>591200</v>
       </c>
       <c r="E22" s="3">
-        <v>582900</v>
+        <v>630300</v>
       </c>
       <c r="F22" s="3">
-        <v>1747800</v>
+        <v>606000</v>
       </c>
       <c r="G22" s="3">
-        <v>1170900</v>
+        <v>1817100</v>
       </c>
       <c r="H22" s="3">
-        <v>548300</v>
+        <v>630900</v>
       </c>
       <c r="I22" s="3">
-        <v>498600</v>
+        <v>570000</v>
       </c>
       <c r="J22" s="3">
+        <v>2115800</v>
+      </c>
+      <c r="K22" s="3">
         <v>481100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1014000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>515700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>415800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>446700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>516900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>504200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>429200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>470500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>490500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>467100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>384700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>320900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>430100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>438700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>390200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>383500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>383000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>410400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>472200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2480800</v>
+        <v>2183300</v>
       </c>
       <c r="E23" s="3">
-        <v>1950300</v>
+        <v>2579200</v>
       </c>
       <c r="F23" s="3">
-        <v>5634600</v>
+        <v>2027600</v>
       </c>
       <c r="G23" s="3">
-        <v>3958700</v>
+        <v>5858000</v>
       </c>
       <c r="H23" s="3">
-        <v>2686800</v>
+        <v>1400900</v>
       </c>
       <c r="I23" s="3">
-        <v>1615200</v>
+        <v>2793400</v>
       </c>
       <c r="J23" s="3">
+        <v>6035100</v>
+      </c>
+      <c r="K23" s="3">
         <v>930400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3191400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>93000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2529900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1122700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1384800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1918900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1813700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1291400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1217800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1660200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1313700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1741700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>95400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1689900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-453000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-662600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>926000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3142600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-127700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>716100</v>
+        <v>592300</v>
       </c>
       <c r="E24" s="3">
-        <v>586700</v>
+        <v>744500</v>
       </c>
       <c r="F24" s="3">
-        <v>2014300</v>
+        <v>610000</v>
       </c>
       <c r="G24" s="3">
-        <v>1299300</v>
+        <v>2094200</v>
       </c>
       <c r="H24" s="3">
-        <v>881800</v>
+        <v>500300</v>
       </c>
       <c r="I24" s="3">
-        <v>381500</v>
+        <v>916800</v>
       </c>
       <c r="J24" s="3">
+        <v>1652900</v>
+      </c>
+      <c r="K24" s="3">
         <v>212200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1042300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>118600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>863400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>107100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>390200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-575200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>760000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>574100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>497300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>677400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>629800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>853300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>675700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>148100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-236600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>136800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1241700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>140900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1764700</v>
+        <v>1591000</v>
       </c>
       <c r="E26" s="3">
-        <v>1363600</v>
+        <v>1834700</v>
       </c>
       <c r="F26" s="3">
-        <v>3620300</v>
+        <v>1417600</v>
       </c>
       <c r="G26" s="3">
-        <v>2659400</v>
+        <v>3763800</v>
       </c>
       <c r="H26" s="3">
-        <v>1805000</v>
+        <v>900600</v>
       </c>
       <c r="I26" s="3">
-        <v>1233800</v>
+        <v>1876600</v>
       </c>
       <c r="J26" s="3">
+        <v>4382200</v>
+      </c>
+      <c r="K26" s="3">
         <v>718300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2149100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1666500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1015500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>994500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1343800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1053700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>717400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>720500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>982700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>684000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>888400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>59300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1014200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-601100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-426000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>789200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1900900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-268600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1702900</v>
+        <v>1519600</v>
       </c>
       <c r="E27" s="3">
-        <v>1304900</v>
+        <v>1770500</v>
       </c>
       <c r="F27" s="3">
-        <v>3376900</v>
+        <v>1356700</v>
       </c>
       <c r="G27" s="3">
-        <v>2514200</v>
+        <v>3510800</v>
       </c>
       <c r="H27" s="3">
-        <v>1738800</v>
+        <v>818400</v>
       </c>
       <c r="I27" s="3">
-        <v>1239500</v>
+        <v>1807700</v>
       </c>
       <c r="J27" s="3">
+        <v>4152900</v>
+      </c>
+      <c r="K27" s="3">
         <v>618200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2027300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1643600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>933800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>933100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1381000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1051600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>655000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>694700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>945800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>670600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>849900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-584200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-493800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>740300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1854400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-317100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2431,34 +2491,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-530500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>150900</v>
+        <v>-551500</v>
       </c>
       <c r="G29" s="3">
-        <v>-1500</v>
+        <v>156900</v>
       </c>
       <c r="H29" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I29" s="3">
         <v>1000</v>
       </c>
-      <c r="I29" s="3">
-        <v>6216400</v>
-      </c>
       <c r="J29" s="3">
+        <v>7148100</v>
+      </c>
+      <c r="K29" s="3">
         <v>274900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>405300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>175700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>230200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2466,8 +2526,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2508,8 +2568,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-594400</v>
+        <v>-407200</v>
       </c>
       <c r="E32" s="3">
-        <v>-8900</v>
+        <v>-618000</v>
       </c>
       <c r="F32" s="3">
-        <v>-254200</v>
+        <v>-9300</v>
       </c>
       <c r="G32" s="3">
-        <v>-565900</v>
+        <v>-264300</v>
       </c>
       <c r="H32" s="3">
-        <v>-963400</v>
+        <v>402900</v>
       </c>
       <c r="I32" s="3">
-        <v>606100</v>
+        <v>-1001600</v>
       </c>
       <c r="J32" s="3">
+        <v>1606100</v>
+      </c>
+      <c r="K32" s="3">
         <v>927200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1437700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1189300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>658900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>55800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3276600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>149200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>83200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-412500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>87400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-465600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1304200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-488400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1539900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>799300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>302700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1022900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1702900</v>
+        <v>1519600</v>
       </c>
       <c r="E33" s="3">
-        <v>774500</v>
+        <v>1770500</v>
       </c>
       <c r="F33" s="3">
-        <v>3527800</v>
+        <v>805200</v>
       </c>
       <c r="G33" s="3">
-        <v>2512700</v>
+        <v>3667700</v>
       </c>
       <c r="H33" s="3">
-        <v>1739700</v>
+        <v>803600</v>
       </c>
       <c r="I33" s="3">
-        <v>7455900</v>
+        <v>1808700</v>
       </c>
       <c r="J33" s="3">
+        <v>11301000</v>
+      </c>
+      <c r="K33" s="3">
         <v>893200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2432600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1873800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>933800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>933100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1381000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1051600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>655000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>694700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>945800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>670600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>849900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-584200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-493800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>740300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1854400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-317100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1702900</v>
+        <v>1519600</v>
       </c>
       <c r="E35" s="3">
-        <v>774500</v>
+        <v>1770500</v>
       </c>
       <c r="F35" s="3">
-        <v>3527800</v>
+        <v>805200</v>
       </c>
       <c r="G35" s="3">
-        <v>2512700</v>
+        <v>3667700</v>
       </c>
       <c r="H35" s="3">
-        <v>1739700</v>
+        <v>803600</v>
       </c>
       <c r="I35" s="3">
-        <v>7455900</v>
+        <v>1808700</v>
       </c>
       <c r="J35" s="3">
+        <v>11301000</v>
+      </c>
+      <c r="K35" s="3">
         <v>893200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2432600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1873800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>933800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>933100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1381000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1051600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>655000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>694700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>945800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>670600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>849900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-584200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-493800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>740300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1854400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-317100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,782 +3264,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2131300</v>
+        <v>1896900</v>
       </c>
       <c r="E41" s="3">
-        <v>1903800</v>
+        <v>2215800</v>
       </c>
       <c r="F41" s="3">
-        <v>1563600</v>
+        <v>1979300</v>
       </c>
       <c r="G41" s="3">
-        <v>1982600</v>
+        <v>1625600</v>
       </c>
       <c r="H41" s="3">
-        <v>3133700</v>
+        <v>2061200</v>
       </c>
       <c r="I41" s="3">
-        <v>2185000</v>
+        <v>3258000</v>
       </c>
       <c r="J41" s="3">
+        <v>2271700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2005700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2180000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2825800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1803800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1776300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2526900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5235500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>979800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>805400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1576600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>828300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>987700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>738500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1095100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1057300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1255300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1317000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1080800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>618100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1232900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5414800</v>
+        <v>5282200</v>
       </c>
       <c r="E42" s="3">
-        <v>4995300</v>
+        <v>5629500</v>
       </c>
       <c r="F42" s="3">
-        <v>5027700</v>
+        <v>5193400</v>
       </c>
       <c r="G42" s="3">
-        <v>6705200</v>
+        <v>5227100</v>
       </c>
       <c r="H42" s="3">
-        <v>7230300</v>
+        <v>6971100</v>
       </c>
       <c r="I42" s="3">
-        <v>6649100</v>
+        <v>7517000</v>
       </c>
       <c r="J42" s="3">
+        <v>6912700</v>
+      </c>
+      <c r="K42" s="3">
         <v>4127600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3926500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4201400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2743800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3631000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4037600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4552000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2706500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3202300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2689300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2759400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2476200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2370200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3244900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3038100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3057700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2843300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2609400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2649100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2961200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11119800</v>
+        <v>12014700</v>
       </c>
       <c r="E43" s="3">
-        <v>11394700</v>
+        <v>11560800</v>
       </c>
       <c r="F43" s="3">
-        <v>12001300</v>
+        <v>11846500</v>
       </c>
       <c r="G43" s="3">
-        <v>11771800</v>
+        <v>12477200</v>
       </c>
       <c r="H43" s="3">
-        <v>11924000</v>
+        <v>12238600</v>
       </c>
       <c r="I43" s="3">
-        <v>11524300</v>
+        <v>12396900</v>
       </c>
       <c r="J43" s="3">
+        <v>11981200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11817800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11218600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11261200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10514500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10179800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10456100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10722100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10220700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10818600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10691600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10596500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9917600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8435500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>10473200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>10748300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>10067000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8899400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8538300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9012400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>10115500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1321800</v>
+        <v>1285900</v>
       </c>
       <c r="E44" s="3">
-        <v>1355500</v>
+        <v>1374200</v>
       </c>
       <c r="F44" s="3">
-        <v>1797600</v>
+        <v>1409200</v>
       </c>
       <c r="G44" s="3">
+        <v>1868900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1974700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1944400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1420400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2003800</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1727900</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1685400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1525600</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1730400</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1618100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1879100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>2039500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1868600</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2002600</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1837900</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1793500</v>
+      </c>
+      <c r="X44" s="3">
+        <v>2160200</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1899300</v>
       </c>
-      <c r="H44" s="3">
-        <v>1870200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1366200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2003800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1727900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1685400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1525600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1730400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1618100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1879100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2039500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2094000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1868600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2002600</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1837900</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1793500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>2160200</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1899300</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2007200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1917600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1709900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1537100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1957900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1293700</v>
+        <v>1140500</v>
       </c>
       <c r="E45" s="3">
-        <v>743900</v>
+        <v>1345000</v>
       </c>
       <c r="F45" s="3">
-        <v>882900</v>
+        <v>773400</v>
       </c>
       <c r="G45" s="3">
-        <v>1030600</v>
+        <v>917900</v>
       </c>
       <c r="H45" s="3">
-        <v>1138900</v>
+        <v>1071500</v>
       </c>
       <c r="I45" s="3">
-        <v>1106200</v>
+        <v>1184000</v>
       </c>
       <c r="J45" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K45" s="3">
         <v>760200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>838700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>991000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1502700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>722100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>705800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>951800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>470100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>826100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>992300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1152900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>697500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1483600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2000200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2063200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1313200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1810100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1921800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2132700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1888000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21281400</v>
+        <v>21620100</v>
       </c>
       <c r="E46" s="3">
-        <v>20393100</v>
+        <v>22125300</v>
       </c>
       <c r="F46" s="3">
-        <v>21273100</v>
+        <v>21201700</v>
       </c>
       <c r="G46" s="3">
-        <v>23389500</v>
+        <v>22116700</v>
       </c>
       <c r="H46" s="3">
-        <v>25297100</v>
+        <v>24317000</v>
       </c>
       <c r="I46" s="3">
-        <v>22830800</v>
+        <v>26300200</v>
       </c>
       <c r="J46" s="3">
+        <v>23736100</v>
+      </c>
+      <c r="K46" s="3">
         <v>20715000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19891700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20964900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18090400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18039600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19344500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23340600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16416500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17746500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17818400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17339700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15916900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14821300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18973600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18806200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17700400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16787400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15860300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>15949400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>18155400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2969900</v>
+        <v>3098400</v>
       </c>
       <c r="E47" s="3">
-        <v>1847200</v>
+        <v>3087600</v>
       </c>
       <c r="F47" s="3">
-        <v>1673900</v>
+        <v>1920500</v>
       </c>
       <c r="G47" s="3">
-        <v>1653600</v>
+        <v>1740200</v>
       </c>
       <c r="H47" s="3">
-        <v>1755400</v>
+        <v>1719200</v>
       </c>
       <c r="I47" s="3">
-        <v>563800</v>
+        <v>1825000</v>
       </c>
       <c r="J47" s="3">
+        <v>586200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1131800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1113400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1037100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>483200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1185100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1313800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1511400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1600800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1178300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1460400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1490700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1383000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1214800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1526500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1472500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>699300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1118700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1107400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1302000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1314700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42077800</v>
+        <v>43359900</v>
       </c>
       <c r="E48" s="3">
-        <v>44011400</v>
+        <v>43746300</v>
       </c>
       <c r="F48" s="3">
-        <v>44420400</v>
+        <v>45756600</v>
       </c>
       <c r="G48" s="3">
-        <v>46804100</v>
+        <v>46181800</v>
       </c>
       <c r="H48" s="3">
-        <v>48255800</v>
+        <v>48660000</v>
       </c>
       <c r="I48" s="3">
-        <v>46410400</v>
+        <v>50169300</v>
       </c>
       <c r="J48" s="3">
+        <v>48250800</v>
+      </c>
+      <c r="K48" s="3">
         <v>45152100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43815900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44103000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41426800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37203500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37169600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38596800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37579500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36676600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36407300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36100900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29184000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26613100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33748900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>33762800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34980500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32227700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31833800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>33850400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>37233200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14786700</v>
+        <v>15081700</v>
       </c>
       <c r="E49" s="3">
-        <v>15253100</v>
+        <v>15373100</v>
       </c>
       <c r="F49" s="3">
-        <v>15533400</v>
+        <v>15858000</v>
       </c>
       <c r="G49" s="3">
-        <v>15572300</v>
+        <v>16149400</v>
       </c>
       <c r="H49" s="3">
-        <v>15909000</v>
+        <v>16189800</v>
       </c>
       <c r="I49" s="3">
-        <v>15806100</v>
+        <v>16539800</v>
       </c>
       <c r="J49" s="3">
+        <v>16432900</v>
+      </c>
+      <c r="K49" s="3">
         <v>14930400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14661700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14793600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13886300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14161800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14140600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14098400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13797800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13147500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13056800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13049200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12207300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11642600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14650200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14956900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>15257500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>14673600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>14236500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>14941100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>16195600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8892000</v>
+        <v>9227400</v>
       </c>
       <c r="E52" s="3">
-        <v>9901600</v>
+        <v>9244600</v>
       </c>
       <c r="F52" s="3">
-        <v>9195000</v>
+        <v>10294200</v>
       </c>
       <c r="G52" s="3">
-        <v>8976200</v>
+        <v>9559600</v>
       </c>
       <c r="H52" s="3">
-        <v>9214000</v>
+        <v>9332100</v>
       </c>
       <c r="I52" s="3">
-        <v>9837100</v>
+        <v>9579300</v>
       </c>
       <c r="J52" s="3">
+        <v>10227200</v>
+      </c>
+      <c r="K52" s="3">
         <v>8591100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8119300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8038900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7723100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7677800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7511400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7526000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6619900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6427400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6579400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7017400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6481300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6697600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8521100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8046700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8229100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7359500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6860900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>6958700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7549800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90007800</v>
+        <v>92387500</v>
       </c>
       <c r="E54" s="3">
-        <v>91406400</v>
+        <v>93576900</v>
       </c>
       <c r="F54" s="3">
-        <v>92095800</v>
+        <v>95031000</v>
       </c>
       <c r="G54" s="3">
-        <v>96395700</v>
+        <v>95747700</v>
       </c>
       <c r="H54" s="3">
-        <v>100431200</v>
+        <v>100218000</v>
       </c>
       <c r="I54" s="3">
-        <v>95448300</v>
+        <v>104413700</v>
       </c>
       <c r="J54" s="3">
+        <v>99233100</v>
+      </c>
+      <c r="K54" s="3">
         <v>90520500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87601900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>88937500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81609900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78267800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79479900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85073200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76014500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75176300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75322200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74997800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65172600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60989500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77420400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77045000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>76866900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>72166800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>69898900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>73001700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>80448700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3180300</v>
+        <v>3004600</v>
       </c>
       <c r="E57" s="3">
-        <v>9856000</v>
+        <v>3306400</v>
       </c>
       <c r="F57" s="3">
-        <v>3506500</v>
+        <v>10246800</v>
       </c>
       <c r="G57" s="3">
-        <v>3853500</v>
+        <v>3645500</v>
       </c>
       <c r="H57" s="3">
-        <v>4167800</v>
+        <v>4006300</v>
       </c>
       <c r="I57" s="3">
-        <v>11664500</v>
+        <v>4333100</v>
       </c>
       <c r="J57" s="3">
+        <v>12127000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3950000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3786100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3373000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9390900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3971000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3857600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4444000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5625500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5135700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5055400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4898300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5399300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3993800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4678500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4062400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10999500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4611600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4629100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4428200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7051500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11439800</v>
+        <v>11717400</v>
       </c>
       <c r="E58" s="3">
-        <v>7622000</v>
+        <v>11893500</v>
       </c>
       <c r="F58" s="3">
-        <v>10057600</v>
+        <v>7924200</v>
       </c>
       <c r="G58" s="3">
-        <v>8893800</v>
+        <v>10456400</v>
       </c>
       <c r="H58" s="3">
-        <v>10578000</v>
+        <v>9246400</v>
       </c>
       <c r="I58" s="3">
-        <v>9764600</v>
+        <v>10997400</v>
       </c>
       <c r="J58" s="3">
+        <v>10151800</v>
+      </c>
+      <c r="K58" s="3">
         <v>9861600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7935200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7702900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8695600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7363300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6043100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7977200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7694400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7973700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8998400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9086400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4388100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3146600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3020500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3345400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2676300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3099800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2972500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3598300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4386400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17332100</v>
+        <v>18077000</v>
       </c>
       <c r="E59" s="3">
-        <v>10138700</v>
+        <v>18019300</v>
       </c>
       <c r="F59" s="3">
-        <v>17109800</v>
+        <v>10540700</v>
       </c>
       <c r="G59" s="3">
-        <v>18008700</v>
+        <v>17788300</v>
       </c>
       <c r="H59" s="3">
-        <v>18029200</v>
+        <v>18722800</v>
       </c>
       <c r="I59" s="3">
-        <v>8737300</v>
+        <v>18744100</v>
       </c>
       <c r="J59" s="3">
+        <v>9083800</v>
+      </c>
+      <c r="K59" s="3">
         <v>16356900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15829000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15753800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7390600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13228500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13870600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13135400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12750500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12871100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13067600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11819300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11511900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11884000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15386300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14455800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7702000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13215200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13507100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13257300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13519300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31952200</v>
+        <v>32799000</v>
       </c>
       <c r="E60" s="3">
-        <v>27616700</v>
+        <v>33219200</v>
       </c>
       <c r="F60" s="3">
-        <v>30673900</v>
+        <v>28711700</v>
       </c>
       <c r="G60" s="3">
-        <v>30755900</v>
+        <v>31890300</v>
       </c>
       <c r="H60" s="3">
-        <v>32775000</v>
+        <v>31975500</v>
       </c>
       <c r="I60" s="3">
-        <v>30166400</v>
+        <v>34074600</v>
       </c>
       <c r="J60" s="3">
+        <v>31362600</v>
+      </c>
+      <c r="K60" s="3">
         <v>30168400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27550300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26829700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25477100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24562700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23771300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25556600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26070300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25980600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27121400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25804100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21299300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19024500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23085300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21863600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21377800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20926500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21108600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21283900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>24957200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24580400</v>
+        <v>24553000</v>
       </c>
       <c r="E61" s="3">
-        <v>28799300</v>
+        <v>25555100</v>
       </c>
       <c r="F61" s="3">
-        <v>27151500</v>
+        <v>29941200</v>
       </c>
       <c r="G61" s="3">
-        <v>28883500</v>
+        <v>28228200</v>
       </c>
       <c r="H61" s="3">
-        <v>29206000</v>
+        <v>30028800</v>
       </c>
       <c r="I61" s="3">
-        <v>27670500</v>
+        <v>30364100</v>
       </c>
       <c r="J61" s="3">
+        <v>28767700</v>
+      </c>
+      <c r="K61" s="3">
         <v>28901400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29755800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32959300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28352200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32546300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35448900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38589100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29265100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29181100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28148400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28189000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24746700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25887000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33785600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33220700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33418300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30704200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>29149700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>29845300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>33197800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10355500</v>
+        <v>10587500</v>
       </c>
       <c r="E62" s="3">
-        <v>10257500</v>
+        <v>10766200</v>
       </c>
       <c r="F62" s="3">
-        <v>9891700</v>
+        <v>10664300</v>
       </c>
       <c r="G62" s="3">
-        <v>11538900</v>
+        <v>10284000</v>
       </c>
       <c r="H62" s="3">
-        <v>11954600</v>
+        <v>11996500</v>
       </c>
       <c r="I62" s="3">
-        <v>11962700</v>
+        <v>12428700</v>
       </c>
       <c r="J62" s="3">
+        <v>12437000</v>
+      </c>
+      <c r="K62" s="3">
         <v>13247300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13043800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13146800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11955400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9854100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9786300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9808400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9420000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8021300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7992700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8536300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7914700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7280900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8886500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8984200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8590800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7628800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7448600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7779300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7902400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70465100</v>
+        <v>71497800</v>
       </c>
       <c r="E66" s="3">
-        <v>70290200</v>
+        <v>73259200</v>
       </c>
       <c r="F66" s="3">
-        <v>71224000</v>
+        <v>73077400</v>
       </c>
       <c r="G66" s="3">
-        <v>74669800</v>
+        <v>74048200</v>
       </c>
       <c r="H66" s="3">
-        <v>77576500</v>
+        <v>77630700</v>
       </c>
       <c r="I66" s="3">
-        <v>73437800</v>
+        <v>80652700</v>
       </c>
       <c r="J66" s="3">
+        <v>76349900</v>
+      </c>
+      <c r="K66" s="3">
         <v>76040100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73805800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76539500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69030900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69774300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>71654400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>76535600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>67186700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65675100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65625700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64950200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56235200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54425500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68498600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>66819900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>66824700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62512300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>60788200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>62022300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>69355300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28797900</v>
+        <v>31406300</v>
       </c>
       <c r="E72" s="3">
-        <v>28554800</v>
+        <v>29939800</v>
       </c>
       <c r="F72" s="3">
-        <v>28035900</v>
+        <v>29687100</v>
       </c>
       <c r="G72" s="3">
-        <v>25370400</v>
+        <v>29147600</v>
       </c>
       <c r="H72" s="3">
-        <v>24954900</v>
+        <v>26376400</v>
       </c>
       <c r="I72" s="3">
-        <v>25290000</v>
+        <v>25944500</v>
       </c>
       <c r="J72" s="3">
+        <v>26292900</v>
+      </c>
+      <c r="K72" s="3">
         <v>18601200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17617800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15598800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15805100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12553900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11240400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11408900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13522500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12739700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11561400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12175200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10371400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8678700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9361600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10518800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8848700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9134400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9340100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9646700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8020500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19542800</v>
+        <v>20889700</v>
       </c>
       <c r="E76" s="3">
-        <v>21116200</v>
+        <v>20317700</v>
       </c>
       <c r="F76" s="3">
-        <v>20871900</v>
+        <v>21953600</v>
       </c>
       <c r="G76" s="3">
-        <v>21725900</v>
+        <v>21699500</v>
       </c>
       <c r="H76" s="3">
-        <v>22854700</v>
+        <v>22587400</v>
       </c>
       <c r="I76" s="3">
-        <v>22010500</v>
+        <v>23761000</v>
       </c>
       <c r="J76" s="3">
+        <v>22883300</v>
+      </c>
+      <c r="K76" s="3">
         <v>14480400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13796100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12398000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12579000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8493500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7825600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8537600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8827900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9501100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9696500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10047600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8937400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6564000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8921800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10225100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10042200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9654500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9110800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10979400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11093400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1702900</v>
+        <v>1519600</v>
       </c>
       <c r="E81" s="3">
-        <v>774500</v>
+        <v>1770500</v>
       </c>
       <c r="F81" s="3">
-        <v>3527800</v>
+        <v>805200</v>
       </c>
       <c r="G81" s="3">
-        <v>2512700</v>
+        <v>3667700</v>
       </c>
       <c r="H81" s="3">
-        <v>1739700</v>
+        <v>803600</v>
       </c>
       <c r="I81" s="3">
-        <v>7455900</v>
+        <v>1808700</v>
       </c>
       <c r="J81" s="3">
+        <v>11301000</v>
+      </c>
+      <c r="K81" s="3">
         <v>893200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2432600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1873800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>933800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>933100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1381000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1051600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>655000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>694700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>945800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>670600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>849900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-584200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-493800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>740300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1854400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-317100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2179600</v>
+        <v>2254700</v>
       </c>
       <c r="E83" s="3">
-        <v>2047600</v>
+        <v>2266000</v>
       </c>
       <c r="F83" s="3">
-        <v>6913600</v>
+        <v>2128800</v>
       </c>
       <c r="G83" s="3">
-        <v>4689900</v>
+        <v>7187800</v>
       </c>
       <c r="H83" s="3">
-        <v>2333300</v>
+        <v>2450000</v>
       </c>
       <c r="I83" s="3">
-        <v>2346000</v>
+        <v>2425800</v>
       </c>
       <c r="J83" s="3">
+        <v>9551100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2279200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4401700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2208100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2131000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2044900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1997300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1850700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1842200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2046000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1986300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1934000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1753800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1641100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2111000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2220100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2090600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2009300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1975700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2127800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2119900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1323700</v>
+        <v>3332000</v>
       </c>
       <c r="E89" s="3">
-        <v>4442300</v>
+        <v>1376200</v>
       </c>
       <c r="F89" s="3">
-        <v>8438000</v>
+        <v>4618500</v>
       </c>
       <c r="G89" s="3">
-        <v>4903800</v>
+        <v>8772600</v>
       </c>
       <c r="H89" s="3">
-        <v>1317800</v>
+        <v>3728200</v>
       </c>
       <c r="I89" s="3">
-        <v>3176700</v>
+        <v>1370100</v>
       </c>
       <c r="J89" s="3">
+        <v>15163000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4018300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7130600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2901800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4039200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4285200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3944600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1493700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4427000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3400500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3095400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>645900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4878800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2430700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3514300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1167800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4090900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2183600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3024800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1970700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4535500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35286200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52802700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39473700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36971400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28606200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-67185300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34490400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2840700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1289500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1664900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1344500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1237200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1085400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-995300</v>
+        <v>-2527100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2352700</v>
+        <v>-1034700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3767600</v>
+        <v>-2446000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4600500</v>
+        <v>-3917000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1618400</v>
+        <v>-3100300</v>
       </c>
       <c r="I94" s="3">
-        <v>815100</v>
+        <v>-1682600</v>
       </c>
       <c r="J94" s="3">
+        <v>-4494100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1815100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3206100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1537500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2157900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1384600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1805100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1284200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,94 +7650,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-600</v>
       </c>
-      <c r="F96" s="3">
-        <v>-1667800</v>
-      </c>
       <c r="G96" s="3">
-        <v>-1300</v>
+        <v>-1733900</v>
       </c>
       <c r="H96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-724700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-1634400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-734700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-108700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-277800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-199400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-547900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-587500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-72100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-474200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-468400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-82900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-490100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-255300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-86500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-236900</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14700</v>
+        <v>-1052500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1660500</v>
+        <v>-15300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5123400</v>
+        <v>-1726300</v>
       </c>
       <c r="G100" s="3">
-        <v>-380400</v>
+        <v>-5326500</v>
       </c>
       <c r="H100" s="3">
-        <v>1335900</v>
+        <v>-1784400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3795300</v>
+        <v>1388800</v>
       </c>
       <c r="J100" s="3">
+        <v>-10416700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2423100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3667800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-453200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1741000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3694800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4805900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3971000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-604400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>844900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-46600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-150900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-841300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-86100</v>
+        <v>-71400</v>
       </c>
       <c r="E101" s="3">
-        <v>-89000</v>
+        <v>-89500</v>
       </c>
       <c r="F101" s="3">
-        <v>-168500</v>
+        <v>-92500</v>
       </c>
       <c r="G101" s="3">
-        <v>-125300</v>
+        <v>-175200</v>
       </c>
       <c r="H101" s="3">
-        <v>-86600</v>
+        <v>-40300</v>
       </c>
       <c r="I101" s="3">
-        <v>-17200</v>
+        <v>-90000</v>
       </c>
       <c r="J101" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-34600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-43200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-142300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-42300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>110200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-60800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-26300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>16200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-33100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>59600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-40200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>55700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>227500</v>
+        <v>-318900</v>
       </c>
       <c r="E102" s="3">
-        <v>340200</v>
+        <v>236600</v>
       </c>
       <c r="F102" s="3">
-        <v>-621400</v>
+        <v>353700</v>
       </c>
       <c r="G102" s="3">
-        <v>-202500</v>
+        <v>-646100</v>
       </c>
       <c r="H102" s="3">
-        <v>948700</v>
+        <v>-1196800</v>
       </c>
       <c r="I102" s="3">
-        <v>179300</v>
+        <v>986300</v>
       </c>
       <c r="J102" s="3">
+        <v>162200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-253500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>222100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>867900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-832500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2708600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4290700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>184000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-831400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>748300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-219400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>239500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-180900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>37800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-243800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-182900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>357400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>462800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-582800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>259100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1517100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>AMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,406 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11894700</v>
+        <v>11835100</v>
       </c>
       <c r="E8" s="3">
-        <v>12270200</v>
+        <v>11759000</v>
       </c>
       <c r="F8" s="3">
-        <v>12683500</v>
+        <v>12130300</v>
       </c>
       <c r="G8" s="3">
-        <v>36914100</v>
+        <v>12538800</v>
       </c>
       <c r="H8" s="3">
-        <v>12465700</v>
+        <v>12238600</v>
       </c>
       <c r="I8" s="3">
-        <v>12068600</v>
+        <v>12323500</v>
       </c>
       <c r="J8" s="3">
+        <v>11930900</v>
+      </c>
+      <c r="K8" s="3">
         <v>50245600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11906400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22629100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11244600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10603700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12854500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12038300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11965500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13059300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12478400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12096100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11882400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12751900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11159600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13776500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13592300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13646800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12629400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12900500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>13662200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>14301700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>13259600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6870900</v>
+        <v>6819800</v>
       </c>
       <c r="E9" s="3">
-        <v>6933300</v>
+        <v>6792500</v>
       </c>
       <c r="F9" s="3">
-        <v>7340900</v>
+        <v>6854200</v>
       </c>
       <c r="G9" s="3">
-        <v>21387800</v>
+        <v>7257200</v>
       </c>
       <c r="H9" s="3">
-        <v>7228000</v>
+        <v>7010200</v>
       </c>
       <c r="I9" s="3">
-        <v>7068700</v>
+        <v>7145500</v>
       </c>
       <c r="J9" s="3">
+        <v>6988100</v>
+      </c>
+      <c r="K9" s="3">
         <v>29581500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7030900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13425500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6704900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6516200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7999200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7387000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7394700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8045300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7880200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7601800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7449100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8145100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7177200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8761700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8738800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8946900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8120800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8143900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8743100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>9511400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>8521100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5023800</v>
+        <v>5015300</v>
       </c>
       <c r="E10" s="3">
-        <v>5336900</v>
+        <v>4966500</v>
       </c>
       <c r="F10" s="3">
-        <v>5342600</v>
+        <v>5276000</v>
       </c>
       <c r="G10" s="3">
-        <v>15526300</v>
+        <v>5281600</v>
       </c>
       <c r="H10" s="3">
-        <v>5237700</v>
+        <v>5228400</v>
       </c>
       <c r="I10" s="3">
-        <v>4999800</v>
+        <v>5178000</v>
       </c>
       <c r="J10" s="3">
+        <v>4942800</v>
+      </c>
+      <c r="K10" s="3">
         <v>20664100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4875500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9203700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4539700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4087600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4855300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4651200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4570700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5014100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4598300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4494400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4433300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4606700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3982400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5014700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4853500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4699900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4508600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4756600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4919100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4790200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>4738500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,8 +1278,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,8 +1370,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1440,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9527400</v>
+        <v>9423100</v>
       </c>
       <c r="E17" s="3">
-        <v>9678800</v>
+        <v>9418700</v>
       </c>
       <c r="F17" s="3">
-        <v>10059100</v>
+        <v>9568400</v>
       </c>
       <c r="G17" s="3">
-        <v>29503300</v>
+        <v>9944300</v>
       </c>
       <c r="H17" s="3">
-        <v>10031000</v>
+        <v>9654100</v>
       </c>
       <c r="I17" s="3">
-        <v>9706800</v>
+        <v>9916500</v>
       </c>
       <c r="J17" s="3">
+        <v>9596100</v>
+      </c>
+      <c r="K17" s="3">
         <v>40488600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9567700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18422400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9198200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8847300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10626200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10080800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10103600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10845200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10567300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10304600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10167600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10966000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9562600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11946800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11952100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12169600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12109300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11288800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>12091800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>12934200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>11663500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2367300</v>
+        <v>2412000</v>
       </c>
       <c r="E18" s="3">
-        <v>2591500</v>
+        <v>2340300</v>
       </c>
       <c r="F18" s="3">
-        <v>2624400</v>
+        <v>2561900</v>
       </c>
       <c r="G18" s="3">
-        <v>7410900</v>
+        <v>2594400</v>
       </c>
       <c r="H18" s="3">
-        <v>2434700</v>
+        <v>2584500</v>
       </c>
       <c r="I18" s="3">
-        <v>2361800</v>
+        <v>2407000</v>
       </c>
       <c r="J18" s="3">
+        <v>2334800</v>
+      </c>
+      <c r="K18" s="3">
         <v>9757000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2338700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4206700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2046400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1756400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2228300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1957500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1861900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2214200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1911100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1791500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1714800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1785900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1597000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1829700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1640200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1477100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>520200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1611700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1570400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1367400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>407200</v>
+        <v>-1182300</v>
       </c>
       <c r="E20" s="3">
-        <v>618000</v>
+        <v>402600</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>611000</v>
       </c>
       <c r="G20" s="3">
-        <v>264300</v>
+        <v>9200</v>
       </c>
       <c r="H20" s="3">
-        <v>-402900</v>
+        <v>-330600</v>
       </c>
       <c r="I20" s="3">
-        <v>1001600</v>
+        <v>-398300</v>
       </c>
       <c r="J20" s="3">
+        <v>990200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1606100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-927200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1437700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1189300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-658900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3276600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-149200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-83200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>412500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-87400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>465600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1304200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>488400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1539900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-799300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-302700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1982600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1022900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-838800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5029200</v>
+        <v>3456500</v>
       </c>
       <c r="E21" s="3">
-        <v>5475500</v>
+        <v>4971800</v>
       </c>
       <c r="F21" s="3">
-        <v>4762400</v>
+        <v>5413000</v>
       </c>
       <c r="G21" s="3">
-        <v>14862900</v>
+        <v>4708100</v>
       </c>
       <c r="H21" s="3">
-        <v>4481800</v>
+        <v>4539500</v>
       </c>
       <c r="I21" s="3">
-        <v>5789200</v>
+        <v>4430700</v>
       </c>
       <c r="J21" s="3">
+        <v>5723200</v>
+      </c>
+      <c r="K21" s="3">
         <v>17701900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3709100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8589300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2807700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5076700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3614300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3898900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>436000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4085100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3807900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3694600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4061300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3452300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3703700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2636400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4348700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2027800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1730200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3284700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5680800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2464400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>2757600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>591200</v>
+        <v>667500</v>
       </c>
       <c r="E22" s="3">
-        <v>630300</v>
+        <v>584500</v>
       </c>
       <c r="F22" s="3">
-        <v>606000</v>
+        <v>623100</v>
       </c>
       <c r="G22" s="3">
-        <v>1817100</v>
+        <v>599100</v>
       </c>
       <c r="H22" s="3">
-        <v>630900</v>
+        <v>609200</v>
       </c>
       <c r="I22" s="3">
-        <v>570000</v>
+        <v>623700</v>
       </c>
       <c r="J22" s="3">
+        <v>563500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2115800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>481100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1014000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>515700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>415800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>446700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>516900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>504200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>429200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>470500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>490500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>467100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>384700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>320900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>430100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>438700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>390200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>383500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>383000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>410400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>472200</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>471600</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2183300</v>
+        <v>562300</v>
       </c>
       <c r="E23" s="3">
-        <v>2579200</v>
+        <v>2158400</v>
       </c>
       <c r="F23" s="3">
-        <v>2027600</v>
+        <v>2549800</v>
       </c>
       <c r="G23" s="3">
-        <v>5858000</v>
+        <v>2004500</v>
       </c>
       <c r="H23" s="3">
-        <v>1400900</v>
+        <v>1644800</v>
       </c>
       <c r="I23" s="3">
-        <v>2793400</v>
+        <v>1384900</v>
       </c>
       <c r="J23" s="3">
+        <v>2761500</v>
+      </c>
+      <c r="K23" s="3">
         <v>6035100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>930400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3191400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>93000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2529900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1122700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1384800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1918900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1813700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1291400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1217800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1660200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1313700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1741700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>95400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1689900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-453000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-662600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>926000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3142600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-127700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>285700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>592300</v>
+        <v>368700</v>
       </c>
       <c r="E24" s="3">
-        <v>744500</v>
+        <v>585600</v>
       </c>
       <c r="F24" s="3">
-        <v>610000</v>
+        <v>736000</v>
       </c>
       <c r="G24" s="3">
-        <v>2094200</v>
+        <v>603100</v>
       </c>
       <c r="H24" s="3">
-        <v>500300</v>
+        <v>669300</v>
       </c>
       <c r="I24" s="3">
-        <v>916800</v>
+        <v>494600</v>
       </c>
       <c r="J24" s="3">
+        <v>906300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1652900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>212200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1042300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>863400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>107100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>390200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-575200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>760000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>574100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>497300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>677400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>629800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>853300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>36100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>675700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>148100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-236600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>136800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1241700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>140900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1591000</v>
+        <v>193600</v>
       </c>
       <c r="E26" s="3">
-        <v>1834700</v>
+        <v>1572800</v>
       </c>
       <c r="F26" s="3">
-        <v>1417600</v>
+        <v>1813800</v>
       </c>
       <c r="G26" s="3">
-        <v>3763800</v>
+        <v>1401500</v>
       </c>
       <c r="H26" s="3">
-        <v>900600</v>
+        <v>975400</v>
       </c>
       <c r="I26" s="3">
-        <v>1876600</v>
+        <v>890300</v>
       </c>
       <c r="J26" s="3">
+        <v>1855200</v>
+      </c>
+      <c r="K26" s="3">
         <v>4382200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>718300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2149100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1666500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1015500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>994500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1343800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1053700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>717400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>720500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>982700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>684000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>888400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>59300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1014200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-601100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-426000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>789200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1900900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-268600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>180900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1519600</v>
+        <v>117800</v>
       </c>
       <c r="E27" s="3">
-        <v>1770500</v>
+        <v>1502300</v>
       </c>
       <c r="F27" s="3">
-        <v>1356700</v>
+        <v>1750300</v>
       </c>
       <c r="G27" s="3">
-        <v>3510800</v>
+        <v>1341200</v>
       </c>
       <c r="H27" s="3">
-        <v>818400</v>
+        <v>874500</v>
       </c>
       <c r="I27" s="3">
-        <v>1807700</v>
+        <v>809100</v>
       </c>
       <c r="J27" s="3">
+        <v>1787100</v>
+      </c>
+      <c r="K27" s="3">
         <v>4152900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>618200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2027300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1643600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>933800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>933100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1381000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1051600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>655000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>694700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>945800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>670600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>849900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-584200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-493800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>740300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1854400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-317100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2494,34 +2554,34 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-551500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>156900</v>
+        <v>-545200</v>
       </c>
       <c r="H29" s="3">
-        <v>-14800</v>
+        <v>168800</v>
       </c>
       <c r="I29" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7148100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>274900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>405300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>175700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>230200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2529,8 +2589,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2571,8 +2631,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-407200</v>
+        <v>1182300</v>
       </c>
       <c r="E32" s="3">
-        <v>-618000</v>
+        <v>-402600</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-611000</v>
       </c>
       <c r="G32" s="3">
-        <v>-264300</v>
+        <v>-9200</v>
       </c>
       <c r="H32" s="3">
-        <v>402900</v>
+        <v>330600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1001600</v>
+        <v>398300</v>
       </c>
       <c r="J32" s="3">
+        <v>-990200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1606100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>927200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1437700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1189300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>658900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>55800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3276600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>149200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>83200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-412500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>87400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-465600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1304200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-488400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1539900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>799300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>302700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1982600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1022900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1519600</v>
+        <v>117800</v>
       </c>
       <c r="E33" s="3">
-        <v>1770500</v>
+        <v>1502300</v>
       </c>
       <c r="F33" s="3">
-        <v>805200</v>
+        <v>1750300</v>
       </c>
       <c r="G33" s="3">
-        <v>3667700</v>
+        <v>796000</v>
       </c>
       <c r="H33" s="3">
-        <v>803600</v>
+        <v>1043300</v>
       </c>
       <c r="I33" s="3">
-        <v>1808700</v>
+        <v>794500</v>
       </c>
       <c r="J33" s="3">
+        <v>1788100</v>
+      </c>
+      <c r="K33" s="3">
         <v>11301000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>893200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2432600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1873800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>933800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>933100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1381000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1051600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>655000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>694700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>945800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>670600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>849900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-584200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-493800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>740300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1854400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-317100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1519600</v>
+        <v>117800</v>
       </c>
       <c r="E35" s="3">
-        <v>1770500</v>
+        <v>1502300</v>
       </c>
       <c r="F35" s="3">
-        <v>805200</v>
+        <v>1750300</v>
       </c>
       <c r="G35" s="3">
-        <v>3667700</v>
+        <v>796000</v>
       </c>
       <c r="H35" s="3">
-        <v>803600</v>
+        <v>1043300</v>
       </c>
       <c r="I35" s="3">
-        <v>1808700</v>
+        <v>794500</v>
       </c>
       <c r="J35" s="3">
+        <v>1788100</v>
+      </c>
+      <c r="K35" s="3">
         <v>11301000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>893200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2432600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1873800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>933800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>933100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1381000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1051600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>655000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>694700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>945800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>670600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>849900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-584200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-493800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>740300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1854400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-317100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,809 +3350,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1896900</v>
+        <v>1641300</v>
       </c>
       <c r="E41" s="3">
-        <v>2215800</v>
+        <v>1875200</v>
       </c>
       <c r="F41" s="3">
-        <v>1979300</v>
+        <v>2190500</v>
       </c>
       <c r="G41" s="3">
-        <v>1625600</v>
+        <v>1956700</v>
       </c>
       <c r="H41" s="3">
-        <v>2061200</v>
+        <v>1607000</v>
       </c>
       <c r="I41" s="3">
-        <v>3258000</v>
+        <v>2037700</v>
       </c>
       <c r="J41" s="3">
+        <v>3220800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2271700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2005700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2180000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2825800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1803800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1776300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2526900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5235500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>979800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>805400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1576600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>828300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>987700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>738500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1095100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1057300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1255300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1317000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1080800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>618100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1232900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5282200</v>
+        <v>4429900</v>
       </c>
       <c r="E42" s="3">
-        <v>5629500</v>
+        <v>5221900</v>
       </c>
       <c r="F42" s="3">
-        <v>5193400</v>
+        <v>5565300</v>
       </c>
       <c r="G42" s="3">
-        <v>5227100</v>
+        <v>5134100</v>
       </c>
       <c r="H42" s="3">
-        <v>6971100</v>
+        <v>5167500</v>
       </c>
       <c r="I42" s="3">
-        <v>7517000</v>
+        <v>6891500</v>
       </c>
       <c r="J42" s="3">
+        <v>7431200</v>
+      </c>
+      <c r="K42" s="3">
         <v>6912700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4127600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3926500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4201400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2743800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3631000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4037600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4552000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2706500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3202300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2689300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2759400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2476200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2370200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3244900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3038100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3057700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2843300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2609400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2649100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2961200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>3139700</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12014700</v>
+        <v>12685400</v>
       </c>
       <c r="E43" s="3">
-        <v>11560800</v>
+        <v>11877600</v>
       </c>
       <c r="F43" s="3">
-        <v>11846500</v>
+        <v>11428900</v>
       </c>
       <c r="G43" s="3">
-        <v>12477200</v>
+        <v>11711400</v>
       </c>
       <c r="H43" s="3">
-        <v>12238600</v>
+        <v>12334900</v>
       </c>
       <c r="I43" s="3">
-        <v>12396900</v>
+        <v>12099000</v>
       </c>
       <c r="J43" s="3">
+        <v>12255400</v>
+      </c>
+      <c r="K43" s="3">
         <v>11981200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11817800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11218600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11261200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10514500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10179800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10456100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10722100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10220700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10818600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10691600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10596500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9917600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8435500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>10473200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>10748300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>10067000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8899400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8538300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9012400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>10115500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>9221400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1285900</v>
+        <v>1194000</v>
       </c>
       <c r="E44" s="3">
-        <v>1374200</v>
+        <v>1271200</v>
       </c>
       <c r="F44" s="3">
-        <v>1409200</v>
+        <v>1358500</v>
       </c>
       <c r="G44" s="3">
-        <v>1868900</v>
+        <v>1393200</v>
       </c>
       <c r="H44" s="3">
-        <v>1974700</v>
+        <v>1847600</v>
       </c>
       <c r="I44" s="3">
-        <v>1944400</v>
+        <v>1952100</v>
       </c>
       <c r="J44" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1420400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2003800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1727900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1685400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1525600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1730400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1618100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1879100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2039500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2094000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1868600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2002600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1837900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1793500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2160200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1899300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2007200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1917600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1709900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1537100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1957900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2142800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1140500</v>
+        <v>907100</v>
       </c>
       <c r="E45" s="3">
-        <v>1345000</v>
+        <v>1127500</v>
       </c>
       <c r="F45" s="3">
-        <v>773400</v>
+        <v>1329600</v>
       </c>
       <c r="G45" s="3">
-        <v>917900</v>
+        <v>764500</v>
       </c>
       <c r="H45" s="3">
-        <v>1071500</v>
+        <v>907400</v>
       </c>
       <c r="I45" s="3">
-        <v>1184000</v>
+        <v>1059200</v>
       </c>
       <c r="J45" s="3">
+        <v>1170500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1150100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>760200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>838700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>991000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1502700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>722100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>705800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>951800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>470100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>826100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>992300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1152900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>697500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1483600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2000200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2063200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1313200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1810100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1921800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2132700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1888000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2366400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21620100</v>
+        <v>20857700</v>
       </c>
       <c r="E46" s="3">
-        <v>22125300</v>
+        <v>21373500</v>
       </c>
       <c r="F46" s="3">
-        <v>21201700</v>
+        <v>21872900</v>
       </c>
       <c r="G46" s="3">
-        <v>22116700</v>
+        <v>20959900</v>
       </c>
       <c r="H46" s="3">
-        <v>24317000</v>
+        <v>21864400</v>
       </c>
       <c r="I46" s="3">
-        <v>26300200</v>
+        <v>24039500</v>
       </c>
       <c r="J46" s="3">
+        <v>26000200</v>
+      </c>
+      <c r="K46" s="3">
         <v>23736100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20715000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19891700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20964900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18090400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18039600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19344500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23340600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16416500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17746500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17818400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17339700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15916900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14821300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18973600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18806200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17700400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16787400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>15860300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>15949400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>18155400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>17844200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3098400</v>
+        <v>2810700</v>
       </c>
       <c r="E47" s="3">
-        <v>3087600</v>
+        <v>3063000</v>
       </c>
       <c r="F47" s="3">
-        <v>1920500</v>
+        <v>3052400</v>
       </c>
       <c r="G47" s="3">
-        <v>1740200</v>
+        <v>1898600</v>
       </c>
       <c r="H47" s="3">
-        <v>1719200</v>
+        <v>1720400</v>
       </c>
       <c r="I47" s="3">
-        <v>1825000</v>
+        <v>1699600</v>
       </c>
       <c r="J47" s="3">
+        <v>1804100</v>
+      </c>
+      <c r="K47" s="3">
         <v>586200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1131800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1113400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1037100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>483200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1185100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1313800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1511400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1600800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1178300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1460400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1490700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1383000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1214800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1526500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1472500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>699300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1118700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1107400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1302000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1314700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1831300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43359900</v>
+        <v>43754000</v>
       </c>
       <c r="E48" s="3">
-        <v>43746300</v>
+        <v>42865200</v>
       </c>
       <c r="F48" s="3">
-        <v>45756600</v>
+        <v>43247300</v>
       </c>
       <c r="G48" s="3">
-        <v>46181800</v>
+        <v>45234600</v>
       </c>
       <c r="H48" s="3">
-        <v>48660000</v>
+        <v>45655000</v>
       </c>
       <c r="I48" s="3">
-        <v>50169300</v>
+        <v>48104900</v>
       </c>
       <c r="J48" s="3">
+        <v>49597000</v>
+      </c>
+      <c r="K48" s="3">
         <v>48250800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45152100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43815900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44103000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41426800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37203500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37169600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38596800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37579500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36676600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36407300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36100900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29184000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>26613100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>33748900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>33762800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34980500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32227700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31833800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>33850400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>37233200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>35207300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15081700</v>
+        <v>15482300</v>
       </c>
       <c r="E49" s="3">
-        <v>15373100</v>
+        <v>14909700</v>
       </c>
       <c r="F49" s="3">
-        <v>15858000</v>
+        <v>15197700</v>
       </c>
       <c r="G49" s="3">
-        <v>16149400</v>
+        <v>15677100</v>
       </c>
       <c r="H49" s="3">
-        <v>16189800</v>
+        <v>15965100</v>
       </c>
       <c r="I49" s="3">
-        <v>16539800</v>
+        <v>16005100</v>
       </c>
       <c r="J49" s="3">
+        <v>16351100</v>
+      </c>
+      <c r="K49" s="3">
         <v>16432900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14930400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14661700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14793600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13886300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14161800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14140600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14098400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13797800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13147500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13056800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13049200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12207300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11642600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14650200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14956900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15257500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>14673600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>14236500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>14941100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>16195600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>15821200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9227400</v>
+        <v>9535100</v>
       </c>
       <c r="E52" s="3">
-        <v>9244600</v>
+        <v>9122100</v>
       </c>
       <c r="F52" s="3">
-        <v>10294200</v>
+        <v>9139100</v>
       </c>
       <c r="G52" s="3">
-        <v>9559600</v>
+        <v>10176800</v>
       </c>
       <c r="H52" s="3">
-        <v>9332100</v>
+        <v>9450600</v>
       </c>
       <c r="I52" s="3">
-        <v>9579300</v>
+        <v>9225600</v>
       </c>
       <c r="J52" s="3">
+        <v>9470000</v>
+      </c>
+      <c r="K52" s="3">
         <v>10227200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8591100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8119300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8038900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7723100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7677800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7511400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7526000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6619900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6427400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6579400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7017400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6481300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6697600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8521100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8046700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8229100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7359500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>6860900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>6958700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7549800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>7161400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92387500</v>
+        <v>92439800</v>
       </c>
       <c r="E54" s="3">
-        <v>93576900</v>
+        <v>91333500</v>
       </c>
       <c r="F54" s="3">
-        <v>95031000</v>
+        <v>92509400</v>
       </c>
       <c r="G54" s="3">
-        <v>95747700</v>
+        <v>93946800</v>
       </c>
       <c r="H54" s="3">
-        <v>100218000</v>
+        <v>94655400</v>
       </c>
       <c r="I54" s="3">
-        <v>104413700</v>
+        <v>99074700</v>
       </c>
       <c r="J54" s="3">
+        <v>103222500</v>
+      </c>
+      <c r="K54" s="3">
         <v>99233100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90520500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87601900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88937500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81609900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78267800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79479900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85073200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76014500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75176300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75322200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>74997800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>65172600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60989500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77420400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>77045000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76866900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>72166800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>69898900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>73001700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>80448700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>77865500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,542 +4706,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3004600</v>
+        <v>3156000</v>
       </c>
       <c r="E57" s="3">
-        <v>3306400</v>
+        <v>2970300</v>
       </c>
       <c r="F57" s="3">
-        <v>10246800</v>
+        <v>3268700</v>
       </c>
       <c r="G57" s="3">
-        <v>3645500</v>
+        <v>10129900</v>
       </c>
       <c r="H57" s="3">
-        <v>4006300</v>
+        <v>3603900</v>
       </c>
       <c r="I57" s="3">
-        <v>4333100</v>
+        <v>3960600</v>
       </c>
       <c r="J57" s="3">
+        <v>4283700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12127000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3950000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3786100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3373000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9390900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3971000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3857600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4444000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5625500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5135700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5055400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4898300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5399300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3993800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4678500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4062400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10999500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4611600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4629100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4428200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7051500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>5666600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11717400</v>
+        <v>10414000</v>
       </c>
       <c r="E58" s="3">
-        <v>11893500</v>
+        <v>11583700</v>
       </c>
       <c r="F58" s="3">
-        <v>7924200</v>
+        <v>11757800</v>
       </c>
       <c r="G58" s="3">
-        <v>10456400</v>
+        <v>7833800</v>
       </c>
       <c r="H58" s="3">
-        <v>9246400</v>
+        <v>10337100</v>
       </c>
       <c r="I58" s="3">
-        <v>10997400</v>
+        <v>9140900</v>
       </c>
       <c r="J58" s="3">
+        <v>10872000</v>
+      </c>
+      <c r="K58" s="3">
         <v>10151800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9861600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7935200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7702900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8695600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7363300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6043100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7977200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7694400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7973700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8998400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9086400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4388100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3146600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3020500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3345400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2676300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3099800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2972500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3598300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4386400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>4203800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18077000</v>
+        <v>17414600</v>
       </c>
       <c r="E59" s="3">
-        <v>18019300</v>
+        <v>17870800</v>
       </c>
       <c r="F59" s="3">
-        <v>10540700</v>
+        <v>17813800</v>
       </c>
       <c r="G59" s="3">
-        <v>17788300</v>
+        <v>10420500</v>
       </c>
       <c r="H59" s="3">
-        <v>18722800</v>
+        <v>17585400</v>
       </c>
       <c r="I59" s="3">
-        <v>18744100</v>
+        <v>18509200</v>
       </c>
       <c r="J59" s="3">
+        <v>18530300</v>
+      </c>
+      <c r="K59" s="3">
         <v>9083800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16356900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15829000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15753800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7390600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13228500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13870600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13135400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12750500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12871100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13067600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11819300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11511900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11884000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15386300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14455800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7702000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13215200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13507100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13257300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13519300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>13331900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32799000</v>
+        <v>30984600</v>
       </c>
       <c r="E60" s="3">
-        <v>33219200</v>
+        <v>32424800</v>
       </c>
       <c r="F60" s="3">
-        <v>28711700</v>
+        <v>32840200</v>
       </c>
       <c r="G60" s="3">
-        <v>31890300</v>
+        <v>28384200</v>
       </c>
       <c r="H60" s="3">
-        <v>31975500</v>
+        <v>31526500</v>
       </c>
       <c r="I60" s="3">
-        <v>34074600</v>
+        <v>31610700</v>
       </c>
       <c r="J60" s="3">
+        <v>33685900</v>
+      </c>
+      <c r="K60" s="3">
         <v>31362600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30168400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27550300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26829700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25477100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24562700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23771300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25556600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26070300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25980600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27121400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25804100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21299300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19024500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23085300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21863600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21377800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20926500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21108600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>21283900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>24957200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>23202300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24553000</v>
+        <v>26658000</v>
       </c>
       <c r="E61" s="3">
-        <v>25555100</v>
+        <v>24272900</v>
       </c>
       <c r="F61" s="3">
-        <v>29941200</v>
+        <v>25263600</v>
       </c>
       <c r="G61" s="3">
-        <v>28228200</v>
+        <v>29599700</v>
       </c>
       <c r="H61" s="3">
-        <v>30028800</v>
+        <v>27906200</v>
       </c>
       <c r="I61" s="3">
-        <v>30364100</v>
+        <v>29686200</v>
       </c>
       <c r="J61" s="3">
+        <v>30017700</v>
+      </c>
+      <c r="K61" s="3">
         <v>28767700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28901400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29755800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32959300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28352200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32546300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35448900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38589100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29265100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29181100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28148400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28189000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24746700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25887000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33785600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33220700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33418300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>30704200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>29149700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>29845300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>33197800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>33427800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10587500</v>
+        <v>10148100</v>
       </c>
       <c r="E62" s="3">
-        <v>10766200</v>
+        <v>10466800</v>
       </c>
       <c r="F62" s="3">
-        <v>10664300</v>
+        <v>10643300</v>
       </c>
       <c r="G62" s="3">
-        <v>10284000</v>
+        <v>10542600</v>
       </c>
       <c r="H62" s="3">
-        <v>11996500</v>
+        <v>10166700</v>
       </c>
       <c r="I62" s="3">
-        <v>12428700</v>
+        <v>11859600</v>
       </c>
       <c r="J62" s="3">
+        <v>12286900</v>
+      </c>
+      <c r="K62" s="3">
         <v>12437000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13247300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13043800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13146800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11955400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9854100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9786300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9808400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9420000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8021300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7992700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8536300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7914700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7280900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8886500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8984200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8590800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7628800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7448600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7779300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>7902400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>8689700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71497800</v>
+        <v>71102100</v>
       </c>
       <c r="E66" s="3">
-        <v>73259200</v>
+        <v>70682200</v>
       </c>
       <c r="F66" s="3">
-        <v>73077400</v>
+        <v>72423500</v>
       </c>
       <c r="G66" s="3">
-        <v>74048200</v>
+        <v>72243700</v>
       </c>
       <c r="H66" s="3">
-        <v>77630700</v>
+        <v>73203500</v>
       </c>
       <c r="I66" s="3">
-        <v>80652700</v>
+        <v>76745100</v>
       </c>
       <c r="J66" s="3">
+        <v>79732600</v>
+      </c>
+      <c r="K66" s="3">
         <v>76349900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76040100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73805800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76539500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69030900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69774300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>71654400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76535600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>67186700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65675100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65625700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64950200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56235200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>54425500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>68498600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>66819900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>66824700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>62512300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>60788200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>62022300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>69355300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>68586500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31406300</v>
+        <v>30987800</v>
       </c>
       <c r="E72" s="3">
-        <v>29939800</v>
+        <v>31048000</v>
       </c>
       <c r="F72" s="3">
-        <v>29687100</v>
+        <v>29598200</v>
       </c>
       <c r="G72" s="3">
-        <v>29147600</v>
+        <v>29348400</v>
       </c>
       <c r="H72" s="3">
-        <v>26376400</v>
+        <v>28815100</v>
       </c>
       <c r="I72" s="3">
-        <v>25944500</v>
+        <v>26075500</v>
       </c>
       <c r="J72" s="3">
+        <v>25648500</v>
+      </c>
+      <c r="K72" s="3">
         <v>26292900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18601200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17617800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15598800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15805100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12553900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11240400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11408900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13522500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12739700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11561400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12175200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10371400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8678700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9361600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10518800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8848700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9134400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9340100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9646700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>8020500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>8217400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20889700</v>
+        <v>21337600</v>
       </c>
       <c r="E76" s="3">
-        <v>20317700</v>
+        <v>20651300</v>
       </c>
       <c r="F76" s="3">
-        <v>21953600</v>
+        <v>20085900</v>
       </c>
       <c r="G76" s="3">
-        <v>21699500</v>
+        <v>21703100</v>
       </c>
       <c r="H76" s="3">
-        <v>22587400</v>
+        <v>21451900</v>
       </c>
       <c r="I76" s="3">
-        <v>23761000</v>
+        <v>22329700</v>
       </c>
       <c r="J76" s="3">
+        <v>23489900</v>
+      </c>
+      <c r="K76" s="3">
         <v>22883300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14480400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13796100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12398000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12579000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8493500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7825600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8537600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8827900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9501100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9696500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10047600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8937400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6564000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8921800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10225100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10042200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9654500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9110800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10979400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>11093400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>9279000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1519600</v>
+        <v>117800</v>
       </c>
       <c r="E81" s="3">
-        <v>1770500</v>
+        <v>1502300</v>
       </c>
       <c r="F81" s="3">
-        <v>805200</v>
+        <v>1750300</v>
       </c>
       <c r="G81" s="3">
-        <v>3667700</v>
+        <v>796000</v>
       </c>
       <c r="H81" s="3">
-        <v>803600</v>
+        <v>1043300</v>
       </c>
       <c r="I81" s="3">
-        <v>1808700</v>
+        <v>794500</v>
       </c>
       <c r="J81" s="3">
+        <v>1788100</v>
+      </c>
+      <c r="K81" s="3">
         <v>11301000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>893200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2432600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1873800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>933800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>933100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1381000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1051600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>655000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>694700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>945800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>670600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>849900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-584200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-493800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>740300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1854400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-317100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2254700</v>
+        <v>2226700</v>
       </c>
       <c r="E83" s="3">
-        <v>2266000</v>
+        <v>2229000</v>
       </c>
       <c r="F83" s="3">
-        <v>2128800</v>
+        <v>2240200</v>
       </c>
       <c r="G83" s="3">
-        <v>7187800</v>
+        <v>2104500</v>
       </c>
       <c r="H83" s="3">
-        <v>2450000</v>
+        <v>2285600</v>
       </c>
       <c r="I83" s="3">
-        <v>2425800</v>
+        <v>2422100</v>
       </c>
       <c r="J83" s="3">
+        <v>2398100</v>
+      </c>
+      <c r="K83" s="3">
         <v>9551100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2279200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4401700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2208100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2131000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2044900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1997300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1850700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1842200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2046000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1986300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1934000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1753800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1641100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2111000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2220100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2090600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2009300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1975700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2127800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>2119900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>2000300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3332000</v>
+        <v>3342300</v>
       </c>
       <c r="E89" s="3">
-        <v>1376200</v>
+        <v>3294000</v>
       </c>
       <c r="F89" s="3">
-        <v>4618500</v>
+        <v>1360500</v>
       </c>
       <c r="G89" s="3">
-        <v>8772600</v>
+        <v>4565800</v>
       </c>
       <c r="H89" s="3">
-        <v>3728200</v>
+        <v>3632500</v>
       </c>
       <c r="I89" s="3">
-        <v>1370100</v>
+        <v>3685600</v>
       </c>
       <c r="J89" s="3">
+        <v>1354400</v>
+      </c>
+      <c r="K89" s="3">
         <v>15163000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4018300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7130600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2901800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4039200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4285200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3944600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1493700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4427000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3400500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3095400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>645900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4878800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2430700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3514300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1167800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4090900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2183600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3024800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1970700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4535500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>2928500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35756100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35286200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29162000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52802700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39473700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36971400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28606200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67185300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34490400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2840700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1289500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1664900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1344500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1237200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1085400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2097200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1543200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1645600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1251200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2567200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1435300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1868000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1118200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2172000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1465600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1432400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3144700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2208500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2527100</v>
+        <v>-1792000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1034700</v>
+        <v>-2498300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2446000</v>
+        <v>-1022900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3917000</v>
+        <v>-2418100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3100300</v>
+        <v>856100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1682600</v>
+        <v>-3065000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1663400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4494100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1815100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3206100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1537500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2157900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1384600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1805100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1284200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2944300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1634300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1805500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1638500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2734200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1498500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1285500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2863100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1684800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1066200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3199300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-2197300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,97 +7883,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-116000</v>
+        <v>-829900</v>
       </c>
       <c r="E96" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-1733900</v>
-      </c>
       <c r="H96" s="3">
+        <v>-1712800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1634400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-734700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-108700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-277800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-199400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-547900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-587500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-72100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-474200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-468400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-82900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-490100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-255300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-86500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-236900</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-479500</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1052500</v>
+        <v>-1740100</v>
       </c>
       <c r="E100" s="3">
-        <v>-15300</v>
+        <v>-1040500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1726300</v>
+        <v>-15100</v>
       </c>
       <c r="G100" s="3">
-        <v>-5326500</v>
+        <v>-1706600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1784400</v>
+        <v>-4874800</v>
       </c>
       <c r="I100" s="3">
-        <v>1388800</v>
+        <v>-1764000</v>
       </c>
       <c r="J100" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-10416700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2423100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3667800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-453200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1741000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3694800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4805900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3971000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1278300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2536900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-604400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>844900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1909700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1086800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1847600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-46600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1470300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-150900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1470100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-841300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-2278200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-71400</v>
+        <v>-44100</v>
       </c>
       <c r="E101" s="3">
-        <v>-89500</v>
+        <v>-70600</v>
       </c>
       <c r="F101" s="3">
-        <v>-92500</v>
+        <v>-88500</v>
       </c>
       <c r="G101" s="3">
-        <v>-175200</v>
+        <v>-91500</v>
       </c>
       <c r="H101" s="3">
-        <v>-40300</v>
+        <v>-44400</v>
       </c>
       <c r="I101" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-90000</v>
       </c>
-      <c r="J101" s="3">
-        <v>-90000</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-34600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-43200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-142300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>110200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-20500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-60800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-26300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>16200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-33100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>59600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-40200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>55700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-318900</v>
+        <v>-233900</v>
       </c>
       <c r="E102" s="3">
-        <v>236600</v>
+        <v>-315300</v>
       </c>
       <c r="F102" s="3">
-        <v>353700</v>
+        <v>233900</v>
       </c>
       <c r="G102" s="3">
-        <v>-646100</v>
+        <v>349600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1196800</v>
+        <v>-430600</v>
       </c>
       <c r="I102" s="3">
-        <v>986300</v>
+        <v>-1183100</v>
       </c>
       <c r="J102" s="3">
+        <v>975000</v>
+      </c>
+      <c r="K102" s="3">
         <v>162200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-253500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>222100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>867900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-832500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2708600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4290700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>184000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-831400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>748300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-219400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>239500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-180900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>37800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-243800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-182900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>357400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>462800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-582800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>259100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1517100</v>
       </c>
     </row>
